--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,19 @@
     <sheet name="机构截图" sheetId="5" r:id="rId3"/>
     <sheet name="装配规划" sheetId="2" r:id="rId4"/>
     <sheet name="多芯线" sheetId="3" r:id="rId5"/>
+    <sheet name="IO端子台" sheetId="6" r:id="rId6"/>
+    <sheet name="伺服端子接线图" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="691">
   <si>
     <t>序号</t>
   </si>
@@ -2390,6 +2393,150 @@
   </si>
   <si>
     <t>滚轮驱动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO4+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO4-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI7-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刹车+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刹车-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共端+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共端-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI6-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL正转极限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NL反转极限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业相机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MER-1070-10GM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPT-C0825-5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形光源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS-2BR22530-W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背光源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS-2FTR141141-W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源控制器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS-DPC2475-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大恒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2875,7 +3022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3039,10 +3186,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3121,6 +3268,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3456,6 +3606,736 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85114</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4885714" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>606982</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4821115" y="0"/>
+          <a:ext cx="3361905" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>322881</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>32489</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="组合 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="146538" y="5612423"/>
+          <a:ext cx="7752381" cy="3857143"/>
+          <a:chOff x="0" y="4718538"/>
+          <a:chExt cx="7752381" cy="3857143"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="4718538"/>
+            <a:ext cx="7752381" cy="3857143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="椭圆 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6396404" y="6850673"/>
+            <a:ext cx="424962" cy="351692"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="椭圆 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3121270" y="7231673"/>
+            <a:ext cx="424962" cy="351692"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="椭圆 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="593481" y="7231673"/>
+            <a:ext cx="424962" cy="351692"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="椭圆 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="586154" y="6462346"/>
+            <a:ext cx="424962" cy="351692"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="椭圆 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2110154" y="6469673"/>
+            <a:ext cx="424962" cy="351692"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="椭圆 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1861039" y="6850673"/>
+            <a:ext cx="424962" cy="351692"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208581</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85243</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="组合 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6956677" cy="3792666"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="6956677" cy="3792666"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="图片 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="6956677" cy="3792666"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="椭圆 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772884" y="2103560"/>
+            <a:ext cx="359751" cy="345830"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="椭圆 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2798152" y="2486025"/>
+            <a:ext cx="367079" cy="345831"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="椭圆 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="537063" y="2486025"/>
+            <a:ext cx="349495" cy="345831"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="椭圆 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="553915" y="1713767"/>
+            <a:ext cx="323118" cy="345831"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="椭圆 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1901336" y="1728421"/>
+            <a:ext cx="367812" cy="345831"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="椭圆 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1671271" y="2096233"/>
+            <a:ext cx="358286" cy="345830"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3745,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3830,7 +4710,7 @@
       <c r="D4" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="68" t="s">
         <v>599</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -3840,10 +4720,10 @@
         <v>41</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="68" t="s">
         <v>544</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="68" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3860,7 +4740,7 @@
       <c r="D5" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="E5" s="67"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
@@ -3868,8 +4748,8 @@
         <v>26</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="11">
@@ -3884,7 +4764,7 @@
       <c r="D6" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
@@ -3892,8 +4772,8 @@
         <v>27</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="11">
@@ -3908,7 +4788,7 @@
       <c r="D7" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="67"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="10" t="s">
         <v>28</v>
       </c>
@@ -3916,8 +4796,8 @@
         <v>28</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="11">
@@ -3932,7 +4812,7 @@
       <c r="D8" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E8" s="67"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="10" t="s">
         <v>29</v>
       </c>
@@ -3940,8 +4820,8 @@
         <v>29</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="11">
@@ -3956,7 +4836,7 @@
       <c r="D9" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="10" t="s">
         <v>30</v>
       </c>
@@ -3964,8 +4844,8 @@
         <v>30</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="11">
@@ -3980,7 +4860,7 @@
       <c r="D10" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E10" s="67"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="10" t="s">
         <v>31</v>
       </c>
@@ -3988,8 +4868,8 @@
         <v>31</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="11">
@@ -4004,7 +4884,7 @@
       <c r="D11" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
@@ -4012,8 +4892,8 @@
         <v>32</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="11">
@@ -4028,7 +4908,7 @@
       <c r="D12" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="68" t="s">
         <v>603</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -4038,8 +4918,8 @@
         <v>33</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="11">
@@ -4054,7 +4934,7 @@
       <c r="D13" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="10" t="s">
         <v>34</v>
       </c>
@@ -4062,8 +4942,8 @@
         <v>34</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="11">
@@ -4078,7 +4958,7 @@
       <c r="D14" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="E14" s="67"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="10" t="s">
         <v>35</v>
       </c>
@@ -4086,8 +4966,8 @@
         <v>35</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="11">
@@ -4102,7 +4982,7 @@
       <c r="D15" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="10" t="s">
         <v>36</v>
       </c>
@@ -4110,8 +4990,8 @@
         <v>36</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="11">
@@ -4126,7 +5006,7 @@
       <c r="D16" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="68" t="s">
         <v>480</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -4138,10 +5018,10 @@
       <c r="H16" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="68" t="s">
         <v>468</v>
       </c>
-      <c r="J16" s="67"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="11">
@@ -4156,7 +5036,7 @@
       <c r="D17" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="10" t="s">
         <v>38</v>
       </c>
@@ -4166,8 +5046,8 @@
       <c r="H17" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="11">
@@ -4182,7 +5062,7 @@
       <c r="D18" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="67"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="10" t="s">
         <v>39</v>
       </c>
@@ -4195,7 +5075,7 @@
       <c r="I18" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="J18" s="67"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="11">
@@ -4210,7 +5090,7 @@
       <c r="D19" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="68" t="s">
         <v>428</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -4223,7 +5103,7 @@
         <v>478</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="67"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="11">
@@ -4238,12 +5118,12 @@
       <c r="D20" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E20" s="67"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="67" t="s">
         <v>139</v>
       </c>
       <c r="K20" s="6"/>
@@ -4261,12 +5141,12 @@
       <c r="D21" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="67"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="68"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
@@ -4282,14 +5162,14 @@
       <c r="D22" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="68" t="s">
         <v>481</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="68"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
@@ -4305,12 +5185,12 @@
       <c r="D23" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="68"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
@@ -4326,12 +5206,12 @@
       <c r="D24" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="68"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
@@ -4347,14 +5227,14 @@
       <c r="D25" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="68" t="s">
         <v>431</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="68"/>
+      <c r="J25" s="67"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
@@ -4370,12 +5250,12 @@
       <c r="D26" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E26" s="67"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="68"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
@@ -4391,12 +5271,12 @@
       <c r="D27" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E27" s="67"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="68"/>
+      <c r="J27" s="67"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
@@ -4412,14 +5292,14 @@
       <c r="D28" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="68" t="s">
         <v>608</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="68"/>
+      <c r="J28" s="67"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11">
@@ -4435,12 +5315,12 @@
       <c r="D29" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E29" s="67"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="68"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
@@ -4456,12 +5336,12 @@
       <c r="D30" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E30" s="67"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="68"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11">
@@ -4477,14 +5357,14 @@
       <c r="D31" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="68" t="s">
         <v>483</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="68"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11">
@@ -4500,12 +5380,12 @@
       <c r="D32" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E32" s="67"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="68"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11">
@@ -4521,12 +5401,12 @@
       <c r="D33" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E33" s="67"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="68"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11">
@@ -4542,14 +5422,14 @@
       <c r="D34" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="68" t="s">
         <v>610</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="68"/>
+      <c r="J34" s="67"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
@@ -4565,12 +5445,12 @@
       <c r="D35" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E35" s="67"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="68"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11">
@@ -4586,12 +5466,12 @@
       <c r="D36" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="67"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="68" t="s">
+      <c r="J36" s="67" t="s">
         <v>139</v>
       </c>
       <c r="K36" s="6"/>
@@ -4609,14 +5489,14 @@
       <c r="D37" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="68" t="s">
         <v>622</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="68"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
@@ -4632,12 +5512,12 @@
       <c r="D38" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E38" s="67"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="68"/>
+      <c r="J38" s="67"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
@@ -4653,12 +5533,12 @@
       <c r="D39" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="67"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="68"/>
+      <c r="J39" s="67"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11">
@@ -4674,12 +5554,12 @@
       <c r="D40" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="E40" s="67"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="68"/>
+      <c r="J40" s="67"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11">
@@ -4695,12 +5575,12 @@
       <c r="D41" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="E41" s="67"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="68"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11">
@@ -4716,14 +5596,14 @@
       <c r="D42" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="67" t="s">
         <v>624</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="68"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
@@ -4739,12 +5619,12 @@
       <c r="D43" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="E43" s="68"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="68"/>
+      <c r="J43" s="67"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
@@ -4760,14 +5640,14 @@
       <c r="D44" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E44" s="68" t="s">
+      <c r="E44" s="67" t="s">
         <v>632</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="68"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11">
@@ -4783,12 +5663,12 @@
       <c r="D45" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="E45" s="68"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="68"/>
+      <c r="J45" s="67"/>
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
@@ -4804,12 +5684,12 @@
       <c r="D46" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E46" s="68"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="68"/>
+      <c r="J46" s="67"/>
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11">
@@ -4825,12 +5705,12 @@
       <c r="D47" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E47" s="68"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="68"/>
+      <c r="J47" s="67"/>
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11">
@@ -4846,12 +5726,12 @@
       <c r="D48" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E48" s="68"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="68"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11">
@@ -4867,12 +5747,12 @@
       <c r="D49" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="E49" s="68"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="68"/>
+      <c r="J49" s="67"/>
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11">
@@ -4888,14 +5768,14 @@
       <c r="D50" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E50" s="68" t="s">
+      <c r="E50" s="67" t="s">
         <v>634</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="68"/>
+      <c r="J50" s="67"/>
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11">
@@ -4911,12 +5791,12 @@
       <c r="D51" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="E51" s="68"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="68"/>
+      <c r="J51" s="67"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11">
@@ -4932,12 +5812,12 @@
       <c r="D52" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="E52" s="68"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="68" t="s">
+      <c r="J52" s="67" t="s">
         <v>140</v>
       </c>
       <c r="K52" s="6"/>
@@ -4955,12 +5835,12 @@
       <c r="D53" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="E53" s="68"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="68"/>
+      <c r="J53" s="67"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11">
@@ -4976,12 +5856,12 @@
       <c r="D54" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="E54" s="68"/>
+      <c r="E54" s="67"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="68"/>
+      <c r="J54" s="67"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11">
@@ -4997,12 +5877,12 @@
       <c r="D55" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="E55" s="68"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="68"/>
+      <c r="J55" s="67"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11">
@@ -5018,12 +5898,12 @@
       <c r="D56" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="E56" s="68"/>
+      <c r="E56" s="67"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="68"/>
+      <c r="J56" s="67"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11">
@@ -5037,12 +5917,12 @@
         <v>80</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="68"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="68"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11">
@@ -5058,14 +5938,14 @@
       <c r="D58" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E58" s="68" t="s">
+      <c r="E58" s="67" t="s">
         <v>638</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="68"/>
+      <c r="J58" s="67"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11">
@@ -5081,12 +5961,12 @@
       <c r="D59" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="E59" s="68"/>
+      <c r="E59" s="67"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="68"/>
+      <c r="J59" s="67"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11">
@@ -5102,12 +5982,12 @@
       <c r="D60" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="E60" s="68"/>
+      <c r="E60" s="67"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="68"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11">
@@ -5123,12 +6003,12 @@
       <c r="D61" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="E61" s="68"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="68"/>
+      <c r="J61" s="67"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="11">
@@ -5143,12 +6023,12 @@
       <c r="D62" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="E62" s="68"/>
+      <c r="E62" s="67"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="68"/>
+      <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="11">
@@ -5163,12 +6043,12 @@
       <c r="D63" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="E63" s="68"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="68"/>
+      <c r="J63" s="67"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="11">
@@ -5183,12 +6063,12 @@
       <c r="D64" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="E64" s="68"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="68"/>
+      <c r="J64" s="67"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="11">
@@ -5203,12 +6083,12 @@
       <c r="D65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="68"/>
+      <c r="E65" s="67"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="68"/>
+      <c r="J65" s="67"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="11">
@@ -5223,14 +6103,14 @@
       <c r="D66" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="E66" s="68" t="s">
+      <c r="E66" s="67" t="s">
         <v>522</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="68"/>
+      <c r="J66" s="67"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="11">
@@ -5245,12 +6125,12 @@
       <c r="D67" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="E67" s="68"/>
+      <c r="E67" s="67"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="68"/>
+      <c r="J67" s="67"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="11">
@@ -5265,12 +6145,12 @@
       <c r="D68" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="E68" s="68"/>
+      <c r="E68" s="67"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="68" t="s">
+      <c r="J68" s="67" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5287,12 +6167,12 @@
       <c r="D69" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="E69" s="68"/>
+      <c r="E69" s="67"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="68"/>
+      <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="11">
@@ -5307,12 +6187,12 @@
       <c r="D70" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="E70" s="68"/>
+      <c r="E70" s="67"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="68"/>
+      <c r="J70" s="67"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="11">
@@ -5327,12 +6207,12 @@
       <c r="D71" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="E71" s="68"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="68"/>
+      <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="11">
@@ -5347,12 +6227,12 @@
       <c r="D72" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="E72" s="68"/>
+      <c r="E72" s="67"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="68"/>
+      <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="11">
@@ -5367,12 +6247,12 @@
       <c r="D73" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="E73" s="68"/>
+      <c r="E73" s="67"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="68"/>
+      <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="11">
@@ -5387,12 +6267,12 @@
       <c r="D74" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="E74" s="68"/>
+      <c r="E74" s="67"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="68"/>
+      <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="11">
@@ -5407,12 +6287,12 @@
       <c r="D75" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E75" s="68"/>
+      <c r="E75" s="67"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="68"/>
+      <c r="J75" s="67"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="11">
@@ -5427,12 +6307,12 @@
       <c r="D76" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E76" s="68"/>
+      <c r="E76" s="67"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="68"/>
+      <c r="J76" s="67"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="11">
@@ -5447,12 +6327,12 @@
       <c r="D77" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E77" s="68"/>
+      <c r="E77" s="67"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="68"/>
+      <c r="J77" s="67"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="11">
@@ -5470,7 +6350,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="68"/>
+      <c r="J78" s="67"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="11">
@@ -5488,7 +6368,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="68"/>
+      <c r="J79" s="67"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="11">
@@ -5506,7 +6386,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="68"/>
+      <c r="J80" s="67"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="11">
@@ -5524,7 +6404,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="68"/>
+      <c r="J81" s="67"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="11">
@@ -5542,7 +6422,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="68"/>
+      <c r="J82" s="67"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="11">
@@ -5560,7 +6440,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="68"/>
+      <c r="J83" s="67"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="11">
@@ -5579,10 +6459,10 @@
       <c r="H84" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I84" s="67" t="s">
+      <c r="I84" s="68" t="s">
         <v>477</v>
       </c>
-      <c r="J84" s="68" t="s">
+      <c r="J84" s="67" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5603,8 +6483,8 @@
       <c r="H85" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I85" s="67"/>
-      <c r="J85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="67"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="11">
@@ -5623,8 +6503,8 @@
       <c r="H86" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I86" s="67"/>
-      <c r="J86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="67"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="11">
@@ -5643,10 +6523,10 @@
       <c r="H87" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I87" s="67" t="s">
+      <c r="I87" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="J87" s="68"/>
+      <c r="J87" s="67"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="11">
@@ -5665,8 +6545,8 @@
       <c r="H88" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I88" s="67"/>
-      <c r="J88" s="68"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="67"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="11">
@@ -5685,8 +6565,8 @@
       <c r="H89" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I89" s="67"/>
-      <c r="J89" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="67"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="11">
@@ -5705,10 +6585,10 @@
       <c r="H90" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I90" s="67" t="s">
+      <c r="I90" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="J90" s="68"/>
+      <c r="J90" s="67"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="11">
@@ -5727,8 +6607,8 @@
       <c r="H91" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I91" s="67"/>
-      <c r="J91" s="68"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="11">
@@ -5747,8 +6627,8 @@
       <c r="H92" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I92" s="67"/>
-      <c r="J92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="67"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="11">
@@ -5767,10 +6647,10 @@
       <c r="H93" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I93" s="67" t="s">
+      <c r="I93" s="68" t="s">
         <v>482</v>
       </c>
-      <c r="J93" s="68"/>
+      <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="11">
@@ -5789,8 +6669,8 @@
       <c r="H94" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I94" s="67"/>
-      <c r="J94" s="68"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="67"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="11">
@@ -5809,8 +6689,8 @@
       <c r="H95" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I95" s="67"/>
-      <c r="J95" s="68"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="67"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="11">
@@ -5829,10 +6709,10 @@
       <c r="H96" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I96" s="67" t="s">
+      <c r="I96" s="68" t="s">
         <v>483</v>
       </c>
-      <c r="J96" s="68"/>
+      <c r="J96" s="67"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="11">
@@ -5851,8 +6731,8 @@
       <c r="H97" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I97" s="67"/>
-      <c r="J97" s="68"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="67"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="11">
@@ -5871,8 +6751,8 @@
       <c r="H98" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I98" s="67"/>
-      <c r="J98" s="68"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="67"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="11">
@@ -5891,10 +6771,10 @@
       <c r="H99" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I99" s="67" t="s">
+      <c r="I99" s="68" t="s">
         <v>484</v>
       </c>
-      <c r="J99" s="68"/>
+      <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="11">
@@ -5913,8 +6793,8 @@
       <c r="H100" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I100" s="67"/>
-      <c r="J100" s="68" t="s">
+      <c r="I100" s="68"/>
+      <c r="J100" s="67" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5935,8 +6815,8 @@
       <c r="H101" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I101" s="67"/>
-      <c r="J101" s="68"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="67"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="11">
@@ -5955,10 +6835,10 @@
       <c r="H102" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I102" s="67" t="s">
+      <c r="I102" s="68" t="s">
         <v>435</v>
       </c>
-      <c r="J102" s="68"/>
+      <c r="J102" s="67"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="11">
@@ -5977,8 +6857,8 @@
       <c r="H103" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="I103" s="67"/>
-      <c r="J103" s="68"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="11">
@@ -5997,8 +6877,8 @@
       <c r="H104" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I104" s="67"/>
-      <c r="J104" s="68"/>
+      <c r="I104" s="68"/>
+      <c r="J104" s="67"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="11">
@@ -6017,8 +6897,8 @@
       <c r="H105" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="I105" s="67"/>
-      <c r="J105" s="68"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="67"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="11">
@@ -6037,10 +6917,10 @@
       <c r="H106" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="I106" s="67" t="s">
+      <c r="I106" s="68" t="s">
         <v>489</v>
       </c>
-      <c r="J106" s="68"/>
+      <c r="J106" s="67"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="11">
@@ -6059,8 +6939,8 @@
       <c r="H107" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="I107" s="67"/>
-      <c r="J107" s="68"/>
+      <c r="I107" s="68"/>
+      <c r="J107" s="67"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="11">
@@ -6082,7 +6962,7 @@
       <c r="I108" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="J108" s="68"/>
+      <c r="J108" s="67"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="11">
@@ -6104,7 +6984,7 @@
       <c r="I109" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="J109" s="68"/>
+      <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="11">
@@ -6126,7 +7006,7 @@
       <c r="I110" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="J110" s="68"/>
+      <c r="J110" s="67"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="11">
@@ -6145,10 +7025,10 @@
       <c r="H111" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="I111" s="67" t="s">
+      <c r="I111" s="68" t="s">
         <v>506</v>
       </c>
-      <c r="J111" s="68"/>
+      <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="11">
@@ -6167,8 +7047,8 @@
       <c r="H112" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I112" s="67"/>
-      <c r="J112" s="68"/>
+      <c r="I112" s="68"/>
+      <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="11">
@@ -6187,8 +7067,8 @@
       <c r="H113" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I113" s="67"/>
-      <c r="J113" s="68"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="11">
@@ -6207,10 +7087,10 @@
       <c r="H114" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I114" s="68" t="s">
+      <c r="I114" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="J114" s="68"/>
+      <c r="J114" s="67"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="11">
@@ -6229,8 +7109,8 @@
       <c r="H115" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I115" s="68"/>
-      <c r="J115" s="68"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="11">
@@ -6249,8 +7129,8 @@
       <c r="H116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I116" s="68"/>
-      <c r="J116" s="68" t="s">
+      <c r="I116" s="67"/>
+      <c r="J116" s="67" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6271,8 +7151,8 @@
       <c r="H117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I117" s="68"/>
-      <c r="J117" s="68"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="11">
@@ -6291,8 +7171,8 @@
       <c r="H118" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="I118" s="68"/>
-      <c r="J118" s="68"/>
+      <c r="I118" s="67"/>
+      <c r="J118" s="67"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="11">
@@ -6312,7 +7192,7 @@
         <v>652</v>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="68"/>
+      <c r="J119" s="67"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="11">
@@ -6332,7 +7212,7 @@
         <v>653</v>
       </c>
       <c r="I120" s="1"/>
-      <c r="J120" s="68"/>
+      <c r="J120" s="67"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="11">
@@ -6352,7 +7232,7 @@
         <v>654</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="68"/>
+      <c r="J121" s="67"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="11">
@@ -6370,7 +7250,7 @@
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="68"/>
+      <c r="J122" s="67"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="11">
@@ -6388,7 +7268,7 @@
       </c>
       <c r="H123" s="10"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="68"/>
+      <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="11">
@@ -6406,7 +7286,7 @@
       </c>
       <c r="H124" s="10"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="68"/>
+      <c r="J124" s="67"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="11">
@@ -6424,7 +7304,7 @@
       </c>
       <c r="H125" s="10"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="68"/>
+      <c r="J125" s="67"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="11">
@@ -6442,7 +7322,7 @@
       </c>
       <c r="H126" s="10"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="68"/>
+      <c r="J126" s="67"/>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="11">
@@ -6460,7 +7340,7 @@
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="68"/>
+      <c r="J127" s="67"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="11">
@@ -6478,7 +7358,7 @@
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="68"/>
+      <c r="J128" s="67"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="11">
@@ -6496,7 +7376,7 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="68"/>
+      <c r="J129" s="67"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="11">
@@ -6514,7 +7394,7 @@
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="68"/>
+      <c r="J130" s="67"/>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="11">
@@ -6532,7 +7412,7 @@
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="68"/>
+      <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="62"/>
@@ -7781,6 +8661,17 @@
     <mergeCell ref="J20:J35"/>
     <mergeCell ref="J36:J51"/>
     <mergeCell ref="J52:J67"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E41"/>
     <mergeCell ref="A141:D142"/>
     <mergeCell ref="A169:D170"/>
     <mergeCell ref="J144:J167"/>
@@ -7796,24 +8687,13 @@
     <mergeCell ref="J68:J83"/>
     <mergeCell ref="J84:J99"/>
     <mergeCell ref="J100:J115"/>
-    <mergeCell ref="E44:E49"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="J116:J131"/>
+    <mergeCell ref="I114:I118"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="I111:I113"/>
     <mergeCell ref="E50:E57"/>
     <mergeCell ref="E58:E65"/>
     <mergeCell ref="E66:E77"/>
-    <mergeCell ref="J116:J131"/>
-    <mergeCell ref="I114:I118"/>
     <mergeCell ref="I99:I101"/>
     <mergeCell ref="I102:I105"/>
   </mergeCells>
@@ -7827,10 +8707,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8364,26 +9244,26 @@
         <v>14</v>
       </c>
       <c r="B21" s="41"/>
-      <c r="C21" s="73" t="s">
-        <v>298</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>549</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>548</v>
-      </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="H21" s="49">
-        <v>2</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="J21" s="49"/>
+      <c r="C21" s="77" t="s">
+        <v>688</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>678</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="H21" s="41">
+        <v>3</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="J21" s="41"/>
       <c r="K21" s="45"/>
       <c r="L21" s="42"/>
       <c r="M21" s="43"/>
@@ -8393,24 +9273,22 @@
         <v>15</v>
       </c>
       <c r="B22" s="41"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="53" t="s">
-        <v>550</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>547</v>
-      </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="H22" s="49">
+      <c r="C22" s="76"/>
+      <c r="D22" s="51" t="s">
+        <v>680</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41">
         <v>3</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="J22" s="49"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="45"/>
       <c r="L22" s="42"/>
       <c r="M22" s="43"/>
@@ -8420,24 +9298,22 @@
         <v>16</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="53" t="s">
-        <v>552</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>551</v>
-      </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="49" t="s">
-        <v>299</v>
-      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="50" t="s">
+        <v>682</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>683</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="J23" s="49"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="45"/>
       <c r="L23" s="42"/>
       <c r="M23" s="43"/>
@@ -8447,24 +9323,22 @@
         <v>17</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="53" t="s">
-        <v>554</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="H24" s="49">
-        <v>4</v>
+      <c r="C24" s="76"/>
+      <c r="D24" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>685</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41">
+        <v>2</v>
       </c>
       <c r="I24" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="41"/>
       <c r="K24" s="45"/>
       <c r="L24" s="42"/>
       <c r="M24" s="43"/>
@@ -8474,24 +9348,22 @@
         <v>18</v>
       </c>
       <c r="B25" s="41"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="53" t="s">
-        <v>556</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>555</v>
-      </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="H25" s="49">
-        <v>4</v>
+      <c r="C25" s="95"/>
+      <c r="D25" s="50" t="s">
+        <v>686</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41">
+        <v>1</v>
       </c>
       <c r="I25" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="J25" s="49"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="45"/>
       <c r="L25" s="42"/>
       <c r="M25" s="43"/>
@@ -8501,20 +9373,24 @@
         <v>19</v>
       </c>
       <c r="B26" s="41"/>
-      <c r="C26" s="73"/>
+      <c r="C26" s="73" t="s">
+        <v>298</v>
+      </c>
       <c r="D26" s="53" t="s">
-        <v>557</v>
-      </c>
-      <c r="E26" s="54"/>
+        <v>549</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>548</v>
+      </c>
       <c r="F26" s="55"/>
       <c r="G26" s="49" t="s">
         <v>299</v>
       </c>
       <c r="H26" s="49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>558</v>
+        <v>281</v>
       </c>
       <c r="J26" s="49"/>
       <c r="K26" s="45"/>
@@ -8528,45 +9404,47 @@
       <c r="B27" s="41"/>
       <c r="C27" s="73"/>
       <c r="D27" s="53" t="s">
-        <v>559</v>
-      </c>
-      <c r="E27" s="54"/>
+        <v>550</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>547</v>
+      </c>
       <c r="F27" s="55"/>
       <c r="G27" s="49" t="s">
         <v>299</v>
       </c>
       <c r="H27" s="49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I27" s="52" t="s">
-        <v>560</v>
+        <v>281</v>
       </c>
       <c r="J27" s="49"/>
       <c r="K27" s="45"/>
       <c r="L27" s="42"/>
       <c r="M27" s="43"/>
     </row>
-    <row r="28" spans="1:13" ht="13.5" customHeight="1">
+    <row r="28" spans="1:13">
       <c r="A28" s="40">
         <v>21</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="73"/>
       <c r="D28" s="53" t="s">
-        <v>300</v>
+        <v>552</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>301</v>
+        <v>551</v>
       </c>
       <c r="F28" s="55"/>
       <c r="G28" s="49" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H28" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J28" s="49"/>
       <c r="K28" s="45"/>
@@ -8580,126 +9458,124 @@
       <c r="B29" s="41"/>
       <c r="C29" s="73"/>
       <c r="D29" s="53" t="s">
-        <v>304</v>
+        <v>554</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>248</v>
+        <v>553</v>
       </c>
       <c r="F29" s="55"/>
       <c r="G29" s="49" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H29" s="49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J29" s="49"/>
       <c r="K29" s="45"/>
       <c r="L29" s="42"/>
       <c r="M29" s="43"/>
     </row>
-    <row r="30" spans="1:13" ht="13.5">
+    <row r="30" spans="1:13">
       <c r="A30" s="40">
         <v>23</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="73"/>
       <c r="D30" s="53" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="F30" s="55"/>
-      <c r="G30" s="49"/>
+      <c r="G30" s="49" t="s">
+        <v>299</v>
+      </c>
       <c r="H30" s="49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="52" t="s">
         <v>281</v>
       </c>
       <c r="J30" s="49"/>
       <c r="K30" s="45"/>
-      <c r="L30" s="56"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="43"/>
     </row>
-    <row r="31" spans="1:13" ht="13.5">
+    <row r="31" spans="1:13">
       <c r="A31" s="40">
         <v>24</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="73"/>
       <c r="D31" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>566</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="E31" s="54"/>
       <c r="F31" s="55"/>
       <c r="G31" s="49" t="s">
-        <v>567</v>
+        <v>299</v>
       </c>
       <c r="H31" s="49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I31" s="52" t="s">
-        <v>281</v>
+        <v>558</v>
       </c>
       <c r="J31" s="49"/>
       <c r="K31" s="45"/>
-      <c r="L31" s="56"/>
+      <c r="L31" s="42"/>
       <c r="M31" s="43"/>
     </row>
-    <row r="32" spans="1:13" ht="13.5">
+    <row r="32" spans="1:13">
       <c r="A32" s="40">
         <v>25</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="73"/>
       <c r="D32" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>569</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="E32" s="54"/>
       <c r="F32" s="55"/>
       <c r="G32" s="49" t="s">
-        <v>567</v>
+        <v>299</v>
       </c>
       <c r="H32" s="49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32" s="52" t="s">
-        <v>281</v>
+        <v>560</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="45"/>
-      <c r="L32" s="56"/>
+      <c r="L32" s="42"/>
       <c r="M32" s="43"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" ht="13.5" customHeight="1">
       <c r="A33" s="40">
         <v>26</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="73"/>
-      <c r="D33" s="49" t="s">
-        <v>306</v>
+      <c r="D33" s="53" t="s">
+        <v>300</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>568</v>
+        <v>301</v>
       </c>
       <c r="F33" s="55"/>
       <c r="G33" s="49" t="s">
-        <v>567</v>
+        <v>302</v>
       </c>
       <c r="H33" s="49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I33" s="52" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="J33" s="49"/>
       <c r="K33" s="45"/>
@@ -8711,72 +9587,68 @@
         <v>27</v>
       </c>
       <c r="B34" s="41"/>
-      <c r="C34" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>308</v>
+      <c r="C34" s="73"/>
+      <c r="D34" s="53" t="s">
+        <v>304</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="F34" s="55"/>
       <c r="G34" s="49" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H34" s="49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I34" s="52" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="J34" s="49"/>
       <c r="K34" s="45"/>
       <c r="L34" s="42"/>
       <c r="M34" s="43"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" ht="13.5">
       <c r="A35" s="40">
         <v>28</v>
       </c>
       <c r="B35" s="41"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="49" t="s">
-        <v>311</v>
+      <c r="C35" s="73"/>
+      <c r="D35" s="53" t="s">
+        <v>578</v>
       </c>
       <c r="E35" s="54" t="s">
-        <v>312</v>
+        <v>579</v>
       </c>
       <c r="F35" s="55"/>
-      <c r="G35" s="49" t="s">
-        <v>310</v>
-      </c>
+      <c r="G35" s="49"/>
       <c r="H35" s="49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" s="52" t="s">
         <v>281</v>
       </c>
       <c r="J35" s="49"/>
       <c r="K35" s="45"/>
-      <c r="L35" s="42"/>
+      <c r="L35" s="56"/>
       <c r="M35" s="43"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="13.5">
       <c r="A36" s="40">
         <v>29</v>
       </c>
       <c r="B36" s="41"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="49" t="s">
-        <v>313</v>
+      <c r="C36" s="73"/>
+      <c r="D36" s="53" t="s">
+        <v>305</v>
       </c>
       <c r="E36" s="54" t="s">
-        <v>314</v>
+        <v>566</v>
       </c>
       <c r="F36" s="55"/>
       <c r="G36" s="49" t="s">
-        <v>315</v>
+        <v>567</v>
       </c>
       <c r="H36" s="49">
         <v>1</v>
@@ -8786,34 +9658,34 @@
       </c>
       <c r="J36" s="49"/>
       <c r="K36" s="45"/>
-      <c r="L36" s="42"/>
+      <c r="L36" s="56"/>
       <c r="M36" s="43"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="13.5">
       <c r="A37" s="40">
         <v>30</v>
       </c>
       <c r="B37" s="41"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="49" t="s">
-        <v>316</v>
+      <c r="C37" s="73"/>
+      <c r="D37" s="53" t="s">
+        <v>305</v>
       </c>
       <c r="E37" s="54" t="s">
-        <v>317</v>
+        <v>569</v>
       </c>
       <c r="F37" s="55"/>
       <c r="G37" s="49" t="s">
-        <v>318</v>
+        <v>567</v>
       </c>
       <c r="H37" s="49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" s="52" t="s">
         <v>281</v>
       </c>
       <c r="J37" s="49"/>
       <c r="K37" s="45"/>
-      <c r="L37" s="42"/>
+      <c r="L37" s="56"/>
       <c r="M37" s="43"/>
     </row>
     <row r="38" spans="1:13">
@@ -8821,21 +9693,19 @@
         <v>31</v>
       </c>
       <c r="B38" s="41"/>
-      <c r="C38" s="73" t="s">
-        <v>319</v>
-      </c>
+      <c r="C38" s="73"/>
       <c r="D38" s="49" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>321</v>
+        <v>568</v>
       </c>
       <c r="F38" s="55"/>
       <c r="G38" s="49" t="s">
-        <v>315</v>
+        <v>567</v>
       </c>
       <c r="H38" s="49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I38" s="52" t="s">
         <v>281</v>
@@ -8850,17 +9720,21 @@
         <v>32</v>
       </c>
       <c r="B39" s="41"/>
-      <c r="C39" s="73"/>
+      <c r="C39" s="74" t="s">
+        <v>307</v>
+      </c>
       <c r="D39" s="49" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F39" s="55"/>
-      <c r="G39" s="49"/>
+      <c r="G39" s="49" t="s">
+        <v>310</v>
+      </c>
       <c r="H39" s="49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" s="52" t="s">
         <v>281</v>
@@ -8875,19 +9749,19 @@
         <v>33</v>
       </c>
       <c r="B40" s="41"/>
-      <c r="C40" s="73"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="49" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="E40" s="54" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F40" s="55"/>
       <c r="G40" s="49" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H40" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" s="52" t="s">
         <v>281</v>
@@ -8902,19 +9776,19 @@
         <v>34</v>
       </c>
       <c r="B41" s="41"/>
-      <c r="C41" s="73"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="49" t="s">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F41" s="55"/>
       <c r="G41" s="49" t="s">
         <v>315</v>
       </c>
       <c r="H41" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I41" s="52" t="s">
         <v>281</v>
@@ -8929,15 +9803,19 @@
         <v>35</v>
       </c>
       <c r="B42" s="41"/>
-      <c r="C42" s="73"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="E42" s="54"/>
+        <v>316</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>317</v>
+      </c>
       <c r="F42" s="55"/>
-      <c r="G42" s="49"/>
+      <c r="G42" s="49" t="s">
+        <v>318</v>
+      </c>
       <c r="H42" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I42" s="52" t="s">
         <v>281</v>
@@ -8952,15 +9830,21 @@
         <v>36</v>
       </c>
       <c r="B43" s="41"/>
-      <c r="C43" s="73"/>
+      <c r="C43" s="73" t="s">
+        <v>319</v>
+      </c>
       <c r="D43" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="E43" s="54"/>
+        <v>320</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>321</v>
+      </c>
       <c r="F43" s="55"/>
-      <c r="G43" s="49"/>
+      <c r="G43" s="49" t="s">
+        <v>315</v>
+      </c>
       <c r="H43" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43" s="52" t="s">
         <v>281</v>
@@ -8977,17 +9861,15 @@
       <c r="B44" s="41"/>
       <c r="C44" s="73"/>
       <c r="D44" s="49" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E44" s="54" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F44" s="55"/>
-      <c r="G44" s="49" t="s">
-        <v>315</v>
-      </c>
+      <c r="G44" s="49"/>
       <c r="H44" s="49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I44" s="52" t="s">
         <v>281</v>
@@ -9004,13 +9886,17 @@
       <c r="B45" s="41"/>
       <c r="C45" s="73"/>
       <c r="D45" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="E45" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>325</v>
+      </c>
       <c r="F45" s="55"/>
-      <c r="G45" s="49"/>
+      <c r="G45" s="49" t="s">
+        <v>315</v>
+      </c>
       <c r="H45" s="49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" s="52" t="s">
         <v>281</v>
@@ -9027,15 +9913,17 @@
       <c r="B46" s="41"/>
       <c r="C46" s="73"/>
       <c r="D46" s="49" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F46" s="55"/>
-      <c r="G46" s="49"/>
+      <c r="G46" s="49" t="s">
+        <v>315</v>
+      </c>
       <c r="H46" s="49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I46" s="52" t="s">
         <v>281</v>
@@ -9052,15 +9940,13 @@
       <c r="B47" s="41"/>
       <c r="C47" s="73"/>
       <c r="D47" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="E47" s="54" t="s">
-        <v>335</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="E47" s="54"/>
       <c r="F47" s="55"/>
       <c r="G47" s="49"/>
       <c r="H47" s="49">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I47" s="52" t="s">
         <v>281</v>
@@ -9077,17 +9963,13 @@
       <c r="B48" s="41"/>
       <c r="C48" s="73"/>
       <c r="D48" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="E48" s="54" t="s">
-        <v>337</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E48" s="54"/>
       <c r="F48" s="55"/>
-      <c r="G48" s="49" t="s">
-        <v>338</v>
-      </c>
+      <c r="G48" s="49"/>
       <c r="H48" s="49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48" s="52" t="s">
         <v>281</v>
@@ -9104,14 +9986,14 @@
       <c r="B49" s="41"/>
       <c r="C49" s="73"/>
       <c r="D49" s="49" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>577</v>
+        <v>330</v>
       </c>
       <c r="F49" s="55"/>
       <c r="G49" s="49" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="H49" s="49">
         <v>1</v>
@@ -9131,17 +10013,13 @@
       <c r="B50" s="41"/>
       <c r="C50" s="73"/>
       <c r="D50" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>340</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="E50" s="54"/>
       <c r="F50" s="55"/>
-      <c r="G50" s="49" t="s">
-        <v>341</v>
-      </c>
+      <c r="G50" s="49"/>
       <c r="H50" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50" s="52" t="s">
         <v>281</v>
@@ -9158,17 +10036,15 @@
       <c r="B51" s="41"/>
       <c r="C51" s="73"/>
       <c r="D51" s="49" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F51" s="55"/>
-      <c r="G51" s="49" t="s">
-        <v>341</v>
-      </c>
+      <c r="G51" s="49"/>
       <c r="H51" s="49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I51" s="52" t="s">
         <v>281</v>
@@ -9185,17 +10061,15 @@
       <c r="B52" s="41"/>
       <c r="C52" s="73"/>
       <c r="D52" s="49" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F52" s="55"/>
-      <c r="G52" s="49" t="s">
-        <v>341</v>
-      </c>
+      <c r="G52" s="49"/>
       <c r="H52" s="49">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I52" s="52" t="s">
         <v>281</v>
@@ -9212,17 +10086,17 @@
       <c r="B53" s="41"/>
       <c r="C53" s="73"/>
       <c r="D53" s="49" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F53" s="55"/>
       <c r="G53" s="49" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="H53" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53" s="52" t="s">
         <v>281</v>
@@ -9239,17 +10113,17 @@
       <c r="B54" s="41"/>
       <c r="C54" s="73"/>
       <c r="D54" s="49" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E54" s="54" t="s">
-        <v>349</v>
+        <v>577</v>
       </c>
       <c r="F54" s="55"/>
       <c r="G54" s="49" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="H54" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54" s="52" t="s">
         <v>281</v>
@@ -9266,17 +10140,17 @@
       <c r="B55" s="41"/>
       <c r="C55" s="73"/>
       <c r="D55" s="49" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="F55" s="55"/>
       <c r="G55" s="49" t="s">
-        <v>582</v>
+        <v>341</v>
       </c>
       <c r="H55" s="49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" s="52" t="s">
         <v>281</v>
@@ -9293,17 +10167,17 @@
       <c r="B56" s="41"/>
       <c r="C56" s="73"/>
       <c r="D56" s="49" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E56" s="54" t="s">
-        <v>581</v>
+        <v>343</v>
       </c>
       <c r="F56" s="55"/>
       <c r="G56" s="49" t="s">
-        <v>583</v>
+        <v>341</v>
       </c>
       <c r="H56" s="49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I56" s="52" t="s">
         <v>281</v>
@@ -9320,17 +10194,17 @@
       <c r="B57" s="41"/>
       <c r="C57" s="73"/>
       <c r="D57" s="49" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E57" s="54" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F57" s="55"/>
       <c r="G57" s="49" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="H57" s="49">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I57" s="52" t="s">
         <v>281</v>
@@ -9340,33 +10214,31 @@
       <c r="L57" s="42"/>
       <c r="M57" s="43"/>
     </row>
-    <row r="58" spans="1:13" ht="13.5">
+    <row r="58" spans="1:13">
       <c r="A58" s="40">
         <v>51</v>
       </c>
       <c r="B58" s="41"/>
       <c r="C58" s="73"/>
       <c r="D58" s="49" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E58" s="54" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F58" s="55"/>
       <c r="G58" s="49" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="H58" s="49">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I58" s="52" t="s">
         <v>281</v>
       </c>
       <c r="J58" s="49"/>
       <c r="K58" s="45"/>
-      <c r="L58" s="56" t="s">
-        <v>356</v>
-      </c>
+      <c r="L58" s="42"/>
       <c r="M58" s="43"/>
     </row>
     <row r="59" spans="1:13">
@@ -9376,15 +10248,17 @@
       <c r="B59" s="41"/>
       <c r="C59" s="73"/>
       <c r="D59" s="49" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E59" s="54" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F59" s="55"/>
-      <c r="G59" s="49"/>
+      <c r="G59" s="49" t="s">
+        <v>295</v>
+      </c>
       <c r="H59" s="49">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I59" s="52" t="s">
         <v>281</v>
@@ -9401,17 +10275,17 @@
       <c r="B60" s="41"/>
       <c r="C60" s="73"/>
       <c r="D60" s="49" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>366</v>
+        <v>580</v>
       </c>
       <c r="F60" s="55"/>
       <c r="G60" s="49" t="s">
-        <v>367</v>
+        <v>582</v>
       </c>
       <c r="H60" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="52" t="s">
         <v>281</v>
@@ -9428,17 +10302,17 @@
       <c r="B61" s="41"/>
       <c r="C61" s="73"/>
       <c r="D61" s="49" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="E61" s="54" t="s">
-        <v>369</v>
+        <v>581</v>
       </c>
       <c r="F61" s="55"/>
       <c r="G61" s="49" t="s">
-        <v>367</v>
+        <v>583</v>
       </c>
       <c r="H61" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="52" t="s">
         <v>281</v>
@@ -9455,15 +10329,17 @@
       <c r="B62" s="41"/>
       <c r="C62" s="73"/>
       <c r="D62" s="49" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E62" s="54" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F62" s="55"/>
-      <c r="G62" s="49"/>
+      <c r="G62" s="49" t="s">
+        <v>352</v>
+      </c>
       <c r="H62" s="49">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I62" s="52" t="s">
         <v>281</v>
@@ -9473,29 +10349,33 @@
       <c r="L62" s="42"/>
       <c r="M62" s="43"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="13.5">
       <c r="A63" s="40">
         <v>56</v>
       </c>
       <c r="B63" s="41"/>
       <c r="C63" s="73"/>
       <c r="D63" s="49" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E63" s="54" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F63" s="55"/>
-      <c r="G63" s="49"/>
+      <c r="G63" s="49" t="s">
+        <v>355</v>
+      </c>
       <c r="H63" s="49">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I63" s="52" t="s">
         <v>281</v>
       </c>
       <c r="J63" s="49"/>
       <c r="K63" s="45"/>
-      <c r="L63" s="42"/>
+      <c r="L63" s="56" t="s">
+        <v>356</v>
+      </c>
       <c r="M63" s="43"/>
     </row>
     <row r="64" spans="1:13">
@@ -9505,15 +10385,15 @@
       <c r="B64" s="41"/>
       <c r="C64" s="73"/>
       <c r="D64" s="49" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E64" s="54" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F64" s="55"/>
       <c r="G64" s="49"/>
       <c r="H64" s="49">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I64" s="52" t="s">
         <v>281</v>
@@ -9530,15 +10410,17 @@
       <c r="B65" s="41"/>
       <c r="C65" s="73"/>
       <c r="D65" s="49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E65" s="54" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F65" s="55"/>
-      <c r="G65" s="49"/>
+      <c r="G65" s="49" t="s">
+        <v>367</v>
+      </c>
       <c r="H65" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="52" t="s">
         <v>281</v>
@@ -9553,21 +10435,19 @@
         <v>59</v>
       </c>
       <c r="B66" s="41"/>
-      <c r="C66" s="74" t="s">
-        <v>370</v>
-      </c>
+      <c r="C66" s="73"/>
       <c r="D66" s="49" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E66" s="54" t="s">
-        <v>571</v>
+        <v>369</v>
       </c>
       <c r="F66" s="55"/>
       <c r="G66" s="49" t="s">
-        <v>576</v>
+        <v>367</v>
       </c>
       <c r="H66" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="52" t="s">
         <v>281</v>
@@ -9582,19 +10462,17 @@
         <v>60</v>
       </c>
       <c r="B67" s="41"/>
-      <c r="C67" s="75"/>
+      <c r="C67" s="73"/>
       <c r="D67" s="49" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E67" s="54" t="s">
-        <v>572</v>
+        <v>360</v>
       </c>
       <c r="F67" s="55"/>
-      <c r="G67" s="49" t="s">
-        <v>576</v>
-      </c>
+      <c r="G67" s="49"/>
       <c r="H67" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="52" t="s">
         <v>281</v>
@@ -9609,19 +10487,17 @@
         <v>61</v>
       </c>
       <c r="B68" s="41"/>
-      <c r="C68" s="75"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="49" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E68" s="54" t="s">
-        <v>573</v>
+        <v>360</v>
       </c>
       <c r="F68" s="55"/>
-      <c r="G68" s="49" t="s">
-        <v>576</v>
-      </c>
+      <c r="G68" s="49"/>
       <c r="H68" s="49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I68" s="52" t="s">
         <v>281</v>
@@ -9636,19 +10512,17 @@
         <v>62</v>
       </c>
       <c r="B69" s="41"/>
-      <c r="C69" s="75"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="49" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E69" s="54" t="s">
-        <v>574</v>
+        <v>363</v>
       </c>
       <c r="F69" s="55"/>
-      <c r="G69" s="49" t="s">
-        <v>575</v>
-      </c>
+      <c r="G69" s="49"/>
       <c r="H69" s="49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I69" s="52" t="s">
         <v>281</v>
@@ -9663,19 +10537,17 @@
         <v>63</v>
       </c>
       <c r="B70" s="41"/>
-      <c r="C70" s="75"/>
+      <c r="C70" s="73"/>
       <c r="D70" s="49" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E70" s="54" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F70" s="55"/>
-      <c r="G70" s="49" t="s">
-        <v>341</v>
-      </c>
+      <c r="G70" s="49"/>
       <c r="H70" s="49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I70" s="52" t="s">
         <v>281</v>
@@ -9690,19 +10562,21 @@
         <v>64</v>
       </c>
       <c r="B71" s="41"/>
-      <c r="C71" s="75"/>
+      <c r="C71" s="74" t="s">
+        <v>370</v>
+      </c>
       <c r="D71" s="49" t="s">
-        <v>225</v>
+        <v>371</v>
       </c>
       <c r="E71" s="54" t="s">
-        <v>374</v>
+        <v>571</v>
       </c>
       <c r="F71" s="55"/>
       <c r="G71" s="49" t="s">
-        <v>375</v>
+        <v>576</v>
       </c>
       <c r="H71" s="49">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I71" s="52" t="s">
         <v>281</v>
@@ -9712,25 +10586,27 @@
       <c r="L71" s="42"/>
       <c r="M71" s="43"/>
     </row>
-    <row r="72" spans="1:13" ht="12" customHeight="1">
+    <row r="72" spans="1:13">
       <c r="A72" s="40">
         <v>65</v>
       </c>
       <c r="B72" s="41"/>
-      <c r="C72" s="73"/>
+      <c r="C72" s="75"/>
       <c r="D72" s="49" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E72" s="54" t="s">
-        <v>288</v>
+        <v>572</v>
       </c>
       <c r="F72" s="55"/>
-      <c r="G72" s="49"/>
+      <c r="G72" s="49" t="s">
+        <v>576</v>
+      </c>
       <c r="H72" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="52" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J72" s="49"/>
       <c r="K72" s="45"/>
@@ -9742,20 +10618,22 @@
         <v>66</v>
       </c>
       <c r="B73" s="41"/>
-      <c r="C73" s="73"/>
+      <c r="C73" s="75"/>
       <c r="D73" s="49" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E73" s="54" t="s">
-        <v>378</v>
+        <v>573</v>
       </c>
       <c r="F73" s="55"/>
-      <c r="G73" s="49"/>
+      <c r="G73" s="49" t="s">
+        <v>576</v>
+      </c>
       <c r="H73" s="49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I73" s="52" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J73" s="49"/>
       <c r="K73" s="45"/>
@@ -9767,15 +10645,19 @@
         <v>67</v>
       </c>
       <c r="B74" s="41"/>
-      <c r="C74" s="73"/>
+      <c r="C74" s="75"/>
       <c r="D74" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="E74" s="54"/>
+        <v>371</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>574</v>
+      </c>
       <c r="F74" s="55"/>
-      <c r="G74" s="49"/>
+      <c r="G74" s="49" t="s">
+        <v>575</v>
+      </c>
       <c r="H74" s="49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I74" s="52" t="s">
         <v>281</v>
@@ -9790,15 +10672,19 @@
         <v>68</v>
       </c>
       <c r="B75" s="41"/>
-      <c r="C75" s="73"/>
+      <c r="C75" s="75"/>
       <c r="D75" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="E75" s="54"/>
+        <v>372</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>373</v>
+      </c>
       <c r="F75" s="55"/>
-      <c r="G75" s="49"/>
+      <c r="G75" s="49" t="s">
+        <v>341</v>
+      </c>
       <c r="H75" s="49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I75" s="52" t="s">
         <v>281</v>
@@ -9813,37 +10699,47 @@
         <v>69</v>
       </c>
       <c r="B76" s="41"/>
-      <c r="C76" s="73"/>
+      <c r="C76" s="75"/>
       <c r="D76" s="49" t="s">
-        <v>381</v>
-      </c>
-      <c r="E76" s="54"/>
+        <v>225</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>374</v>
+      </c>
       <c r="F76" s="55"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
+      <c r="G76" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="H76" s="49">
+        <v>9</v>
+      </c>
       <c r="I76" s="52" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="J76" s="49"/>
       <c r="K76" s="45"/>
       <c r="L76" s="42"/>
       <c r="M76" s="43"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" ht="12" customHeight="1">
       <c r="A77" s="40">
         <v>70</v>
       </c>
       <c r="B77" s="41"/>
       <c r="C77" s="73"/>
       <c r="D77" s="49" t="s">
-        <v>383</v>
-      </c>
-      <c r="E77" s="54"/>
+        <v>376</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="F77" s="55"/>
       <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
+      <c r="H77" s="49">
+        <v>2</v>
+      </c>
       <c r="I77" s="52" t="s">
-        <v>382</v>
+        <v>286</v>
       </c>
       <c r="J77" s="49"/>
       <c r="K77" s="45"/>
@@ -9857,14 +10753,18 @@
       <c r="B78" s="41"/>
       <c r="C78" s="73"/>
       <c r="D78" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="E78" s="54"/>
+        <v>377</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>378</v>
+      </c>
       <c r="F78" s="55"/>
       <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
+      <c r="H78" s="49">
+        <v>1</v>
+      </c>
       <c r="I78" s="52" t="s">
-        <v>382</v>
+        <v>286</v>
       </c>
       <c r="J78" s="49"/>
       <c r="K78" s="45"/>
@@ -9878,14 +10778,16 @@
       <c r="B79" s="41"/>
       <c r="C79" s="73"/>
       <c r="D79" s="49" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E79" s="54"/>
       <c r="F79" s="55"/>
       <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
+      <c r="H79" s="49">
+        <v>1</v>
+      </c>
       <c r="I79" s="52" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="J79" s="49"/>
       <c r="K79" s="45"/>
@@ -9899,14 +10801,16 @@
       <c r="B80" s="41"/>
       <c r="C80" s="73"/>
       <c r="D80" s="49" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E80" s="54"/>
       <c r="F80" s="55"/>
       <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
+      <c r="H80" s="49">
+        <v>1</v>
+      </c>
       <c r="I80" s="52" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="J80" s="49"/>
       <c r="K80" s="45"/>
@@ -9920,7 +10824,7 @@
       <c r="B81" s="41"/>
       <c r="C81" s="73"/>
       <c r="D81" s="49" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E81" s="54"/>
       <c r="F81" s="55"/>
@@ -9941,7 +10845,7 @@
       <c r="B82" s="41"/>
       <c r="C82" s="73"/>
       <c r="D82" s="49" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E82" s="54"/>
       <c r="F82" s="55"/>
@@ -9962,14 +10866,14 @@
       <c r="B83" s="41"/>
       <c r="C83" s="73"/>
       <c r="D83" s="49" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E83" s="54"/>
       <c r="F83" s="55"/>
       <c r="G83" s="49"/>
       <c r="H83" s="49"/>
       <c r="I83" s="52" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="J83" s="49"/>
       <c r="K83" s="45"/>
@@ -9983,14 +10887,14 @@
       <c r="B84" s="41"/>
       <c r="C84" s="73"/>
       <c r="D84" s="49" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E84" s="54"/>
       <c r="F84" s="55"/>
       <c r="G84" s="49"/>
       <c r="H84" s="49"/>
       <c r="I84" s="52" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="J84" s="49"/>
       <c r="K84" s="45"/>
@@ -10004,14 +10908,14 @@
       <c r="B85" s="41"/>
       <c r="C85" s="73"/>
       <c r="D85" s="49" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E85" s="54"/>
       <c r="F85" s="55"/>
       <c r="G85" s="49"/>
       <c r="H85" s="49"/>
       <c r="I85" s="52" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="J85" s="49"/>
       <c r="K85" s="45"/>
@@ -10025,14 +10929,14 @@
       <c r="B86" s="41"/>
       <c r="C86" s="73"/>
       <c r="D86" s="49" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E86" s="54"/>
       <c r="F86" s="55"/>
       <c r="G86" s="49"/>
       <c r="H86" s="49"/>
       <c r="I86" s="52" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="J86" s="49"/>
       <c r="K86" s="45"/>
@@ -10046,14 +10950,14 @@
       <c r="B87" s="41"/>
       <c r="C87" s="73"/>
       <c r="D87" s="49" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E87" s="54"/>
       <c r="F87" s="55"/>
       <c r="G87" s="49"/>
       <c r="H87" s="49"/>
       <c r="I87" s="52" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="J87" s="49"/>
       <c r="K87" s="45"/>
@@ -10067,7 +10971,7 @@
       <c r="B88" s="41"/>
       <c r="C88" s="73"/>
       <c r="D88" s="49" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E88" s="54"/>
       <c r="F88" s="55"/>
@@ -10088,14 +10992,14 @@
       <c r="B89" s="41"/>
       <c r="C89" s="73"/>
       <c r="D89" s="49" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E89" s="54"/>
       <c r="F89" s="55"/>
       <c r="G89" s="49"/>
       <c r="H89" s="49"/>
       <c r="I89" s="52" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="J89" s="49"/>
       <c r="K89" s="45"/>
@@ -10109,14 +11013,14 @@
       <c r="B90" s="41"/>
       <c r="C90" s="73"/>
       <c r="D90" s="49" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E90" s="54"/>
       <c r="F90" s="55"/>
       <c r="G90" s="49"/>
       <c r="H90" s="49"/>
       <c r="I90" s="52" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="J90" s="49"/>
       <c r="K90" s="45"/>
@@ -10130,14 +11034,12 @@
       <c r="B91" s="41"/>
       <c r="C91" s="73"/>
       <c r="D91" s="49" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E91" s="54"/>
       <c r="F91" s="55"/>
       <c r="G91" s="49"/>
-      <c r="H91" s="49">
-        <v>1</v>
-      </c>
+      <c r="H91" s="49"/>
       <c r="I91" s="52" t="s">
         <v>281</v>
       </c>
@@ -10145,6 +11047,113 @@
       <c r="K91" s="45"/>
       <c r="L91" s="42"/>
       <c r="M91" s="43"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="40">
+        <v>85</v>
+      </c>
+      <c r="B92" s="41"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="E92" s="54"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="J92" s="49"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="43"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="40">
+        <v>86</v>
+      </c>
+      <c r="B93" s="41"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="E93" s="54"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="J93" s="49"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="43"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="40">
+        <v>87</v>
+      </c>
+      <c r="B94" s="41"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="E94" s="54"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="43"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="40">
+        <v>88</v>
+      </c>
+      <c r="B95" s="41"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="E95" s="54"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="J95" s="49"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="43"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="40">
+        <v>89</v>
+      </c>
+      <c r="B96" s="41"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="E96" s="54"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49">
+        <v>1</v>
+      </c>
+      <c r="I96" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="J96" s="49"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:M7">
@@ -10152,11 +11161,11 @@
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C20"/>
-    <mergeCell ref="C21:C33"/>
-    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C26:C38"/>
+    <mergeCell ref="C39:C42"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="J3:K3"/>
@@ -10164,15 +11173,16 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C38:C65"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="C72:C91"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C43:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="C77:C96"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L58" r:id="rId1"/>
+    <hyperlink ref="L63" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId2"/>
@@ -11582,7 +12592,7 @@
       <c r="E2" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="67" t="s">
         <v>600</v>
       </c>
     </row>
@@ -11600,7 +12610,7 @@
       <c r="E3" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="88"/>
@@ -11616,7 +12626,7 @@
       <c r="E4" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="88"/>
@@ -11632,7 +12642,7 @@
       <c r="E5" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="88"/>
@@ -11648,7 +12658,7 @@
       <c r="E6" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="88"/>
@@ -11664,7 +12674,7 @@
       <c r="E7" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="88"/>
@@ -11680,7 +12690,7 @@
       <c r="E8" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="88"/>
@@ -11696,7 +12706,7 @@
       <c r="E9" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="88"/>
@@ -11712,7 +12722,7 @@
       <c r="E10" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="88"/>
@@ -11726,7 +12736,7 @@
       <c r="E11" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="F11" s="68"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -11743,7 +12753,7 @@
       <c r="F12" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="67" t="s">
         <v>607</v>
       </c>
     </row>
@@ -11761,10 +12771,10 @@
       <c r="E13" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="67" t="s">
         <v>600</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="88"/>
@@ -11780,8 +12790,8 @@
       <c r="E14" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="88"/>
@@ -11797,8 +12807,8 @@
       <c r="E15" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="88"/>
@@ -11810,8 +12820,8 @@
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="88"/>
@@ -11823,8 +12833,8 @@
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="88"/>
@@ -11836,8 +12846,8 @@
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="88"/>
@@ -11849,8 +12859,8 @@
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="88"/>
@@ -11862,8 +12872,8 @@
       </c>
       <c r="D20" s="65"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="88"/>
@@ -11875,8 +12885,8 @@
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="88"/>
@@ -11890,8 +12900,8 @@
       <c r="E22" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -11908,7 +12918,7 @@
       <c r="F23" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="88">
@@ -11925,7 +12935,7 @@
         <v>596</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="68"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="88"/>
@@ -11941,10 +12951,10 @@
       <c r="E25" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="67" t="s">
         <v>604</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="88"/>
@@ -11960,8 +12970,8 @@
       <c r="E26" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="88"/>
@@ -11977,8 +12987,8 @@
       <c r="E27" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="88"/>
@@ -11994,8 +13004,8 @@
       <c r="E28" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="88"/>
@@ -12011,10 +13021,10 @@
       <c r="E29" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="67" t="s">
         <v>605</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="88"/>
@@ -12030,8 +13040,8 @@
       <c r="E30" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="88"/>
@@ -12047,8 +13057,8 @@
       <c r="E31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="88"/>
@@ -12067,7 +13077,7 @@
       <c r="F32" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="88"/>
@@ -12082,7 +13092,7 @@
         <v>597</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="68"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
@@ -12099,7 +13109,7 @@
       <c r="F34" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G34" s="68"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="88">
@@ -12116,7 +13126,7 @@
         <v>596</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="68"/>
+      <c r="G35" s="67"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="88"/>
@@ -12132,10 +13142,10 @@
       <c r="E36" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="G36" s="68"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="88"/>
@@ -12151,8 +13161,8 @@
       <c r="E37" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="88"/>
@@ -12168,10 +13178,10 @@
       <c r="E38" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="G38" s="68"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="88"/>
@@ -12187,8 +13197,8 @@
       <c r="E39" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="88"/>
@@ -12204,8 +13214,8 @@
       <c r="E40" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="88"/>
@@ -12221,10 +13231,10 @@
       <c r="E41" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="88"/>
@@ -12240,8 +13250,8 @@
       <c r="E42" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="88"/>
@@ -12257,8 +13267,8 @@
       <c r="E43" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="88"/>
@@ -12273,7 +13283,7 @@
         <v>597</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="68"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
@@ -12290,7 +13300,7 @@
       <c r="F45" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G45" s="68" t="s">
+      <c r="G45" s="67" t="s">
         <v>626</v>
       </c>
     </row>
@@ -12309,7 +13319,7 @@
         <v>596</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="68"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="88"/>
@@ -12325,10 +13335,10 @@
       <c r="E47" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F47" s="67" t="s">
         <v>609</v>
       </c>
-      <c r="G47" s="68"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="88"/>
@@ -12344,8 +13354,8 @@
       <c r="E48" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="88"/>
@@ -12361,10 +13371,10 @@
       <c r="E49" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="67" t="s">
+      <c r="F49" s="68" t="s">
         <v>483</v>
       </c>
-      <c r="G49" s="68"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="88"/>
@@ -12380,8 +13390,8 @@
       <c r="E50" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="88"/>
@@ -12397,8 +13407,8 @@
       <c r="E51" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F51" s="67"/>
-      <c r="G51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="88"/>
@@ -12414,10 +13424,10 @@
       <c r="E52" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="67" t="s">
         <v>610</v>
       </c>
-      <c r="G52" s="68"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="88"/>
@@ -12433,8 +13443,8 @@
       <c r="E53" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="88"/>
@@ -12450,8 +13460,8 @@
       <c r="E54" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="88"/>
@@ -12466,7 +13476,7 @@
         <v>597</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="68"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
@@ -12483,7 +13493,7 @@
       <c r="F56" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G56" s="68"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="88">
@@ -12500,7 +13510,7 @@
         <v>596</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="68"/>
+      <c r="G57" s="67"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="88"/>
@@ -12519,7 +13529,7 @@
       <c r="F58" s="89" t="s">
         <v>623</v>
       </c>
-      <c r="G58" s="68"/>
+      <c r="G58" s="67"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="88"/>
@@ -12536,7 +13546,7 @@
         <v>475</v>
       </c>
       <c r="F59" s="90"/>
-      <c r="G59" s="68"/>
+      <c r="G59" s="67"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="88"/>
@@ -12553,7 +13563,7 @@
         <v>476</v>
       </c>
       <c r="F60" s="90"/>
-      <c r="G60" s="68"/>
+      <c r="G60" s="67"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="88"/>
@@ -12570,7 +13580,7 @@
         <v>226</v>
       </c>
       <c r="F61" s="90"/>
-      <c r="G61" s="68"/>
+      <c r="G61" s="67"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="88"/>
@@ -12587,7 +13597,7 @@
         <v>616</v>
       </c>
       <c r="F62" s="90"/>
-      <c r="G62" s="68"/>
+      <c r="G62" s="67"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="88"/>
@@ -12604,7 +13614,7 @@
         <v>617</v>
       </c>
       <c r="F63" s="91"/>
-      <c r="G63" s="68"/>
+      <c r="G63" s="67"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="88"/>
@@ -12623,7 +13633,7 @@
       <c r="F64" s="93" t="s">
         <v>625</v>
       </c>
-      <c r="G64" s="68"/>
+      <c r="G64" s="67"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="88"/>
@@ -12640,7 +13650,7 @@
         <v>488</v>
       </c>
       <c r="F65" s="94"/>
-      <c r="G65" s="68"/>
+      <c r="G65" s="67"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="88"/>
@@ -12655,7 +13665,7 @@
         <v>597</v>
       </c>
       <c r="F66" s="8"/>
-      <c r="G66" s="68"/>
+      <c r="G66" s="67"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
@@ -12672,7 +13682,7 @@
       <c r="F67" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G67" s="68" t="s">
+      <c r="G67" s="67" t="s">
         <v>627</v>
       </c>
     </row>
@@ -12691,7 +13701,7 @@
         <v>596</v>
       </c>
       <c r="F68" s="8"/>
-      <c r="G68" s="68"/>
+      <c r="G68" s="67"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="88"/>
@@ -12710,7 +13720,7 @@
       <c r="F69" s="92" t="s">
         <v>623</v>
       </c>
-      <c r="G69" s="68"/>
+      <c r="G69" s="67"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="88"/>
@@ -12727,7 +13737,7 @@
         <v>621</v>
       </c>
       <c r="F70" s="92"/>
-      <c r="G70" s="68"/>
+      <c r="G70" s="67"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="88"/>
@@ -12744,7 +13754,7 @@
         <v>485</v>
       </c>
       <c r="F71" s="92"/>
-      <c r="G71" s="68"/>
+      <c r="G71" s="67"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="88"/>
@@ -12761,7 +13771,7 @@
         <v>486</v>
       </c>
       <c r="F72" s="92"/>
-      <c r="G72" s="68"/>
+      <c r="G72" s="67"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="88"/>
@@ -12774,7 +13784,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="10"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="68"/>
+      <c r="G73" s="67"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="88"/>
@@ -12787,7 +13797,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="10"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="68"/>
+      <c r="G74" s="67"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="88"/>
@@ -12800,7 +13810,7 @@
       <c r="D75" s="65"/>
       <c r="E75" s="10"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="68"/>
+      <c r="G75" s="67"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="88"/>
@@ -12813,7 +13823,7 @@
       <c r="D76" s="65"/>
       <c r="E76" s="10"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="68"/>
+      <c r="G76" s="67"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="88"/>
@@ -12828,7 +13838,7 @@
         <v>597</v>
       </c>
       <c r="F77" s="8"/>
-      <c r="G77" s="68"/>
+      <c r="G77" s="67"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
@@ -13692,7 +14702,7 @@
       <c r="F133" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G133" s="68" t="s">
+      <c r="G133" s="67" t="s">
         <v>651</v>
       </c>
     </row>
@@ -13711,7 +14721,7 @@
         <v>596</v>
       </c>
       <c r="F134" s="8"/>
-      <c r="G134" s="68"/>
+      <c r="G134" s="67"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="88"/>
@@ -13730,7 +14740,7 @@
       <c r="F135" s="89" t="s">
         <v>648</v>
       </c>
-      <c r="G135" s="68"/>
+      <c r="G135" s="67"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="88"/>
@@ -13747,7 +14757,7 @@
         <v>223</v>
       </c>
       <c r="F136" s="90"/>
-      <c r="G136" s="68"/>
+      <c r="G136" s="67"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="88"/>
@@ -13764,7 +14774,7 @@
         <v>227</v>
       </c>
       <c r="F137" s="90"/>
-      <c r="G137" s="68"/>
+      <c r="G137" s="67"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="88"/>
@@ -13781,7 +14791,7 @@
         <v>224</v>
       </c>
       <c r="F138" s="91"/>
-      <c r="G138" s="68"/>
+      <c r="G138" s="67"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="88"/>
@@ -13794,7 +14804,7 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="66"/>
-      <c r="G139" s="68"/>
+      <c r="G139" s="67"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="88"/>
@@ -13807,7 +14817,7 @@
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="66"/>
-      <c r="G140" s="68"/>
+      <c r="G140" s="67"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="88"/>
@@ -13820,7 +14830,7 @@
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="66"/>
-      <c r="G141" s="68"/>
+      <c r="G141" s="67"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="88"/>
@@ -13833,7 +14843,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="10"/>
       <c r="F142" s="66"/>
-      <c r="G142" s="68"/>
+      <c r="G142" s="67"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="88"/>
@@ -13848,7 +14858,7 @@
         <v>597</v>
       </c>
       <c r="F143" s="8"/>
-      <c r="G143" s="68"/>
+      <c r="G143" s="67"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
@@ -13865,7 +14875,7 @@
       <c r="F144" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G144" s="68" t="s">
+      <c r="G144" s="67" t="s">
         <v>650</v>
       </c>
     </row>
@@ -13884,7 +14894,7 @@
         <v>596</v>
       </c>
       <c r="F145" s="8"/>
-      <c r="G145" s="68"/>
+      <c r="G145" s="67"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="88"/>
@@ -13903,7 +14913,7 @@
       <c r="F146" s="89" t="s">
         <v>649</v>
       </c>
-      <c r="G146" s="68"/>
+      <c r="G146" s="67"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="88"/>
@@ -13920,7 +14930,7 @@
         <v>244</v>
       </c>
       <c r="F147" s="90"/>
-      <c r="G147" s="68"/>
+      <c r="G147" s="67"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="88"/>
@@ -13937,7 +14947,7 @@
         <v>245</v>
       </c>
       <c r="F148" s="90"/>
-      <c r="G148" s="68"/>
+      <c r="G148" s="67"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="88"/>
@@ -13954,7 +14964,7 @@
         <v>246</v>
       </c>
       <c r="F149" s="90"/>
-      <c r="G149" s="68"/>
+      <c r="G149" s="67"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="88"/>
@@ -13971,7 +14981,7 @@
         <v>247</v>
       </c>
       <c r="F150" s="90"/>
-      <c r="G150" s="68"/>
+      <c r="G150" s="67"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="88"/>
@@ -13988,7 +14998,7 @@
         <v>228</v>
       </c>
       <c r="F151" s="90"/>
-      <c r="G151" s="68"/>
+      <c r="G151" s="67"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="88"/>
@@ -14005,7 +15015,7 @@
         <v>229</v>
       </c>
       <c r="F152" s="90"/>
-      <c r="G152" s="68"/>
+      <c r="G152" s="67"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="88"/>
@@ -14022,7 +15032,7 @@
         <v>230</v>
       </c>
       <c r="F153" s="91"/>
-      <c r="G153" s="68"/>
+      <c r="G153" s="67"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="88"/>
@@ -14037,7 +15047,7 @@
         <v>597</v>
       </c>
       <c r="F154" s="8"/>
-      <c r="G154" s="68"/>
+      <c r="G154" s="67"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
@@ -14054,7 +15064,7 @@
       <c r="F155" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G155" s="68"/>
+      <c r="G155" s="67"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="88">
@@ -14071,7 +15081,7 @@
         <v>596</v>
       </c>
       <c r="F156" s="8"/>
-      <c r="G156" s="68"/>
+      <c r="G156" s="67"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="88"/>
@@ -14090,7 +15100,7 @@
       <c r="F157" s="92" t="s">
         <v>649</v>
       </c>
-      <c r="G157" s="68"/>
+      <c r="G157" s="67"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="88"/>
@@ -14107,7 +15117,7 @@
         <v>232</v>
       </c>
       <c r="F158" s="92"/>
-      <c r="G158" s="68"/>
+      <c r="G158" s="67"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="88"/>
@@ -14124,7 +15134,7 @@
         <v>233</v>
       </c>
       <c r="F159" s="92"/>
-      <c r="G159" s="68"/>
+      <c r="G159" s="67"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="88"/>
@@ -14141,7 +15151,7 @@
         <v>234</v>
       </c>
       <c r="F160" s="92"/>
-      <c r="G160" s="68"/>
+      <c r="G160" s="67"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="88"/>
@@ -14158,7 +15168,7 @@
         <v>235</v>
       </c>
       <c r="F161" s="92"/>
-      <c r="G161" s="68"/>
+      <c r="G161" s="67"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="88"/>
@@ -14175,7 +15185,7 @@
         <v>236</v>
       </c>
       <c r="F162" s="92"/>
-      <c r="G162" s="68"/>
+      <c r="G162" s="67"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="88"/>
@@ -14192,7 +15202,7 @@
         <v>237</v>
       </c>
       <c r="F163" s="92"/>
-      <c r="G163" s="68"/>
+      <c r="G163" s="67"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="88"/>
@@ -14209,7 +15219,7 @@
         <v>238</v>
       </c>
       <c r="F164" s="92"/>
-      <c r="G164" s="68"/>
+      <c r="G164" s="67"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="88"/>
@@ -14224,7 +15234,7 @@
         <v>597</v>
       </c>
       <c r="F165" s="8"/>
-      <c r="G165" s="68"/>
+      <c r="G165" s="67"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
@@ -14241,7 +15251,7 @@
       <c r="F166" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G166" s="68"/>
+      <c r="G166" s="67"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="88">
@@ -14258,7 +15268,7 @@
         <v>596</v>
       </c>
       <c r="F167" s="8"/>
-      <c r="G167" s="68"/>
+      <c r="G167" s="67"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="88"/>
@@ -14277,7 +15287,7 @@
       <c r="F168" s="92" t="s">
         <v>649</v>
       </c>
-      <c r="G168" s="68"/>
+      <c r="G168" s="67"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="88"/>
@@ -14294,7 +15304,7 @@
         <v>240</v>
       </c>
       <c r="F169" s="92"/>
-      <c r="G169" s="68"/>
+      <c r="G169" s="67"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="88"/>
@@ -14311,7 +15321,7 @@
         <v>241</v>
       </c>
       <c r="F170" s="92"/>
-      <c r="G170" s="68"/>
+      <c r="G170" s="67"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="88"/>
@@ -14328,7 +15338,7 @@
         <v>242</v>
       </c>
       <c r="F171" s="92"/>
-      <c r="G171" s="68"/>
+      <c r="G171" s="67"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="88"/>
@@ -14341,7 +15351,7 @@
       <c r="D172" s="12"/>
       <c r="E172" s="10"/>
       <c r="F172" s="66"/>
-      <c r="G172" s="68"/>
+      <c r="G172" s="67"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="88"/>
@@ -14354,7 +15364,7 @@
       <c r="D173" s="12"/>
       <c r="E173" s="10"/>
       <c r="F173" s="66"/>
-      <c r="G173" s="68"/>
+      <c r="G173" s="67"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="88"/>
@@ -14367,7 +15377,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="10"/>
       <c r="F174" s="66"/>
-      <c r="G174" s="68"/>
+      <c r="G174" s="67"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="88"/>
@@ -14380,7 +15390,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="10"/>
       <c r="F175" s="66"/>
-      <c r="G175" s="68"/>
+      <c r="G175" s="67"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="88"/>
@@ -14395,7 +15405,7 @@
         <v>597</v>
       </c>
       <c r="F176" s="8"/>
-      <c r="G176" s="68"/>
+      <c r="G176" s="67"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
@@ -14412,7 +15422,7 @@
       <c r="F177" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G177" s="68" t="s">
+      <c r="G177" s="67" t="s">
         <v>522</v>
       </c>
     </row>
@@ -14431,7 +15441,7 @@
         <v>596</v>
       </c>
       <c r="F178" s="8"/>
-      <c r="G178" s="68"/>
+      <c r="G178" s="67"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="88"/>
@@ -14450,7 +15460,7 @@
       <c r="F179" s="89" t="s">
         <v>522</v>
       </c>
-      <c r="G179" s="68"/>
+      <c r="G179" s="67"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="88"/>
@@ -14467,7 +15477,7 @@
         <v>511</v>
       </c>
       <c r="F180" s="90"/>
-      <c r="G180" s="68"/>
+      <c r="G180" s="67"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="88"/>
@@ -14484,7 +15494,7 @@
         <v>512</v>
       </c>
       <c r="F181" s="90"/>
-      <c r="G181" s="68"/>
+      <c r="G181" s="67"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="88"/>
@@ -14501,7 +15511,7 @@
         <v>513</v>
       </c>
       <c r="F182" s="90"/>
-      <c r="G182" s="68"/>
+      <c r="G182" s="67"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="88"/>
@@ -14518,7 +15528,7 @@
         <v>514</v>
       </c>
       <c r="F183" s="90"/>
-      <c r="G183" s="68"/>
+      <c r="G183" s="67"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="88"/>
@@ -14535,7 +15545,7 @@
         <v>515</v>
       </c>
       <c r="F184" s="90"/>
-      <c r="G184" s="68"/>
+      <c r="G184" s="67"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="88"/>
@@ -14552,7 +15562,7 @@
         <v>516</v>
       </c>
       <c r="F185" s="90"/>
-      <c r="G185" s="68"/>
+      <c r="G185" s="67"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="88"/>
@@ -14569,7 +15579,7 @@
         <v>517</v>
       </c>
       <c r="F186" s="91"/>
-      <c r="G186" s="68"/>
+      <c r="G186" s="67"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="88"/>
@@ -14584,7 +15594,7 @@
         <v>597</v>
       </c>
       <c r="F187" s="8"/>
-      <c r="G187" s="68"/>
+      <c r="G187" s="67"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
@@ -14601,7 +15611,7 @@
       <c r="F188" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G188" s="68"/>
+      <c r="G188" s="67"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="88">
@@ -14618,7 +15628,7 @@
         <v>596</v>
       </c>
       <c r="F189" s="8"/>
-      <c r="G189" s="68"/>
+      <c r="G189" s="67"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="88"/>
@@ -14637,7 +15647,7 @@
       <c r="F190" s="89" t="s">
         <v>522</v>
       </c>
-      <c r="G190" s="68"/>
+      <c r="G190" s="67"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="88"/>
@@ -14654,7 +15664,7 @@
         <v>519</v>
       </c>
       <c r="F191" s="90"/>
-      <c r="G191" s="68"/>
+      <c r="G191" s="67"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="88"/>
@@ -14671,7 +15681,7 @@
         <v>520</v>
       </c>
       <c r="F192" s="90"/>
-      <c r="G192" s="68"/>
+      <c r="G192" s="67"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="88"/>
@@ -14688,7 +15698,7 @@
         <v>521</v>
       </c>
       <c r="F193" s="90"/>
-      <c r="G193" s="68"/>
+      <c r="G193" s="67"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="88"/>
@@ -14705,7 +15715,7 @@
         <v>542</v>
       </c>
       <c r="F194" s="90"/>
-      <c r="G194" s="68"/>
+      <c r="G194" s="67"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="88"/>
@@ -14722,7 +15732,7 @@
         <v>5</v>
       </c>
       <c r="F195" s="90"/>
-      <c r="G195" s="68"/>
+      <c r="G195" s="67"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="88"/>
@@ -14739,7 +15749,7 @@
         <v>6</v>
       </c>
       <c r="F196" s="90"/>
-      <c r="G196" s="68"/>
+      <c r="G196" s="67"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="88"/>
@@ -14756,7 +15766,7 @@
         <v>543</v>
       </c>
       <c r="F197" s="91"/>
-      <c r="G197" s="68"/>
+      <c r="G197" s="67"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="88"/>
@@ -14771,7 +15781,7 @@
         <v>597</v>
       </c>
       <c r="F198" s="8"/>
-      <c r="G198" s="68"/>
+      <c r="G198" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -14829,4 +15839,171 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A24:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.25" customWidth="1"/>
+    <col min="15" max="15" width="7.125" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C26" s="2">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28" s="2">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C29" s="2">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C30" s="2">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="762">
   <si>
     <t>序号</t>
   </si>
@@ -2812,6 +2812,10 @@
   </si>
   <si>
     <t>导程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4669,6 +4673,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160764</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>8945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4286250"/>
+          <a:ext cx="9285714" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160764</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>8945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9086850"/>
+          <a:ext cx="9285714" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160764</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>8945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13887450"/>
+          <a:ext cx="9285714" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16277,8 +16395,8 @@
   </sheetPr>
   <dimension ref="A24:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16425,7 +16543,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16433,19 +16551,24 @@
     <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:11">
+    <row r="1" spans="10:11">
       <c r="K1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="2" spans="11:11">
+    <row r="2" spans="10:11">
       <c r="K2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="11:11">
+    <row r="3" spans="10:11">
       <c r="K3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11">
+      <c r="J7" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,18 @@
     <sheet name="IO端子台" sheetId="6" r:id="rId6"/>
     <sheet name="伺服端子接线图" sheetId="7" r:id="rId7"/>
     <sheet name="编程规划" sheetId="8" r:id="rId8"/>
+    <sheet name="通信" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="1071">
   <si>
     <t>序号</t>
   </si>
@@ -2816,6 +2818,974 @@
   </si>
   <si>
     <t>M5000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与机械手1通信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与机械手2通信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与上位机通信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M350</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M351</t>
+  </si>
+  <si>
+    <t>M352</t>
+  </si>
+  <si>
+    <t>M353</t>
+  </si>
+  <si>
+    <t>M354</t>
+  </si>
+  <si>
+    <t>M355</t>
+  </si>
+  <si>
+    <t>M356</t>
+  </si>
+  <si>
+    <t>M357</t>
+  </si>
+  <si>
+    <t>M358</t>
+  </si>
+  <si>
+    <t>M359</t>
+  </si>
+  <si>
+    <t>M360</t>
+  </si>
+  <si>
+    <t>M361</t>
+  </si>
+  <si>
+    <t>M362</t>
+  </si>
+  <si>
+    <t>M363</t>
+  </si>
+  <si>
+    <t>M364</t>
+  </si>
+  <si>
+    <t>M365</t>
+  </si>
+  <si>
+    <t>M366</t>
+  </si>
+  <si>
+    <t>M367</t>
+  </si>
+  <si>
+    <t>M368</t>
+  </si>
+  <si>
+    <t>M369</t>
+  </si>
+  <si>
+    <t>M370</t>
+  </si>
+  <si>
+    <t>M371</t>
+  </si>
+  <si>
+    <t>M372</t>
+  </si>
+  <si>
+    <t>M373</t>
+  </si>
+  <si>
+    <t>M374</t>
+  </si>
+  <si>
+    <t>M375</t>
+  </si>
+  <si>
+    <t>M376</t>
+  </si>
+  <si>
+    <t>M377</t>
+  </si>
+  <si>
+    <t>M378</t>
+  </si>
+  <si>
+    <t>M379</t>
+  </si>
+  <si>
+    <t>M380</t>
+  </si>
+  <si>
+    <t>M381</t>
+  </si>
+  <si>
+    <t>M382</t>
+  </si>
+  <si>
+    <t>M383</t>
+  </si>
+  <si>
+    <t>M384</t>
+  </si>
+  <si>
+    <t>M385</t>
+  </si>
+  <si>
+    <t>M386</t>
+  </si>
+  <si>
+    <t>M387</t>
+  </si>
+  <si>
+    <t>M388</t>
+  </si>
+  <si>
+    <t>M389</t>
+  </si>
+  <si>
+    <t>M390</t>
+  </si>
+  <si>
+    <t>M391</t>
+  </si>
+  <si>
+    <t>M392</t>
+  </si>
+  <si>
+    <t>M393</t>
+  </si>
+  <si>
+    <t>M394</t>
+  </si>
+  <si>
+    <t>M395</t>
+  </si>
+  <si>
+    <t>M396</t>
+  </si>
+  <si>
+    <t>M397</t>
+  </si>
+  <si>
+    <t>M398</t>
+  </si>
+  <si>
+    <t>M399</t>
+  </si>
+  <si>
+    <t>XX0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX1</t>
+  </si>
+  <si>
+    <t>XX2</t>
+  </si>
+  <si>
+    <t>XX3</t>
+  </si>
+  <si>
+    <t>XX4</t>
+  </si>
+  <si>
+    <t>XX5</t>
+  </si>
+  <si>
+    <t>XX6</t>
+  </si>
+  <si>
+    <t>XX7</t>
+  </si>
+  <si>
+    <t>XX8</t>
+  </si>
+  <si>
+    <t>XX9</t>
+  </si>
+  <si>
+    <t>XX10</t>
+  </si>
+  <si>
+    <t>XX11</t>
+  </si>
+  <si>
+    <t>XX12</t>
+  </si>
+  <si>
+    <t>XX13</t>
+  </si>
+  <si>
+    <t>XX14</t>
+  </si>
+  <si>
+    <t>XX15</t>
+  </si>
+  <si>
+    <t>XX16</t>
+  </si>
+  <si>
+    <t>XX17</t>
+  </si>
+  <si>
+    <t>XX18</t>
+  </si>
+  <si>
+    <t>XX19</t>
+  </si>
+  <si>
+    <t>XX20</t>
+  </si>
+  <si>
+    <t>XX21</t>
+  </si>
+  <si>
+    <t>XX22</t>
+  </si>
+  <si>
+    <t>XX23</t>
+  </si>
+  <si>
+    <t>XX24</t>
+  </si>
+  <si>
+    <t>XX25</t>
+  </si>
+  <si>
+    <t>XX26</t>
+  </si>
+  <si>
+    <t>XX27</t>
+  </si>
+  <si>
+    <t>XX28</t>
+  </si>
+  <si>
+    <t>XX29</t>
+  </si>
+  <si>
+    <t>XX30</t>
+  </si>
+  <si>
+    <t>XX31</t>
+  </si>
+  <si>
+    <t>XX32</t>
+  </si>
+  <si>
+    <t>XX33</t>
+  </si>
+  <si>
+    <t>XX34</t>
+  </si>
+  <si>
+    <t>XX35</t>
+  </si>
+  <si>
+    <t>XX36</t>
+  </si>
+  <si>
+    <t>XX37</t>
+  </si>
+  <si>
+    <t>XX38</t>
+  </si>
+  <si>
+    <t>XX39</t>
+  </si>
+  <si>
+    <t>XX40</t>
+  </si>
+  <si>
+    <t>XX41</t>
+  </si>
+  <si>
+    <t>XX42</t>
+  </si>
+  <si>
+    <t>XX43</t>
+  </si>
+  <si>
+    <t>XX44</t>
+  </si>
+  <si>
+    <t>XX45</t>
+  </si>
+  <si>
+    <t>XX46</t>
+  </si>
+  <si>
+    <t>XX47</t>
+  </si>
+  <si>
+    <t>XX48</t>
+  </si>
+  <si>
+    <t>XX49</t>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY1</t>
+  </si>
+  <si>
+    <t>YY2</t>
+  </si>
+  <si>
+    <t>YY3</t>
+  </si>
+  <si>
+    <t>YY4</t>
+  </si>
+  <si>
+    <t>YY5</t>
+  </si>
+  <si>
+    <t>YY6</t>
+  </si>
+  <si>
+    <t>YY7</t>
+  </si>
+  <si>
+    <t>YY8</t>
+  </si>
+  <si>
+    <t>YY9</t>
+  </si>
+  <si>
+    <t>YY10</t>
+  </si>
+  <si>
+    <t>YY11</t>
+  </si>
+  <si>
+    <t>YY12</t>
+  </si>
+  <si>
+    <t>YY13</t>
+  </si>
+  <si>
+    <t>YY14</t>
+  </si>
+  <si>
+    <t>YY15</t>
+  </si>
+  <si>
+    <t>YY16</t>
+  </si>
+  <si>
+    <t>YY17</t>
+  </si>
+  <si>
+    <t>YY18</t>
+  </si>
+  <si>
+    <t>YY19</t>
+  </si>
+  <si>
+    <t>YY20</t>
+  </si>
+  <si>
+    <t>YY21</t>
+  </si>
+  <si>
+    <t>YY22</t>
+  </si>
+  <si>
+    <t>YY23</t>
+  </si>
+  <si>
+    <t>YY24</t>
+  </si>
+  <si>
+    <t>YY25</t>
+  </si>
+  <si>
+    <t>YY26</t>
+  </si>
+  <si>
+    <t>YY27</t>
+  </si>
+  <si>
+    <t>YY28</t>
+  </si>
+  <si>
+    <t>YY29</t>
+  </si>
+  <si>
+    <t>YY30</t>
+  </si>
+  <si>
+    <t>YY31</t>
+  </si>
+  <si>
+    <t>YY32</t>
+  </si>
+  <si>
+    <t>YY33</t>
+  </si>
+  <si>
+    <t>YY34</t>
+  </si>
+  <si>
+    <t>YY35</t>
+  </si>
+  <si>
+    <t>YY36</t>
+  </si>
+  <si>
+    <t>YY37</t>
+  </si>
+  <si>
+    <t>YY38</t>
+  </si>
+  <si>
+    <t>YY39</t>
+  </si>
+  <si>
+    <t>YY40</t>
+  </si>
+  <si>
+    <t>YY41</t>
+  </si>
+  <si>
+    <t>YY42</t>
+  </si>
+  <si>
+    <t>YY43</t>
+  </si>
+  <si>
+    <t>YY44</t>
+  </si>
+  <si>
+    <t>YY45</t>
+  </si>
+  <si>
+    <t>YY46</t>
+  </si>
+  <si>
+    <t>YY47</t>
+  </si>
+  <si>
+    <t>YY48</t>
+  </si>
+  <si>
+    <t>YY49</t>
+  </si>
+  <si>
+    <t>M300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M301</t>
+  </si>
+  <si>
+    <t>M302</t>
+  </si>
+  <si>
+    <t>M303</t>
+  </si>
+  <si>
+    <t>M304</t>
+  </si>
+  <si>
+    <t>M305</t>
+  </si>
+  <si>
+    <t>M306</t>
+  </si>
+  <si>
+    <t>M307</t>
+  </si>
+  <si>
+    <t>M308</t>
+  </si>
+  <si>
+    <t>M309</t>
+  </si>
+  <si>
+    <t>M310</t>
+  </si>
+  <si>
+    <t>M311</t>
+  </si>
+  <si>
+    <t>M312</t>
+  </si>
+  <si>
+    <t>M313</t>
+  </si>
+  <si>
+    <t>M314</t>
+  </si>
+  <si>
+    <t>M315</t>
+  </si>
+  <si>
+    <t>M316</t>
+  </si>
+  <si>
+    <t>M317</t>
+  </si>
+  <si>
+    <t>M318</t>
+  </si>
+  <si>
+    <t>M319</t>
+  </si>
+  <si>
+    <t>M320</t>
+  </si>
+  <si>
+    <t>M321</t>
+  </si>
+  <si>
+    <t>M322</t>
+  </si>
+  <si>
+    <t>M323</t>
+  </si>
+  <si>
+    <t>M324</t>
+  </si>
+  <si>
+    <t>M325</t>
+  </si>
+  <si>
+    <t>M326</t>
+  </si>
+  <si>
+    <t>M327</t>
+  </si>
+  <si>
+    <t>M328</t>
+  </si>
+  <si>
+    <t>M329</t>
+  </si>
+  <si>
+    <t>M330</t>
+  </si>
+  <si>
+    <t>M331</t>
+  </si>
+  <si>
+    <t>M332</t>
+  </si>
+  <si>
+    <t>M333</t>
+  </si>
+  <si>
+    <t>M334</t>
+  </si>
+  <si>
+    <t>M335</t>
+  </si>
+  <si>
+    <t>M336</t>
+  </si>
+  <si>
+    <t>M337</t>
+  </si>
+  <si>
+    <t>M338</t>
+  </si>
+  <si>
+    <t>M339</t>
+  </si>
+  <si>
+    <t>M340</t>
+  </si>
+  <si>
+    <t>M341</t>
+  </si>
+  <si>
+    <t>M342</t>
+  </si>
+  <si>
+    <t>M343</t>
+  </si>
+  <si>
+    <t>M344</t>
+  </si>
+  <si>
+    <t>M345</t>
+  </si>
+  <si>
+    <t>M346</t>
+  </si>
+  <si>
+    <t>M347</t>
+  </si>
+  <si>
+    <t>M348</t>
+  </si>
+  <si>
+    <t>M349</t>
+  </si>
+  <si>
+    <t>检测正反完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测钢片完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片1结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片2结果</t>
+  </si>
+  <si>
+    <t>钢片3结果</t>
+  </si>
+  <si>
+    <t>钢片4结果</t>
+  </si>
+  <si>
+    <t>钢片5结果</t>
+  </si>
+  <si>
+    <t>钢片6结果</t>
+  </si>
+  <si>
+    <t>钢片7结果</t>
+  </si>
+  <si>
+    <t>钢片8结果</t>
+  </si>
+  <si>
+    <t>钢片9结果</t>
+  </si>
+  <si>
+    <t>钢片10结果</t>
+  </si>
+  <si>
+    <t>钢片11结果</t>
+  </si>
+  <si>
+    <t>钢片12结果</t>
+  </si>
+  <si>
+    <t>钢片13结果</t>
+  </si>
+  <si>
+    <t>钢片14结果</t>
+  </si>
+  <si>
+    <t>钢片15结果</t>
+  </si>
+  <si>
+    <t>钢片16结果</t>
+  </si>
+  <si>
+    <t>钢片17结果</t>
+  </si>
+  <si>
+    <t>钢片18结果</t>
+  </si>
+  <si>
+    <t>钢片19结果</t>
+  </si>
+  <si>
+    <t>钢片20结果</t>
+  </si>
+  <si>
+    <t>钢片21结果</t>
+  </si>
+  <si>
+    <t>钢片22结果</t>
+  </si>
+  <si>
+    <t>钢片23结果</t>
+  </si>
+  <si>
+    <t>钢片24结果</t>
+  </si>
+  <si>
+    <t>钢片25结果</t>
+  </si>
+  <si>
+    <t>急停信号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>M106</t>
+  </si>
+  <si>
+    <t>M107</t>
+  </si>
+  <si>
+    <t>M108</t>
+  </si>
+  <si>
+    <t>M150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M151</t>
+  </si>
+  <si>
+    <t>M152</t>
+  </si>
+  <si>
+    <t>M153</t>
+  </si>
+  <si>
+    <t>M154</t>
+  </si>
+  <si>
+    <t>M155</t>
+  </si>
+  <si>
+    <t>M156</t>
+  </si>
+  <si>
+    <t>M157</t>
+  </si>
+  <si>
+    <t>M158</t>
+  </si>
+  <si>
+    <t>PLCIN0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN1</t>
+  </si>
+  <si>
+    <t>PLCIN2</t>
+  </si>
+  <si>
+    <t>PLCIN3</t>
+  </si>
+  <si>
+    <t>PLCIN4</t>
+  </si>
+  <si>
+    <t>PLCIN5</t>
+  </si>
+  <si>
+    <t>PLCIN6</t>
+  </si>
+  <si>
+    <t>PLCIN7</t>
+  </si>
+  <si>
+    <t>PLCIN8</t>
+  </si>
+  <si>
+    <t>膜左RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>膜右RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCOUT0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCOUT1</t>
+  </si>
+  <si>
+    <t>PLCOUT2</t>
+  </si>
+  <si>
+    <t>PLCOUT3</t>
+  </si>
+  <si>
+    <t>PLCOUT4</t>
+  </si>
+  <si>
+    <t>PLCOUT5</t>
+  </si>
+  <si>
+    <t>PLCOUT6</t>
+  </si>
+  <si>
+    <t>PLCOUT7</t>
+  </si>
+  <si>
+    <t>PLCOUT8</t>
+  </si>
+  <si>
+    <t>膜取完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹爪气缸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
+    <t>M202</t>
+  </si>
+  <si>
+    <t>M203</t>
+  </si>
+  <si>
+    <t>M204</t>
+  </si>
+  <si>
+    <t>M205</t>
+  </si>
+  <si>
+    <t>M206</t>
+  </si>
+  <si>
+    <t>M207</t>
+  </si>
+  <si>
+    <t>M208</t>
+  </si>
+  <si>
+    <t>M250</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M251</t>
+  </si>
+  <si>
+    <t>M252</t>
+  </si>
+  <si>
+    <t>M253</t>
+  </si>
+  <si>
+    <t>M254</t>
+  </si>
+  <si>
+    <t>M255</t>
+  </si>
+  <si>
+    <t>M256</t>
+  </si>
+  <si>
+    <t>M257</t>
+  </si>
+  <si>
+    <t>M258</t>
+  </si>
+  <si>
+    <t>钢片RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片取完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴膜工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴膜完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴钢片工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴钢片完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测正反工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测钢片工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3465,13 +4435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3483,6 +4450,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3492,12 +4462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3505,6 +4469,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3524,9 +4497,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5082,8 +6052,8 @@
   </sheetPr>
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5101,12 +6071,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -5115,10 +6085,10 @@
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="22.5">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -5580,7 +6550,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="67" t="s">
         <v>139</v>
       </c>
       <c r="K20" s="6"/>
@@ -5603,7 +6573,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="69"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
@@ -5626,7 +6596,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="69"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
@@ -5647,7 +6617,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="69"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
@@ -5668,7 +6638,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="69"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
@@ -5691,7 +6661,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="69"/>
+      <c r="J25" s="67"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
@@ -5712,7 +6682,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="69"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
@@ -5733,7 +6703,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="69"/>
+      <c r="J27" s="67"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
@@ -5756,7 +6726,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="69"/>
+      <c r="J28" s="67"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11">
@@ -5777,7 +6747,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="69"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
@@ -5798,7 +6768,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="69"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11">
@@ -5821,7 +6791,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="69"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11">
@@ -5842,7 +6812,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="69"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11">
@@ -5863,7 +6833,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="69"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11">
@@ -5886,7 +6856,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="69"/>
+      <c r="J34" s="67"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
@@ -5907,7 +6877,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="69"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11">
@@ -5928,7 +6898,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="69" t="s">
+      <c r="J36" s="67" t="s">
         <v>139</v>
       </c>
       <c r="K36" s="6"/>
@@ -5953,7 +6923,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="69"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
@@ -5974,7 +6944,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="69"/>
+      <c r="J38" s="67"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
@@ -5995,7 +6965,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="69"/>
+      <c r="J39" s="67"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11">
@@ -6016,7 +6986,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="69"/>
+      <c r="J40" s="67"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11">
@@ -6037,7 +7007,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="69"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11">
@@ -6053,14 +7023,14 @@
       <c r="D42" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E42" s="69" t="s">
+      <c r="E42" s="67" t="s">
         <v>723</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="69"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
@@ -6076,12 +7046,12 @@
       <c r="D43" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E43" s="69"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="69"/>
+      <c r="J43" s="67"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
@@ -6097,14 +7067,14 @@
       <c r="D44" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E44" s="69" t="s">
+      <c r="E44" s="67" t="s">
         <v>724</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="69"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11">
@@ -6120,12 +7090,12 @@
       <c r="D45" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="E45" s="69"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="69"/>
+      <c r="J45" s="67"/>
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
@@ -6141,12 +7111,12 @@
       <c r="D46" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="E46" s="69"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="69"/>
+      <c r="J46" s="67"/>
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11">
@@ -6162,12 +7132,12 @@
       <c r="D47" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E47" s="69"/>
+      <c r="E47" s="67"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="69"/>
+      <c r="J47" s="67"/>
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11">
@@ -6183,12 +7153,12 @@
       <c r="D48" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="E48" s="69"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="69"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11">
@@ -6204,12 +7174,12 @@
       <c r="D49" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E49" s="69"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="69"/>
+      <c r="J49" s="67"/>
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11">
@@ -6225,14 +7195,14 @@
       <c r="D50" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E50" s="69" t="s">
+      <c r="E50" s="67" t="s">
         <v>725</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="69"/>
+      <c r="J50" s="67"/>
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11">
@@ -6248,12 +7218,12 @@
       <c r="D51" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E51" s="69"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="69"/>
+      <c r="J51" s="67"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11">
@@ -6269,12 +7239,12 @@
       <c r="D52" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="E52" s="69"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="69" t="s">
+      <c r="J52" s="67" t="s">
         <v>140</v>
       </c>
       <c r="K52" s="6"/>
@@ -6292,12 +7262,12 @@
       <c r="D53" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="E53" s="69"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="69"/>
+      <c r="J53" s="67"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11">
@@ -6313,12 +7283,12 @@
       <c r="D54" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="E54" s="69"/>
+      <c r="E54" s="67"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="69"/>
+      <c r="J54" s="67"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11">
@@ -6334,12 +7304,12 @@
       <c r="D55" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="E55" s="69"/>
+      <c r="E55" s="67"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="69"/>
+      <c r="J55" s="67"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11">
@@ -6355,12 +7325,12 @@
       <c r="D56" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="E56" s="69"/>
+      <c r="E56" s="67"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="69"/>
+      <c r="J56" s="67"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11">
@@ -6374,12 +7344,12 @@
         <v>80</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="69"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="69"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11">
@@ -6395,14 +7365,14 @@
       <c r="D58" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E58" s="69" t="s">
+      <c r="E58" s="67" t="s">
         <v>726</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="69"/>
+      <c r="J58" s="67"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11">
@@ -6418,12 +7388,12 @@
       <c r="D59" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E59" s="69"/>
+      <c r="E59" s="67"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="69"/>
+      <c r="J59" s="67"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11">
@@ -6439,12 +7409,12 @@
       <c r="D60" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="E60" s="69"/>
+      <c r="E60" s="67"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="69"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11">
@@ -6460,12 +7430,12 @@
       <c r="D61" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="E61" s="69"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="69"/>
+      <c r="J61" s="67"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="11">
@@ -6480,12 +7450,12 @@
       <c r="D62" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="E62" s="69"/>
+      <c r="E62" s="67"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="69"/>
+      <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="11">
@@ -6500,12 +7470,12 @@
       <c r="D63" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E63" s="69"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="69"/>
+      <c r="J63" s="67"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="11">
@@ -6520,12 +7490,12 @@
       <c r="D64" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E64" s="69"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="69"/>
+      <c r="J64" s="67"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="11">
@@ -6540,12 +7510,12 @@
       <c r="D65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="69"/>
+      <c r="E65" s="67"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="69"/>
+      <c r="J65" s="67"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="11">
@@ -6560,14 +7530,14 @@
       <c r="D66" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="E66" s="69" t="s">
+      <c r="E66" s="67" t="s">
         <v>503</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="69"/>
+      <c r="J66" s="67"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="11">
@@ -6582,12 +7552,12 @@
       <c r="D67" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E67" s="69"/>
+      <c r="E67" s="67"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="69"/>
+      <c r="J67" s="67"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="11">
@@ -6602,12 +7572,12 @@
       <c r="D68" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="E68" s="69"/>
+      <c r="E68" s="67"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="69" t="s">
+      <c r="J68" s="67" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6624,12 +7594,12 @@
       <c r="D69" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E69" s="69"/>
+      <c r="E69" s="67"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="69"/>
+      <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="11">
@@ -6644,12 +7614,12 @@
       <c r="D70" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="E70" s="69"/>
+      <c r="E70" s="67"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="69"/>
+      <c r="J70" s="67"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="11">
@@ -6664,12 +7634,12 @@
       <c r="D71" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="E71" s="69"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="69"/>
+      <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="11">
@@ -6684,12 +7654,12 @@
       <c r="D72" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E72" s="69"/>
+      <c r="E72" s="67"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="69"/>
+      <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="11">
@@ -6704,12 +7674,12 @@
       <c r="D73" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E73" s="69"/>
+      <c r="E73" s="67"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="69"/>
+      <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="11">
@@ -6724,12 +7694,12 @@
       <c r="D74" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="E74" s="69"/>
+      <c r="E74" s="67"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="69"/>
+      <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="11">
@@ -6744,12 +7714,12 @@
       <c r="D75" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E75" s="69"/>
+      <c r="E75" s="67"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="69"/>
+      <c r="J75" s="67"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="11">
@@ -6764,12 +7734,12 @@
       <c r="D76" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E76" s="69"/>
+      <c r="E76" s="67"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="69"/>
+      <c r="J76" s="67"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="11">
@@ -6784,12 +7754,12 @@
       <c r="D77" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E77" s="69"/>
+      <c r="E77" s="67"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="69"/>
+      <c r="J77" s="67"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="11">
@@ -6807,7 +7777,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="69"/>
+      <c r="J78" s="67"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="11">
@@ -6825,7 +7795,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="69"/>
+      <c r="J79" s="67"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="11">
@@ -6843,7 +7813,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="69"/>
+      <c r="J80" s="67"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="11">
@@ -6861,7 +7831,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="69"/>
+      <c r="J81" s="67"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="11">
@@ -6879,7 +7849,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="69"/>
+      <c r="J82" s="67"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="11">
@@ -6897,7 +7867,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="69"/>
+      <c r="J83" s="67"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="11">
@@ -6919,7 +7889,7 @@
       <c r="I84" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="J84" s="69" t="s">
+      <c r="J84" s="67" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6941,7 +7911,7 @@
         <v>706</v>
       </c>
       <c r="I85" s="68"/>
-      <c r="J85" s="69"/>
+      <c r="J85" s="67"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="11">
@@ -6961,7 +7931,7 @@
         <v>707</v>
       </c>
       <c r="I86" s="68"/>
-      <c r="J86" s="69"/>
+      <c r="J86" s="67"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="11">
@@ -6983,7 +7953,7 @@
       <c r="I87" s="68" t="s">
         <v>584</v>
       </c>
-      <c r="J87" s="69"/>
+      <c r="J87" s="67"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="11">
@@ -7003,7 +7973,7 @@
         <v>708</v>
       </c>
       <c r="I88" s="68"/>
-      <c r="J88" s="69"/>
+      <c r="J88" s="67"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="11">
@@ -7023,7 +7993,7 @@
         <v>707</v>
       </c>
       <c r="I89" s="68"/>
-      <c r="J89" s="69"/>
+      <c r="J89" s="67"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="11">
@@ -7045,7 +8015,7 @@
       <c r="I90" s="68" t="s">
         <v>728</v>
       </c>
-      <c r="J90" s="69"/>
+      <c r="J90" s="67"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="11">
@@ -7065,7 +8035,7 @@
         <v>426</v>
       </c>
       <c r="I91" s="68"/>
-      <c r="J91" s="69"/>
+      <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="11">
@@ -7085,7 +8055,7 @@
         <v>223</v>
       </c>
       <c r="I92" s="68"/>
-      <c r="J92" s="69"/>
+      <c r="J92" s="67"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="11">
@@ -7107,7 +8077,7 @@
       <c r="I93" s="68" t="s">
         <v>721</v>
       </c>
-      <c r="J93" s="69"/>
+      <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="11">
@@ -7127,7 +8097,7 @@
         <v>706</v>
       </c>
       <c r="I94" s="68"/>
-      <c r="J94" s="69"/>
+      <c r="J94" s="67"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="11">
@@ -7147,7 +8117,7 @@
         <v>707</v>
       </c>
       <c r="I95" s="68"/>
-      <c r="J95" s="69"/>
+      <c r="J95" s="67"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="11">
@@ -7169,7 +8139,7 @@
       <c r="I96" s="68" t="s">
         <v>729</v>
       </c>
-      <c r="J96" s="69"/>
+      <c r="J96" s="67"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="11">
@@ -7189,7 +8159,7 @@
         <v>706</v>
       </c>
       <c r="I97" s="68"/>
-      <c r="J97" s="69"/>
+      <c r="J97" s="67"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="11">
@@ -7209,7 +8179,7 @@
         <v>223</v>
       </c>
       <c r="I98" s="68"/>
-      <c r="J98" s="69"/>
+      <c r="J98" s="67"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="11">
@@ -7231,7 +8201,7 @@
       <c r="I99" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="J99" s="69"/>
+      <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="11">
@@ -7251,7 +8221,7 @@
         <v>711</v>
       </c>
       <c r="I100" s="68"/>
-      <c r="J100" s="69" t="s">
+      <c r="J100" s="67" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7273,7 +8243,7 @@
         <v>223</v>
       </c>
       <c r="I101" s="68"/>
-      <c r="J101" s="69"/>
+      <c r="J101" s="67"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="11">
@@ -7295,7 +8265,7 @@
       <c r="I102" s="68" t="s">
         <v>599</v>
       </c>
-      <c r="J102" s="69"/>
+      <c r="J102" s="67"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="11">
@@ -7315,7 +8285,7 @@
         <v>706</v>
       </c>
       <c r="I103" s="68"/>
-      <c r="J103" s="69"/>
+      <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="11">
@@ -7335,7 +8305,7 @@
         <v>707</v>
       </c>
       <c r="I104" s="68"/>
-      <c r="J104" s="69"/>
+      <c r="J104" s="67"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="11">
@@ -7355,7 +8325,7 @@
         <v>712</v>
       </c>
       <c r="I105" s="68"/>
-      <c r="J105" s="69"/>
+      <c r="J105" s="67"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="11">
@@ -7377,7 +8347,7 @@
       <c r="I106" s="68" t="s">
         <v>477</v>
       </c>
-      <c r="J106" s="69"/>
+      <c r="J106" s="67"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="11">
@@ -7397,7 +8367,7 @@
         <v>711</v>
       </c>
       <c r="I107" s="68"/>
-      <c r="J107" s="69"/>
+      <c r="J107" s="67"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="11">
@@ -7419,7 +8389,7 @@
       <c r="I108" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="J108" s="69"/>
+      <c r="J108" s="67"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="11">
@@ -7441,7 +8411,7 @@
       <c r="I109" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="J109" s="69"/>
+      <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="11">
@@ -7463,7 +8433,7 @@
       <c r="I110" s="12" t="s">
         <v>732</v>
       </c>
-      <c r="J110" s="69"/>
+      <c r="J110" s="67"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="11">
@@ -7485,7 +8455,7 @@
       <c r="I111" s="68" t="s">
         <v>735</v>
       </c>
-      <c r="J111" s="69"/>
+      <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="11">
@@ -7505,7 +8475,7 @@
         <v>715</v>
       </c>
       <c r="I112" s="68"/>
-      <c r="J112" s="69"/>
+      <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="11">
@@ -7525,7 +8495,7 @@
         <v>707</v>
       </c>
       <c r="I113" s="68"/>
-      <c r="J113" s="69"/>
+      <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="11">
@@ -7544,10 +8514,10 @@
       <c r="H114" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="I114" s="69" t="s">
+      <c r="I114" s="67" t="s">
         <v>733</v>
       </c>
-      <c r="J114" s="69"/>
+      <c r="J114" s="67"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="11">
@@ -7566,8 +8536,8 @@
       <c r="H115" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I115" s="69"/>
-      <c r="J115" s="69"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="11">
@@ -7586,8 +8556,8 @@
       <c r="H116" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I116" s="69"/>
-      <c r="J116" s="69" t="s">
+      <c r="I116" s="67"/>
+      <c r="J116" s="67" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7608,8 +8578,8 @@
       <c r="H117" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="I117" s="69"/>
-      <c r="J117" s="69"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="11">
@@ -7628,8 +8598,8 @@
       <c r="H118" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I118" s="69"/>
-      <c r="J118" s="69"/>
+      <c r="I118" s="67"/>
+      <c r="J118" s="67"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="11">
@@ -7649,7 +8619,7 @@
         <v>625</v>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="69"/>
+      <c r="J119" s="67"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="11">
@@ -7669,7 +8639,7 @@
         <v>626</v>
       </c>
       <c r="I120" s="1"/>
-      <c r="J120" s="69"/>
+      <c r="J120" s="67"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="11">
@@ -7689,7 +8659,7 @@
         <v>719</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="69"/>
+      <c r="J121" s="67"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="11">
@@ -7711,7 +8681,7 @@
       <c r="I122" s="73" t="s">
         <v>738</v>
       </c>
-      <c r="J122" s="69"/>
+      <c r="J122" s="67"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="11">
@@ -7731,7 +8701,7 @@
         <v>736</v>
       </c>
       <c r="I123" s="74"/>
-      <c r="J123" s="69"/>
+      <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="11">
@@ -7751,7 +8721,7 @@
         <v>740</v>
       </c>
       <c r="I124" s="75"/>
-      <c r="J124" s="69"/>
+      <c r="J124" s="67"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="11">
@@ -7773,7 +8743,7 @@
       <c r="I125" s="68" t="s">
         <v>741</v>
       </c>
-      <c r="J125" s="69"/>
+      <c r="J125" s="67"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="11">
@@ -7793,7 +8763,7 @@
         <v>742</v>
       </c>
       <c r="I126" s="68"/>
-      <c r="J126" s="69"/>
+      <c r="J126" s="67"/>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="11">
@@ -7813,7 +8783,7 @@
         <v>743</v>
       </c>
       <c r="I127" s="68"/>
-      <c r="J127" s="69"/>
+      <c r="J127" s="67"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="11">
@@ -7835,7 +8805,7 @@
       <c r="I128" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="J128" s="69"/>
+      <c r="J128" s="67"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="11">
@@ -7853,7 +8823,7 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="69"/>
+      <c r="J129" s="67"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="11">
@@ -7871,7 +8841,7 @@
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="69"/>
+      <c r="J130" s="67"/>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="11">
@@ -7889,7 +8859,7 @@
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="69"/>
+      <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="62"/>
@@ -7988,12 +8958,12 @@
       <c r="J139" s="63"/>
     </row>
     <row r="141" spans="1:10" ht="22.5">
-      <c r="A141" s="67" t="s">
+      <c r="A141" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="B141" s="67"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
+      <c r="B141" s="72"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -8002,10 +8972,10 @@
       <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:10" ht="22.5">
-      <c r="A142" s="67"/>
-      <c r="B142" s="67"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="67"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
       <c r="E142" s="9"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
@@ -8061,7 +9031,7 @@
         <v>223</v>
       </c>
       <c r="I144" s="60"/>
-      <c r="J144" s="70" t="s">
+      <c r="J144" s="69" t="s">
         <v>249</v>
       </c>
     </row>
@@ -8087,7 +9057,7 @@
         <v>227</v>
       </c>
       <c r="I145" s="13"/>
-      <c r="J145" s="71"/>
+      <c r="J145" s="70"/>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="11">
@@ -8111,7 +9081,7 @@
         <v>224</v>
       </c>
       <c r="I146" s="13"/>
-      <c r="J146" s="71"/>
+      <c r="J146" s="70"/>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="11">
@@ -8133,7 +9103,7 @@
       </c>
       <c r="H147" s="10"/>
       <c r="I147" s="13"/>
-      <c r="J147" s="71"/>
+      <c r="J147" s="70"/>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="11">
@@ -8155,7 +9125,7 @@
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="13"/>
-      <c r="J148" s="71"/>
+      <c r="J148" s="70"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="11">
@@ -8177,7 +9147,7 @@
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="13"/>
-      <c r="J149" s="71"/>
+      <c r="J149" s="70"/>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="11">
@@ -8199,7 +9169,7 @@
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="13"/>
-      <c r="J150" s="71"/>
+      <c r="J150" s="70"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="11">
@@ -8221,7 +9191,7 @@
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="71"/>
+      <c r="J151" s="70"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="11">
@@ -8243,7 +9213,7 @@
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="71"/>
+      <c r="J152" s="70"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="11">
@@ -8265,7 +9235,7 @@
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="71"/>
+      <c r="J153" s="70"/>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="11">
@@ -8287,7 +9257,7 @@
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="71"/>
+      <c r="J154" s="70"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="11">
@@ -8309,7 +9279,7 @@
       </c>
       <c r="H155" s="10"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="71"/>
+      <c r="J155" s="70"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="11">
@@ -8331,7 +9301,7 @@
       </c>
       <c r="H156" s="10"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="71"/>
+      <c r="J156" s="70"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="11">
@@ -8353,7 +9323,7 @@
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="71"/>
+      <c r="J157" s="70"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="11">
@@ -8375,7 +9345,7 @@
       </c>
       <c r="H158" s="10"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="71"/>
+      <c r="J158" s="70"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="11">
@@ -8397,7 +9367,7 @@
       </c>
       <c r="H159" s="10"/>
       <c r="I159" s="13"/>
-      <c r="J159" s="71"/>
+      <c r="J159" s="70"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="11">
@@ -8415,7 +9385,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="71"/>
+      <c r="J160" s="70"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="11">
@@ -8433,7 +9403,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="71"/>
+      <c r="J161" s="70"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="11">
@@ -8451,7 +9421,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="71"/>
+      <c r="J162" s="70"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="11">
@@ -8469,7 +9439,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="71"/>
+      <c r="J163" s="70"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="11">
@@ -8487,7 +9457,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="71"/>
+      <c r="J164" s="70"/>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="11">
@@ -8505,7 +9475,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="71"/>
+      <c r="J165" s="70"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="11">
@@ -8523,7 +9493,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="71"/>
+      <c r="J166" s="70"/>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="11">
@@ -8541,15 +9511,15 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="61"/>
-      <c r="J167" s="72"/>
+      <c r="J167" s="71"/>
     </row>
     <row r="169" spans="1:10" ht="22.5">
-      <c r="A169" s="67" t="s">
+      <c r="A169" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="B169" s="67"/>
-      <c r="C169" s="67"/>
-      <c r="D169" s="67"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
@@ -8558,10 +9528,10 @@
       <c r="J169" s="10"/>
     </row>
     <row r="170" spans="1:10" ht="22.5">
-      <c r="A170" s="67"/>
-      <c r="B170" s="67"/>
-      <c r="C170" s="67"/>
-      <c r="D170" s="67"/>
+      <c r="A170" s="72"/>
+      <c r="B170" s="72"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="72"/>
       <c r="E170" s="9"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
@@ -8617,7 +9587,7 @@
         <v>228</v>
       </c>
       <c r="I172" s="60"/>
-      <c r="J172" s="70" t="s">
+      <c r="J172" s="69" t="s">
         <v>249</v>
       </c>
     </row>
@@ -8645,7 +9615,7 @@
         <v>229</v>
       </c>
       <c r="I173" s="13"/>
-      <c r="J173" s="71"/>
+      <c r="J173" s="70"/>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="11">
@@ -8671,7 +9641,7 @@
         <v>230</v>
       </c>
       <c r="I174" s="13"/>
-      <c r="J174" s="71"/>
+      <c r="J174" s="70"/>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="11">
@@ -8697,7 +9667,7 @@
         <v>231</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="71"/>
+      <c r="J175" s="70"/>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="11">
@@ -8723,7 +9693,7 @@
         <v>232</v>
       </c>
       <c r="I176" s="13"/>
-      <c r="J176" s="71"/>
+      <c r="J176" s="70"/>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="11">
@@ -8747,7 +9717,7 @@
         <v>233</v>
       </c>
       <c r="I177" s="13"/>
-      <c r="J177" s="71"/>
+      <c r="J177" s="70"/>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="11">
@@ -8771,7 +9741,7 @@
         <v>234</v>
       </c>
       <c r="I178" s="13"/>
-      <c r="J178" s="71"/>
+      <c r="J178" s="70"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="11">
@@ -8795,7 +9765,7 @@
         <v>235</v>
       </c>
       <c r="I179" s="13"/>
-      <c r="J179" s="71"/>
+      <c r="J179" s="70"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="11">
@@ -8819,7 +9789,7 @@
         <v>236</v>
       </c>
       <c r="I180" s="13"/>
-      <c r="J180" s="71"/>
+      <c r="J180" s="70"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="11">
@@ -8843,7 +9813,7 @@
         <v>237</v>
       </c>
       <c r="I181" s="13"/>
-      <c r="J181" s="71"/>
+      <c r="J181" s="70"/>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="11">
@@ -8867,7 +9837,7 @@
         <v>238</v>
       </c>
       <c r="I182" s="13"/>
-      <c r="J182" s="71"/>
+      <c r="J182" s="70"/>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="11">
@@ -8891,7 +9861,7 @@
         <v>239</v>
       </c>
       <c r="I183" s="13"/>
-      <c r="J183" s="71"/>
+      <c r="J183" s="70"/>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="11">
@@ -8915,7 +9885,7 @@
         <v>240</v>
       </c>
       <c r="I184" s="13"/>
-      <c r="J184" s="71"/>
+      <c r="J184" s="70"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="11">
@@ -8939,7 +9909,7 @@
         <v>241</v>
       </c>
       <c r="I185" s="13"/>
-      <c r="J185" s="71"/>
+      <c r="J185" s="70"/>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="11">
@@ -8963,7 +9933,7 @@
         <v>242</v>
       </c>
       <c r="I186" s="13"/>
-      <c r="J186" s="71"/>
+      <c r="J186" s="70"/>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="11">
@@ -8985,7 +9955,7 @@
       </c>
       <c r="H187" s="10"/>
       <c r="I187" s="13"/>
-      <c r="J187" s="71"/>
+      <c r="J187" s="70"/>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="11">
@@ -9003,7 +9973,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="71"/>
+      <c r="J188" s="70"/>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="11">
@@ -9021,7 +9991,7 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="71"/>
+      <c r="J189" s="70"/>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="11">
@@ -9039,7 +10009,7 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="71"/>
+      <c r="J190" s="70"/>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="11">
@@ -9057,7 +10027,7 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="71"/>
+      <c r="J191" s="70"/>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="11">
@@ -9075,7 +10045,7 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="71"/>
+      <c r="J192" s="70"/>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="11">
@@ -9093,7 +10063,7 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="71"/>
+      <c r="J193" s="70"/>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="11">
@@ -9111,7 +10081,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="71"/>
+      <c r="J194" s="70"/>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="11">
@@ -9129,36 +10099,10 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
       <c r="I195" s="61"/>
-      <c r="J195" s="72"/>
+      <c r="J195" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="E50:E57"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I102:I105"/>
-    <mergeCell ref="J172:J195"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I4:I15"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="J68:J83"/>
-    <mergeCell ref="J84:J99"/>
-    <mergeCell ref="J100:J115"/>
-    <mergeCell ref="J116:J131"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="I125:I127"/>
-    <mergeCell ref="A141:D142"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="J144:J167"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="I122:I124"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="J4:J19"/>
     <mergeCell ref="J20:J35"/>
@@ -9175,10 +10119,105 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="E37:E41"/>
+    <mergeCell ref="A141:D142"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="J144:J167"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="J172:J195"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I4:I15"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="J68:J83"/>
+    <mergeCell ref="J84:J99"/>
+    <mergeCell ref="J100:J115"/>
+    <mergeCell ref="J116:J131"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="I125:I127"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I102:I105"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>206.608</v>
+      </c>
+      <c r="B1">
+        <f>B2+A4</f>
+        <v>208.00700000000001</v>
+      </c>
+      <c r="D1">
+        <v>-185.77799999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>117.03400000000001</v>
+      </c>
+      <c r="B2">
+        <v>118.43300000000001</v>
+      </c>
+      <c r="D2">
+        <v>-289.39400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <f>A1-A2</f>
+        <v>89.573999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>89.573999999999998</v>
+      </c>
+      <c r="B4">
+        <v>208.00700000000001</v>
+      </c>
+      <c r="D4">
+        <f>(D2-D1)/4</f>
+        <v>-25.904000000000003</v>
+      </c>
+      <c r="E4">
+        <v>-25.904000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="D5">
+        <f>D1-D2</f>
+        <v>103.61600000000001</v>
+      </c>
+      <c r="E5">
+        <v>103.616</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9229,12 +10268,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -9248,10 +10287,10 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="84"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="21" t="s">
         <v>526</v>
       </c>
@@ -9265,20 +10304,20 @@
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="25">
         <v>20170714</v>
       </c>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="25" t="s">
         <v>525</v>
       </c>
@@ -9290,18 +10329,18 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="22"/>
       <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -9311,10 +10350,10 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="K5" s="84"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="29"/>
       <c r="M5" s="33"/>
     </row>
@@ -9340,14 +10379,14 @@
       <c r="B7" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="79" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="87"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="38" t="s">
         <v>268</v>
       </c>
@@ -9363,17 +10402,17 @@
       <c r="K7" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="L7" s="76" t="s">
+      <c r="L7" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="M7" s="76"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="40">
         <v>1</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="81" t="s">
         <v>274</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -9401,7 +10440,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="41"/>
-      <c r="C9" s="77"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="48" t="s">
         <v>278</v>
       </c>
@@ -9429,7 +10468,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="77"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="48" t="s">
         <v>541</v>
       </c>
@@ -9457,7 +10496,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="77"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="48" t="s">
         <v>280</v>
       </c>
@@ -9485,7 +10524,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="41"/>
-      <c r="C12" s="77"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="48" t="s">
         <v>280</v>
       </c>
@@ -9512,7 +10551,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="77"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="50" t="s">
         <v>544</v>
       </c>
@@ -9539,7 +10578,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="41"/>
-      <c r="C14" s="77"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="41" t="s">
         <v>282</v>
       </c>
@@ -9566,7 +10605,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="77"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="50" t="s">
         <v>285</v>
       </c>
@@ -9593,7 +10632,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="41"/>
-      <c r="C16" s="77"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="50" t="s">
         <v>287</v>
       </c>
@@ -9618,7 +10657,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="77"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="50" t="s">
         <v>287</v>
       </c>
@@ -9643,7 +10682,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="77"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="51" t="s">
         <v>290</v>
       </c>
@@ -9670,7 +10709,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="41"/>
-      <c r="C19" s="77"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="50" t="s">
         <v>293</v>
       </c>
@@ -9697,7 +10736,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="77"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="50" t="s">
         <v>296</v>
       </c>
@@ -9724,7 +10763,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="41"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="80" t="s">
         <v>658</v>
       </c>
       <c r="D21" s="50" t="s">
@@ -9753,7 +10792,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="41"/>
-      <c r="C22" s="87"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="51" t="s">
         <v>651</v>
       </c>
@@ -9778,7 +10817,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="87"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="50" t="s">
         <v>653</v>
       </c>
@@ -9803,7 +10842,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="87"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="50" t="s">
         <v>653</v>
       </c>
@@ -9828,7 +10867,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="41"/>
-      <c r="C25" s="87"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="50" t="s">
         <v>654</v>
       </c>
@@ -9853,7 +10892,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="41"/>
-      <c r="C26" s="87"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="50" t="s">
         <v>656</v>
       </c>
@@ -9903,7 +10942,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="41"/>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="76" t="s">
         <v>298</v>
       </c>
       <c r="D28" s="53" t="s">
@@ -9932,7 +10971,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="41"/>
-      <c r="C29" s="78"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="53" t="s">
         <v>530</v>
       </c>
@@ -9959,7 +10998,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="41"/>
-      <c r="C30" s="78"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="53" t="s">
         <v>532</v>
       </c>
@@ -9986,7 +11025,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="41"/>
-      <c r="C31" s="78"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="53" t="s">
         <v>534</v>
       </c>
@@ -10013,7 +11052,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="41"/>
-      <c r="C32" s="78"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="53" t="s">
         <v>536</v>
       </c>
@@ -10040,7 +11079,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="41"/>
-      <c r="C33" s="78"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="53" t="s">
         <v>537</v>
       </c>
@@ -10065,7 +11104,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="41"/>
-      <c r="C34" s="78"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="53" t="s">
         <v>539</v>
       </c>
@@ -10090,7 +11129,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="41"/>
-      <c r="C35" s="78"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="53" t="s">
         <v>300</v>
       </c>
@@ -10117,7 +11156,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="41"/>
-      <c r="C36" s="78"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="53" t="s">
         <v>304</v>
       </c>
@@ -10144,7 +11183,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="41"/>
-      <c r="C37" s="78"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="53" t="s">
         <v>557</v>
       </c>
@@ -10169,7 +11208,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="41"/>
-      <c r="C38" s="78"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="53" t="s">
         <v>305</v>
       </c>
@@ -10196,7 +11235,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="41"/>
-      <c r="C39" s="78"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="53" t="s">
         <v>305</v>
       </c>
@@ -10223,7 +11262,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="41"/>
-      <c r="C40" s="78"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="49" t="s">
         <v>306</v>
       </c>
@@ -10250,7 +11289,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="41"/>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="77" t="s">
         <v>307</v>
       </c>
       <c r="D41" s="49" t="s">
@@ -10279,7 +11318,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="41"/>
-      <c r="C42" s="80"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="49" t="s">
         <v>311</v>
       </c>
@@ -10306,7 +11345,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="41"/>
-      <c r="C43" s="80"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="49" t="s">
         <v>313</v>
       </c>
@@ -10333,7 +11372,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="41"/>
-      <c r="C44" s="80"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="49" t="s">
         <v>316</v>
       </c>
@@ -10360,7 +11399,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="41"/>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="76" t="s">
         <v>319</v>
       </c>
       <c r="D45" s="49" t="s">
@@ -10389,7 +11428,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="41"/>
-      <c r="C46" s="78"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="49" t="s">
         <v>322</v>
       </c>
@@ -10414,7 +11453,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="41"/>
-      <c r="C47" s="78"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="49" t="s">
         <v>324</v>
       </c>
@@ -10441,7 +11480,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="41"/>
-      <c r="C48" s="78"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="49" t="s">
         <v>42</v>
       </c>
@@ -10468,7 +11507,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="41"/>
-      <c r="C49" s="78"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="49" t="s">
         <v>327</v>
       </c>
@@ -10491,7 +11530,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="41"/>
-      <c r="C50" s="78"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="49" t="s">
         <v>328</v>
       </c>
@@ -10514,7 +11553,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="41"/>
-      <c r="C51" s="78"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="49" t="s">
         <v>329</v>
       </c>
@@ -10541,7 +11580,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="41"/>
-      <c r="C52" s="78"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="49" t="s">
         <v>331</v>
       </c>
@@ -10564,7 +11603,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="41"/>
-      <c r="C53" s="78"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="49" t="s">
         <v>332</v>
       </c>
@@ -10589,7 +11628,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="41"/>
-      <c r="C54" s="78"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="49" t="s">
         <v>334</v>
       </c>
@@ -10614,7 +11653,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="41"/>
-      <c r="C55" s="78"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="49" t="s">
         <v>336</v>
       </c>
@@ -10641,7 +11680,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="41"/>
-      <c r="C56" s="78"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="49" t="s">
         <v>336</v>
       </c>
@@ -10668,7 +11707,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="41"/>
-      <c r="C57" s="78"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="49" t="s">
         <v>339</v>
       </c>
@@ -10695,7 +11734,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="41"/>
-      <c r="C58" s="78"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="49" t="s">
         <v>342</v>
       </c>
@@ -10722,7 +11761,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="41"/>
-      <c r="C59" s="78"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="49" t="s">
         <v>344</v>
       </c>
@@ -10749,7 +11788,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="41"/>
-      <c r="C60" s="78"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="49" t="s">
         <v>345</v>
       </c>
@@ -10776,7 +11815,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="41"/>
-      <c r="C61" s="78"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="49" t="s">
         <v>347</v>
       </c>
@@ -10803,7 +11842,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="41"/>
-      <c r="C62" s="78"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="49" t="s">
         <v>345</v>
       </c>
@@ -10830,7 +11869,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="41"/>
-      <c r="C63" s="78"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="49" t="s">
         <v>347</v>
       </c>
@@ -10857,7 +11896,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="41"/>
-      <c r="C64" s="78"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="49" t="s">
         <v>349</v>
       </c>
@@ -10884,7 +11923,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="41"/>
-      <c r="C65" s="78"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="49" t="s">
         <v>352</v>
       </c>
@@ -10913,7 +11952,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="41"/>
-      <c r="C66" s="78"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="49" t="s">
         <v>356</v>
       </c>
@@ -10938,7 +11977,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="41"/>
-      <c r="C67" s="78"/>
+      <c r="C67" s="76"/>
       <c r="D67" s="49" t="s">
         <v>364</v>
       </c>
@@ -10965,7 +12004,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="41"/>
-      <c r="C68" s="78"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="49" t="s">
         <v>367</v>
       </c>
@@ -10992,7 +12031,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="41"/>
-      <c r="C69" s="78"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="49" t="s">
         <v>358</v>
       </c>
@@ -11017,7 +12056,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="41"/>
-      <c r="C70" s="78"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="49" t="s">
         <v>360</v>
       </c>
@@ -11042,7 +12081,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="41"/>
-      <c r="C71" s="78"/>
+      <c r="C71" s="76"/>
       <c r="D71" s="49" t="s">
         <v>361</v>
       </c>
@@ -11067,7 +12106,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="41"/>
-      <c r="C72" s="78"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="49" t="s">
         <v>363</v>
       </c>
@@ -11092,7 +12131,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="41"/>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="77" t="s">
         <v>369</v>
       </c>
       <c r="D73" s="49" t="s">
@@ -11121,7 +12160,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="41"/>
-      <c r="C74" s="80"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="49" t="s">
         <v>370</v>
       </c>
@@ -11148,7 +12187,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="41"/>
-      <c r="C75" s="80"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="49" t="s">
         <v>370</v>
       </c>
@@ -11175,7 +12214,7 @@
         <v>69</v>
       </c>
       <c r="B76" s="41"/>
-      <c r="C76" s="80"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="49" t="s">
         <v>370</v>
       </c>
@@ -11202,7 +12241,7 @@
         <v>70</v>
       </c>
       <c r="B77" s="41"/>
-      <c r="C77" s="80"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="49" t="s">
         <v>371</v>
       </c>
@@ -11229,7 +12268,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="41"/>
-      <c r="C78" s="80"/>
+      <c r="C78" s="78"/>
       <c r="D78" s="49" t="s">
         <v>225</v>
       </c>
@@ -11256,7 +12295,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="41"/>
-      <c r="C79" s="78"/>
+      <c r="C79" s="76"/>
       <c r="D79" s="49" t="s">
         <v>375</v>
       </c>
@@ -11281,7 +12320,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="41"/>
-      <c r="C80" s="78"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="49" t="s">
         <v>376</v>
       </c>
@@ -11306,7 +12345,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="41"/>
-      <c r="C81" s="78"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="49" t="s">
         <v>378</v>
       </c>
@@ -11329,7 +12368,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="41"/>
-      <c r="C82" s="78"/>
+      <c r="C82" s="76"/>
       <c r="D82" s="49" t="s">
         <v>379</v>
       </c>
@@ -11352,7 +12391,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="41"/>
-      <c r="C83" s="78"/>
+      <c r="C83" s="76"/>
       <c r="D83" s="49" t="s">
         <v>380</v>
       </c>
@@ -11373,7 +12412,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="41"/>
-      <c r="C84" s="78"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="49" t="s">
         <v>382</v>
       </c>
@@ -11394,7 +12433,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="41"/>
-      <c r="C85" s="78"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="49" t="s">
         <v>383</v>
       </c>
@@ -11415,7 +12454,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="41"/>
-      <c r="C86" s="78"/>
+      <c r="C86" s="76"/>
       <c r="D86" s="49" t="s">
         <v>384</v>
       </c>
@@ -11436,7 +12475,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="41"/>
-      <c r="C87" s="78"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="49" t="s">
         <v>385</v>
       </c>
@@ -11457,7 +12496,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="41"/>
-      <c r="C88" s="78"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="49" t="s">
         <v>386</v>
       </c>
@@ -11478,7 +12517,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="41"/>
-      <c r="C89" s="78"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="49" t="s">
         <v>387</v>
       </c>
@@ -11499,7 +12538,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="41"/>
-      <c r="C90" s="78"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="49" t="s">
         <v>388</v>
       </c>
@@ -11520,7 +12559,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="41"/>
-      <c r="C91" s="78"/>
+      <c r="C91" s="76"/>
       <c r="D91" s="49" t="s">
         <v>389</v>
       </c>
@@ -11541,7 +12580,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="41"/>
-      <c r="C92" s="78"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="49" t="s">
         <v>390</v>
       </c>
@@ -11562,7 +12601,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="41"/>
-      <c r="C93" s="78"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="49" t="s">
         <v>391</v>
       </c>
@@ -11583,7 +12622,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="41"/>
-      <c r="C94" s="78"/>
+      <c r="C94" s="76"/>
       <c r="D94" s="49" t="s">
         <v>392</v>
       </c>
@@ -11604,7 +12643,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="41"/>
-      <c r="C95" s="78"/>
+      <c r="C95" s="76"/>
       <c r="D95" s="49" t="s">
         <v>393</v>
       </c>
@@ -11625,7 +12664,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="41"/>
-      <c r="C96" s="78"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="49" t="s">
         <v>394</v>
       </c>
@@ -11646,7 +12685,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="41"/>
-      <c r="C97" s="78"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="49" t="s">
         <v>395</v>
       </c>
@@ -11667,7 +12706,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="41"/>
-      <c r="C98" s="78"/>
+      <c r="C98" s="76"/>
       <c r="D98" s="49" t="s">
         <v>396</v>
       </c>
@@ -11692,11 +12731,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="C45:C72"/>
-    <mergeCell ref="C73:C78"/>
-    <mergeCell ref="C79:C98"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C20"/>
     <mergeCell ref="C28:C40"/>
@@ -11709,6 +12743,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C45:C72"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C79:C98"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -13050,6 +14089,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="L10:N10"/>
@@ -13060,14 +14107,6 @@
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="L28:N28"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13122,7 +14161,7 @@
       <c r="E2" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="67" t="s">
         <v>578</v>
       </c>
     </row>
@@ -13140,7 +14179,7 @@
       <c r="E3" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="92"/>
@@ -13156,7 +14195,7 @@
       <c r="E4" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="92"/>
@@ -13172,7 +14211,7 @@
       <c r="E5" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="92"/>
@@ -13188,7 +14227,7 @@
       <c r="E6" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="92"/>
@@ -13204,7 +14243,7 @@
       <c r="E7" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="92"/>
@@ -13220,7 +14259,7 @@
       <c r="E8" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="92"/>
@@ -13236,7 +14275,7 @@
       <c r="E9" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="92"/>
@@ -13252,7 +14291,7 @@
       <c r="E10" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="92"/>
@@ -13266,7 +14305,7 @@
       <c r="E11" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -13283,7 +14322,7 @@
       <c r="F12" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="67" t="s">
         <v>585</v>
       </c>
     </row>
@@ -13301,10 +14340,10 @@
       <c r="E13" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="67" t="s">
         <v>578</v>
       </c>
-      <c r="G13" s="69"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="92"/>
@@ -13320,8 +14359,8 @@
       <c r="E14" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="92"/>
@@ -13337,8 +14376,8 @@
       <c r="E15" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="92"/>
@@ -13350,8 +14389,8 @@
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="92"/>
@@ -13363,8 +14402,8 @@
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="92"/>
@@ -13376,8 +14415,8 @@
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="92"/>
@@ -13389,8 +14428,8 @@
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="92"/>
@@ -13402,8 +14441,8 @@
       </c>
       <c r="D20" s="65"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="92"/>
@@ -13415,8 +14454,8 @@
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="92"/>
@@ -13430,8 +14469,8 @@
       <c r="E22" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -13448,7 +14487,7 @@
       <c r="F23" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G23" s="69"/>
+      <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="92">
@@ -13465,7 +14504,7 @@
         <v>575</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="69"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="92"/>
@@ -13481,10 +14520,10 @@
       <c r="E25" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="67" t="s">
         <v>582</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="92"/>
@@ -13500,8 +14539,8 @@
       <c r="E26" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="92"/>
@@ -13517,8 +14556,8 @@
       <c r="E27" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="92"/>
@@ -13534,8 +14573,8 @@
       <c r="E28" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="92"/>
@@ -13551,10 +14590,10 @@
       <c r="E29" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="67" t="s">
         <v>583</v>
       </c>
-      <c r="G29" s="69"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="92"/>
@@ -13570,8 +14609,8 @@
       <c r="E30" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="92"/>
@@ -13587,8 +14626,8 @@
       <c r="E31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="92"/>
@@ -13607,7 +14646,7 @@
       <c r="F32" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="G32" s="69"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="92"/>
@@ -13622,7 +14661,7 @@
         <v>576</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="69"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
@@ -13639,7 +14678,7 @@
       <c r="F34" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G34" s="69"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="92">
@@ -13656,7 +14695,7 @@
         <v>575</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="69"/>
+      <c r="G35" s="67"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="92"/>
@@ -13672,10 +14711,10 @@
       <c r="E36" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="G36" s="69"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="92"/>
@@ -13691,8 +14730,8 @@
       <c r="E37" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="92"/>
@@ -13708,10 +14747,10 @@
       <c r="E38" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="G38" s="69"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="92"/>
@@ -13727,8 +14766,8 @@
       <c r="E39" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="92"/>
@@ -13744,8 +14783,8 @@
       <c r="E40" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="92"/>
@@ -13761,10 +14800,10 @@
       <c r="E41" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="67" t="s">
         <v>471</v>
       </c>
-      <c r="G41" s="69"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="92"/>
@@ -13780,8 +14819,8 @@
       <c r="E42" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="92"/>
@@ -13797,8 +14836,8 @@
       <c r="E43" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="92"/>
@@ -13813,7 +14852,7 @@
         <v>576</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="69"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
@@ -13830,7 +14869,7 @@
       <c r="F45" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="67" t="s">
         <v>602</v>
       </c>
     </row>
@@ -13849,7 +14888,7 @@
         <v>575</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="69"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="92"/>
@@ -13865,10 +14904,10 @@
       <c r="E47" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="67" t="s">
         <v>586</v>
       </c>
-      <c r="G47" s="69"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="92"/>
@@ -13884,8 +14923,8 @@
       <c r="E48" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="92"/>
@@ -13904,7 +14943,7 @@
       <c r="F49" s="68" t="s">
         <v>472</v>
       </c>
-      <c r="G49" s="69"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="92"/>
@@ -13921,7 +14960,7 @@
         <v>469</v>
       </c>
       <c r="F50" s="68"/>
-      <c r="G50" s="69"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="92"/>
@@ -13938,7 +14977,7 @@
         <v>470</v>
       </c>
       <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="92"/>
@@ -13954,10 +14993,10 @@
       <c r="E52" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="69" t="s">
+      <c r="F52" s="67" t="s">
         <v>587</v>
       </c>
-      <c r="G52" s="69"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="92"/>
@@ -13973,8 +15012,8 @@
       <c r="E53" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="92"/>
@@ -13990,8 +15029,8 @@
       <c r="E54" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="92"/>
@@ -14006,7 +15045,7 @@
         <v>576</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="69"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
@@ -14023,7 +15062,7 @@
       <c r="F56" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G56" s="69"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="92">
@@ -14040,7 +15079,7 @@
         <v>575</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="69"/>
+      <c r="G57" s="67"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="92"/>
@@ -14059,7 +15098,7 @@
       <c r="F58" s="93" t="s">
         <v>600</v>
       </c>
-      <c r="G58" s="69"/>
+      <c r="G58" s="67"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="92"/>
@@ -14076,7 +15115,7 @@
         <v>469</v>
       </c>
       <c r="F59" s="94"/>
-      <c r="G59" s="69"/>
+      <c r="G59" s="67"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="92"/>
@@ -14093,7 +15132,7 @@
         <v>470</v>
       </c>
       <c r="F60" s="94"/>
-      <c r="G60" s="69"/>
+      <c r="G60" s="67"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="92"/>
@@ -14110,7 +15149,7 @@
         <v>226</v>
       </c>
       <c r="F61" s="94"/>
-      <c r="G61" s="69"/>
+      <c r="G61" s="67"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="92"/>
@@ -14127,7 +15166,7 @@
         <v>593</v>
       </c>
       <c r="F62" s="94"/>
-      <c r="G62" s="69"/>
+      <c r="G62" s="67"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="92"/>
@@ -14144,7 +15183,7 @@
         <v>594</v>
       </c>
       <c r="F63" s="95"/>
-      <c r="G63" s="69"/>
+      <c r="G63" s="67"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="92"/>
@@ -14163,7 +15202,7 @@
       <c r="F64" s="73" t="s">
         <v>601</v>
       </c>
-      <c r="G64" s="69"/>
+      <c r="G64" s="67"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="92"/>
@@ -14180,7 +15219,7 @@
         <v>476</v>
       </c>
       <c r="F65" s="75"/>
-      <c r="G65" s="69"/>
+      <c r="G65" s="67"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="92"/>
@@ -14195,7 +15234,7 @@
         <v>576</v>
       </c>
       <c r="F66" s="8"/>
-      <c r="G66" s="69"/>
+      <c r="G66" s="67"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
@@ -14212,7 +15251,7 @@
       <c r="F67" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G67" s="69" t="s">
+      <c r="G67" s="67" t="s">
         <v>603</v>
       </c>
     </row>
@@ -14231,7 +15270,7 @@
         <v>575</v>
       </c>
       <c r="F68" s="8"/>
-      <c r="G68" s="69"/>
+      <c r="G68" s="67"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="92"/>
@@ -14250,7 +15289,7 @@
       <c r="F69" s="96" t="s">
         <v>600</v>
       </c>
-      <c r="G69" s="69"/>
+      <c r="G69" s="67"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="92"/>
@@ -14267,7 +15306,7 @@
         <v>598</v>
       </c>
       <c r="F70" s="96"/>
-      <c r="G70" s="69"/>
+      <c r="G70" s="67"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="92"/>
@@ -14284,7 +15323,7 @@
         <v>473</v>
       </c>
       <c r="F71" s="96"/>
-      <c r="G71" s="69"/>
+      <c r="G71" s="67"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="92"/>
@@ -14301,7 +15340,7 @@
         <v>474</v>
       </c>
       <c r="F72" s="96"/>
-      <c r="G72" s="69"/>
+      <c r="G72" s="67"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="92"/>
@@ -14314,7 +15353,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="10"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="69"/>
+      <c r="G73" s="67"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="92"/>
@@ -14327,7 +15366,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="10"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="69"/>
+      <c r="G74" s="67"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="92"/>
@@ -14340,7 +15379,7 @@
       <c r="D75" s="65"/>
       <c r="E75" s="10"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="69"/>
+      <c r="G75" s="67"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="92"/>
@@ -14353,7 +15392,7 @@
       <c r="D76" s="65"/>
       <c r="E76" s="10"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="69"/>
+      <c r="G76" s="67"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="92"/>
@@ -14368,7 +15407,7 @@
         <v>576</v>
       </c>
       <c r="F77" s="8"/>
-      <c r="G77" s="69"/>
+      <c r="G77" s="67"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
@@ -15232,7 +16271,7 @@
       <c r="F133" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G133" s="69" t="s">
+      <c r="G133" s="67" t="s">
         <v>624</v>
       </c>
     </row>
@@ -15251,7 +16290,7 @@
         <v>575</v>
       </c>
       <c r="F134" s="8"/>
-      <c r="G134" s="69"/>
+      <c r="G134" s="67"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="92"/>
@@ -15270,7 +16309,7 @@
       <c r="F135" s="93" t="s">
         <v>621</v>
       </c>
-      <c r="G135" s="69"/>
+      <c r="G135" s="67"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="92"/>
@@ -15287,7 +16326,7 @@
         <v>223</v>
       </c>
       <c r="F136" s="94"/>
-      <c r="G136" s="69"/>
+      <c r="G136" s="67"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="92"/>
@@ -15304,7 +16343,7 @@
         <v>227</v>
       </c>
       <c r="F137" s="94"/>
-      <c r="G137" s="69"/>
+      <c r="G137" s="67"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="92"/>
@@ -15321,7 +16360,7 @@
         <v>224</v>
       </c>
       <c r="F138" s="95"/>
-      <c r="G138" s="69"/>
+      <c r="G138" s="67"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="92"/>
@@ -15334,7 +16373,7 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="66"/>
-      <c r="G139" s="69"/>
+      <c r="G139" s="67"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="92"/>
@@ -15347,7 +16386,7 @@
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="66"/>
-      <c r="G140" s="69"/>
+      <c r="G140" s="67"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="92"/>
@@ -15360,7 +16399,7 @@
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="66"/>
-      <c r="G141" s="69"/>
+      <c r="G141" s="67"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="92"/>
@@ -15373,7 +16412,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="10"/>
       <c r="F142" s="66"/>
-      <c r="G142" s="69"/>
+      <c r="G142" s="67"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="92"/>
@@ -15388,7 +16427,7 @@
         <v>576</v>
       </c>
       <c r="F143" s="8"/>
-      <c r="G143" s="69"/>
+      <c r="G143" s="67"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
@@ -15405,7 +16444,7 @@
       <c r="F144" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G144" s="69" t="s">
+      <c r="G144" s="67" t="s">
         <v>623</v>
       </c>
     </row>
@@ -15424,7 +16463,7 @@
         <v>575</v>
       </c>
       <c r="F145" s="8"/>
-      <c r="G145" s="69"/>
+      <c r="G145" s="67"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="92"/>
@@ -15443,7 +16482,7 @@
       <c r="F146" s="93" t="s">
         <v>622</v>
       </c>
-      <c r="G146" s="69"/>
+      <c r="G146" s="67"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="92"/>
@@ -15460,7 +16499,7 @@
         <v>244</v>
       </c>
       <c r="F147" s="94"/>
-      <c r="G147" s="69"/>
+      <c r="G147" s="67"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="92"/>
@@ -15477,7 +16516,7 @@
         <v>245</v>
       </c>
       <c r="F148" s="94"/>
-      <c r="G148" s="69"/>
+      <c r="G148" s="67"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="92"/>
@@ -15494,7 +16533,7 @@
         <v>246</v>
       </c>
       <c r="F149" s="94"/>
-      <c r="G149" s="69"/>
+      <c r="G149" s="67"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="92"/>
@@ -15511,7 +16550,7 @@
         <v>247</v>
       </c>
       <c r="F150" s="94"/>
-      <c r="G150" s="69"/>
+      <c r="G150" s="67"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="92"/>
@@ -15528,7 +16567,7 @@
         <v>228</v>
       </c>
       <c r="F151" s="94"/>
-      <c r="G151" s="69"/>
+      <c r="G151" s="67"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="92"/>
@@ -15545,7 +16584,7 @@
         <v>229</v>
       </c>
       <c r="F152" s="94"/>
-      <c r="G152" s="69"/>
+      <c r="G152" s="67"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="92"/>
@@ -15562,7 +16601,7 @@
         <v>230</v>
       </c>
       <c r="F153" s="95"/>
-      <c r="G153" s="69"/>
+      <c r="G153" s="67"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="92"/>
@@ -15577,7 +16616,7 @@
         <v>576</v>
       </c>
       <c r="F154" s="8"/>
-      <c r="G154" s="69"/>
+      <c r="G154" s="67"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
@@ -15594,7 +16633,7 @@
       <c r="F155" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G155" s="69"/>
+      <c r="G155" s="67"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="92">
@@ -15611,7 +16650,7 @@
         <v>575</v>
       </c>
       <c r="F156" s="8"/>
-      <c r="G156" s="69"/>
+      <c r="G156" s="67"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="92"/>
@@ -15630,7 +16669,7 @@
       <c r="F157" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="G157" s="69"/>
+      <c r="G157" s="67"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="92"/>
@@ -15647,7 +16686,7 @@
         <v>232</v>
       </c>
       <c r="F158" s="96"/>
-      <c r="G158" s="69"/>
+      <c r="G158" s="67"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="92"/>
@@ -15664,7 +16703,7 @@
         <v>233</v>
       </c>
       <c r="F159" s="96"/>
-      <c r="G159" s="69"/>
+      <c r="G159" s="67"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="92"/>
@@ -15681,7 +16720,7 @@
         <v>234</v>
       </c>
       <c r="F160" s="96"/>
-      <c r="G160" s="69"/>
+      <c r="G160" s="67"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="92"/>
@@ -15698,7 +16737,7 @@
         <v>235</v>
       </c>
       <c r="F161" s="96"/>
-      <c r="G161" s="69"/>
+      <c r="G161" s="67"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="92"/>
@@ -15715,7 +16754,7 @@
         <v>236</v>
       </c>
       <c r="F162" s="96"/>
-      <c r="G162" s="69"/>
+      <c r="G162" s="67"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="92"/>
@@ -15732,7 +16771,7 @@
         <v>237</v>
       </c>
       <c r="F163" s="96"/>
-      <c r="G163" s="69"/>
+      <c r="G163" s="67"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="92"/>
@@ -15749,7 +16788,7 @@
         <v>238</v>
       </c>
       <c r="F164" s="96"/>
-      <c r="G164" s="69"/>
+      <c r="G164" s="67"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="92"/>
@@ -15764,7 +16803,7 @@
         <v>576</v>
       </c>
       <c r="F165" s="8"/>
-      <c r="G165" s="69"/>
+      <c r="G165" s="67"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
@@ -15781,7 +16820,7 @@
       <c r="F166" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G166" s="69"/>
+      <c r="G166" s="67"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="92">
@@ -15798,7 +16837,7 @@
         <v>575</v>
       </c>
       <c r="F167" s="8"/>
-      <c r="G167" s="69"/>
+      <c r="G167" s="67"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="92"/>
@@ -15817,7 +16856,7 @@
       <c r="F168" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="G168" s="69"/>
+      <c r="G168" s="67"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="92"/>
@@ -15834,7 +16873,7 @@
         <v>240</v>
       </c>
       <c r="F169" s="96"/>
-      <c r="G169" s="69"/>
+      <c r="G169" s="67"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="92"/>
@@ -15851,7 +16890,7 @@
         <v>241</v>
       </c>
       <c r="F170" s="96"/>
-      <c r="G170" s="69"/>
+      <c r="G170" s="67"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="92"/>
@@ -15868,7 +16907,7 @@
         <v>242</v>
       </c>
       <c r="F171" s="96"/>
-      <c r="G171" s="69"/>
+      <c r="G171" s="67"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="92"/>
@@ -15881,7 +16920,7 @@
       <c r="D172" s="12"/>
       <c r="E172" s="10"/>
       <c r="F172" s="66"/>
-      <c r="G172" s="69"/>
+      <c r="G172" s="67"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="92"/>
@@ -15894,7 +16933,7 @@
       <c r="D173" s="12"/>
       <c r="E173" s="10"/>
       <c r="F173" s="66"/>
-      <c r="G173" s="69"/>
+      <c r="G173" s="67"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="92"/>
@@ -15907,7 +16946,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="10"/>
       <c r="F174" s="66"/>
-      <c r="G174" s="69"/>
+      <c r="G174" s="67"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="92"/>
@@ -15920,7 +16959,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="10"/>
       <c r="F175" s="66"/>
-      <c r="G175" s="69"/>
+      <c r="G175" s="67"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="92"/>
@@ -15935,7 +16974,7 @@
         <v>576</v>
       </c>
       <c r="F176" s="8"/>
-      <c r="G176" s="69"/>
+      <c r="G176" s="67"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
@@ -15952,7 +16991,7 @@
       <c r="F177" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G177" s="69" t="s">
+      <c r="G177" s="67" t="s">
         <v>503</v>
       </c>
     </row>
@@ -15971,7 +17010,7 @@
         <v>575</v>
       </c>
       <c r="F178" s="8"/>
-      <c r="G178" s="69"/>
+      <c r="G178" s="67"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="92"/>
@@ -15990,7 +17029,7 @@
       <c r="F179" s="93" t="s">
         <v>503</v>
       </c>
-      <c r="G179" s="69"/>
+      <c r="G179" s="67"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="92"/>
@@ -16007,7 +17046,7 @@
         <v>492</v>
       </c>
       <c r="F180" s="94"/>
-      <c r="G180" s="69"/>
+      <c r="G180" s="67"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="92"/>
@@ -16024,7 +17063,7 @@
         <v>493</v>
       </c>
       <c r="F181" s="94"/>
-      <c r="G181" s="69"/>
+      <c r="G181" s="67"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="92"/>
@@ -16041,7 +17080,7 @@
         <v>494</v>
       </c>
       <c r="F182" s="94"/>
-      <c r="G182" s="69"/>
+      <c r="G182" s="67"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="92"/>
@@ -16058,7 +17097,7 @@
         <v>495</v>
       </c>
       <c r="F183" s="94"/>
-      <c r="G183" s="69"/>
+      <c r="G183" s="67"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="92"/>
@@ -16075,7 +17114,7 @@
         <v>496</v>
       </c>
       <c r="F184" s="94"/>
-      <c r="G184" s="69"/>
+      <c r="G184" s="67"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="92"/>
@@ -16092,7 +17131,7 @@
         <v>497</v>
       </c>
       <c r="F185" s="94"/>
-      <c r="G185" s="69"/>
+      <c r="G185" s="67"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="92"/>
@@ -16109,7 +17148,7 @@
         <v>498</v>
       </c>
       <c r="F186" s="95"/>
-      <c r="G186" s="69"/>
+      <c r="G186" s="67"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="92"/>
@@ -16124,7 +17163,7 @@
         <v>576</v>
       </c>
       <c r="F187" s="8"/>
-      <c r="G187" s="69"/>
+      <c r="G187" s="67"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
@@ -16141,7 +17180,7 @@
       <c r="F188" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G188" s="69"/>
+      <c r="G188" s="67"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="92">
@@ -16158,7 +17197,7 @@
         <v>575</v>
       </c>
       <c r="F189" s="8"/>
-      <c r="G189" s="69"/>
+      <c r="G189" s="67"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="92"/>
@@ -16177,7 +17216,7 @@
       <c r="F190" s="93" t="s">
         <v>503</v>
       </c>
-      <c r="G190" s="69"/>
+      <c r="G190" s="67"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="92"/>
@@ -16194,7 +17233,7 @@
         <v>500</v>
       </c>
       <c r="F191" s="94"/>
-      <c r="G191" s="69"/>
+      <c r="G191" s="67"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="92"/>
@@ -16211,7 +17250,7 @@
         <v>501</v>
       </c>
       <c r="F192" s="94"/>
-      <c r="G192" s="69"/>
+      <c r="G192" s="67"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="92"/>
@@ -16228,7 +17267,7 @@
         <v>502</v>
       </c>
       <c r="F193" s="94"/>
-      <c r="G193" s="69"/>
+      <c r="G193" s="67"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="92"/>
@@ -16245,7 +17284,7 @@
         <v>522</v>
       </c>
       <c r="F194" s="94"/>
-      <c r="G194" s="69"/>
+      <c r="G194" s="67"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="92"/>
@@ -16262,7 +17301,7 @@
         <v>5</v>
       </c>
       <c r="F195" s="94"/>
-      <c r="G195" s="69"/>
+      <c r="G195" s="67"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="92"/>
@@ -16279,7 +17318,7 @@
         <v>6</v>
       </c>
       <c r="F196" s="94"/>
-      <c r="G196" s="69"/>
+      <c r="G196" s="67"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="92"/>
@@ -16296,7 +17335,7 @@
         <v>523</v>
       </c>
       <c r="F197" s="95"/>
-      <c r="G197" s="69"/>
+      <c r="G197" s="67"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="92"/>
@@ -16311,10 +17350,45 @@
         <v>576</v>
       </c>
       <c r="F198" s="8"/>
-      <c r="G198" s="69"/>
+      <c r="G198" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G12:G44"/>
+    <mergeCell ref="G45:G66"/>
+    <mergeCell ref="G67:G77"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="F80:F87"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="A134:A143"/>
+    <mergeCell ref="F135:F138"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="F91:F98"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="F113:F120"/>
+    <mergeCell ref="F102:F103"/>
     <mergeCell ref="G144:G176"/>
     <mergeCell ref="G133:G143"/>
     <mergeCell ref="A178:A187"/>
@@ -16328,41 +17402,6 @@
     <mergeCell ref="F157:F164"/>
     <mergeCell ref="A167:A176"/>
     <mergeCell ref="F168:F171"/>
-    <mergeCell ref="A123:A132"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="A134:A143"/>
-    <mergeCell ref="F135:F138"/>
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="F91:F98"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="F113:F120"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G45:G66"/>
-    <mergeCell ref="G67:G77"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="F80:F87"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G12:G44"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16540,10 +17579,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16627,10 +17666,1498 @@
         <v>756</v>
       </c>
     </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>762</v>
+      </c>
+      <c r="B112" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>764</v>
+      </c>
+      <c r="B113" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>766</v>
+      </c>
+      <c r="B114" t="s">
+        <v>767</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W52"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="2.5" customWidth="1"/>
+    <col min="18" max="18" width="5.5" customWidth="1"/>
+    <col min="19" max="19" width="8.5" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="5.5" customWidth="1"/>
+    <col min="22" max="22" width="7.5" customWidth="1"/>
+    <col min="23" max="23" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="1">
+        <v>7</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1">
+        <v>8</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="Q11" s="1">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -4435,10 +4435,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4450,9 +4453,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4462,6 +4462,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4469,15 +4475,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4497,6 +4494,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6071,12 +6071,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -6085,10 +6085,10 @@
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="22.5">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -6550,7 +6550,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="69" t="s">
         <v>139</v>
       </c>
       <c r="K20" s="6"/>
@@ -6573,7 +6573,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="67"/>
+      <c r="J21" s="69"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
@@ -6596,7 +6596,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="67"/>
+      <c r="J22" s="69"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
@@ -6617,7 +6617,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="67"/>
+      <c r="J23" s="69"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
@@ -6638,7 +6638,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="67"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
@@ -6661,7 +6661,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="67"/>
+      <c r="J25" s="69"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
@@ -6682,7 +6682,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="67"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
@@ -6703,7 +6703,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="67"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
@@ -6726,7 +6726,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="67"/>
+      <c r="J28" s="69"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11">
@@ -6747,7 +6747,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="67"/>
+      <c r="J29" s="69"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
@@ -6768,7 +6768,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="67"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11">
@@ -6791,7 +6791,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="67"/>
+      <c r="J31" s="69"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11">
@@ -6812,7 +6812,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="67"/>
+      <c r="J32" s="69"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11">
@@ -6833,7 +6833,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="67"/>
+      <c r="J33" s="69"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11">
@@ -6856,7 +6856,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="69"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
@@ -6877,7 +6877,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="67"/>
+      <c r="J35" s="69"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11">
@@ -6898,7 +6898,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="67" t="s">
+      <c r="J36" s="69" t="s">
         <v>139</v>
       </c>
       <c r="K36" s="6"/>
@@ -6923,7 +6923,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="67"/>
+      <c r="J37" s="69"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
@@ -6944,7 +6944,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="67"/>
+      <c r="J38" s="69"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
@@ -6965,7 +6965,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="67"/>
+      <c r="J39" s="69"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11">
@@ -6986,7 +6986,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="67"/>
+      <c r="J40" s="69"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11">
@@ -7007,7 +7007,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="67"/>
+      <c r="J41" s="69"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11">
@@ -7023,14 +7023,14 @@
       <c r="D42" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="69" t="s">
         <v>723</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="67"/>
+      <c r="J42" s="69"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
@@ -7046,12 +7046,12 @@
       <c r="D43" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E43" s="67"/>
+      <c r="E43" s="69"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="67"/>
+      <c r="J43" s="69"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
@@ -7067,14 +7067,14 @@
       <c r="D44" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="69" t="s">
         <v>724</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="67"/>
+      <c r="J44" s="69"/>
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11">
@@ -7090,12 +7090,12 @@
       <c r="D45" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="E45" s="67"/>
+      <c r="E45" s="69"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="67"/>
+      <c r="J45" s="69"/>
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
@@ -7111,12 +7111,12 @@
       <c r="D46" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="E46" s="67"/>
+      <c r="E46" s="69"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="67"/>
+      <c r="J46" s="69"/>
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11">
@@ -7132,12 +7132,12 @@
       <c r="D47" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E47" s="67"/>
+      <c r="E47" s="69"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="67"/>
+      <c r="J47" s="69"/>
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11">
@@ -7153,12 +7153,12 @@
       <c r="D48" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="E48" s="67"/>
+      <c r="E48" s="69"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="67"/>
+      <c r="J48" s="69"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11">
@@ -7174,12 +7174,12 @@
       <c r="D49" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E49" s="67"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="67"/>
+      <c r="J49" s="69"/>
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11">
@@ -7195,14 +7195,14 @@
       <c r="D50" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="69" t="s">
         <v>725</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="67"/>
+      <c r="J50" s="69"/>
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11">
@@ -7218,12 +7218,12 @@
       <c r="D51" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E51" s="67"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="67"/>
+      <c r="J51" s="69"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11">
@@ -7239,12 +7239,12 @@
       <c r="D52" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="E52" s="67"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="67" t="s">
+      <c r="J52" s="69" t="s">
         <v>140</v>
       </c>
       <c r="K52" s="6"/>
@@ -7262,12 +7262,12 @@
       <c r="D53" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="E53" s="67"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="67"/>
+      <c r="J53" s="69"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11">
@@ -7283,12 +7283,12 @@
       <c r="D54" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="E54" s="67"/>
+      <c r="E54" s="69"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="67"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11">
@@ -7304,12 +7304,12 @@
       <c r="D55" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="E55" s="67"/>
+      <c r="E55" s="69"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="67"/>
+      <c r="J55" s="69"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11">
@@ -7325,12 +7325,12 @@
       <c r="D56" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="E56" s="67"/>
+      <c r="E56" s="69"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="67"/>
+      <c r="J56" s="69"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11">
@@ -7344,12 +7344,12 @@
         <v>80</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="67"/>
+      <c r="E57" s="69"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="67"/>
+      <c r="J57" s="69"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11">
@@ -7365,14 +7365,14 @@
       <c r="D58" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E58" s="67" t="s">
+      <c r="E58" s="69" t="s">
         <v>726</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="67"/>
+      <c r="J58" s="69"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11">
@@ -7388,12 +7388,12 @@
       <c r="D59" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E59" s="67"/>
+      <c r="E59" s="69"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="67"/>
+      <c r="J59" s="69"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11">
@@ -7409,12 +7409,12 @@
       <c r="D60" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="E60" s="67"/>
+      <c r="E60" s="69"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="67"/>
+      <c r="J60" s="69"/>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11">
@@ -7430,12 +7430,12 @@
       <c r="D61" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="E61" s="67"/>
+      <c r="E61" s="69"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="67"/>
+      <c r="J61" s="69"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="11">
@@ -7450,12 +7450,12 @@
       <c r="D62" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="E62" s="67"/>
+      <c r="E62" s="69"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="67"/>
+      <c r="J62" s="69"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="11">
@@ -7470,12 +7470,12 @@
       <c r="D63" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E63" s="67"/>
+      <c r="E63" s="69"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="67"/>
+      <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="11">
@@ -7490,12 +7490,12 @@
       <c r="D64" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E64" s="67"/>
+      <c r="E64" s="69"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="67"/>
+      <c r="J64" s="69"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="11">
@@ -7510,12 +7510,12 @@
       <c r="D65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="67"/>
+      <c r="E65" s="69"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="67"/>
+      <c r="J65" s="69"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="11">
@@ -7530,14 +7530,14 @@
       <c r="D66" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="E66" s="67" t="s">
+      <c r="E66" s="69" t="s">
         <v>503</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="67"/>
+      <c r="J66" s="69"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="11">
@@ -7552,12 +7552,12 @@
       <c r="D67" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E67" s="67"/>
+      <c r="E67" s="69"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="67"/>
+      <c r="J67" s="69"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="11">
@@ -7572,12 +7572,12 @@
       <c r="D68" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="E68" s="67"/>
+      <c r="E68" s="69"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="67" t="s">
+      <c r="J68" s="69" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7594,12 +7594,12 @@
       <c r="D69" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E69" s="67"/>
+      <c r="E69" s="69"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="67"/>
+      <c r="J69" s="69"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="11">
@@ -7614,12 +7614,12 @@
       <c r="D70" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="E70" s="67"/>
+      <c r="E70" s="69"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="67"/>
+      <c r="J70" s="69"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="11">
@@ -7634,12 +7634,12 @@
       <c r="D71" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="E71" s="67"/>
+      <c r="E71" s="69"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="67"/>
+      <c r="J71" s="69"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="11">
@@ -7654,12 +7654,12 @@
       <c r="D72" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E72" s="67"/>
+      <c r="E72" s="69"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="67"/>
+      <c r="J72" s="69"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="11">
@@ -7674,12 +7674,12 @@
       <c r="D73" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E73" s="67"/>
+      <c r="E73" s="69"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="67"/>
+      <c r="J73" s="69"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="11">
@@ -7694,12 +7694,12 @@
       <c r="D74" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="E74" s="67"/>
+      <c r="E74" s="69"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="67"/>
+      <c r="J74" s="69"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="11">
@@ -7714,12 +7714,12 @@
       <c r="D75" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E75" s="67"/>
+      <c r="E75" s="69"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="67"/>
+      <c r="J75" s="69"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="11">
@@ -7734,12 +7734,12 @@
       <c r="D76" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E76" s="67"/>
+      <c r="E76" s="69"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="67"/>
+      <c r="J76" s="69"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="11">
@@ -7754,12 +7754,12 @@
       <c r="D77" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E77" s="67"/>
+      <c r="E77" s="69"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="67"/>
+      <c r="J77" s="69"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="11">
@@ -7777,7 +7777,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="67"/>
+      <c r="J78" s="69"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="11">
@@ -7795,7 +7795,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="67"/>
+      <c r="J79" s="69"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="11">
@@ -7813,7 +7813,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="67"/>
+      <c r="J80" s="69"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="11">
@@ -7831,7 +7831,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="67"/>
+      <c r="J81" s="69"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="11">
@@ -7849,7 +7849,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="67"/>
+      <c r="J82" s="69"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="11">
@@ -7867,7 +7867,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="67"/>
+      <c r="J83" s="69"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="11">
@@ -7889,7 +7889,7 @@
       <c r="I84" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="J84" s="67" t="s">
+      <c r="J84" s="69" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
         <v>706</v>
       </c>
       <c r="I85" s="68"/>
-      <c r="J85" s="67"/>
+      <c r="J85" s="69"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="11">
@@ -7931,7 +7931,7 @@
         <v>707</v>
       </c>
       <c r="I86" s="68"/>
-      <c r="J86" s="67"/>
+      <c r="J86" s="69"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="11">
@@ -7953,7 +7953,7 @@
       <c r="I87" s="68" t="s">
         <v>584</v>
       </c>
-      <c r="J87" s="67"/>
+      <c r="J87" s="69"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="11">
@@ -7973,7 +7973,7 @@
         <v>708</v>
       </c>
       <c r="I88" s="68"/>
-      <c r="J88" s="67"/>
+      <c r="J88" s="69"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="11">
@@ -7993,7 +7993,7 @@
         <v>707</v>
       </c>
       <c r="I89" s="68"/>
-      <c r="J89" s="67"/>
+      <c r="J89" s="69"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="11">
@@ -8015,7 +8015,7 @@
       <c r="I90" s="68" t="s">
         <v>728</v>
       </c>
-      <c r="J90" s="67"/>
+      <c r="J90" s="69"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="11">
@@ -8035,7 +8035,7 @@
         <v>426</v>
       </c>
       <c r="I91" s="68"/>
-      <c r="J91" s="67"/>
+      <c r="J91" s="69"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="11">
@@ -8055,7 +8055,7 @@
         <v>223</v>
       </c>
       <c r="I92" s="68"/>
-      <c r="J92" s="67"/>
+      <c r="J92" s="69"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="11">
@@ -8077,7 +8077,7 @@
       <c r="I93" s="68" t="s">
         <v>721</v>
       </c>
-      <c r="J93" s="67"/>
+      <c r="J93" s="69"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="11">
@@ -8097,7 +8097,7 @@
         <v>706</v>
       </c>
       <c r="I94" s="68"/>
-      <c r="J94" s="67"/>
+      <c r="J94" s="69"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="11">
@@ -8117,7 +8117,7 @@
         <v>707</v>
       </c>
       <c r="I95" s="68"/>
-      <c r="J95" s="67"/>
+      <c r="J95" s="69"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="11">
@@ -8139,7 +8139,7 @@
       <c r="I96" s="68" t="s">
         <v>729</v>
       </c>
-      <c r="J96" s="67"/>
+      <c r="J96" s="69"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="11">
@@ -8159,7 +8159,7 @@
         <v>706</v>
       </c>
       <c r="I97" s="68"/>
-      <c r="J97" s="67"/>
+      <c r="J97" s="69"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="11">
@@ -8179,7 +8179,7 @@
         <v>223</v>
       </c>
       <c r="I98" s="68"/>
-      <c r="J98" s="67"/>
+      <c r="J98" s="69"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="11">
@@ -8201,7 +8201,7 @@
       <c r="I99" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="J99" s="67"/>
+      <c r="J99" s="69"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="11">
@@ -8221,7 +8221,7 @@
         <v>711</v>
       </c>
       <c r="I100" s="68"/>
-      <c r="J100" s="67" t="s">
+      <c r="J100" s="69" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
         <v>223</v>
       </c>
       <c r="I101" s="68"/>
-      <c r="J101" s="67"/>
+      <c r="J101" s="69"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="11">
@@ -8265,7 +8265,7 @@
       <c r="I102" s="68" t="s">
         <v>599</v>
       </c>
-      <c r="J102" s="67"/>
+      <c r="J102" s="69"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="11">
@@ -8285,7 +8285,7 @@
         <v>706</v>
       </c>
       <c r="I103" s="68"/>
-      <c r="J103" s="67"/>
+      <c r="J103" s="69"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="11">
@@ -8305,7 +8305,7 @@
         <v>707</v>
       </c>
       <c r="I104" s="68"/>
-      <c r="J104" s="67"/>
+      <c r="J104" s="69"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="11">
@@ -8325,7 +8325,7 @@
         <v>712</v>
       </c>
       <c r="I105" s="68"/>
-      <c r="J105" s="67"/>
+      <c r="J105" s="69"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="11">
@@ -8347,7 +8347,7 @@
       <c r="I106" s="68" t="s">
         <v>477</v>
       </c>
-      <c r="J106" s="67"/>
+      <c r="J106" s="69"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="11">
@@ -8367,7 +8367,7 @@
         <v>711</v>
       </c>
       <c r="I107" s="68"/>
-      <c r="J107" s="67"/>
+      <c r="J107" s="69"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="11">
@@ -8389,7 +8389,7 @@
       <c r="I108" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="J108" s="67"/>
+      <c r="J108" s="69"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="11">
@@ -8411,7 +8411,7 @@
       <c r="I109" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="J109" s="67"/>
+      <c r="J109" s="69"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="11">
@@ -8433,7 +8433,7 @@
       <c r="I110" s="12" t="s">
         <v>732</v>
       </c>
-      <c r="J110" s="67"/>
+      <c r="J110" s="69"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="11">
@@ -8455,7 +8455,7 @@
       <c r="I111" s="68" t="s">
         <v>735</v>
       </c>
-      <c r="J111" s="67"/>
+      <c r="J111" s="69"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="11">
@@ -8475,7 +8475,7 @@
         <v>715</v>
       </c>
       <c r="I112" s="68"/>
-      <c r="J112" s="67"/>
+      <c r="J112" s="69"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="11">
@@ -8495,7 +8495,7 @@
         <v>707</v>
       </c>
       <c r="I113" s="68"/>
-      <c r="J113" s="67"/>
+      <c r="J113" s="69"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="11">
@@ -8514,10 +8514,10 @@
       <c r="H114" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="I114" s="67" t="s">
+      <c r="I114" s="69" t="s">
         <v>733</v>
       </c>
-      <c r="J114" s="67"/>
+      <c r="J114" s="69"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="11">
@@ -8536,8 +8536,8 @@
       <c r="H115" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="69"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="11">
@@ -8556,8 +8556,8 @@
       <c r="H116" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I116" s="67"/>
-      <c r="J116" s="67" t="s">
+      <c r="I116" s="69"/>
+      <c r="J116" s="69" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8578,8 +8578,8 @@
       <c r="H117" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
+      <c r="I117" s="69"/>
+      <c r="J117" s="69"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="11">
@@ -8598,8 +8598,8 @@
       <c r="H118" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I118" s="67"/>
-      <c r="J118" s="67"/>
+      <c r="I118" s="69"/>
+      <c r="J118" s="69"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="11">
@@ -8619,7 +8619,7 @@
         <v>625</v>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="67"/>
+      <c r="J119" s="69"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="11">
@@ -8639,7 +8639,7 @@
         <v>626</v>
       </c>
       <c r="I120" s="1"/>
-      <c r="J120" s="67"/>
+      <c r="J120" s="69"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="11">
@@ -8659,7 +8659,7 @@
         <v>719</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="67"/>
+      <c r="J121" s="69"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="11">
@@ -8681,7 +8681,7 @@
       <c r="I122" s="73" t="s">
         <v>738</v>
       </c>
-      <c r="J122" s="67"/>
+      <c r="J122" s="69"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="11">
@@ -8701,7 +8701,7 @@
         <v>736</v>
       </c>
       <c r="I123" s="74"/>
-      <c r="J123" s="67"/>
+      <c r="J123" s="69"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="11">
@@ -8721,7 +8721,7 @@
         <v>740</v>
       </c>
       <c r="I124" s="75"/>
-      <c r="J124" s="67"/>
+      <c r="J124" s="69"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="11">
@@ -8743,7 +8743,7 @@
       <c r="I125" s="68" t="s">
         <v>741</v>
       </c>
-      <c r="J125" s="67"/>
+      <c r="J125" s="69"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="11">
@@ -8763,7 +8763,7 @@
         <v>742</v>
       </c>
       <c r="I126" s="68"/>
-      <c r="J126" s="67"/>
+      <c r="J126" s="69"/>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="11">
@@ -8783,7 +8783,7 @@
         <v>743</v>
       </c>
       <c r="I127" s="68"/>
-      <c r="J127" s="67"/>
+      <c r="J127" s="69"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="11">
@@ -8805,7 +8805,7 @@
       <c r="I128" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="J128" s="67"/>
+      <c r="J128" s="69"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="11">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="67"/>
+      <c r="J129" s="69"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="11">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="67"/>
+      <c r="J130" s="69"/>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="11">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="67"/>
+      <c r="J131" s="69"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="62"/>
@@ -8958,12 +8958,12 @@
       <c r="J139" s="63"/>
     </row>
     <row r="141" spans="1:10" ht="22.5">
-      <c r="A141" s="72" t="s">
+      <c r="A141" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="B141" s="72"/>
-      <c r="C141" s="72"/>
-      <c r="D141" s="72"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -8972,10 +8972,10 @@
       <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:10" ht="22.5">
-      <c r="A142" s="72"/>
-      <c r="B142" s="72"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
+      <c r="A142" s="67"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
       <c r="E142" s="9"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
@@ -9031,7 +9031,7 @@
         <v>223</v>
       </c>
       <c r="I144" s="60"/>
-      <c r="J144" s="69" t="s">
+      <c r="J144" s="70" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
         <v>227</v>
       </c>
       <c r="I145" s="13"/>
-      <c r="J145" s="70"/>
+      <c r="J145" s="71"/>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="11">
@@ -9081,7 +9081,7 @@
         <v>224</v>
       </c>
       <c r="I146" s="13"/>
-      <c r="J146" s="70"/>
+      <c r="J146" s="71"/>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="11">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="H147" s="10"/>
       <c r="I147" s="13"/>
-      <c r="J147" s="70"/>
+      <c r="J147" s="71"/>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="11">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="13"/>
-      <c r="J148" s="70"/>
+      <c r="J148" s="71"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="11">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="13"/>
-      <c r="J149" s="70"/>
+      <c r="J149" s="71"/>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="11">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="13"/>
-      <c r="J150" s="70"/>
+      <c r="J150" s="71"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="11">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="70"/>
+      <c r="J151" s="71"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="11">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="70"/>
+      <c r="J152" s="71"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="11">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="70"/>
+      <c r="J153" s="71"/>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="11">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="70"/>
+      <c r="J154" s="71"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="11">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="H155" s="10"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="70"/>
+      <c r="J155" s="71"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="11">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="H156" s="10"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="70"/>
+      <c r="J156" s="71"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="11">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="70"/>
+      <c r="J157" s="71"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="11">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="H158" s="10"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="70"/>
+      <c r="J158" s="71"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="11">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="H159" s="10"/>
       <c r="I159" s="13"/>
-      <c r="J159" s="70"/>
+      <c r="J159" s="71"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="11">
@@ -9385,7 +9385,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="70"/>
+      <c r="J160" s="71"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="11">
@@ -9403,7 +9403,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="70"/>
+      <c r="J161" s="71"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="11">
@@ -9421,7 +9421,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="70"/>
+      <c r="J162" s="71"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="11">
@@ -9439,7 +9439,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="70"/>
+      <c r="J163" s="71"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="11">
@@ -9457,7 +9457,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="70"/>
+      <c r="J164" s="71"/>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="11">
@@ -9475,7 +9475,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="70"/>
+      <c r="J165" s="71"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="11">
@@ -9493,7 +9493,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="70"/>
+      <c r="J166" s="71"/>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="11">
@@ -9511,15 +9511,15 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="61"/>
-      <c r="J167" s="71"/>
+      <c r="J167" s="72"/>
     </row>
     <row r="169" spans="1:10" ht="22.5">
-      <c r="A169" s="72" t="s">
+      <c r="A169" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="B169" s="72"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="67"/>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
@@ -9528,10 +9528,10 @@
       <c r="J169" s="10"/>
     </row>
     <row r="170" spans="1:10" ht="22.5">
-      <c r="A170" s="72"/>
-      <c r="B170" s="72"/>
-      <c r="C170" s="72"/>
-      <c r="D170" s="72"/>
+      <c r="A170" s="67"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
       <c r="E170" s="9"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
@@ -9587,7 +9587,7 @@
         <v>228</v>
       </c>
       <c r="I172" s="60"/>
-      <c r="J172" s="69" t="s">
+      <c r="J172" s="70" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9615,7 +9615,7 @@
         <v>229</v>
       </c>
       <c r="I173" s="13"/>
-      <c r="J173" s="70"/>
+      <c r="J173" s="71"/>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="11">
@@ -9641,7 +9641,7 @@
         <v>230</v>
       </c>
       <c r="I174" s="13"/>
-      <c r="J174" s="70"/>
+      <c r="J174" s="71"/>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="11">
@@ -9667,7 +9667,7 @@
         <v>231</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="70"/>
+      <c r="J175" s="71"/>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="11">
@@ -9693,7 +9693,7 @@
         <v>232</v>
       </c>
       <c r="I176" s="13"/>
-      <c r="J176" s="70"/>
+      <c r="J176" s="71"/>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="11">
@@ -9717,7 +9717,7 @@
         <v>233</v>
       </c>
       <c r="I177" s="13"/>
-      <c r="J177" s="70"/>
+      <c r="J177" s="71"/>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="11">
@@ -9741,7 +9741,7 @@
         <v>234</v>
       </c>
       <c r="I178" s="13"/>
-      <c r="J178" s="70"/>
+      <c r="J178" s="71"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="11">
@@ -9765,7 +9765,7 @@
         <v>235</v>
       </c>
       <c r="I179" s="13"/>
-      <c r="J179" s="70"/>
+      <c r="J179" s="71"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="11">
@@ -9789,7 +9789,7 @@
         <v>236</v>
       </c>
       <c r="I180" s="13"/>
-      <c r="J180" s="70"/>
+      <c r="J180" s="71"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="11">
@@ -9813,7 +9813,7 @@
         <v>237</v>
       </c>
       <c r="I181" s="13"/>
-      <c r="J181" s="70"/>
+      <c r="J181" s="71"/>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="11">
@@ -9837,7 +9837,7 @@
         <v>238</v>
       </c>
       <c r="I182" s="13"/>
-      <c r="J182" s="70"/>
+      <c r="J182" s="71"/>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="11">
@@ -9861,7 +9861,7 @@
         <v>239</v>
       </c>
       <c r="I183" s="13"/>
-      <c r="J183" s="70"/>
+      <c r="J183" s="71"/>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="11">
@@ -9885,7 +9885,7 @@
         <v>240</v>
       </c>
       <c r="I184" s="13"/>
-      <c r="J184" s="70"/>
+      <c r="J184" s="71"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="11">
@@ -9909,7 +9909,7 @@
         <v>241</v>
       </c>
       <c r="I185" s="13"/>
-      <c r="J185" s="70"/>
+      <c r="J185" s="71"/>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="11">
@@ -9933,7 +9933,7 @@
         <v>242</v>
       </c>
       <c r="I186" s="13"/>
-      <c r="J186" s="70"/>
+      <c r="J186" s="71"/>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="11">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="H187" s="10"/>
       <c r="I187" s="13"/>
-      <c r="J187" s="70"/>
+      <c r="J187" s="71"/>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="11">
@@ -9973,7 +9973,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="70"/>
+      <c r="J188" s="71"/>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="11">
@@ -9991,7 +9991,7 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="70"/>
+      <c r="J189" s="71"/>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="11">
@@ -10009,7 +10009,7 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="70"/>
+      <c r="J190" s="71"/>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="11">
@@ -10027,7 +10027,7 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="70"/>
+      <c r="J191" s="71"/>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="11">
@@ -10045,7 +10045,7 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="70"/>
+      <c r="J192" s="71"/>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="11">
@@ -10063,7 +10063,7 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="70"/>
+      <c r="J193" s="71"/>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="11">
@@ -10081,7 +10081,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="70"/>
+      <c r="J194" s="71"/>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="11">
@@ -10099,10 +10099,36 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
       <c r="I195" s="61"/>
-      <c r="J195" s="71"/>
+      <c r="J195" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="J172:J195"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I4:I15"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="J68:J83"/>
+    <mergeCell ref="J84:J99"/>
+    <mergeCell ref="J100:J115"/>
+    <mergeCell ref="J116:J131"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="I125:I127"/>
+    <mergeCell ref="A141:D142"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="J144:J167"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I122:I124"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="J4:J19"/>
     <mergeCell ref="J20:J35"/>
@@ -10119,32 +10145,6 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="E37:E41"/>
-    <mergeCell ref="A141:D142"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="J144:J167"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="I122:I124"/>
-    <mergeCell ref="J172:J195"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I4:I15"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="J68:J83"/>
-    <mergeCell ref="J84:J99"/>
-    <mergeCell ref="J100:J115"/>
-    <mergeCell ref="J116:J131"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="I125:I127"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="E50:E57"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I102:I105"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10156,7 +10156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -10218,6 +10218,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10228,8 +10229,8 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10268,12 +10269,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -10287,10 +10288,10 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="21" t="s">
         <v>526</v>
       </c>
@@ -10304,20 +10305,20 @@
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="85"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="25">
         <v>20170714</v>
       </c>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="25" t="s">
         <v>525</v>
       </c>
@@ -10329,18 +10330,18 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="K4" s="85"/>
+      <c r="K4" s="84"/>
       <c r="L4" s="22"/>
       <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -10350,10 +10351,10 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="84"/>
       <c r="L5" s="29"/>
       <c r="M5" s="33"/>
     </row>
@@ -10379,14 +10380,14 @@
       <c r="B7" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="38" t="s">
         <v>268</v>
       </c>
@@ -10402,17 +10403,17 @@
       <c r="K7" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="M7" s="80"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="40">
         <v>1</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="77" t="s">
         <v>274</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -10440,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="41"/>
-      <c r="C9" s="81"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="48" t="s">
         <v>278</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="81"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="48" t="s">
         <v>541</v>
       </c>
@@ -10496,7 +10497,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="81"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="48" t="s">
         <v>280</v>
       </c>
@@ -10524,7 +10525,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="41"/>
-      <c r="C12" s="81"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="48" t="s">
         <v>280</v>
       </c>
@@ -10551,7 +10552,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="81"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="50" t="s">
         <v>544</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="41"/>
-      <c r="C14" s="81"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="41" t="s">
         <v>282</v>
       </c>
@@ -10605,7 +10606,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="81"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="50" t="s">
         <v>285</v>
       </c>
@@ -10632,7 +10633,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="41"/>
-      <c r="C16" s="81"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="50" t="s">
         <v>287</v>
       </c>
@@ -10657,7 +10658,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="81"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="50" t="s">
         <v>287</v>
       </c>
@@ -10682,7 +10683,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="81"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="51" t="s">
         <v>290</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="41"/>
-      <c r="C19" s="81"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="50" t="s">
         <v>293</v>
       </c>
@@ -10736,7 +10737,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="81"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="50" t="s">
         <v>296</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="41"/>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="76" t="s">
         <v>658</v>
       </c>
       <c r="D21" s="50" t="s">
@@ -10792,7 +10793,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="41"/>
-      <c r="C22" s="79"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="51" t="s">
         <v>651</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="79"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="50" t="s">
         <v>653</v>
       </c>
@@ -10842,7 +10843,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="79"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="50" t="s">
         <v>653</v>
       </c>
@@ -10867,7 +10868,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="41"/>
-      <c r="C25" s="79"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="50" t="s">
         <v>654</v>
       </c>
@@ -10892,7 +10893,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="41"/>
-      <c r="C26" s="79"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="50" t="s">
         <v>656</v>
       </c>
@@ -10942,7 +10943,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="41"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="78" t="s">
         <v>298</v>
       </c>
       <c r="D28" s="53" t="s">
@@ -10971,7 +10972,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="41"/>
-      <c r="C29" s="76"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="53" t="s">
         <v>530</v>
       </c>
@@ -10998,7 +10999,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="41"/>
-      <c r="C30" s="76"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="53" t="s">
         <v>532</v>
       </c>
@@ -11025,7 +11026,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="41"/>
-      <c r="C31" s="76"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="53" t="s">
         <v>534</v>
       </c>
@@ -11052,7 +11053,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="41"/>
-      <c r="C32" s="76"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="53" t="s">
         <v>536</v>
       </c>
@@ -11079,7 +11080,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="41"/>
-      <c r="C33" s="76"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="53" t="s">
         <v>537</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="41"/>
-      <c r="C34" s="76"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="53" t="s">
         <v>539</v>
       </c>
@@ -11129,7 +11130,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="41"/>
-      <c r="C35" s="76"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="53" t="s">
         <v>300</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="41"/>
-      <c r="C36" s="76"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="53" t="s">
         <v>304</v>
       </c>
@@ -11183,7 +11184,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="41"/>
-      <c r="C37" s="76"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="53" t="s">
         <v>557</v>
       </c>
@@ -11208,7 +11209,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="41"/>
-      <c r="C38" s="76"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="53" t="s">
         <v>305</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="41"/>
-      <c r="C39" s="76"/>
+      <c r="C39" s="78"/>
       <c r="D39" s="53" t="s">
         <v>305</v>
       </c>
@@ -11262,7 +11263,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="41"/>
-      <c r="C40" s="76"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="49" t="s">
         <v>306</v>
       </c>
@@ -11289,7 +11290,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="41"/>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="79" t="s">
         <v>307</v>
       </c>
       <c r="D41" s="49" t="s">
@@ -11318,7 +11319,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="41"/>
-      <c r="C42" s="78"/>
+      <c r="C42" s="80"/>
       <c r="D42" s="49" t="s">
         <v>311</v>
       </c>
@@ -11345,7 +11346,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="41"/>
-      <c r="C43" s="78"/>
+      <c r="C43" s="80"/>
       <c r="D43" s="49" t="s">
         <v>313</v>
       </c>
@@ -11372,7 +11373,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="41"/>
-      <c r="C44" s="78"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="49" t="s">
         <v>316</v>
       </c>
@@ -11399,7 +11400,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="41"/>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="78" t="s">
         <v>319</v>
       </c>
       <c r="D45" s="49" t="s">
@@ -11428,7 +11429,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="41"/>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="49" t="s">
         <v>322</v>
       </c>
@@ -11453,7 +11454,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="41"/>
-      <c r="C47" s="76"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="49" t="s">
         <v>324</v>
       </c>
@@ -11480,7 +11481,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="41"/>
-      <c r="C48" s="76"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="49" t="s">
         <v>42</v>
       </c>
@@ -11507,7 +11508,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="41"/>
-      <c r="C49" s="76"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="49" t="s">
         <v>327</v>
       </c>
@@ -11530,7 +11531,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="41"/>
-      <c r="C50" s="76"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="49" t="s">
         <v>328</v>
       </c>
@@ -11553,7 +11554,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="41"/>
-      <c r="C51" s="76"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="49" t="s">
         <v>329</v>
       </c>
@@ -11580,7 +11581,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="41"/>
-      <c r="C52" s="76"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="49" t="s">
         <v>331</v>
       </c>
@@ -11603,7 +11604,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="41"/>
-      <c r="C53" s="76"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="49" t="s">
         <v>332</v>
       </c>
@@ -11628,7 +11629,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="41"/>
-      <c r="C54" s="76"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="49" t="s">
         <v>334</v>
       </c>
@@ -11653,7 +11654,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="41"/>
-      <c r="C55" s="76"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="49" t="s">
         <v>336</v>
       </c>
@@ -11680,7 +11681,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="41"/>
-      <c r="C56" s="76"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="49" t="s">
         <v>336</v>
       </c>
@@ -11707,7 +11708,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="41"/>
-      <c r="C57" s="76"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="49" t="s">
         <v>339</v>
       </c>
@@ -11734,7 +11735,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="41"/>
-      <c r="C58" s="76"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="49" t="s">
         <v>342</v>
       </c>
@@ -11761,7 +11762,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="41"/>
-      <c r="C59" s="76"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="49" t="s">
         <v>344</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="41"/>
-      <c r="C60" s="76"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="49" t="s">
         <v>345</v>
       </c>
@@ -11815,7 +11816,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="41"/>
-      <c r="C61" s="76"/>
+      <c r="C61" s="78"/>
       <c r="D61" s="49" t="s">
         <v>347</v>
       </c>
@@ -11842,7 +11843,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="41"/>
-      <c r="C62" s="76"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="49" t="s">
         <v>345</v>
       </c>
@@ -11869,7 +11870,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="41"/>
-      <c r="C63" s="76"/>
+      <c r="C63" s="78"/>
       <c r="D63" s="49" t="s">
         <v>347</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="41"/>
-      <c r="C64" s="76"/>
+      <c r="C64" s="78"/>
       <c r="D64" s="49" t="s">
         <v>349</v>
       </c>
@@ -11923,7 +11924,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="41"/>
-      <c r="C65" s="76"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="49" t="s">
         <v>352</v>
       </c>
@@ -11952,7 +11953,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="41"/>
-      <c r="C66" s="76"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="49" t="s">
         <v>356</v>
       </c>
@@ -11977,7 +11978,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="41"/>
-      <c r="C67" s="76"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="49" t="s">
         <v>364</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="41"/>
-      <c r="C68" s="76"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="49" t="s">
         <v>367</v>
       </c>
@@ -12031,7 +12032,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="41"/>
-      <c r="C69" s="76"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="49" t="s">
         <v>358</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="41"/>
-      <c r="C70" s="76"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="49" t="s">
         <v>360</v>
       </c>
@@ -12081,7 +12082,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="41"/>
-      <c r="C71" s="76"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="49" t="s">
         <v>361</v>
       </c>
@@ -12106,7 +12107,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="41"/>
-      <c r="C72" s="76"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="49" t="s">
         <v>363</v>
       </c>
@@ -12131,7 +12132,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="41"/>
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="79" t="s">
         <v>369</v>
       </c>
       <c r="D73" s="49" t="s">
@@ -12160,7 +12161,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="41"/>
-      <c r="C74" s="78"/>
+      <c r="C74" s="80"/>
       <c r="D74" s="49" t="s">
         <v>370</v>
       </c>
@@ -12187,7 +12188,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="41"/>
-      <c r="C75" s="78"/>
+      <c r="C75" s="80"/>
       <c r="D75" s="49" t="s">
         <v>370</v>
       </c>
@@ -12214,7 +12215,7 @@
         <v>69</v>
       </c>
       <c r="B76" s="41"/>
-      <c r="C76" s="78"/>
+      <c r="C76" s="80"/>
       <c r="D76" s="49" t="s">
         <v>370</v>
       </c>
@@ -12241,7 +12242,7 @@
         <v>70</v>
       </c>
       <c r="B77" s="41"/>
-      <c r="C77" s="78"/>
+      <c r="C77" s="80"/>
       <c r="D77" s="49" t="s">
         <v>371</v>
       </c>
@@ -12268,7 +12269,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="41"/>
-      <c r="C78" s="78"/>
+      <c r="C78" s="80"/>
       <c r="D78" s="49" t="s">
         <v>225</v>
       </c>
@@ -12295,7 +12296,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="41"/>
-      <c r="C79" s="76"/>
+      <c r="C79" s="78"/>
       <c r="D79" s="49" t="s">
         <v>375</v>
       </c>
@@ -12320,7 +12321,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="41"/>
-      <c r="C80" s="76"/>
+      <c r="C80" s="78"/>
       <c r="D80" s="49" t="s">
         <v>376</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="41"/>
-      <c r="C81" s="76"/>
+      <c r="C81" s="78"/>
       <c r="D81" s="49" t="s">
         <v>378</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="41"/>
-      <c r="C82" s="76"/>
+      <c r="C82" s="78"/>
       <c r="D82" s="49" t="s">
         <v>379</v>
       </c>
@@ -12391,7 +12392,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="41"/>
-      <c r="C83" s="76"/>
+      <c r="C83" s="78"/>
       <c r="D83" s="49" t="s">
         <v>380</v>
       </c>
@@ -12412,7 +12413,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="41"/>
-      <c r="C84" s="76"/>
+      <c r="C84" s="78"/>
       <c r="D84" s="49" t="s">
         <v>382</v>
       </c>
@@ -12433,7 +12434,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="41"/>
-      <c r="C85" s="76"/>
+      <c r="C85" s="78"/>
       <c r="D85" s="49" t="s">
         <v>383</v>
       </c>
@@ -12454,7 +12455,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="41"/>
-      <c r="C86" s="76"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="49" t="s">
         <v>384</v>
       </c>
@@ -12475,7 +12476,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="41"/>
-      <c r="C87" s="76"/>
+      <c r="C87" s="78"/>
       <c r="D87" s="49" t="s">
         <v>385</v>
       </c>
@@ -12496,7 +12497,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="41"/>
-      <c r="C88" s="76"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="49" t="s">
         <v>386</v>
       </c>
@@ -12517,7 +12518,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="41"/>
-      <c r="C89" s="76"/>
+      <c r="C89" s="78"/>
       <c r="D89" s="49" t="s">
         <v>387</v>
       </c>
@@ -12538,7 +12539,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="41"/>
-      <c r="C90" s="76"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="49" t="s">
         <v>388</v>
       </c>
@@ -12559,7 +12560,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="41"/>
-      <c r="C91" s="76"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="49" t="s">
         <v>389</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="41"/>
-      <c r="C92" s="76"/>
+      <c r="C92" s="78"/>
       <c r="D92" s="49" t="s">
         <v>390</v>
       </c>
@@ -12601,7 +12602,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="41"/>
-      <c r="C93" s="76"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="49" t="s">
         <v>391</v>
       </c>
@@ -12622,7 +12623,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="41"/>
-      <c r="C94" s="76"/>
+      <c r="C94" s="78"/>
       <c r="D94" s="49" t="s">
         <v>392</v>
       </c>
@@ -12643,7 +12644,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="41"/>
-      <c r="C95" s="76"/>
+      <c r="C95" s="78"/>
       <c r="D95" s="49" t="s">
         <v>393</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="41"/>
-      <c r="C96" s="76"/>
+      <c r="C96" s="78"/>
       <c r="D96" s="49" t="s">
         <v>394</v>
       </c>
@@ -12685,7 +12686,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="41"/>
-      <c r="C97" s="76"/>
+      <c r="C97" s="78"/>
       <c r="D97" s="49" t="s">
         <v>395</v>
       </c>
@@ -12706,7 +12707,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="41"/>
-      <c r="C98" s="76"/>
+      <c r="C98" s="78"/>
       <c r="D98" s="49" t="s">
         <v>396</v>
       </c>
@@ -12731,6 +12732,11 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="C45:C72"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="C79:C98"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C20"/>
     <mergeCell ref="C28:C40"/>
@@ -12743,11 +12749,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C45:C72"/>
-    <mergeCell ref="C73:C78"/>
-    <mergeCell ref="C79:C98"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -14089,14 +14090,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="L10:N10"/>
@@ -14107,6 +14100,14 @@
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="L28:N28"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14161,7 +14162,7 @@
       <c r="E2" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>578</v>
       </c>
     </row>
@@ -14179,7 +14180,7 @@
       <c r="E3" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="67"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="92"/>
@@ -14195,7 +14196,7 @@
       <c r="E4" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F4" s="67"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="92"/>
@@ -14211,7 +14212,7 @@
       <c r="E5" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="92"/>
@@ -14227,7 +14228,7 @@
       <c r="E6" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="69"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="92"/>
@@ -14243,7 +14244,7 @@
       <c r="E7" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="92"/>
@@ -14259,7 +14260,7 @@
       <c r="E8" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="92"/>
@@ -14275,7 +14276,7 @@
       <c r="E9" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="92"/>
@@ -14291,7 +14292,7 @@
       <c r="E10" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="69"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="92"/>
@@ -14305,7 +14306,7 @@
       <c r="E11" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F11" s="67"/>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -14322,7 +14323,7 @@
       <c r="F12" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="69" t="s">
         <v>585</v>
       </c>
     </row>
@@ -14340,10 +14341,10 @@
       <c r="E13" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="69" t="s">
         <v>578</v>
       </c>
-      <c r="G13" s="67"/>
+      <c r="G13" s="69"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="92"/>
@@ -14359,8 +14360,8 @@
       <c r="E14" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="92"/>
@@ -14376,8 +14377,8 @@
       <c r="E15" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="92"/>
@@ -14389,8 +14390,8 @@
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="92"/>
@@ -14402,8 +14403,8 @@
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="92"/>
@@ -14415,8 +14416,8 @@
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="92"/>
@@ -14428,8 +14429,8 @@
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="92"/>
@@ -14441,8 +14442,8 @@
       </c>
       <c r="D20" s="65"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="92"/>
@@ -14454,8 +14455,8 @@
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="92"/>
@@ -14469,8 +14470,8 @@
       <c r="E22" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -14487,7 +14488,7 @@
       <c r="F23" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G23" s="67"/>
+      <c r="G23" s="69"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="92">
@@ -14504,7 +14505,7 @@
         <v>575</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="67"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="92"/>
@@ -14520,10 +14521,10 @@
       <c r="E25" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="69" t="s">
         <v>582</v>
       </c>
-      <c r="G25" s="67"/>
+      <c r="G25" s="69"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="92"/>
@@ -14539,8 +14540,8 @@
       <c r="E26" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="92"/>
@@ -14556,8 +14557,8 @@
       <c r="E27" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="92"/>
@@ -14573,8 +14574,8 @@
       <c r="E28" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="92"/>
@@ -14590,10 +14591,10 @@
       <c r="E29" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="69" t="s">
         <v>583</v>
       </c>
-      <c r="G29" s="67"/>
+      <c r="G29" s="69"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="92"/>
@@ -14609,8 +14610,8 @@
       <c r="E30" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="92"/>
@@ -14626,8 +14627,8 @@
       <c r="E31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="92"/>
@@ -14646,7 +14647,7 @@
       <c r="F32" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="G32" s="67"/>
+      <c r="G32" s="69"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="92"/>
@@ -14661,7 +14662,7 @@
         <v>576</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="67"/>
+      <c r="G33" s="69"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
@@ -14678,7 +14679,7 @@
       <c r="F34" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G34" s="67"/>
+      <c r="G34" s="69"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="92">
@@ -14695,7 +14696,7 @@
         <v>575</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="67"/>
+      <c r="G35" s="69"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="92"/>
@@ -14711,10 +14712,10 @@
       <c r="E36" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="69" t="s">
         <v>427</v>
       </c>
-      <c r="G36" s="67"/>
+      <c r="G36" s="69"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="92"/>
@@ -14730,8 +14731,8 @@
       <c r="E37" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="92"/>
@@ -14747,10 +14748,10 @@
       <c r="E38" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="G38" s="67"/>
+      <c r="G38" s="69"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="92"/>
@@ -14766,8 +14767,8 @@
       <c r="E39" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="92"/>
@@ -14783,8 +14784,8 @@
       <c r="E40" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="92"/>
@@ -14800,10 +14801,10 @@
       <c r="E41" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="69" t="s">
         <v>471</v>
       </c>
-      <c r="G41" s="67"/>
+      <c r="G41" s="69"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="92"/>
@@ -14819,8 +14820,8 @@
       <c r="E42" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="92"/>
@@ -14836,8 +14837,8 @@
       <c r="E43" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="92"/>
@@ -14852,7 +14853,7 @@
         <v>576</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="67"/>
+      <c r="G44" s="69"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
@@ -14869,7 +14870,7 @@
       <c r="F45" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G45" s="67" t="s">
+      <c r="G45" s="69" t="s">
         <v>602</v>
       </c>
     </row>
@@ -14888,7 +14889,7 @@
         <v>575</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="67"/>
+      <c r="G46" s="69"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="92"/>
@@ -14904,10 +14905,10 @@
       <c r="E47" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="69" t="s">
         <v>586</v>
       </c>
-      <c r="G47" s="67"/>
+      <c r="G47" s="69"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="92"/>
@@ -14923,8 +14924,8 @@
       <c r="E48" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="92"/>
@@ -14943,7 +14944,7 @@
       <c r="F49" s="68" t="s">
         <v>472</v>
       </c>
-      <c r="G49" s="67"/>
+      <c r="G49" s="69"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="92"/>
@@ -14960,7 +14961,7 @@
         <v>469</v>
       </c>
       <c r="F50" s="68"/>
-      <c r="G50" s="67"/>
+      <c r="G50" s="69"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="92"/>
@@ -14977,7 +14978,7 @@
         <v>470</v>
       </c>
       <c r="F51" s="68"/>
-      <c r="G51" s="67"/>
+      <c r="G51" s="69"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="92"/>
@@ -14993,10 +14994,10 @@
       <c r="E52" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="67" t="s">
+      <c r="F52" s="69" t="s">
         <v>587</v>
       </c>
-      <c r="G52" s="67"/>
+      <c r="G52" s="69"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="92"/>
@@ -15012,8 +15013,8 @@
       <c r="E53" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="92"/>
@@ -15029,8 +15030,8 @@
       <c r="E54" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="92"/>
@@ -15045,7 +15046,7 @@
         <v>576</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="67"/>
+      <c r="G55" s="69"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
@@ -15062,7 +15063,7 @@
       <c r="F56" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G56" s="67"/>
+      <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="92">
@@ -15079,7 +15080,7 @@
         <v>575</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="67"/>
+      <c r="G57" s="69"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="92"/>
@@ -15098,7 +15099,7 @@
       <c r="F58" s="93" t="s">
         <v>600</v>
       </c>
-      <c r="G58" s="67"/>
+      <c r="G58" s="69"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="92"/>
@@ -15115,7 +15116,7 @@
         <v>469</v>
       </c>
       <c r="F59" s="94"/>
-      <c r="G59" s="67"/>
+      <c r="G59" s="69"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="92"/>
@@ -15132,7 +15133,7 @@
         <v>470</v>
       </c>
       <c r="F60" s="94"/>
-      <c r="G60" s="67"/>
+      <c r="G60" s="69"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="92"/>
@@ -15149,7 +15150,7 @@
         <v>226</v>
       </c>
       <c r="F61" s="94"/>
-      <c r="G61" s="67"/>
+      <c r="G61" s="69"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="92"/>
@@ -15166,7 +15167,7 @@
         <v>593</v>
       </c>
       <c r="F62" s="94"/>
-      <c r="G62" s="67"/>
+      <c r="G62" s="69"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="92"/>
@@ -15183,7 +15184,7 @@
         <v>594</v>
       </c>
       <c r="F63" s="95"/>
-      <c r="G63" s="67"/>
+      <c r="G63" s="69"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="92"/>
@@ -15202,7 +15203,7 @@
       <c r="F64" s="73" t="s">
         <v>601</v>
       </c>
-      <c r="G64" s="67"/>
+      <c r="G64" s="69"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="92"/>
@@ -15219,7 +15220,7 @@
         <v>476</v>
       </c>
       <c r="F65" s="75"/>
-      <c r="G65" s="67"/>
+      <c r="G65" s="69"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="92"/>
@@ -15234,7 +15235,7 @@
         <v>576</v>
       </c>
       <c r="F66" s="8"/>
-      <c r="G66" s="67"/>
+      <c r="G66" s="69"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
@@ -15251,7 +15252,7 @@
       <c r="F67" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G67" s="67" t="s">
+      <c r="G67" s="69" t="s">
         <v>603</v>
       </c>
     </row>
@@ -15270,7 +15271,7 @@
         <v>575</v>
       </c>
       <c r="F68" s="8"/>
-      <c r="G68" s="67"/>
+      <c r="G68" s="69"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="92"/>
@@ -15289,7 +15290,7 @@
       <c r="F69" s="96" t="s">
         <v>600</v>
       </c>
-      <c r="G69" s="67"/>
+      <c r="G69" s="69"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="92"/>
@@ -15306,7 +15307,7 @@
         <v>598</v>
       </c>
       <c r="F70" s="96"/>
-      <c r="G70" s="67"/>
+      <c r="G70" s="69"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="92"/>
@@ -15323,7 +15324,7 @@
         <v>473</v>
       </c>
       <c r="F71" s="96"/>
-      <c r="G71" s="67"/>
+      <c r="G71" s="69"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="92"/>
@@ -15340,7 +15341,7 @@
         <v>474</v>
       </c>
       <c r="F72" s="96"/>
-      <c r="G72" s="67"/>
+      <c r="G72" s="69"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="92"/>
@@ -15353,7 +15354,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="10"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="67"/>
+      <c r="G73" s="69"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="92"/>
@@ -15366,7 +15367,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="10"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="67"/>
+      <c r="G74" s="69"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="92"/>
@@ -15379,7 +15380,7 @@
       <c r="D75" s="65"/>
       <c r="E75" s="10"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="67"/>
+      <c r="G75" s="69"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="92"/>
@@ -15392,7 +15393,7 @@
       <c r="D76" s="65"/>
       <c r="E76" s="10"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="67"/>
+      <c r="G76" s="69"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="92"/>
@@ -15407,7 +15408,7 @@
         <v>576</v>
       </c>
       <c r="F77" s="8"/>
-      <c r="G77" s="67"/>
+      <c r="G77" s="69"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
@@ -16271,7 +16272,7 @@
       <c r="F133" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G133" s="67" t="s">
+      <c r="G133" s="69" t="s">
         <v>624</v>
       </c>
     </row>
@@ -16290,7 +16291,7 @@
         <v>575</v>
       </c>
       <c r="F134" s="8"/>
-      <c r="G134" s="67"/>
+      <c r="G134" s="69"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="92"/>
@@ -16309,7 +16310,7 @@
       <c r="F135" s="93" t="s">
         <v>621</v>
       </c>
-      <c r="G135" s="67"/>
+      <c r="G135" s="69"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="92"/>
@@ -16326,7 +16327,7 @@
         <v>223</v>
       </c>
       <c r="F136" s="94"/>
-      <c r="G136" s="67"/>
+      <c r="G136" s="69"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="92"/>
@@ -16343,7 +16344,7 @@
         <v>227</v>
       </c>
       <c r="F137" s="94"/>
-      <c r="G137" s="67"/>
+      <c r="G137" s="69"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="92"/>
@@ -16360,7 +16361,7 @@
         <v>224</v>
       </c>
       <c r="F138" s="95"/>
-      <c r="G138" s="67"/>
+      <c r="G138" s="69"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="92"/>
@@ -16373,7 +16374,7 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="66"/>
-      <c r="G139" s="67"/>
+      <c r="G139" s="69"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="92"/>
@@ -16386,7 +16387,7 @@
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="66"/>
-      <c r="G140" s="67"/>
+      <c r="G140" s="69"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="92"/>
@@ -16399,7 +16400,7 @@
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="66"/>
-      <c r="G141" s="67"/>
+      <c r="G141" s="69"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="92"/>
@@ -16412,7 +16413,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="10"/>
       <c r="F142" s="66"/>
-      <c r="G142" s="67"/>
+      <c r="G142" s="69"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="92"/>
@@ -16427,7 +16428,7 @@
         <v>576</v>
       </c>
       <c r="F143" s="8"/>
-      <c r="G143" s="67"/>
+      <c r="G143" s="69"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
@@ -16444,7 +16445,7 @@
       <c r="F144" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G144" s="67" t="s">
+      <c r="G144" s="69" t="s">
         <v>623</v>
       </c>
     </row>
@@ -16463,7 +16464,7 @@
         <v>575</v>
       </c>
       <c r="F145" s="8"/>
-      <c r="G145" s="67"/>
+      <c r="G145" s="69"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="92"/>
@@ -16482,7 +16483,7 @@
       <c r="F146" s="93" t="s">
         <v>622</v>
       </c>
-      <c r="G146" s="67"/>
+      <c r="G146" s="69"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="92"/>
@@ -16499,7 +16500,7 @@
         <v>244</v>
       </c>
       <c r="F147" s="94"/>
-      <c r="G147" s="67"/>
+      <c r="G147" s="69"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="92"/>
@@ -16516,7 +16517,7 @@
         <v>245</v>
       </c>
       <c r="F148" s="94"/>
-      <c r="G148" s="67"/>
+      <c r="G148" s="69"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="92"/>
@@ -16533,7 +16534,7 @@
         <v>246</v>
       </c>
       <c r="F149" s="94"/>
-      <c r="G149" s="67"/>
+      <c r="G149" s="69"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="92"/>
@@ -16550,7 +16551,7 @@
         <v>247</v>
       </c>
       <c r="F150" s="94"/>
-      <c r="G150" s="67"/>
+      <c r="G150" s="69"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="92"/>
@@ -16567,7 +16568,7 @@
         <v>228</v>
       </c>
       <c r="F151" s="94"/>
-      <c r="G151" s="67"/>
+      <c r="G151" s="69"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="92"/>
@@ -16584,7 +16585,7 @@
         <v>229</v>
       </c>
       <c r="F152" s="94"/>
-      <c r="G152" s="67"/>
+      <c r="G152" s="69"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="92"/>
@@ -16601,7 +16602,7 @@
         <v>230</v>
       </c>
       <c r="F153" s="95"/>
-      <c r="G153" s="67"/>
+      <c r="G153" s="69"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="92"/>
@@ -16616,7 +16617,7 @@
         <v>576</v>
       </c>
       <c r="F154" s="8"/>
-      <c r="G154" s="67"/>
+      <c r="G154" s="69"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
@@ -16633,7 +16634,7 @@
       <c r="F155" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G155" s="67"/>
+      <c r="G155" s="69"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="92">
@@ -16650,7 +16651,7 @@
         <v>575</v>
       </c>
       <c r="F156" s="8"/>
-      <c r="G156" s="67"/>
+      <c r="G156" s="69"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="92"/>
@@ -16669,7 +16670,7 @@
       <c r="F157" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="G157" s="67"/>
+      <c r="G157" s="69"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="92"/>
@@ -16686,7 +16687,7 @@
         <v>232</v>
       </c>
       <c r="F158" s="96"/>
-      <c r="G158" s="67"/>
+      <c r="G158" s="69"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="92"/>
@@ -16703,7 +16704,7 @@
         <v>233</v>
       </c>
       <c r="F159" s="96"/>
-      <c r="G159" s="67"/>
+      <c r="G159" s="69"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="92"/>
@@ -16720,7 +16721,7 @@
         <v>234</v>
       </c>
       <c r="F160" s="96"/>
-      <c r="G160" s="67"/>
+      <c r="G160" s="69"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="92"/>
@@ -16737,7 +16738,7 @@
         <v>235</v>
       </c>
       <c r="F161" s="96"/>
-      <c r="G161" s="67"/>
+      <c r="G161" s="69"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="92"/>
@@ -16754,7 +16755,7 @@
         <v>236</v>
       </c>
       <c r="F162" s="96"/>
-      <c r="G162" s="67"/>
+      <c r="G162" s="69"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="92"/>
@@ -16771,7 +16772,7 @@
         <v>237</v>
       </c>
       <c r="F163" s="96"/>
-      <c r="G163" s="67"/>
+      <c r="G163" s="69"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="92"/>
@@ -16788,7 +16789,7 @@
         <v>238</v>
       </c>
       <c r="F164" s="96"/>
-      <c r="G164" s="67"/>
+      <c r="G164" s="69"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="92"/>
@@ -16803,7 +16804,7 @@
         <v>576</v>
       </c>
       <c r="F165" s="8"/>
-      <c r="G165" s="67"/>
+      <c r="G165" s="69"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
@@ -16820,7 +16821,7 @@
       <c r="F166" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G166" s="67"/>
+      <c r="G166" s="69"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="92">
@@ -16837,7 +16838,7 @@
         <v>575</v>
       </c>
       <c r="F167" s="8"/>
-      <c r="G167" s="67"/>
+      <c r="G167" s="69"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="92"/>
@@ -16856,7 +16857,7 @@
       <c r="F168" s="96" t="s">
         <v>622</v>
       </c>
-      <c r="G168" s="67"/>
+      <c r="G168" s="69"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="92"/>
@@ -16873,7 +16874,7 @@
         <v>240</v>
       </c>
       <c r="F169" s="96"/>
-      <c r="G169" s="67"/>
+      <c r="G169" s="69"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="92"/>
@@ -16890,7 +16891,7 @@
         <v>241</v>
       </c>
       <c r="F170" s="96"/>
-      <c r="G170" s="67"/>
+      <c r="G170" s="69"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="92"/>
@@ -16907,7 +16908,7 @@
         <v>242</v>
       </c>
       <c r="F171" s="96"/>
-      <c r="G171" s="67"/>
+      <c r="G171" s="69"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="92"/>
@@ -16920,7 +16921,7 @@
       <c r="D172" s="12"/>
       <c r="E172" s="10"/>
       <c r="F172" s="66"/>
-      <c r="G172" s="67"/>
+      <c r="G172" s="69"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="92"/>
@@ -16933,7 +16934,7 @@
       <c r="D173" s="12"/>
       <c r="E173" s="10"/>
       <c r="F173" s="66"/>
-      <c r="G173" s="67"/>
+      <c r="G173" s="69"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="92"/>
@@ -16946,7 +16947,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="10"/>
       <c r="F174" s="66"/>
-      <c r="G174" s="67"/>
+      <c r="G174" s="69"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="92"/>
@@ -16959,7 +16960,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="10"/>
       <c r="F175" s="66"/>
-      <c r="G175" s="67"/>
+      <c r="G175" s="69"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="92"/>
@@ -16974,7 +16975,7 @@
         <v>576</v>
       </c>
       <c r="F176" s="8"/>
-      <c r="G176" s="67"/>
+      <c r="G176" s="69"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
@@ -16991,7 +16992,7 @@
       <c r="F177" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G177" s="67" t="s">
+      <c r="G177" s="69" t="s">
         <v>503</v>
       </c>
     </row>
@@ -17010,7 +17011,7 @@
         <v>575</v>
       </c>
       <c r="F178" s="8"/>
-      <c r="G178" s="67"/>
+      <c r="G178" s="69"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="92"/>
@@ -17029,7 +17030,7 @@
       <c r="F179" s="93" t="s">
         <v>503</v>
       </c>
-      <c r="G179" s="67"/>
+      <c r="G179" s="69"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="92"/>
@@ -17046,7 +17047,7 @@
         <v>492</v>
       </c>
       <c r="F180" s="94"/>
-      <c r="G180" s="67"/>
+      <c r="G180" s="69"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="92"/>
@@ -17063,7 +17064,7 @@
         <v>493</v>
       </c>
       <c r="F181" s="94"/>
-      <c r="G181" s="67"/>
+      <c r="G181" s="69"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="92"/>
@@ -17080,7 +17081,7 @@
         <v>494</v>
       </c>
       <c r="F182" s="94"/>
-      <c r="G182" s="67"/>
+      <c r="G182" s="69"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="92"/>
@@ -17097,7 +17098,7 @@
         <v>495</v>
       </c>
       <c r="F183" s="94"/>
-      <c r="G183" s="67"/>
+      <c r="G183" s="69"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="92"/>
@@ -17114,7 +17115,7 @@
         <v>496</v>
       </c>
       <c r="F184" s="94"/>
-      <c r="G184" s="67"/>
+      <c r="G184" s="69"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="92"/>
@@ -17131,7 +17132,7 @@
         <v>497</v>
       </c>
       <c r="F185" s="94"/>
-      <c r="G185" s="67"/>
+      <c r="G185" s="69"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="92"/>
@@ -17148,7 +17149,7 @@
         <v>498</v>
       </c>
       <c r="F186" s="95"/>
-      <c r="G186" s="67"/>
+      <c r="G186" s="69"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="92"/>
@@ -17163,7 +17164,7 @@
         <v>576</v>
       </c>
       <c r="F187" s="8"/>
-      <c r="G187" s="67"/>
+      <c r="G187" s="69"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
@@ -17180,7 +17181,7 @@
       <c r="F188" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G188" s="67"/>
+      <c r="G188" s="69"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="92">
@@ -17197,7 +17198,7 @@
         <v>575</v>
       </c>
       <c r="F189" s="8"/>
-      <c r="G189" s="67"/>
+      <c r="G189" s="69"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="92"/>
@@ -17216,7 +17217,7 @@
       <c r="F190" s="93" t="s">
         <v>503</v>
       </c>
-      <c r="G190" s="67"/>
+      <c r="G190" s="69"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="92"/>
@@ -17233,7 +17234,7 @@
         <v>500</v>
       </c>
       <c r="F191" s="94"/>
-      <c r="G191" s="67"/>
+      <c r="G191" s="69"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="92"/>
@@ -17250,7 +17251,7 @@
         <v>501</v>
       </c>
       <c r="F192" s="94"/>
-      <c r="G192" s="67"/>
+      <c r="G192" s="69"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="92"/>
@@ -17267,7 +17268,7 @@
         <v>502</v>
       </c>
       <c r="F193" s="94"/>
-      <c r="G193" s="67"/>
+      <c r="G193" s="69"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="92"/>
@@ -17284,7 +17285,7 @@
         <v>522</v>
       </c>
       <c r="F194" s="94"/>
-      <c r="G194" s="67"/>
+      <c r="G194" s="69"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="92"/>
@@ -17301,7 +17302,7 @@
         <v>5</v>
       </c>
       <c r="F195" s="94"/>
-      <c r="G195" s="67"/>
+      <c r="G195" s="69"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="92"/>
@@ -17318,7 +17319,7 @@
         <v>6</v>
       </c>
       <c r="F196" s="94"/>
-      <c r="G196" s="67"/>
+      <c r="G196" s="69"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="92"/>
@@ -17335,7 +17336,7 @@
         <v>523</v>
       </c>
       <c r="F197" s="95"/>
-      <c r="G197" s="67"/>
+      <c r="G197" s="69"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="92"/>
@@ -17350,22 +17351,33 @@
         <v>576</v>
       </c>
       <c r="F198" s="8"/>
-      <c r="G198" s="67"/>
+      <c r="G198" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G12:G44"/>
+    <mergeCell ref="G144:G176"/>
+    <mergeCell ref="G133:G143"/>
+    <mergeCell ref="A178:A187"/>
+    <mergeCell ref="F179:F186"/>
+    <mergeCell ref="A189:A198"/>
+    <mergeCell ref="F190:F197"/>
+    <mergeCell ref="G177:G198"/>
+    <mergeCell ref="A145:A154"/>
+    <mergeCell ref="F146:F153"/>
+    <mergeCell ref="A156:A165"/>
+    <mergeCell ref="F157:F164"/>
+    <mergeCell ref="A167:A176"/>
+    <mergeCell ref="F168:F171"/>
+    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="A134:A143"/>
+    <mergeCell ref="F135:F138"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="F91:F98"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="F113:F120"/>
+    <mergeCell ref="F102:F103"/>
     <mergeCell ref="G45:G66"/>
     <mergeCell ref="G67:G77"/>
     <mergeCell ref="A79:A88"/>
@@ -17379,29 +17391,18 @@
     <mergeCell ref="A46:A55"/>
     <mergeCell ref="A57:A66"/>
     <mergeCell ref="F58:F63"/>
-    <mergeCell ref="A123:A132"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="A134:A143"/>
-    <mergeCell ref="F135:F138"/>
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="F91:F98"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="F113:F120"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G144:G176"/>
-    <mergeCell ref="G133:G143"/>
-    <mergeCell ref="A178:A187"/>
-    <mergeCell ref="F179:F186"/>
-    <mergeCell ref="A189:A198"/>
-    <mergeCell ref="F190:F197"/>
-    <mergeCell ref="G177:G198"/>
-    <mergeCell ref="A145:A154"/>
-    <mergeCell ref="F146:F153"/>
-    <mergeCell ref="A156:A165"/>
-    <mergeCell ref="F157:F164"/>
-    <mergeCell ref="A167:A176"/>
-    <mergeCell ref="F168:F171"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G12:G44"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="编程规划" sheetId="8" r:id="rId8"/>
     <sheet name="通信" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="报警" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1097">
   <si>
     <t>序号</t>
   </si>
@@ -3786,6 +3787,92 @@
   </si>
   <si>
     <t>PLCIN0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片空盘吸取失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4002</t>
+  </si>
+  <si>
+    <t>M4003</t>
+  </si>
+  <si>
+    <t>M4004</t>
+  </si>
+  <si>
+    <t>M4005</t>
+  </si>
+  <si>
+    <t>M4006</t>
+  </si>
+  <si>
+    <t>M4007</t>
+  </si>
+  <si>
+    <t>M4008</t>
+  </si>
+  <si>
+    <t>M4009</t>
+  </si>
+  <si>
+    <t>M4010</t>
+  </si>
+  <si>
+    <t>M4011</t>
+  </si>
+  <si>
+    <t>M4012</t>
+  </si>
+  <si>
+    <t>M4013</t>
+  </si>
+  <si>
+    <t>M4014</t>
+  </si>
+  <si>
+    <t>M4015</t>
+  </si>
+  <si>
+    <t>M4016</t>
+  </si>
+  <si>
+    <t>M4017</t>
+  </si>
+  <si>
+    <t>M4018</t>
+  </si>
+  <si>
+    <t>M4019</t>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正压表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前门1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6052,8 +6139,8 @@
   </sheetPr>
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7771,7 +7858,9 @@
       <c r="C78" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -10222,6 +10311,162 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -10229,7 +10474,7 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
@@ -17703,8 +17948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1099">
   <si>
     <t>序号</t>
   </si>
@@ -3568,311 +3568,320 @@
     <t>M102</t>
   </si>
   <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>M106</t>
+  </si>
+  <si>
+    <t>M107</t>
+  </si>
+  <si>
+    <t>M108</t>
+  </si>
+  <si>
+    <t>M150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M151</t>
+  </si>
+  <si>
+    <t>M152</t>
+  </si>
+  <si>
+    <t>M153</t>
+  </si>
+  <si>
+    <t>M154</t>
+  </si>
+  <si>
+    <t>M155</t>
+  </si>
+  <si>
+    <t>M156</t>
+  </si>
+  <si>
+    <t>M157</t>
+  </si>
+  <si>
+    <t>M158</t>
+  </si>
+  <si>
+    <t>PLCIN0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN1</t>
+  </si>
+  <si>
+    <t>PLCIN2</t>
+  </si>
+  <si>
+    <t>PLCIN3</t>
+  </si>
+  <si>
+    <t>PLCIN4</t>
+  </si>
+  <si>
+    <t>PLCIN5</t>
+  </si>
+  <si>
+    <t>PLCIN6</t>
+  </si>
+  <si>
+    <t>PLCIN7</t>
+  </si>
+  <si>
+    <t>PLCIN8</t>
+  </si>
+  <si>
+    <t>膜左RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>膜右RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCOUT0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCOUT1</t>
+  </si>
+  <si>
+    <t>PLCOUT2</t>
+  </si>
+  <si>
+    <t>PLCOUT3</t>
+  </si>
+  <si>
+    <t>PLCOUT4</t>
+  </si>
+  <si>
+    <t>PLCOUT5</t>
+  </si>
+  <si>
+    <t>PLCOUT6</t>
+  </si>
+  <si>
+    <t>PLCOUT7</t>
+  </si>
+  <si>
+    <t>PLCOUT8</t>
+  </si>
+  <si>
+    <t>膜取完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹爪气缸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
+    <t>M202</t>
+  </si>
+  <si>
+    <t>M203</t>
+  </si>
+  <si>
+    <t>M204</t>
+  </si>
+  <si>
+    <t>M205</t>
+  </si>
+  <si>
+    <t>M206</t>
+  </si>
+  <si>
+    <t>M207</t>
+  </si>
+  <si>
+    <t>M208</t>
+  </si>
+  <si>
+    <t>M250</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M251</t>
+  </si>
+  <si>
+    <t>M252</t>
+  </si>
+  <si>
+    <t>M253</t>
+  </si>
+  <si>
+    <t>M254</t>
+  </si>
+  <si>
+    <t>M255</t>
+  </si>
+  <si>
+    <t>M256</t>
+  </si>
+  <si>
+    <t>M257</t>
+  </si>
+  <si>
+    <t>M258</t>
+  </si>
+  <si>
+    <t>钢片RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片取完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴膜工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴膜完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴钢片工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴钢片完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测正反工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测钢片工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片空盘吸取失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4002</t>
+  </si>
+  <si>
+    <t>M4003</t>
+  </si>
+  <si>
+    <t>M4004</t>
+  </si>
+  <si>
+    <t>M4005</t>
+  </si>
+  <si>
+    <t>M4006</t>
+  </si>
+  <si>
+    <t>M4007</t>
+  </si>
+  <si>
+    <t>M4008</t>
+  </si>
+  <si>
+    <t>M4009</t>
+  </si>
+  <si>
+    <t>M4010</t>
+  </si>
+  <si>
+    <t>M4011</t>
+  </si>
+  <si>
+    <t>M4012</t>
+  </si>
+  <si>
+    <t>M4013</t>
+  </si>
+  <si>
+    <t>M4014</t>
+  </si>
+  <si>
+    <t>M4015</t>
+  </si>
+  <si>
+    <t>M4016</t>
+  </si>
+  <si>
+    <t>M4017</t>
+  </si>
+  <si>
+    <t>M4018</t>
+  </si>
+  <si>
+    <t>M4019</t>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正压表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前门1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>M103</t>
-  </si>
-  <si>
-    <t>M104</t>
-  </si>
-  <si>
-    <t>M105</t>
-  </si>
-  <si>
-    <t>M106</t>
-  </si>
-  <si>
-    <t>M107</t>
-  </si>
-  <si>
-    <t>M108</t>
-  </si>
-  <si>
-    <t>M150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M151</t>
-  </si>
-  <si>
-    <t>M152</t>
-  </si>
-  <si>
-    <t>M153</t>
-  </si>
-  <si>
-    <t>M154</t>
-  </si>
-  <si>
-    <t>M155</t>
-  </si>
-  <si>
-    <t>M156</t>
-  </si>
-  <si>
-    <t>M157</t>
-  </si>
-  <si>
-    <t>M158</t>
-  </si>
-  <si>
-    <t>PLCIN0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCIN1</t>
-  </si>
-  <si>
-    <t>PLCIN2</t>
-  </si>
-  <si>
-    <t>PLCIN3</t>
-  </si>
-  <si>
-    <t>PLCIN4</t>
-  </si>
-  <si>
-    <t>PLCIN5</t>
-  </si>
-  <si>
-    <t>PLCIN6</t>
-  </si>
-  <si>
-    <t>PLCIN7</t>
-  </si>
-  <si>
-    <t>PLCIN8</t>
-  </si>
-  <si>
-    <t>膜左RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>膜右RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCOUT0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCOUT1</t>
-  </si>
-  <si>
-    <t>PLCOUT2</t>
-  </si>
-  <si>
-    <t>PLCOUT3</t>
-  </si>
-  <si>
-    <t>PLCOUT4</t>
-  </si>
-  <si>
-    <t>PLCOUT5</t>
-  </si>
-  <si>
-    <t>PLCOUT6</t>
-  </si>
-  <si>
-    <t>PLCOUT7</t>
-  </si>
-  <si>
-    <t>PLCOUT8</t>
-  </si>
-  <si>
-    <t>膜取完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>夹爪气缸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M201</t>
-  </si>
-  <si>
-    <t>M202</t>
-  </si>
-  <si>
-    <t>M203</t>
-  </si>
-  <si>
-    <t>M204</t>
-  </si>
-  <si>
-    <t>M205</t>
-  </si>
-  <si>
-    <t>M206</t>
-  </si>
-  <si>
-    <t>M207</t>
-  </si>
-  <si>
-    <t>M208</t>
-  </si>
-  <si>
-    <t>M250</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M251</t>
-  </si>
-  <si>
-    <t>M252</t>
-  </si>
-  <si>
-    <t>M253</t>
-  </si>
-  <si>
-    <t>M254</t>
-  </si>
-  <si>
-    <t>M255</t>
-  </si>
-  <si>
-    <t>M256</t>
-  </si>
-  <si>
-    <t>M257</t>
-  </si>
-  <si>
-    <t>M258</t>
-  </si>
-  <si>
-    <t>钢片RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢片取完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴膜工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴膜完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕膜工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕膜完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴钢片工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴钢片完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测正反工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测钢片工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械手2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCIN0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢片空盘吸取失败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4002</t>
-  </si>
-  <si>
-    <t>M4003</t>
-  </si>
-  <si>
-    <t>M4004</t>
-  </si>
-  <si>
-    <t>M4005</t>
-  </si>
-  <si>
-    <t>M4006</t>
-  </si>
-  <si>
-    <t>M4007</t>
-  </si>
-  <si>
-    <t>M4008</t>
-  </si>
-  <si>
-    <t>M4009</t>
-  </si>
-  <si>
-    <t>M4010</t>
-  </si>
-  <si>
-    <t>M4011</t>
-  </si>
-  <si>
-    <t>M4012</t>
-  </si>
-  <si>
-    <t>M4013</t>
-  </si>
-  <si>
-    <t>M4014</t>
-  </si>
-  <si>
-    <t>M4015</t>
-  </si>
-  <si>
-    <t>M4016</t>
-  </si>
-  <si>
-    <t>M4017</t>
-  </si>
-  <si>
-    <t>M4018</t>
-  </si>
-  <si>
-    <t>M4019</t>
-  </si>
-  <si>
-    <t>暂停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>急停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正压表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前门1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7859,7 +7868,7 @@
         <v>133</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -10326,47 +10335,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>492</v>
@@ -10374,7 +10383,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>493</v>
@@ -10382,7 +10391,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>494</v>
@@ -10390,7 +10399,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>495</v>
@@ -10398,7 +10407,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>496</v>
@@ -10406,7 +10415,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>497</v>
@@ -10414,7 +10423,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>498</v>
@@ -10422,42 +10431,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -17948,8 +17957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18005,7 +18014,7 @@
         <v>769</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -18067,49 +18076,49 @@
         <v>820</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>999</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>1070</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -18132,49 +18141,49 @@
         <v>821</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q4" s="1">
         <v>2</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -18201,38 +18210,38 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1021</v>
+        <v>1096</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -18260,38 +18269,38 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1004</v>
+        <v>1098</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1022</v>
+        <v>1097</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Q6" s="1">
         <v>4</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="W6" s="1"/>
     </row>
@@ -18319,34 +18328,34 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O7" s="1"/>
       <c r="Q7" s="1">
         <v>5</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="W7" s="1"/>
     </row>
@@ -18374,34 +18383,34 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O8" s="1"/>
       <c r="Q8" s="1">
         <v>6</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="W8" s="1"/>
     </row>
@@ -18429,34 +18438,34 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O9" s="1"/>
       <c r="Q9" s="1">
         <v>7</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -18484,34 +18493,34 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O10" s="1"/>
       <c r="Q10" s="1">
         <v>8</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -18539,34 +18548,34 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O11" s="1"/>
       <c r="Q11" s="1">
         <v>9</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="W11" s="1"/>
     </row>

--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -3542,381 +3542,381 @@
     <t>钢片25结果</t>
   </si>
   <si>
+    <t>M100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>M106</t>
+  </si>
+  <si>
+    <t>M107</t>
+  </si>
+  <si>
+    <t>M108</t>
+  </si>
+  <si>
+    <t>M150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M151</t>
+  </si>
+  <si>
+    <t>M152</t>
+  </si>
+  <si>
+    <t>M153</t>
+  </si>
+  <si>
+    <t>M154</t>
+  </si>
+  <si>
+    <t>M155</t>
+  </si>
+  <si>
+    <t>M156</t>
+  </si>
+  <si>
+    <t>M157</t>
+  </si>
+  <si>
+    <t>M158</t>
+  </si>
+  <si>
+    <t>PLCIN0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN1</t>
+  </si>
+  <si>
+    <t>PLCIN2</t>
+  </si>
+  <si>
+    <t>PLCIN3</t>
+  </si>
+  <si>
+    <t>PLCIN4</t>
+  </si>
+  <si>
+    <t>PLCIN5</t>
+  </si>
+  <si>
+    <t>PLCIN6</t>
+  </si>
+  <si>
+    <t>PLCIN7</t>
+  </si>
+  <si>
+    <t>PLCIN8</t>
+  </si>
+  <si>
+    <t>膜左RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>膜右RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCOUT0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCOUT1</t>
+  </si>
+  <si>
+    <t>PLCOUT2</t>
+  </si>
+  <si>
+    <t>PLCOUT3</t>
+  </si>
+  <si>
+    <t>PLCOUT4</t>
+  </si>
+  <si>
+    <t>PLCOUT5</t>
+  </si>
+  <si>
+    <t>PLCOUT6</t>
+  </si>
+  <si>
+    <t>PLCOUT7</t>
+  </si>
+  <si>
+    <t>PLCOUT8</t>
+  </si>
+  <si>
+    <t>膜取完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹爪气缸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
+    <t>M202</t>
+  </si>
+  <si>
+    <t>M203</t>
+  </si>
+  <si>
+    <t>M204</t>
+  </si>
+  <si>
+    <t>M205</t>
+  </si>
+  <si>
+    <t>M206</t>
+  </si>
+  <si>
+    <t>M207</t>
+  </si>
+  <si>
+    <t>M208</t>
+  </si>
+  <si>
+    <t>M250</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M251</t>
+  </si>
+  <si>
+    <t>M252</t>
+  </si>
+  <si>
+    <t>M253</t>
+  </si>
+  <si>
+    <t>M254</t>
+  </si>
+  <si>
+    <t>M255</t>
+  </si>
+  <si>
+    <t>M256</t>
+  </si>
+  <si>
+    <t>M257</t>
+  </si>
+  <si>
+    <t>M258</t>
+  </si>
+  <si>
+    <t>钢片RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片取完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴膜工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴膜完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴钢片工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴钢片完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测钢片工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片空盘吸取失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4002</t>
+  </si>
+  <si>
+    <t>M4003</t>
+  </si>
+  <si>
+    <t>M4004</t>
+  </si>
+  <si>
+    <t>M4005</t>
+  </si>
+  <si>
+    <t>M4006</t>
+  </si>
+  <si>
+    <t>M4007</t>
+  </si>
+  <si>
+    <t>M4008</t>
+  </si>
+  <si>
+    <t>M4009</t>
+  </si>
+  <si>
+    <t>M4010</t>
+  </si>
+  <si>
+    <t>M4011</t>
+  </si>
+  <si>
+    <t>M4012</t>
+  </si>
+  <si>
+    <t>M4013</t>
+  </si>
+  <si>
+    <t>M4014</t>
+  </si>
+  <si>
+    <t>M4015</t>
+  </si>
+  <si>
+    <t>M4016</t>
+  </si>
+  <si>
+    <t>M4017</t>
+  </si>
+  <si>
+    <t>M4018</t>
+  </si>
+  <si>
+    <t>M4019</t>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正压表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前门1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLCIN3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到位传感器1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到位传感器2</t>
+  </si>
+  <si>
+    <t>钢片上料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片上料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔形相机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B005+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超眼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-15240997900.118.484b57035l9ab0&amp;id=21048944022&amp;rn=f208cd8221aefa8242105d03a00c6e37&amp;abbucket=3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-40N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光光电传感器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>急停信号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>M100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械手1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M101</t>
-  </si>
-  <si>
-    <t>M102</t>
-  </si>
-  <si>
-    <t>M104</t>
-  </si>
-  <si>
-    <t>M105</t>
-  </si>
-  <si>
-    <t>M106</t>
-  </si>
-  <si>
-    <t>M107</t>
-  </si>
-  <si>
-    <t>M108</t>
-  </si>
-  <si>
-    <t>M150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M151</t>
-  </si>
-  <si>
-    <t>M152</t>
-  </si>
-  <si>
-    <t>M153</t>
-  </si>
-  <si>
-    <t>M154</t>
-  </si>
-  <si>
-    <t>M155</t>
-  </si>
-  <si>
-    <t>M156</t>
-  </si>
-  <si>
-    <t>M157</t>
-  </si>
-  <si>
-    <t>M158</t>
-  </si>
-  <si>
-    <t>PLCIN0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCIN1</t>
-  </si>
-  <si>
-    <t>PLCIN2</t>
-  </si>
-  <si>
-    <t>PLCIN3</t>
-  </si>
-  <si>
-    <t>PLCIN4</t>
-  </si>
-  <si>
-    <t>PLCIN5</t>
-  </si>
-  <si>
-    <t>PLCIN6</t>
-  </si>
-  <si>
-    <t>PLCIN7</t>
-  </si>
-  <si>
-    <t>PLCIN8</t>
-  </si>
-  <si>
-    <t>膜左RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>膜右RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCOUT0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCOUT1</t>
-  </si>
-  <si>
-    <t>PLCOUT2</t>
-  </si>
-  <si>
-    <t>PLCOUT3</t>
-  </si>
-  <si>
-    <t>PLCOUT4</t>
-  </si>
-  <si>
-    <t>PLCOUT5</t>
-  </si>
-  <si>
-    <t>PLCOUT6</t>
-  </si>
-  <si>
-    <t>PLCOUT7</t>
-  </si>
-  <si>
-    <t>PLCOUT8</t>
-  </si>
-  <si>
-    <t>膜取完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>夹爪气缸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M201</t>
-  </si>
-  <si>
-    <t>M202</t>
-  </si>
-  <si>
-    <t>M203</t>
-  </si>
-  <si>
-    <t>M204</t>
-  </si>
-  <si>
-    <t>M205</t>
-  </si>
-  <si>
-    <t>M206</t>
-  </si>
-  <si>
-    <t>M207</t>
-  </si>
-  <si>
-    <t>M208</t>
-  </si>
-  <si>
-    <t>M250</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M251</t>
-  </si>
-  <si>
-    <t>M252</t>
-  </si>
-  <si>
-    <t>M253</t>
-  </si>
-  <si>
-    <t>M254</t>
-  </si>
-  <si>
-    <t>M255</t>
-  </si>
-  <si>
-    <t>M256</t>
-  </si>
-  <si>
-    <t>M257</t>
-  </si>
-  <si>
-    <t>M258</t>
-  </si>
-  <si>
-    <t>钢片RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢片取完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴膜工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴膜完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕膜工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕膜完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴钢片工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴钢片完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>检测正反工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测钢片工位RDY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械手2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCIN0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢片空盘吸取失败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4002</t>
-  </si>
-  <si>
-    <t>M4003</t>
-  </si>
-  <si>
-    <t>M4004</t>
-  </si>
-  <si>
-    <t>M4005</t>
-  </si>
-  <si>
-    <t>M4006</t>
-  </si>
-  <si>
-    <t>M4007</t>
-  </si>
-  <si>
-    <t>M4008</t>
-  </si>
-  <si>
-    <t>M4009</t>
-  </si>
-  <si>
-    <t>M4010</t>
-  </si>
-  <si>
-    <t>M4011</t>
-  </si>
-  <si>
-    <t>M4012</t>
-  </si>
-  <si>
-    <t>M4013</t>
-  </si>
-  <si>
-    <t>M4014</t>
-  </si>
-  <si>
-    <t>M4015</t>
-  </si>
-  <si>
-    <t>M4016</t>
-  </si>
-  <si>
-    <t>M4017</t>
-  </si>
-  <si>
-    <t>M4018</t>
-  </si>
-  <si>
-    <t>M4019</t>
-  </si>
-  <si>
-    <t>暂停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>急停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正压表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前门1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCIN2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLCIN3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M103</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>到位传感器1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>到位传感器2</t>
-  </si>
-  <si>
-    <t>钢片上料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢片上料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔形相机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B005+</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>超眼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-15240997900.118.484b57035l9ab0&amp;id=21048944022&amp;rn=f208cd8221aefa8242105d03a00c6e37&amp;abbucket=3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG-40N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光光电传感器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4569,13 +4569,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4587,19 +4590,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4609,6 +4603,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4628,9 +4631,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6205,12 +6205,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -6219,10 +6219,10 @@
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="22.5">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -6684,7 +6684,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="68" t="s">
         <v>139</v>
       </c>
       <c r="K20" s="6"/>
@@ -6707,7 +6707,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="70"/>
+      <c r="J21" s="68"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
@@ -6730,7 +6730,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="70"/>
+      <c r="J22" s="68"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
@@ -6751,7 +6751,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="70"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
@@ -6772,7 +6772,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="70"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
@@ -6795,7 +6795,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="70"/>
+      <c r="J25" s="68"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
@@ -6816,7 +6816,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="70"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
@@ -6837,7 +6837,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="70"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
@@ -6860,7 +6860,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="70"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11">
@@ -6881,7 +6881,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="70"/>
+      <c r="J29" s="68"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
@@ -6902,7 +6902,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="70"/>
+      <c r="J30" s="68"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11">
@@ -6925,7 +6925,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="70"/>
+      <c r="J31" s="68"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11">
@@ -6946,7 +6946,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="70"/>
+      <c r="J32" s="68"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11">
@@ -6967,7 +6967,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="70"/>
+      <c r="J33" s="68"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11">
@@ -6990,7 +6990,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="70"/>
+      <c r="J34" s="68"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
@@ -7011,7 +7011,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="70"/>
+      <c r="J35" s="68"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11">
@@ -7032,7 +7032,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="70" t="s">
+      <c r="J36" s="68" t="s">
         <v>139</v>
       </c>
       <c r="K36" s="6"/>
@@ -7057,7 +7057,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="70"/>
+      <c r="J37" s="68"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
@@ -7078,7 +7078,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="70"/>
+      <c r="J38" s="68"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
@@ -7099,7 +7099,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="70"/>
+      <c r="J39" s="68"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11">
@@ -7120,7 +7120,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="70"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11">
@@ -7141,7 +7141,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="70"/>
+      <c r="J41" s="68"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11">
@@ -7157,14 +7157,14 @@
       <c r="D42" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="68" t="s">
         <v>723</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="70"/>
+      <c r="J42" s="68"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
@@ -7180,12 +7180,12 @@
       <c r="D43" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E43" s="70"/>
+      <c r="E43" s="68"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="70"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
@@ -7201,14 +7201,14 @@
       <c r="D44" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="68" t="s">
         <v>724</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="70"/>
+      <c r="J44" s="68"/>
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11">
@@ -7224,12 +7224,12 @@
       <c r="D45" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="E45" s="70"/>
+      <c r="E45" s="68"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="70"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
@@ -7245,12 +7245,12 @@
       <c r="D46" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="E46" s="70"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="70"/>
+      <c r="J46" s="68"/>
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11">
@@ -7266,12 +7266,12 @@
       <c r="D47" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E47" s="70"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="70"/>
+      <c r="J47" s="68"/>
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11">
@@ -7287,12 +7287,12 @@
       <c r="D48" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="E48" s="70"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="70"/>
+      <c r="J48" s="68"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11">
@@ -7308,12 +7308,12 @@
       <c r="D49" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E49" s="70"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="70"/>
+      <c r="J49" s="68"/>
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11">
@@ -7329,14 +7329,14 @@
       <c r="D50" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E50" s="70" t="s">
+      <c r="E50" s="68" t="s">
         <v>725</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="70"/>
+      <c r="J50" s="68"/>
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11">
@@ -7352,12 +7352,12 @@
       <c r="D51" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E51" s="70"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="70"/>
+      <c r="J51" s="68"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11">
@@ -7373,12 +7373,12 @@
       <c r="D52" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="E52" s="70"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="70" t="s">
+      <c r="J52" s="68" t="s">
         <v>140</v>
       </c>
       <c r="K52" s="6"/>
@@ -7396,12 +7396,12 @@
       <c r="D53" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="E53" s="70"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="70"/>
+      <c r="J53" s="68"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11">
@@ -7417,12 +7417,12 @@
       <c r="D54" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="E54" s="70"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="70"/>
+      <c r="J54" s="68"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11">
@@ -7438,12 +7438,12 @@
       <c r="D55" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="E55" s="70"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="70"/>
+      <c r="J55" s="68"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11">
@@ -7459,12 +7459,12 @@
       <c r="D56" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="E56" s="70"/>
+      <c r="E56" s="68"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="70"/>
+      <c r="J56" s="68"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11">
@@ -7478,12 +7478,12 @@
         <v>80</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="70"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="70"/>
+      <c r="J57" s="68"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11">
@@ -7499,14 +7499,14 @@
       <c r="D58" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E58" s="70" t="s">
-        <v>1100</v>
+      <c r="E58" s="68" t="s">
+        <v>1098</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="70"/>
+      <c r="J58" s="68"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11">
@@ -7522,12 +7522,12 @@
       <c r="D59" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E59" s="70"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="70"/>
+      <c r="J59" s="68"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11">
@@ -7543,12 +7543,12 @@
       <c r="D60" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="E60" s="70"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="70"/>
+      <c r="J60" s="68"/>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11">
@@ -7564,12 +7564,12 @@
       <c r="D61" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="E61" s="70"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="70"/>
+      <c r="J61" s="68"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="11">
@@ -7584,12 +7584,12 @@
       <c r="D62" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="E62" s="70"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="70"/>
+      <c r="J62" s="68"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="11">
@@ -7604,12 +7604,12 @@
       <c r="D63" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E63" s="70"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="70"/>
+      <c r="J63" s="68"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="11">
@@ -7624,12 +7624,12 @@
       <c r="D64" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E64" s="70"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="70"/>
+      <c r="J64" s="68"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="11">
@@ -7644,12 +7644,12 @@
       <c r="D65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="70"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="70"/>
+      <c r="J65" s="68"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="11">
@@ -7664,14 +7664,14 @@
       <c r="D66" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E66" s="68" t="s">
         <v>503</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="70"/>
+      <c r="J66" s="68"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="11">
@@ -7686,12 +7686,12 @@
       <c r="D67" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E67" s="70"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="70"/>
+      <c r="J67" s="68"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="11">
@@ -7706,12 +7706,12 @@
       <c r="D68" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="E68" s="70"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="70" t="s">
+      <c r="J68" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7728,12 +7728,12 @@
       <c r="D69" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E69" s="70"/>
+      <c r="E69" s="68"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="70"/>
+      <c r="J69" s="68"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="11">
@@ -7748,12 +7748,12 @@
       <c r="D70" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="E70" s="70"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="70"/>
+      <c r="J70" s="68"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="11">
@@ -7768,12 +7768,12 @@
       <c r="D71" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="E71" s="70"/>
+      <c r="E71" s="68"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="70"/>
+      <c r="J71" s="68"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="11">
@@ -7788,12 +7788,12 @@
       <c r="D72" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E72" s="70"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="70"/>
+      <c r="J72" s="68"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="11">
@@ -7808,12 +7808,12 @@
       <c r="D73" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E73" s="70"/>
+      <c r="E73" s="68"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="70"/>
+      <c r="J73" s="68"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="11">
@@ -7828,12 +7828,12 @@
       <c r="D74" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="E74" s="70"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="70"/>
+      <c r="J74" s="68"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="11">
@@ -7848,12 +7848,12 @@
       <c r="D75" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E75" s="70"/>
+      <c r="E75" s="68"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="70"/>
+      <c r="J75" s="68"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="11">
@@ -7868,12 +7868,12 @@
       <c r="D76" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E76" s="70"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="70"/>
+      <c r="J76" s="68"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="11">
@@ -7888,12 +7888,12 @@
       <c r="D77" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E77" s="70"/>
+      <c r="E77" s="68"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="70"/>
+      <c r="J77" s="68"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="11">
@@ -7906,14 +7906,14 @@
         <v>133</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="70"/>
+      <c r="J78" s="68"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="11">
@@ -7926,16 +7926,16 @@
         <v>134</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E79" s="74" t="s">
-        <v>1101</v>
+        <v>1096</v>
+      </c>
+      <c r="E79" s="70" t="s">
+        <v>1099</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="70"/>
+      <c r="J79" s="68"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="11">
@@ -7948,14 +7948,14 @@
         <v>135</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E80" s="76"/>
+        <v>1097</v>
+      </c>
+      <c r="E80" s="71"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="70"/>
+      <c r="J80" s="68"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="11">
@@ -7973,7 +7973,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="70"/>
+      <c r="J81" s="68"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="11">
@@ -7991,7 +7991,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="70"/>
+      <c r="J82" s="68"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="11">
@@ -8009,7 +8009,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="70"/>
+      <c r="J83" s="68"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="11">
@@ -8031,7 +8031,7 @@
       <c r="I84" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="J84" s="70" t="s">
+      <c r="J84" s="68" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
         <v>706</v>
       </c>
       <c r="I85" s="69"/>
-      <c r="J85" s="70"/>
+      <c r="J85" s="68"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="11">
@@ -8073,7 +8073,7 @@
         <v>707</v>
       </c>
       <c r="I86" s="69"/>
-      <c r="J86" s="70"/>
+      <c r="J86" s="68"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="11">
@@ -8095,7 +8095,7 @@
       <c r="I87" s="69" t="s">
         <v>584</v>
       </c>
-      <c r="J87" s="70"/>
+      <c r="J87" s="68"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="11">
@@ -8115,7 +8115,7 @@
         <v>708</v>
       </c>
       <c r="I88" s="69"/>
-      <c r="J88" s="70"/>
+      <c r="J88" s="68"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="11">
@@ -8135,7 +8135,7 @@
         <v>707</v>
       </c>
       <c r="I89" s="69"/>
-      <c r="J89" s="70"/>
+      <c r="J89" s="68"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="11">
@@ -8157,7 +8157,7 @@
       <c r="I90" s="69" t="s">
         <v>727</v>
       </c>
-      <c r="J90" s="70"/>
+      <c r="J90" s="68"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="11">
@@ -8177,7 +8177,7 @@
         <v>426</v>
       </c>
       <c r="I91" s="69"/>
-      <c r="J91" s="70"/>
+      <c r="J91" s="68"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="11">
@@ -8197,7 +8197,7 @@
         <v>223</v>
       </c>
       <c r="I92" s="69"/>
-      <c r="J92" s="70"/>
+      <c r="J92" s="68"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="11">
@@ -8219,7 +8219,7 @@
       <c r="I93" s="69" t="s">
         <v>721</v>
       </c>
-      <c r="J93" s="70"/>
+      <c r="J93" s="68"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="11">
@@ -8239,7 +8239,7 @@
         <v>706</v>
       </c>
       <c r="I94" s="69"/>
-      <c r="J94" s="70"/>
+      <c r="J94" s="68"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="11">
@@ -8259,7 +8259,7 @@
         <v>707</v>
       </c>
       <c r="I95" s="69"/>
-      <c r="J95" s="70"/>
+      <c r="J95" s="68"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="11">
@@ -8281,7 +8281,7 @@
       <c r="I96" s="69" t="s">
         <v>728</v>
       </c>
-      <c r="J96" s="70"/>
+      <c r="J96" s="68"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="11">
@@ -8301,7 +8301,7 @@
         <v>706</v>
       </c>
       <c r="I97" s="69"/>
-      <c r="J97" s="70"/>
+      <c r="J97" s="68"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="11">
@@ -8321,7 +8321,7 @@
         <v>223</v>
       </c>
       <c r="I98" s="69"/>
-      <c r="J98" s="70"/>
+      <c r="J98" s="68"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="11">
@@ -8343,7 +8343,7 @@
       <c r="I99" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="J99" s="70"/>
+      <c r="J99" s="68"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="11">
@@ -8363,7 +8363,7 @@
         <v>711</v>
       </c>
       <c r="I100" s="69"/>
-      <c r="J100" s="70" t="s">
+      <c r="J100" s="68" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
         <v>223</v>
       </c>
       <c r="I101" s="69"/>
-      <c r="J101" s="70"/>
+      <c r="J101" s="68"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="11">
@@ -8407,7 +8407,7 @@
       <c r="I102" s="69" t="s">
         <v>599</v>
       </c>
-      <c r="J102" s="70"/>
+      <c r="J102" s="68"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="11">
@@ -8427,7 +8427,7 @@
         <v>706</v>
       </c>
       <c r="I103" s="69"/>
-      <c r="J103" s="70"/>
+      <c r="J103" s="68"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="11">
@@ -8447,7 +8447,7 @@
         <v>707</v>
       </c>
       <c r="I104" s="69"/>
-      <c r="J104" s="70"/>
+      <c r="J104" s="68"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="11">
@@ -8467,7 +8467,7 @@
         <v>712</v>
       </c>
       <c r="I105" s="69"/>
-      <c r="J105" s="70"/>
+      <c r="J105" s="68"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="11">
@@ -8489,7 +8489,7 @@
       <c r="I106" s="69" t="s">
         <v>477</v>
       </c>
-      <c r="J106" s="70"/>
+      <c r="J106" s="68"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="11">
@@ -8509,7 +8509,7 @@
         <v>711</v>
       </c>
       <c r="I107" s="69"/>
-      <c r="J107" s="70"/>
+      <c r="J107" s="68"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="11">
@@ -8531,7 +8531,7 @@
       <c r="I108" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="J108" s="70"/>
+      <c r="J108" s="68"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="11">
@@ -8553,7 +8553,7 @@
       <c r="I109" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="J109" s="70"/>
+      <c r="J109" s="68"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="11">
@@ -8575,7 +8575,7 @@
       <c r="I110" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="J110" s="70"/>
+      <c r="J110" s="68"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="11">
@@ -8597,7 +8597,7 @@
       <c r="I111" s="69" t="s">
         <v>734</v>
       </c>
-      <c r="J111" s="70"/>
+      <c r="J111" s="68"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="11">
@@ -8617,7 +8617,7 @@
         <v>715</v>
       </c>
       <c r="I112" s="69"/>
-      <c r="J112" s="70"/>
+      <c r="J112" s="68"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="11">
@@ -8637,7 +8637,7 @@
         <v>707</v>
       </c>
       <c r="I113" s="69"/>
-      <c r="J113" s="70"/>
+      <c r="J113" s="68"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="11">
@@ -8656,10 +8656,10 @@
       <c r="H114" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="I114" s="70" t="s">
+      <c r="I114" s="68" t="s">
         <v>732</v>
       </c>
-      <c r="J114" s="70"/>
+      <c r="J114" s="68"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="11">
@@ -8678,8 +8678,8 @@
       <c r="H115" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I115" s="70"/>
-      <c r="J115" s="70"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="11">
@@ -8698,8 +8698,8 @@
       <c r="H116" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I116" s="70"/>
-      <c r="J116" s="70" t="s">
+      <c r="I116" s="68"/>
+      <c r="J116" s="68" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8720,8 +8720,8 @@
       <c r="H117" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="I117" s="70"/>
-      <c r="J117" s="70"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="11">
@@ -8740,8 +8740,8 @@
       <c r="H118" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I118" s="70"/>
-      <c r="J118" s="70"/>
+      <c r="I118" s="68"/>
+      <c r="J118" s="68"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="11">
@@ -8761,7 +8761,7 @@
         <v>625</v>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="70"/>
+      <c r="J119" s="68"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="11">
@@ -8781,7 +8781,7 @@
         <v>626</v>
       </c>
       <c r="I120" s="1"/>
-      <c r="J120" s="70"/>
+      <c r="J120" s="68"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="11">
@@ -8801,7 +8801,7 @@
         <v>719</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="70"/>
+      <c r="J121" s="68"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="11">
@@ -8820,10 +8820,10 @@
       <c r="H122" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="I122" s="74" t="s">
+      <c r="I122" s="70" t="s">
         <v>737</v>
       </c>
-      <c r="J122" s="70"/>
+      <c r="J122" s="68"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="11">
@@ -8842,8 +8842,8 @@
       <c r="H123" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="I123" s="75"/>
-      <c r="J123" s="70"/>
+      <c r="I123" s="76"/>
+      <c r="J123" s="68"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="11">
@@ -8862,8 +8862,8 @@
       <c r="H124" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="I124" s="76"/>
-      <c r="J124" s="70"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="68"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="11">
@@ -8885,7 +8885,7 @@
       <c r="I125" s="69" t="s">
         <v>740</v>
       </c>
-      <c r="J125" s="70"/>
+      <c r="J125" s="68"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="11">
@@ -8905,7 +8905,7 @@
         <v>741</v>
       </c>
       <c r="I126" s="69"/>
-      <c r="J126" s="70"/>
+      <c r="J126" s="68"/>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="11">
@@ -8925,7 +8925,7 @@
         <v>742</v>
       </c>
       <c r="I127" s="69"/>
-      <c r="J127" s="70"/>
+      <c r="J127" s="68"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="11">
@@ -8947,7 +8947,7 @@
       <c r="I128" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="J128" s="70"/>
+      <c r="J128" s="68"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="11">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="70"/>
+      <c r="J129" s="68"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="11">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="70"/>
+      <c r="J130" s="68"/>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="11">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="70"/>
+      <c r="J131" s="68"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="62"/>
@@ -9100,12 +9100,12 @@
       <c r="J139" s="63"/>
     </row>
     <row r="141" spans="1:10" ht="22.5">
-      <c r="A141" s="68" t="s">
+      <c r="A141" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
+      <c r="B141" s="75"/>
+      <c r="C141" s="75"/>
+      <c r="D141" s="75"/>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -9114,10 +9114,10 @@
       <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:10" ht="22.5">
-      <c r="A142" s="68"/>
-      <c r="B142" s="68"/>
-      <c r="C142" s="68"/>
-      <c r="D142" s="68"/>
+      <c r="A142" s="75"/>
+      <c r="B142" s="75"/>
+      <c r="C142" s="75"/>
+      <c r="D142" s="75"/>
       <c r="E142" s="9"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
@@ -9173,7 +9173,7 @@
         <v>223</v>
       </c>
       <c r="I144" s="60"/>
-      <c r="J144" s="71" t="s">
+      <c r="J144" s="72" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9199,7 +9199,7 @@
         <v>227</v>
       </c>
       <c r="I145" s="13"/>
-      <c r="J145" s="72"/>
+      <c r="J145" s="73"/>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="11">
@@ -9223,7 +9223,7 @@
         <v>224</v>
       </c>
       <c r="I146" s="13"/>
-      <c r="J146" s="72"/>
+      <c r="J146" s="73"/>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="11">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="H147" s="10"/>
       <c r="I147" s="13"/>
-      <c r="J147" s="72"/>
+      <c r="J147" s="73"/>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="11">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="13"/>
-      <c r="J148" s="72"/>
+      <c r="J148" s="73"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="11">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="13"/>
-      <c r="J149" s="72"/>
+      <c r="J149" s="73"/>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="11">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="13"/>
-      <c r="J150" s="72"/>
+      <c r="J150" s="73"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="11">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="72"/>
+      <c r="J151" s="73"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="11">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="72"/>
+      <c r="J152" s="73"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="11">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="72"/>
+      <c r="J153" s="73"/>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="11">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="72"/>
+      <c r="J154" s="73"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="11">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="H155" s="10"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="72"/>
+      <c r="J155" s="73"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="11">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="H156" s="10"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="72"/>
+      <c r="J156" s="73"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="11">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="72"/>
+      <c r="J157" s="73"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="11">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="H158" s="10"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="72"/>
+      <c r="J158" s="73"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="11">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="H159" s="10"/>
       <c r="I159" s="13"/>
-      <c r="J159" s="72"/>
+      <c r="J159" s="73"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="11">
@@ -9527,7 +9527,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="72"/>
+      <c r="J160" s="73"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="11">
@@ -9545,7 +9545,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="72"/>
+      <c r="J161" s="73"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="11">
@@ -9563,7 +9563,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="72"/>
+      <c r="J162" s="73"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="11">
@@ -9581,7 +9581,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="72"/>
+      <c r="J163" s="73"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="11">
@@ -9599,7 +9599,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="72"/>
+      <c r="J164" s="73"/>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="11">
@@ -9617,7 +9617,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="72"/>
+      <c r="J165" s="73"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="11">
@@ -9635,7 +9635,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="72"/>
+      <c r="J166" s="73"/>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="11">
@@ -9653,15 +9653,15 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="61"/>
-      <c r="J167" s="73"/>
+      <c r="J167" s="74"/>
     </row>
     <row r="169" spans="1:10" ht="22.5">
-      <c r="A169" s="68" t="s">
+      <c r="A169" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B169" s="68"/>
-      <c r="C169" s="68"/>
-      <c r="D169" s="68"/>
+      <c r="B169" s="75"/>
+      <c r="C169" s="75"/>
+      <c r="D169" s="75"/>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
@@ -9670,10 +9670,10 @@
       <c r="J169" s="10"/>
     </row>
     <row r="170" spans="1:10" ht="22.5">
-      <c r="A170" s="68"/>
-      <c r="B170" s="68"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="68"/>
+      <c r="A170" s="75"/>
+      <c r="B170" s="75"/>
+      <c r="C170" s="75"/>
+      <c r="D170" s="75"/>
       <c r="E170" s="9"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
@@ -9729,7 +9729,7 @@
         <v>228</v>
       </c>
       <c r="I172" s="60"/>
-      <c r="J172" s="71" t="s">
+      <c r="J172" s="72" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
         <v>229</v>
       </c>
       <c r="I173" s="13"/>
-      <c r="J173" s="72"/>
+      <c r="J173" s="73"/>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="11">
@@ -9783,7 +9783,7 @@
         <v>230</v>
       </c>
       <c r="I174" s="13"/>
-      <c r="J174" s="72"/>
+      <c r="J174" s="73"/>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="11">
@@ -9809,7 +9809,7 @@
         <v>231</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="72"/>
+      <c r="J175" s="73"/>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="11">
@@ -9835,7 +9835,7 @@
         <v>232</v>
       </c>
       <c r="I176" s="13"/>
-      <c r="J176" s="72"/>
+      <c r="J176" s="73"/>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="11">
@@ -9859,7 +9859,7 @@
         <v>233</v>
       </c>
       <c r="I177" s="13"/>
-      <c r="J177" s="72"/>
+      <c r="J177" s="73"/>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="11">
@@ -9883,7 +9883,7 @@
         <v>234</v>
       </c>
       <c r="I178" s="13"/>
-      <c r="J178" s="72"/>
+      <c r="J178" s="73"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="11">
@@ -9907,7 +9907,7 @@
         <v>235</v>
       </c>
       <c r="I179" s="13"/>
-      <c r="J179" s="72"/>
+      <c r="J179" s="73"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="11">
@@ -9931,7 +9931,7 @@
         <v>236</v>
       </c>
       <c r="I180" s="13"/>
-      <c r="J180" s="72"/>
+      <c r="J180" s="73"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="11">
@@ -9955,7 +9955,7 @@
         <v>237</v>
       </c>
       <c r="I181" s="13"/>
-      <c r="J181" s="72"/>
+      <c r="J181" s="73"/>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="11">
@@ -9979,7 +9979,7 @@
         <v>238</v>
       </c>
       <c r="I182" s="13"/>
-      <c r="J182" s="72"/>
+      <c r="J182" s="73"/>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="11">
@@ -10003,7 +10003,7 @@
         <v>239</v>
       </c>
       <c r="I183" s="13"/>
-      <c r="J183" s="72"/>
+      <c r="J183" s="73"/>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="11">
@@ -10027,7 +10027,7 @@
         <v>240</v>
       </c>
       <c r="I184" s="13"/>
-      <c r="J184" s="72"/>
+      <c r="J184" s="73"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="11">
@@ -10051,7 +10051,7 @@
         <v>241</v>
       </c>
       <c r="I185" s="13"/>
-      <c r="J185" s="72"/>
+      <c r="J185" s="73"/>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="11">
@@ -10075,7 +10075,7 @@
         <v>242</v>
       </c>
       <c r="I186" s="13"/>
-      <c r="J186" s="72"/>
+      <c r="J186" s="73"/>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="11">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="H187" s="10"/>
       <c r="I187" s="13"/>
-      <c r="J187" s="72"/>
+      <c r="J187" s="73"/>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="11">
@@ -10115,7 +10115,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="72"/>
+      <c r="J188" s="73"/>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="11">
@@ -10133,7 +10133,7 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="72"/>
+      <c r="J189" s="73"/>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="11">
@@ -10151,7 +10151,7 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="72"/>
+      <c r="J190" s="73"/>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="11">
@@ -10169,7 +10169,7 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="72"/>
+      <c r="J191" s="73"/>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="11">
@@ -10187,7 +10187,7 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="72"/>
+      <c r="J192" s="73"/>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="11">
@@ -10205,7 +10205,7 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="72"/>
+      <c r="J193" s="73"/>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="11">
@@ -10223,7 +10223,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="72"/>
+      <c r="J194" s="73"/>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="11">
@@ -10241,37 +10241,10 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
       <c r="I195" s="61"/>
-      <c r="J195" s="73"/>
+      <c r="J195" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="E50:E57"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I102:I105"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="J172:J195"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I4:I15"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="J68:J83"/>
-    <mergeCell ref="J84:J99"/>
-    <mergeCell ref="J100:J115"/>
-    <mergeCell ref="J116:J131"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="I125:I127"/>
-    <mergeCell ref="A141:D142"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="J144:J167"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="I122:I124"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="J4:J19"/>
     <mergeCell ref="J20:J35"/>
@@ -10288,6 +10261,33 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="E37:E41"/>
+    <mergeCell ref="A141:D142"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="J144:J167"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="J172:J195"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I4:I15"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="J68:J83"/>
+    <mergeCell ref="J84:J99"/>
+    <mergeCell ref="J100:J115"/>
+    <mergeCell ref="J116:J131"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="I125:I127"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="E79:E80"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10380,47 +10380,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>492</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>493</v>
@@ -10436,7 +10436,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>494</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>495</v>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>496</v>
@@ -10460,7 +10460,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>497</v>
@@ -10468,7 +10468,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>498</v>
@@ -10476,42 +10476,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -10528,7 +10528,7 @@
   </sheetPr>
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -10568,12 +10568,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -10587,10 +10587,10 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="21" t="s">
         <v>526</v>
       </c>
@@ -10604,20 +10604,20 @@
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="85"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="25">
         <v>20170818</v>
       </c>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="25" t="s">
         <v>525</v>
       </c>
@@ -10629,18 +10629,18 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="K4" s="85"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="22"/>
       <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -10650,10 +10650,10 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="86"/>
       <c r="L5" s="29"/>
       <c r="M5" s="33"/>
     </row>
@@ -10679,14 +10679,14 @@
       <c r="B7" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="88"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="38" t="s">
         <v>268</v>
       </c>
@@ -10702,17 +10702,17 @@
       <c r="K7" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="L7" s="77" t="s">
+      <c r="L7" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="M7" s="77"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="40">
         <v>1</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="82" t="s">
         <v>274</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -10740,7 +10740,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="41"/>
-      <c r="C9" s="78"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="48" t="s">
         <v>278</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="78"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="48" t="s">
         <v>541</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="78"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="48" t="s">
         <v>280</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="41"/>
-      <c r="C12" s="78"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="48" t="s">
         <v>280</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="78"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="50" t="s">
         <v>544</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="41"/>
-      <c r="C14" s="78"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="41" t="s">
         <v>282</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="78"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="50" t="s">
         <v>285</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="41"/>
-      <c r="C16" s="78"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="50" t="s">
         <v>287</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="78"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="50" t="s">
         <v>287</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="78"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="51" t="s">
         <v>290</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="41"/>
-      <c r="C19" s="78"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="50" t="s">
         <v>293</v>
       </c>
@@ -11036,16 +11036,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="78"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="50" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="41" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H20" s="41">
         <v>1</v>
@@ -11056,7 +11056,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="45"/>
       <c r="L20" s="56" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="M20" s="43"/>
     </row>
@@ -11092,7 +11092,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="41"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="81" t="s">
         <v>658</v>
       </c>
       <c r="D22" s="50" t="s">
@@ -11121,7 +11121,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="88"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="51" t="s">
         <v>651</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="88"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="50" t="s">
         <v>653</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="41"/>
-      <c r="C25" s="88"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="50" t="s">
         <v>653</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="41"/>
-      <c r="C26" s="88"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="50" t="s">
         <v>654</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="41"/>
-      <c r="C27" s="88"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="50" t="s">
         <v>656</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="41"/>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="77" t="s">
         <v>298</v>
       </c>
       <c r="D29" s="53" t="s">
@@ -11300,7 +11300,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="41"/>
-      <c r="C30" s="79"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="53" t="s">
         <v>530</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="41"/>
-      <c r="C31" s="79"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="53" t="s">
         <v>532</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="41"/>
-      <c r="C32" s="79"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="53" t="s">
         <v>534</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="41"/>
-      <c r="C33" s="79"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="53" t="s">
         <v>536</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="41"/>
-      <c r="C34" s="79"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="53" t="s">
         <v>537</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="41"/>
-      <c r="C35" s="79"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="53" t="s">
         <v>539</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="41"/>
-      <c r="C36" s="79"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="53" t="s">
         <v>300</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="41"/>
-      <c r="C37" s="79"/>
+      <c r="C37" s="77"/>
       <c r="D37" s="53" t="s">
         <v>304</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="41"/>
-      <c r="C38" s="79"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="53" t="s">
         <v>557</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="41"/>
-      <c r="C39" s="79"/>
+      <c r="C39" s="77"/>
       <c r="D39" s="53" t="s">
         <v>305</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="41"/>
-      <c r="C40" s="79"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="53" t="s">
         <v>305</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="41"/>
-      <c r="C41" s="79"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="49" t="s">
         <v>306</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="41"/>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="78" t="s">
         <v>307</v>
       </c>
       <c r="D42" s="49" t="s">
@@ -11647,7 +11647,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="41"/>
-      <c r="C43" s="81"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="49" t="s">
         <v>311</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="41"/>
-      <c r="C44" s="81"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="49" t="s">
         <v>313</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="41"/>
-      <c r="C45" s="81"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="49" t="s">
         <v>316</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="41"/>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="77" t="s">
         <v>319</v>
       </c>
       <c r="D46" s="49" t="s">
@@ -11757,7 +11757,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="41"/>
-      <c r="C47" s="79"/>
+      <c r="C47" s="77"/>
       <c r="D47" s="49" t="s">
         <v>322</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="41"/>
-      <c r="C48" s="79"/>
+      <c r="C48" s="77"/>
       <c r="D48" s="49" t="s">
         <v>324</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="41"/>
-      <c r="C49" s="79"/>
+      <c r="C49" s="77"/>
       <c r="D49" s="49" t="s">
         <v>42</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="41"/>
-      <c r="C50" s="79"/>
+      <c r="C50" s="77"/>
       <c r="D50" s="49" t="s">
         <v>327</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="41"/>
-      <c r="C51" s="79"/>
+      <c r="C51" s="77"/>
       <c r="D51" s="49" t="s">
         <v>328</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="41"/>
-      <c r="C52" s="79"/>
+      <c r="C52" s="77"/>
       <c r="D52" s="49" t="s">
         <v>329</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="41"/>
-      <c r="C53" s="79"/>
+      <c r="C53" s="77"/>
       <c r="D53" s="49" t="s">
         <v>331</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="41"/>
-      <c r="C54" s="79"/>
+      <c r="C54" s="77"/>
       <c r="D54" s="49" t="s">
         <v>332</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="41"/>
-      <c r="C55" s="79"/>
+      <c r="C55" s="77"/>
       <c r="D55" s="49" t="s">
         <v>334</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="41"/>
-      <c r="C56" s="79"/>
+      <c r="C56" s="77"/>
       <c r="D56" s="49" t="s">
         <v>336</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="41"/>
-      <c r="C57" s="79"/>
+      <c r="C57" s="77"/>
       <c r="D57" s="49" t="s">
         <v>336</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="41"/>
-      <c r="C58" s="79"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="49" t="s">
         <v>339</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="41"/>
-      <c r="C59" s="79"/>
+      <c r="C59" s="77"/>
       <c r="D59" s="49" t="s">
         <v>342</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="41"/>
-      <c r="C60" s="79"/>
+      <c r="C60" s="77"/>
       <c r="D60" s="49" t="s">
         <v>344</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="41"/>
-      <c r="C61" s="79"/>
+      <c r="C61" s="77"/>
       <c r="D61" s="49" t="s">
         <v>345</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="41"/>
-      <c r="C62" s="79"/>
+      <c r="C62" s="77"/>
       <c r="D62" s="49" t="s">
         <v>347</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="41"/>
-      <c r="C63" s="79"/>
+      <c r="C63" s="77"/>
       <c r="D63" s="49" t="s">
         <v>345</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="41"/>
-      <c r="C64" s="79"/>
+      <c r="C64" s="77"/>
       <c r="D64" s="49" t="s">
         <v>347</v>
       </c>
@@ -12225,12 +12225,12 @@
         <v>58</v>
       </c>
       <c r="B65" s="41"/>
-      <c r="C65" s="79"/>
+      <c r="C65" s="77"/>
       <c r="D65" s="49" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E65" s="54" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F65" s="55"/>
       <c r="G65" s="49" t="s">
@@ -12252,7 +12252,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="41"/>
-      <c r="C66" s="79"/>
+      <c r="C66" s="77"/>
       <c r="D66" s="49" t="s">
         <v>349</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="41"/>
-      <c r="C67" s="79"/>
+      <c r="C67" s="77"/>
       <c r="D67" s="49" t="s">
         <v>352</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="41"/>
-      <c r="C68" s="79"/>
+      <c r="C68" s="77"/>
       <c r="D68" s="49" t="s">
         <v>356</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="41"/>
-      <c r="C69" s="79"/>
+      <c r="C69" s="77"/>
       <c r="D69" s="49" t="s">
         <v>364</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="41"/>
-      <c r="C70" s="79"/>
+      <c r="C70" s="77"/>
       <c r="D70" s="49" t="s">
         <v>367</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="41"/>
-      <c r="C71" s="79"/>
+      <c r="C71" s="77"/>
       <c r="D71" s="49" t="s">
         <v>358</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="41"/>
-      <c r="C72" s="79"/>
+      <c r="C72" s="77"/>
       <c r="D72" s="49" t="s">
         <v>360</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="41"/>
-      <c r="C73" s="79"/>
+      <c r="C73" s="77"/>
       <c r="D73" s="49" t="s">
         <v>361</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="41"/>
-      <c r="C74" s="79"/>
+      <c r="C74" s="77"/>
       <c r="D74" s="49" t="s">
         <v>363</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="41"/>
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="78" t="s">
         <v>369</v>
       </c>
       <c r="D75" s="49" t="s">
@@ -12516,7 +12516,7 @@
         <v>69</v>
       </c>
       <c r="B76" s="41"/>
-      <c r="C76" s="81"/>
+      <c r="C76" s="79"/>
       <c r="D76" s="49" t="s">
         <v>370</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>70</v>
       </c>
       <c r="B77" s="41"/>
-      <c r="C77" s="81"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="49" t="s">
         <v>370</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="41"/>
-      <c r="C78" s="81"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="49" t="s">
         <v>370</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="41"/>
-      <c r="C79" s="81"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="49" t="s">
         <v>371</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="41"/>
-      <c r="C80" s="81"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="49" t="s">
         <v>225</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="41"/>
-      <c r="C81" s="79"/>
+      <c r="C81" s="77"/>
       <c r="D81" s="49" t="s">
         <v>375</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="41"/>
-      <c r="C82" s="79"/>
+      <c r="C82" s="77"/>
       <c r="D82" s="49" t="s">
         <v>376</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="41"/>
-      <c r="C83" s="79"/>
+      <c r="C83" s="77"/>
       <c r="D83" s="49" t="s">
         <v>378</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="41"/>
-      <c r="C84" s="79"/>
+      <c r="C84" s="77"/>
       <c r="D84" s="49" t="s">
         <v>379</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="41"/>
-      <c r="C85" s="79"/>
+      <c r="C85" s="77"/>
       <c r="D85" s="49" t="s">
         <v>380</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="41"/>
-      <c r="C86" s="79"/>
+      <c r="C86" s="77"/>
       <c r="D86" s="49" t="s">
         <v>382</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="41"/>
-      <c r="C87" s="79"/>
+      <c r="C87" s="77"/>
       <c r="D87" s="49" t="s">
         <v>383</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="41"/>
-      <c r="C88" s="79"/>
+      <c r="C88" s="77"/>
       <c r="D88" s="49" t="s">
         <v>384</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="41"/>
-      <c r="C89" s="79"/>
+      <c r="C89" s="77"/>
       <c r="D89" s="49" t="s">
         <v>385</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="41"/>
-      <c r="C90" s="79"/>
+      <c r="C90" s="77"/>
       <c r="D90" s="49" t="s">
         <v>386</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="41"/>
-      <c r="C91" s="79"/>
+      <c r="C91" s="77"/>
       <c r="D91" s="49" t="s">
         <v>387</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="41"/>
-      <c r="C92" s="79"/>
+      <c r="C92" s="77"/>
       <c r="D92" s="49" t="s">
         <v>388</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="41"/>
-      <c r="C93" s="79"/>
+      <c r="C93" s="77"/>
       <c r="D93" s="49" t="s">
         <v>389</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="41"/>
-      <c r="C94" s="79"/>
+      <c r="C94" s="77"/>
       <c r="D94" s="49" t="s">
         <v>390</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="41"/>
-      <c r="C95" s="79"/>
+      <c r="C95" s="77"/>
       <c r="D95" s="49" t="s">
         <v>391</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="41"/>
-      <c r="C96" s="79"/>
+      <c r="C96" s="77"/>
       <c r="D96" s="49" t="s">
         <v>392</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="41"/>
-      <c r="C97" s="79"/>
+      <c r="C97" s="77"/>
       <c r="D97" s="49" t="s">
         <v>393</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="41"/>
-      <c r="C98" s="79"/>
+      <c r="C98" s="77"/>
       <c r="D98" s="49" t="s">
         <v>394</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="41"/>
-      <c r="C99" s="79"/>
+      <c r="C99" s="77"/>
       <c r="D99" s="49" t="s">
         <v>395</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="41"/>
-      <c r="C100" s="79"/>
+      <c r="C100" s="77"/>
       <c r="D100" s="49" t="s">
         <v>396</v>
       </c>
@@ -13087,11 +13087,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="C46:C74"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C81:C100"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C20"/>
     <mergeCell ref="C29:C41"/>
@@ -13104,6 +13099,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C46:C74"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C81:C100"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -14446,6 +14446,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="L10:N10"/>
@@ -14456,14 +14464,6 @@
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="L28:N28"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14518,7 +14518,7 @@
       <c r="E2" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>578</v>
       </c>
     </row>
@@ -14536,7 +14536,7 @@
       <c r="E3" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="93"/>
@@ -14552,7 +14552,7 @@
       <c r="E4" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="93"/>
@@ -14568,7 +14568,7 @@
       <c r="E5" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="93"/>
@@ -14584,7 +14584,7 @@
       <c r="E6" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="F6" s="70"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="93"/>
@@ -14600,7 +14600,7 @@
       <c r="E7" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="93"/>
@@ -14616,7 +14616,7 @@
       <c r="E8" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="93"/>
@@ -14632,7 +14632,7 @@
       <c r="E9" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="93"/>
@@ -14648,7 +14648,7 @@
       <c r="E10" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="93"/>
@@ -14662,7 +14662,7 @@
       <c r="E11" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -14679,7 +14679,7 @@
       <c r="F12" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="68" t="s">
         <v>585</v>
       </c>
     </row>
@@ -14697,10 +14697,10 @@
       <c r="E13" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="93"/>
@@ -14716,8 +14716,8 @@
       <c r="E14" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="93"/>
@@ -14733,8 +14733,8 @@
       <c r="E15" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="93"/>
@@ -14746,8 +14746,8 @@
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="93"/>
@@ -14759,8 +14759,8 @@
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="93"/>
@@ -14772,8 +14772,8 @@
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="93"/>
@@ -14785,8 +14785,8 @@
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="93"/>
@@ -14798,8 +14798,8 @@
       </c>
       <c r="D20" s="65"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="93"/>
@@ -14811,8 +14811,8 @@
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="93"/>
@@ -14826,8 +14826,8 @@
       <c r="E22" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -14844,7 +14844,7 @@
       <c r="F23" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G23" s="70"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="93">
@@ -14861,7 +14861,7 @@
         <v>575</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="70"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="93"/>
@@ -14877,10 +14877,10 @@
       <c r="E25" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="68" t="s">
         <v>582</v>
       </c>
-      <c r="G25" s="70"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="93"/>
@@ -14896,8 +14896,8 @@
       <c r="E26" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="93"/>
@@ -14913,8 +14913,8 @@
       <c r="E27" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="93"/>
@@ -14930,8 +14930,8 @@
       <c r="E28" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="93"/>
@@ -14947,10 +14947,10 @@
       <c r="E29" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="G29" s="70"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="93"/>
@@ -14966,8 +14966,8 @@
       <c r="E30" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="93"/>
@@ -14983,8 +14983,8 @@
       <c r="E31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="93"/>
@@ -15003,7 +15003,7 @@
       <c r="F32" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="G32" s="70"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="93"/>
@@ -15018,7 +15018,7 @@
         <v>576</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="70"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
@@ -15035,7 +15035,7 @@
       <c r="F34" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G34" s="70"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="93">
@@ -15052,7 +15052,7 @@
         <v>575</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="70"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="93"/>
@@ -15068,10 +15068,10 @@
       <c r="E36" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F36" s="70" t="s">
+      <c r="F36" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="G36" s="70"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="93"/>
@@ -15087,8 +15087,8 @@
       <c r="E37" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="93"/>
@@ -15104,10 +15104,10 @@
       <c r="E38" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="G38" s="70"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="93"/>
@@ -15123,8 +15123,8 @@
       <c r="E39" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="93"/>
@@ -15140,8 +15140,8 @@
       <c r="E40" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="93"/>
@@ -15157,10 +15157,10 @@
       <c r="E41" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="68" t="s">
         <v>471</v>
       </c>
-      <c r="G41" s="70"/>
+      <c r="G41" s="68"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="93"/>
@@ -15176,8 +15176,8 @@
       <c r="E42" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="93"/>
@@ -15193,8 +15193,8 @@
       <c r="E43" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="93"/>
@@ -15209,7 +15209,7 @@
         <v>576</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="70"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
@@ -15226,7 +15226,7 @@
       <c r="F45" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G45" s="70" t="s">
+      <c r="G45" s="68" t="s">
         <v>602</v>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
         <v>575</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="70"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="93"/>
@@ -15261,10 +15261,10 @@
       <c r="E47" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="68" t="s">
         <v>586</v>
       </c>
-      <c r="G47" s="70"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="93"/>
@@ -15280,8 +15280,8 @@
       <c r="E48" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="93"/>
@@ -15300,7 +15300,7 @@
       <c r="F49" s="69" t="s">
         <v>472</v>
       </c>
-      <c r="G49" s="70"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="93"/>
@@ -15317,7 +15317,7 @@
         <v>469</v>
       </c>
       <c r="F50" s="69"/>
-      <c r="G50" s="70"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="93"/>
@@ -15334,7 +15334,7 @@
         <v>470</v>
       </c>
       <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="93"/>
@@ -15350,10 +15350,10 @@
       <c r="E52" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="70" t="s">
+      <c r="F52" s="68" t="s">
         <v>587</v>
       </c>
-      <c r="G52" s="70"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="93"/>
@@ -15369,8 +15369,8 @@
       <c r="E53" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="93"/>
@@ -15386,8 +15386,8 @@
       <c r="E54" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="93"/>
@@ -15402,7 +15402,7 @@
         <v>576</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="70"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
@@ -15419,7 +15419,7 @@
       <c r="F56" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G56" s="70"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="93">
@@ -15436,7 +15436,7 @@
         <v>575</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="70"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="93"/>
@@ -15455,7 +15455,7 @@
       <c r="F58" s="94" t="s">
         <v>600</v>
       </c>
-      <c r="G58" s="70"/>
+      <c r="G58" s="68"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="93"/>
@@ -15472,7 +15472,7 @@
         <v>469</v>
       </c>
       <c r="F59" s="95"/>
-      <c r="G59" s="70"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="93"/>
@@ -15489,7 +15489,7 @@
         <v>470</v>
       </c>
       <c r="F60" s="95"/>
-      <c r="G60" s="70"/>
+      <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="93"/>
@@ -15506,7 +15506,7 @@
         <v>226</v>
       </c>
       <c r="F61" s="95"/>
-      <c r="G61" s="70"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="93"/>
@@ -15523,7 +15523,7 @@
         <v>593</v>
       </c>
       <c r="F62" s="95"/>
-      <c r="G62" s="70"/>
+      <c r="G62" s="68"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="93"/>
@@ -15540,7 +15540,7 @@
         <v>594</v>
       </c>
       <c r="F63" s="96"/>
-      <c r="G63" s="70"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="93"/>
@@ -15556,10 +15556,10 @@
       <c r="E64" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F64" s="74" t="s">
+      <c r="F64" s="70" t="s">
         <v>601</v>
       </c>
-      <c r="G64" s="70"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="93"/>
@@ -15575,8 +15575,8 @@
       <c r="E65" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F65" s="76"/>
-      <c r="G65" s="70"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="68"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="93"/>
@@ -15591,7 +15591,7 @@
         <v>576</v>
       </c>
       <c r="F66" s="8"/>
-      <c r="G66" s="70"/>
+      <c r="G66" s="68"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
@@ -15608,7 +15608,7 @@
       <c r="F67" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G67" s="70" t="s">
+      <c r="G67" s="68" t="s">
         <v>603</v>
       </c>
     </row>
@@ -15627,7 +15627,7 @@
         <v>575</v>
       </c>
       <c r="F68" s="8"/>
-      <c r="G68" s="70"/>
+      <c r="G68" s="68"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="93"/>
@@ -15646,7 +15646,7 @@
       <c r="F69" s="97" t="s">
         <v>600</v>
       </c>
-      <c r="G69" s="70"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="93"/>
@@ -15663,7 +15663,7 @@
         <v>598</v>
       </c>
       <c r="F70" s="97"/>
-      <c r="G70" s="70"/>
+      <c r="G70" s="68"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="93"/>
@@ -15680,7 +15680,7 @@
         <v>473</v>
       </c>
       <c r="F71" s="97"/>
-      <c r="G71" s="70"/>
+      <c r="G71" s="68"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="93"/>
@@ -15697,7 +15697,7 @@
         <v>474</v>
       </c>
       <c r="F72" s="97"/>
-      <c r="G72" s="70"/>
+      <c r="G72" s="68"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="93"/>
@@ -15710,7 +15710,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="10"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="70"/>
+      <c r="G73" s="68"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="93"/>
@@ -15723,7 +15723,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="10"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="70"/>
+      <c r="G74" s="68"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="93"/>
@@ -15736,7 +15736,7 @@
       <c r="D75" s="65"/>
       <c r="E75" s="10"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="70"/>
+      <c r="G75" s="68"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="93"/>
@@ -15749,7 +15749,7 @@
       <c r="D76" s="65"/>
       <c r="E76" s="10"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="70"/>
+      <c r="G76" s="68"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="93"/>
@@ -15764,7 +15764,7 @@
         <v>576</v>
       </c>
       <c r="F77" s="8"/>
-      <c r="G77" s="70"/>
+      <c r="G77" s="68"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
@@ -16628,7 +16628,7 @@
       <c r="F133" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G133" s="70" t="s">
+      <c r="G133" s="68" t="s">
         <v>624</v>
       </c>
     </row>
@@ -16647,7 +16647,7 @@
         <v>575</v>
       </c>
       <c r="F134" s="8"/>
-      <c r="G134" s="70"/>
+      <c r="G134" s="68"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="93"/>
@@ -16666,7 +16666,7 @@
       <c r="F135" s="94" t="s">
         <v>621</v>
       </c>
-      <c r="G135" s="70"/>
+      <c r="G135" s="68"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="93"/>
@@ -16683,7 +16683,7 @@
         <v>223</v>
       </c>
       <c r="F136" s="95"/>
-      <c r="G136" s="70"/>
+      <c r="G136" s="68"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="93"/>
@@ -16700,7 +16700,7 @@
         <v>227</v>
       </c>
       <c r="F137" s="95"/>
-      <c r="G137" s="70"/>
+      <c r="G137" s="68"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="93"/>
@@ -16717,7 +16717,7 @@
         <v>224</v>
       </c>
       <c r="F138" s="96"/>
-      <c r="G138" s="70"/>
+      <c r="G138" s="68"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="93"/>
@@ -16730,7 +16730,7 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="66"/>
-      <c r="G139" s="70"/>
+      <c r="G139" s="68"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="93"/>
@@ -16743,7 +16743,7 @@
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="66"/>
-      <c r="G140" s="70"/>
+      <c r="G140" s="68"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="93"/>
@@ -16756,7 +16756,7 @@
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="66"/>
-      <c r="G141" s="70"/>
+      <c r="G141" s="68"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="93"/>
@@ -16769,7 +16769,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="10"/>
       <c r="F142" s="66"/>
-      <c r="G142" s="70"/>
+      <c r="G142" s="68"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="93"/>
@@ -16784,7 +16784,7 @@
         <v>576</v>
       </c>
       <c r="F143" s="8"/>
-      <c r="G143" s="70"/>
+      <c r="G143" s="68"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
@@ -16801,7 +16801,7 @@
       <c r="F144" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G144" s="70" t="s">
+      <c r="G144" s="68" t="s">
         <v>623</v>
       </c>
     </row>
@@ -16820,7 +16820,7 @@
         <v>575</v>
       </c>
       <c r="F145" s="8"/>
-      <c r="G145" s="70"/>
+      <c r="G145" s="68"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="93"/>
@@ -16839,7 +16839,7 @@
       <c r="F146" s="94" t="s">
         <v>622</v>
       </c>
-      <c r="G146" s="70"/>
+      <c r="G146" s="68"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="93"/>
@@ -16856,7 +16856,7 @@
         <v>244</v>
       </c>
       <c r="F147" s="95"/>
-      <c r="G147" s="70"/>
+      <c r="G147" s="68"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="93"/>
@@ -16873,7 +16873,7 @@
         <v>245</v>
       </c>
       <c r="F148" s="95"/>
-      <c r="G148" s="70"/>
+      <c r="G148" s="68"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="93"/>
@@ -16890,7 +16890,7 @@
         <v>246</v>
       </c>
       <c r="F149" s="95"/>
-      <c r="G149" s="70"/>
+      <c r="G149" s="68"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="93"/>
@@ -16907,7 +16907,7 @@
         <v>247</v>
       </c>
       <c r="F150" s="95"/>
-      <c r="G150" s="70"/>
+      <c r="G150" s="68"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="93"/>
@@ -16924,7 +16924,7 @@
         <v>228</v>
       </c>
       <c r="F151" s="95"/>
-      <c r="G151" s="70"/>
+      <c r="G151" s="68"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="93"/>
@@ -16941,7 +16941,7 @@
         <v>229</v>
       </c>
       <c r="F152" s="95"/>
-      <c r="G152" s="70"/>
+      <c r="G152" s="68"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="93"/>
@@ -16958,7 +16958,7 @@
         <v>230</v>
       </c>
       <c r="F153" s="96"/>
-      <c r="G153" s="70"/>
+      <c r="G153" s="68"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="93"/>
@@ -16973,7 +16973,7 @@
         <v>576</v>
       </c>
       <c r="F154" s="8"/>
-      <c r="G154" s="70"/>
+      <c r="G154" s="68"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
@@ -16990,7 +16990,7 @@
       <c r="F155" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G155" s="70"/>
+      <c r="G155" s="68"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="93">
@@ -17007,7 +17007,7 @@
         <v>575</v>
       </c>
       <c r="F156" s="8"/>
-      <c r="G156" s="70"/>
+      <c r="G156" s="68"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="93"/>
@@ -17026,7 +17026,7 @@
       <c r="F157" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="G157" s="70"/>
+      <c r="G157" s="68"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="93"/>
@@ -17043,7 +17043,7 @@
         <v>232</v>
       </c>
       <c r="F158" s="97"/>
-      <c r="G158" s="70"/>
+      <c r="G158" s="68"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="93"/>
@@ -17060,7 +17060,7 @@
         <v>233</v>
       </c>
       <c r="F159" s="97"/>
-      <c r="G159" s="70"/>
+      <c r="G159" s="68"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="93"/>
@@ -17077,7 +17077,7 @@
         <v>234</v>
       </c>
       <c r="F160" s="97"/>
-      <c r="G160" s="70"/>
+      <c r="G160" s="68"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="93"/>
@@ -17094,7 +17094,7 @@
         <v>235</v>
       </c>
       <c r="F161" s="97"/>
-      <c r="G161" s="70"/>
+      <c r="G161" s="68"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="93"/>
@@ -17111,7 +17111,7 @@
         <v>236</v>
       </c>
       <c r="F162" s="97"/>
-      <c r="G162" s="70"/>
+      <c r="G162" s="68"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="93"/>
@@ -17128,7 +17128,7 @@
         <v>237</v>
       </c>
       <c r="F163" s="97"/>
-      <c r="G163" s="70"/>
+      <c r="G163" s="68"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="93"/>
@@ -17145,7 +17145,7 @@
         <v>238</v>
       </c>
       <c r="F164" s="97"/>
-      <c r="G164" s="70"/>
+      <c r="G164" s="68"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="93"/>
@@ -17160,7 +17160,7 @@
         <v>576</v>
       </c>
       <c r="F165" s="8"/>
-      <c r="G165" s="70"/>
+      <c r="G165" s="68"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
@@ -17177,7 +17177,7 @@
       <c r="F166" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G166" s="70"/>
+      <c r="G166" s="68"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="93">
@@ -17194,7 +17194,7 @@
         <v>575</v>
       </c>
       <c r="F167" s="8"/>
-      <c r="G167" s="70"/>
+      <c r="G167" s="68"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="93"/>
@@ -17213,7 +17213,7 @@
       <c r="F168" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="G168" s="70"/>
+      <c r="G168" s="68"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="93"/>
@@ -17230,7 +17230,7 @@
         <v>240</v>
       </c>
       <c r="F169" s="97"/>
-      <c r="G169" s="70"/>
+      <c r="G169" s="68"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="93"/>
@@ -17247,7 +17247,7 @@
         <v>241</v>
       </c>
       <c r="F170" s="97"/>
-      <c r="G170" s="70"/>
+      <c r="G170" s="68"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="93"/>
@@ -17264,7 +17264,7 @@
         <v>242</v>
       </c>
       <c r="F171" s="97"/>
-      <c r="G171" s="70"/>
+      <c r="G171" s="68"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="93"/>
@@ -17277,7 +17277,7 @@
       <c r="D172" s="12"/>
       <c r="E172" s="10"/>
       <c r="F172" s="66"/>
-      <c r="G172" s="70"/>
+      <c r="G172" s="68"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="93"/>
@@ -17290,7 +17290,7 @@
       <c r="D173" s="12"/>
       <c r="E173" s="10"/>
       <c r="F173" s="66"/>
-      <c r="G173" s="70"/>
+      <c r="G173" s="68"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="93"/>
@@ -17303,7 +17303,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="10"/>
       <c r="F174" s="66"/>
-      <c r="G174" s="70"/>
+      <c r="G174" s="68"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="93"/>
@@ -17316,7 +17316,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="10"/>
       <c r="F175" s="66"/>
-      <c r="G175" s="70"/>
+      <c r="G175" s="68"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="93"/>
@@ -17331,7 +17331,7 @@
         <v>576</v>
       </c>
       <c r="F176" s="8"/>
-      <c r="G176" s="70"/>
+      <c r="G176" s="68"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
@@ -17348,7 +17348,7 @@
       <c r="F177" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G177" s="70" t="s">
+      <c r="G177" s="68" t="s">
         <v>503</v>
       </c>
     </row>
@@ -17367,7 +17367,7 @@
         <v>575</v>
       </c>
       <c r="F178" s="8"/>
-      <c r="G178" s="70"/>
+      <c r="G178" s="68"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="93"/>
@@ -17386,7 +17386,7 @@
       <c r="F179" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="G179" s="70"/>
+      <c r="G179" s="68"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="93"/>
@@ -17403,7 +17403,7 @@
         <v>492</v>
       </c>
       <c r="F180" s="95"/>
-      <c r="G180" s="70"/>
+      <c r="G180" s="68"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="93"/>
@@ -17420,7 +17420,7 @@
         <v>493</v>
       </c>
       <c r="F181" s="95"/>
-      <c r="G181" s="70"/>
+      <c r="G181" s="68"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="93"/>
@@ -17437,7 +17437,7 @@
         <v>494</v>
       </c>
       <c r="F182" s="95"/>
-      <c r="G182" s="70"/>
+      <c r="G182" s="68"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="93"/>
@@ -17454,7 +17454,7 @@
         <v>495</v>
       </c>
       <c r="F183" s="95"/>
-      <c r="G183" s="70"/>
+      <c r="G183" s="68"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="93"/>
@@ -17471,7 +17471,7 @@
         <v>496</v>
       </c>
       <c r="F184" s="95"/>
-      <c r="G184" s="70"/>
+      <c r="G184" s="68"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="93"/>
@@ -17488,7 +17488,7 @@
         <v>497</v>
       </c>
       <c r="F185" s="95"/>
-      <c r="G185" s="70"/>
+      <c r="G185" s="68"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="93"/>
@@ -17505,7 +17505,7 @@
         <v>498</v>
       </c>
       <c r="F186" s="96"/>
-      <c r="G186" s="70"/>
+      <c r="G186" s="68"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="93"/>
@@ -17520,7 +17520,7 @@
         <v>576</v>
       </c>
       <c r="F187" s="8"/>
-      <c r="G187" s="70"/>
+      <c r="G187" s="68"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
@@ -17537,7 +17537,7 @@
       <c r="F188" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G188" s="70"/>
+      <c r="G188" s="68"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="93">
@@ -17554,7 +17554,7 @@
         <v>575</v>
       </c>
       <c r="F189" s="8"/>
-      <c r="G189" s="70"/>
+      <c r="G189" s="68"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="93"/>
@@ -17573,7 +17573,7 @@
       <c r="F190" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="G190" s="70"/>
+      <c r="G190" s="68"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="93"/>
@@ -17590,7 +17590,7 @@
         <v>500</v>
       </c>
       <c r="F191" s="95"/>
-      <c r="G191" s="70"/>
+      <c r="G191" s="68"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="93"/>
@@ -17607,7 +17607,7 @@
         <v>501</v>
       </c>
       <c r="F192" s="95"/>
-      <c r="G192" s="70"/>
+      <c r="G192" s="68"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="93"/>
@@ -17624,7 +17624,7 @@
         <v>502</v>
       </c>
       <c r="F193" s="95"/>
-      <c r="G193" s="70"/>
+      <c r="G193" s="68"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="93"/>
@@ -17641,7 +17641,7 @@
         <v>522</v>
       </c>
       <c r="F194" s="95"/>
-      <c r="G194" s="70"/>
+      <c r="G194" s="68"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="93"/>
@@ -17658,7 +17658,7 @@
         <v>5</v>
       </c>
       <c r="F195" s="95"/>
-      <c r="G195" s="70"/>
+      <c r="G195" s="68"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="93"/>
@@ -17675,7 +17675,7 @@
         <v>6</v>
       </c>
       <c r="F196" s="95"/>
-      <c r="G196" s="70"/>
+      <c r="G196" s="68"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="93"/>
@@ -17692,7 +17692,7 @@
         <v>523</v>
       </c>
       <c r="F197" s="96"/>
-      <c r="G197" s="70"/>
+      <c r="G197" s="68"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="93"/>
@@ -17707,10 +17707,45 @@
         <v>576</v>
       </c>
       <c r="F198" s="8"/>
-      <c r="G198" s="70"/>
+      <c r="G198" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G12:G44"/>
+    <mergeCell ref="G45:G66"/>
+    <mergeCell ref="G67:G77"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="F80:F87"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="A134:A143"/>
+    <mergeCell ref="F135:F138"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="F91:F98"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="F113:F120"/>
+    <mergeCell ref="F102:F103"/>
     <mergeCell ref="G144:G176"/>
     <mergeCell ref="G133:G143"/>
     <mergeCell ref="A178:A187"/>
@@ -17724,41 +17759,6 @@
     <mergeCell ref="F157:F164"/>
     <mergeCell ref="A167:A176"/>
     <mergeCell ref="F168:F171"/>
-    <mergeCell ref="A123:A132"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="A134:A143"/>
-    <mergeCell ref="F135:F138"/>
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="F91:F98"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="F113:F120"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G45:G66"/>
-    <mergeCell ref="G67:G77"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="F80:F87"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G12:G44"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18059,8 +18059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18094,7 +18094,7 @@
         <v>768</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -18105,7 +18105,7 @@
         <v>768</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -18116,7 +18116,7 @@
         <v>768</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -18178,49 +18178,49 @@
         <v>819</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1064</v>
+        <v>1107</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -18243,49 +18243,49 @@
         <v>820</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="Q4" s="1">
         <v>2</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -18312,38 +18312,38 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -18371,38 +18371,38 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q6" s="1">
         <v>4</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="W6" s="1"/>
     </row>
@@ -18430,34 +18430,34 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O7" s="1"/>
       <c r="Q7" s="1">
         <v>5</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="W7" s="1"/>
     </row>
@@ -18485,34 +18485,34 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O8" s="1"/>
       <c r="Q8" s="1">
         <v>6</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="W8" s="1"/>
     </row>
@@ -18540,34 +18540,34 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O9" s="1"/>
       <c r="Q9" s="1">
         <v>7</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -18595,34 +18595,34 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O10" s="1"/>
       <c r="Q10" s="1">
         <v>8</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -18650,34 +18650,34 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O11" s="1"/>
       <c r="Q11" s="1">
         <v>9</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -19330,16 +19330,16 @@
       <c r="C43" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>997</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
         <v>960</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">

--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="1146">
   <si>
     <t>序号</t>
   </si>
@@ -3542,6 +3542,10 @@
     <t>钢片25结果</t>
   </si>
   <si>
+    <t>急停信号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>M100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3759,6 +3763,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>检测正反工位RDY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>检测钢片工位RDY</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3912,11 +3920,145 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>急停信号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测正反工位RDY</t>
+    <t>下膜夹爪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶针气缸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源控制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源控制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB上料确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>膜上料确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片空盘取走确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB下料确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片上料确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片退料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB上料轴伺服报警</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>膜上料轴伺服报警</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片左轴伺服报警</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片右轴伺服报警</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB下料轴伺服报警</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOIX轴伺服报警</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOIY轴伺服报警</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手1暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手2暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4020</t>
+  </si>
+  <si>
+    <t>M4021</t>
+  </si>
+  <si>
+    <t>M4023</t>
+  </si>
+  <si>
+    <t>M4024</t>
+  </si>
+  <si>
+    <t>M4025</t>
+  </si>
+  <si>
+    <t>M4026</t>
+  </si>
+  <si>
+    <t>M4027</t>
+  </si>
+  <si>
+    <t>M4029</t>
+  </si>
+  <si>
+    <t>M4030</t>
+  </si>
+  <si>
+    <t>M4031</t>
+  </si>
+  <si>
+    <t>等待PCB板上料篮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待胶上料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待钢片上料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待钢片空盘取走</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待PCB板下料篮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4028</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4022</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量到达设定值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量到达设定值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4569,16 +4711,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4590,10 +4729,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4603,15 +4751,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4631,6 +4770,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6186,8 +6328,8 @@
   </sheetPr>
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6205,12 +6347,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -6219,10 +6361,10 @@
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="22.5">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -6684,7 +6826,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="70" t="s">
         <v>139</v>
       </c>
       <c r="K20" s="6"/>
@@ -6707,7 +6849,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="68"/>
+      <c r="J21" s="70"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
@@ -6730,7 +6872,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="68"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
@@ -6751,7 +6893,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="68"/>
+      <c r="J23" s="70"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
@@ -6772,7 +6914,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="68"/>
+      <c r="J24" s="70"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
@@ -6795,7 +6937,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="68"/>
+      <c r="J25" s="70"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
@@ -6816,7 +6958,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="68"/>
+      <c r="J26" s="70"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
@@ -6837,7 +6979,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="68"/>
+      <c r="J27" s="70"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
@@ -6860,7 +7002,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="68"/>
+      <c r="J28" s="70"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11">
@@ -6881,7 +7023,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="68"/>
+      <c r="J29" s="70"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
@@ -6902,7 +7044,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="68"/>
+      <c r="J30" s="70"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11">
@@ -6925,7 +7067,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="68"/>
+      <c r="J31" s="70"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11">
@@ -6946,7 +7088,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="68"/>
+      <c r="J32" s="70"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11">
@@ -6967,7 +7109,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="68"/>
+      <c r="J33" s="70"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11">
@@ -6990,7 +7132,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="68"/>
+      <c r="J34" s="70"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
@@ -7011,7 +7153,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="68"/>
+      <c r="J35" s="70"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11">
@@ -7032,7 +7174,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="68" t="s">
+      <c r="J36" s="70" t="s">
         <v>139</v>
       </c>
       <c r="K36" s="6"/>
@@ -7057,7 +7199,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="68"/>
+      <c r="J37" s="70"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
@@ -7078,7 +7220,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="68"/>
+      <c r="J38" s="70"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
@@ -7099,7 +7241,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="68"/>
+      <c r="J39" s="70"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11">
@@ -7120,7 +7262,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="68"/>
+      <c r="J40" s="70"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11">
@@ -7141,7 +7283,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="68"/>
+      <c r="J41" s="70"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11">
@@ -7157,14 +7299,14 @@
       <c r="D42" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="70" t="s">
         <v>723</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="68"/>
+      <c r="J42" s="70"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
@@ -7180,12 +7322,12 @@
       <c r="D43" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E43" s="68"/>
+      <c r="E43" s="70"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="68"/>
+      <c r="J43" s="70"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
@@ -7201,14 +7343,14 @@
       <c r="D44" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E44" s="68" t="s">
+      <c r="E44" s="70" t="s">
         <v>724</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="68"/>
+      <c r="J44" s="70"/>
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11">
@@ -7224,12 +7366,12 @@
       <c r="D45" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="E45" s="68"/>
+      <c r="E45" s="70"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="68"/>
+      <c r="J45" s="70"/>
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
@@ -7245,12 +7387,12 @@
       <c r="D46" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="E46" s="68"/>
+      <c r="E46" s="70"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="68"/>
+      <c r="J46" s="70"/>
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11">
@@ -7266,12 +7408,12 @@
       <c r="D47" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E47" s="68"/>
+      <c r="E47" s="70"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="68"/>
+      <c r="J47" s="70"/>
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11">
@@ -7287,12 +7429,12 @@
       <c r="D48" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="E48" s="68"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="68"/>
+      <c r="J48" s="70"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11">
@@ -7308,12 +7450,12 @@
       <c r="D49" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E49" s="68"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="68"/>
+      <c r="J49" s="70"/>
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11">
@@ -7329,14 +7471,14 @@
       <c r="D50" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E50" s="68" t="s">
+      <c r="E50" s="70" t="s">
         <v>725</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="68"/>
+      <c r="J50" s="70"/>
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11">
@@ -7352,12 +7494,12 @@
       <c r="D51" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E51" s="68"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="68"/>
+      <c r="J51" s="70"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11">
@@ -7373,12 +7515,12 @@
       <c r="D52" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="E52" s="68"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="68" t="s">
+      <c r="J52" s="70" t="s">
         <v>140</v>
       </c>
       <c r="K52" s="6"/>
@@ -7396,12 +7538,12 @@
       <c r="D53" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="E53" s="68"/>
+      <c r="E53" s="70"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="68"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11">
@@ -7417,12 +7559,12 @@
       <c r="D54" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="E54" s="68"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="68"/>
+      <c r="J54" s="70"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11">
@@ -7438,12 +7580,12 @@
       <c r="D55" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="E55" s="68"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="68"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11">
@@ -7459,12 +7601,12 @@
       <c r="D56" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="E56" s="68"/>
+      <c r="E56" s="70"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="68"/>
+      <c r="J56" s="70"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11">
@@ -7478,12 +7620,12 @@
         <v>80</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="68"/>
+      <c r="E57" s="70"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="68"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11">
@@ -7499,14 +7641,14 @@
       <c r="D58" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E58" s="68" t="s">
-        <v>1098</v>
+      <c r="E58" s="70" t="s">
+        <v>1100</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="68"/>
+      <c r="J58" s="70"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11">
@@ -7522,12 +7664,12 @@
       <c r="D59" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E59" s="68"/>
+      <c r="E59" s="70"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="68"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11">
@@ -7543,12 +7685,12 @@
       <c r="D60" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="E60" s="68"/>
+      <c r="E60" s="70"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="68"/>
+      <c r="J60" s="70"/>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11">
@@ -7564,12 +7706,12 @@
       <c r="D61" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="E61" s="68"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="68"/>
+      <c r="J61" s="70"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="11">
@@ -7584,12 +7726,12 @@
       <c r="D62" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="E62" s="68"/>
+      <c r="E62" s="70"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="68"/>
+      <c r="J62" s="70"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="11">
@@ -7604,12 +7746,12 @@
       <c r="D63" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E63" s="68"/>
+      <c r="E63" s="70"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="68"/>
+      <c r="J63" s="70"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="11">
@@ -7624,12 +7766,12 @@
       <c r="D64" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E64" s="68"/>
+      <c r="E64" s="70"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="68"/>
+      <c r="J64" s="70"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="11">
@@ -7644,12 +7786,12 @@
       <c r="D65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="68"/>
+      <c r="E65" s="70"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="68"/>
+      <c r="J65" s="70"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="11">
@@ -7664,14 +7806,14 @@
       <c r="D66" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="E66" s="68" t="s">
+      <c r="E66" s="70" t="s">
         <v>503</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="68"/>
+      <c r="J66" s="70"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="11">
@@ -7686,12 +7828,12 @@
       <c r="D67" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E67" s="68"/>
+      <c r="E67" s="70"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="68"/>
+      <c r="J67" s="70"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="11">
@@ -7706,12 +7848,12 @@
       <c r="D68" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="E68" s="68"/>
+      <c r="E68" s="70"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="68" t="s">
+      <c r="J68" s="70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7728,12 +7870,12 @@
       <c r="D69" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E69" s="68"/>
+      <c r="E69" s="70"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="68"/>
+      <c r="J69" s="70"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="11">
@@ -7748,12 +7890,12 @@
       <c r="D70" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="E70" s="68"/>
+      <c r="E70" s="70"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="68"/>
+      <c r="J70" s="70"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="11">
@@ -7768,12 +7910,12 @@
       <c r="D71" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="E71" s="68"/>
+      <c r="E71" s="70"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="68"/>
+      <c r="J71" s="70"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="11">
@@ -7788,12 +7930,12 @@
       <c r="D72" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E72" s="68"/>
+      <c r="E72" s="70"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="68"/>
+      <c r="J72" s="70"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="11">
@@ -7808,12 +7950,12 @@
       <c r="D73" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E73" s="68"/>
+      <c r="E73" s="70"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="68"/>
+      <c r="J73" s="70"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="11">
@@ -7828,12 +7970,12 @@
       <c r="D74" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="E74" s="68"/>
+      <c r="E74" s="70"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="68"/>
+      <c r="J74" s="70"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="11">
@@ -7848,12 +7990,12 @@
       <c r="D75" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E75" s="68"/>
+      <c r="E75" s="70"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="68"/>
+      <c r="J75" s="70"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="11">
@@ -7868,12 +8010,12 @@
       <c r="D76" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E76" s="68"/>
+      <c r="E76" s="70"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="68"/>
+      <c r="J76" s="70"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="11">
@@ -7888,12 +8030,12 @@
       <c r="D77" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E77" s="68"/>
+      <c r="E77" s="70"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="68"/>
+      <c r="J77" s="70"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="11">
@@ -7906,14 +8048,14 @@
         <v>133</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="68"/>
+      <c r="J78" s="70"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="11">
@@ -7926,16 +8068,16 @@
         <v>134</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E79" s="70" t="s">
-        <v>1099</v>
+        <v>1098</v>
+      </c>
+      <c r="E79" s="74" t="s">
+        <v>1101</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="68"/>
+      <c r="J79" s="70"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="11">
@@ -7948,14 +8090,14 @@
         <v>135</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E80" s="71"/>
+        <v>1099</v>
+      </c>
+      <c r="E80" s="76"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="68"/>
+      <c r="J80" s="70"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="11">
@@ -7973,7 +8115,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="68"/>
+      <c r="J81" s="70"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="11">
@@ -7991,7 +8133,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="68"/>
+      <c r="J82" s="70"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="11">
@@ -8009,7 +8151,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="68"/>
+      <c r="J83" s="70"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="11">
@@ -8031,7 +8173,7 @@
       <c r="I84" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="J84" s="68" t="s">
+      <c r="J84" s="70" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8053,7 +8195,7 @@
         <v>706</v>
       </c>
       <c r="I85" s="69"/>
-      <c r="J85" s="68"/>
+      <c r="J85" s="70"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="11">
@@ -8073,7 +8215,7 @@
         <v>707</v>
       </c>
       <c r="I86" s="69"/>
-      <c r="J86" s="68"/>
+      <c r="J86" s="70"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="11">
@@ -8095,7 +8237,7 @@
       <c r="I87" s="69" t="s">
         <v>584</v>
       </c>
-      <c r="J87" s="68"/>
+      <c r="J87" s="70"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="11">
@@ -8115,7 +8257,7 @@
         <v>708</v>
       </c>
       <c r="I88" s="69"/>
-      <c r="J88" s="68"/>
+      <c r="J88" s="70"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="11">
@@ -8135,7 +8277,7 @@
         <v>707</v>
       </c>
       <c r="I89" s="69"/>
-      <c r="J89" s="68"/>
+      <c r="J89" s="70"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="11">
@@ -8157,7 +8299,7 @@
       <c r="I90" s="69" t="s">
         <v>727</v>
       </c>
-      <c r="J90" s="68"/>
+      <c r="J90" s="70"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="11">
@@ -8177,7 +8319,7 @@
         <v>426</v>
       </c>
       <c r="I91" s="69"/>
-      <c r="J91" s="68"/>
+      <c r="J91" s="70"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="11">
@@ -8197,7 +8339,7 @@
         <v>223</v>
       </c>
       <c r="I92" s="69"/>
-      <c r="J92" s="68"/>
+      <c r="J92" s="70"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="11">
@@ -8219,7 +8361,7 @@
       <c r="I93" s="69" t="s">
         <v>721</v>
       </c>
-      <c r="J93" s="68"/>
+      <c r="J93" s="70"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="11">
@@ -8239,7 +8381,7 @@
         <v>706</v>
       </c>
       <c r="I94" s="69"/>
-      <c r="J94" s="68"/>
+      <c r="J94" s="70"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="11">
@@ -8259,7 +8401,7 @@
         <v>707</v>
       </c>
       <c r="I95" s="69"/>
-      <c r="J95" s="68"/>
+      <c r="J95" s="70"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="11">
@@ -8281,7 +8423,7 @@
       <c r="I96" s="69" t="s">
         <v>728</v>
       </c>
-      <c r="J96" s="68"/>
+      <c r="J96" s="70"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="11">
@@ -8301,7 +8443,7 @@
         <v>706</v>
       </c>
       <c r="I97" s="69"/>
-      <c r="J97" s="68"/>
+      <c r="J97" s="70"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="11">
@@ -8321,7 +8463,7 @@
         <v>223</v>
       </c>
       <c r="I98" s="69"/>
-      <c r="J98" s="68"/>
+      <c r="J98" s="70"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="11">
@@ -8343,7 +8485,7 @@
       <c r="I99" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="J99" s="68"/>
+      <c r="J99" s="70"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="11">
@@ -8363,7 +8505,7 @@
         <v>711</v>
       </c>
       <c r="I100" s="69"/>
-      <c r="J100" s="68" t="s">
+      <c r="J100" s="70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8385,7 +8527,7 @@
         <v>223</v>
       </c>
       <c r="I101" s="69"/>
-      <c r="J101" s="68"/>
+      <c r="J101" s="70"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="11">
@@ -8407,7 +8549,7 @@
       <c r="I102" s="69" t="s">
         <v>599</v>
       </c>
-      <c r="J102" s="68"/>
+      <c r="J102" s="70"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="11">
@@ -8427,7 +8569,7 @@
         <v>706</v>
       </c>
       <c r="I103" s="69"/>
-      <c r="J103" s="68"/>
+      <c r="J103" s="70"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="11">
@@ -8447,7 +8589,7 @@
         <v>707</v>
       </c>
       <c r="I104" s="69"/>
-      <c r="J104" s="68"/>
+      <c r="J104" s="70"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="11">
@@ -8467,7 +8609,7 @@
         <v>712</v>
       </c>
       <c r="I105" s="69"/>
-      <c r="J105" s="68"/>
+      <c r="J105" s="70"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="11">
@@ -8489,7 +8631,7 @@
       <c r="I106" s="69" t="s">
         <v>477</v>
       </c>
-      <c r="J106" s="68"/>
+      <c r="J106" s="70"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="11">
@@ -8509,7 +8651,7 @@
         <v>711</v>
       </c>
       <c r="I107" s="69"/>
-      <c r="J107" s="68"/>
+      <c r="J107" s="70"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="11">
@@ -8531,7 +8673,7 @@
       <c r="I108" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="J108" s="68"/>
+      <c r="J108" s="70"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="11">
@@ -8553,7 +8695,7 @@
       <c r="I109" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="J109" s="68"/>
+      <c r="J109" s="70"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="11">
@@ -8575,7 +8717,7 @@
       <c r="I110" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="J110" s="68"/>
+      <c r="J110" s="70"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="11">
@@ -8597,7 +8739,7 @@
       <c r="I111" s="69" t="s">
         <v>734</v>
       </c>
-      <c r="J111" s="68"/>
+      <c r="J111" s="70"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="11">
@@ -8617,7 +8759,7 @@
         <v>715</v>
       </c>
       <c r="I112" s="69"/>
-      <c r="J112" s="68"/>
+      <c r="J112" s="70"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="11">
@@ -8637,7 +8779,7 @@
         <v>707</v>
       </c>
       <c r="I113" s="69"/>
-      <c r="J113" s="68"/>
+      <c r="J113" s="70"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="11">
@@ -8656,10 +8798,10 @@
       <c r="H114" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="I114" s="68" t="s">
+      <c r="I114" s="70" t="s">
         <v>732</v>
       </c>
-      <c r="J114" s="68"/>
+      <c r="J114" s="70"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="11">
@@ -8678,8 +8820,8 @@
       <c r="H115" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I115" s="68"/>
-      <c r="J115" s="68"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="11">
@@ -8698,8 +8840,8 @@
       <c r="H116" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I116" s="68"/>
-      <c r="J116" s="68" t="s">
+      <c r="I116" s="70"/>
+      <c r="J116" s="70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8720,8 +8862,8 @@
       <c r="H117" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="I117" s="68"/>
-      <c r="J117" s="68"/>
+      <c r="I117" s="70"/>
+      <c r="J117" s="70"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="11">
@@ -8740,8 +8882,8 @@
       <c r="H118" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I118" s="68"/>
-      <c r="J118" s="68"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="70"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="11">
@@ -8761,7 +8903,7 @@
         <v>625</v>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="68"/>
+      <c r="J119" s="70"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="11">
@@ -8781,7 +8923,7 @@
         <v>626</v>
       </c>
       <c r="I120" s="1"/>
-      <c r="J120" s="68"/>
+      <c r="J120" s="70"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="11">
@@ -8801,7 +8943,7 @@
         <v>719</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="68"/>
+      <c r="J121" s="70"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="11">
@@ -8820,10 +8962,10 @@
       <c r="H122" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="I122" s="70" t="s">
+      <c r="I122" s="74" t="s">
         <v>737</v>
       </c>
-      <c r="J122" s="68"/>
+      <c r="J122" s="70"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="11">
@@ -8842,8 +8984,8 @@
       <c r="H123" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="I123" s="76"/>
-      <c r="J123" s="68"/>
+      <c r="I123" s="75"/>
+      <c r="J123" s="70"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="11">
@@ -8862,8 +9004,8 @@
       <c r="H124" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="I124" s="71"/>
-      <c r="J124" s="68"/>
+      <c r="I124" s="76"/>
+      <c r="J124" s="70"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="11">
@@ -8885,7 +9027,7 @@
       <c r="I125" s="69" t="s">
         <v>740</v>
       </c>
-      <c r="J125" s="68"/>
+      <c r="J125" s="70"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="11">
@@ -8905,7 +9047,7 @@
         <v>741</v>
       </c>
       <c r="I126" s="69"/>
-      <c r="J126" s="68"/>
+      <c r="J126" s="70"/>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="11">
@@ -8925,7 +9067,7 @@
         <v>742</v>
       </c>
       <c r="I127" s="69"/>
-      <c r="J127" s="68"/>
+      <c r="J127" s="70"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="11">
@@ -8947,7 +9089,7 @@
       <c r="I128" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="J128" s="68"/>
+      <c r="J128" s="70"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="11">
@@ -8965,7 +9107,7 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="68"/>
+      <c r="J129" s="70"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="11">
@@ -8983,7 +9125,7 @@
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="68"/>
+      <c r="J130" s="70"/>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="11">
@@ -9001,7 +9143,7 @@
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="68"/>
+      <c r="J131" s="70"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="62"/>
@@ -9100,12 +9242,12 @@
       <c r="J139" s="63"/>
     </row>
     <row r="141" spans="1:10" ht="22.5">
-      <c r="A141" s="75" t="s">
+      <c r="A141" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B141" s="75"/>
-      <c r="C141" s="75"/>
-      <c r="D141" s="75"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -9114,10 +9256,10 @@
       <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:10" ht="22.5">
-      <c r="A142" s="75"/>
-      <c r="B142" s="75"/>
-      <c r="C142" s="75"/>
-      <c r="D142" s="75"/>
+      <c r="A142" s="68"/>
+      <c r="B142" s="68"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
       <c r="E142" s="9"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
@@ -9173,7 +9315,7 @@
         <v>223</v>
       </c>
       <c r="I144" s="60"/>
-      <c r="J144" s="72" t="s">
+      <c r="J144" s="71" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9199,7 +9341,7 @@
         <v>227</v>
       </c>
       <c r="I145" s="13"/>
-      <c r="J145" s="73"/>
+      <c r="J145" s="72"/>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="11">
@@ -9223,7 +9365,7 @@
         <v>224</v>
       </c>
       <c r="I146" s="13"/>
-      <c r="J146" s="73"/>
+      <c r="J146" s="72"/>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="11">
@@ -9243,9 +9385,11 @@
       <c r="G147" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="H147" s="10"/>
+      <c r="H147" s="10" t="s">
+        <v>1108</v>
+      </c>
       <c r="I147" s="13"/>
-      <c r="J147" s="73"/>
+      <c r="J147" s="72"/>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="11">
@@ -9265,9 +9409,11 @@
       <c r="G148" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H148" s="10"/>
+      <c r="H148" s="10" t="s">
+        <v>1109</v>
+      </c>
       <c r="I148" s="13"/>
-      <c r="J148" s="73"/>
+      <c r="J148" s="72"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="11">
@@ -9289,7 +9435,7 @@
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="13"/>
-      <c r="J149" s="73"/>
+      <c r="J149" s="72"/>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="11">
@@ -9311,7 +9457,7 @@
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="13"/>
-      <c r="J150" s="73"/>
+      <c r="J150" s="72"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="11">
@@ -9333,7 +9479,7 @@
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="73"/>
+      <c r="J151" s="72"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="11">
@@ -9355,7 +9501,7 @@
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="73"/>
+      <c r="J152" s="72"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="11">
@@ -9377,7 +9523,7 @@
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="73"/>
+      <c r="J153" s="72"/>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="11">
@@ -9399,7 +9545,7 @@
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="73"/>
+      <c r="J154" s="72"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="11">
@@ -9421,7 +9567,7 @@
       </c>
       <c r="H155" s="10"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="73"/>
+      <c r="J155" s="72"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="11">
@@ -9443,7 +9589,7 @@
       </c>
       <c r="H156" s="10"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="73"/>
+      <c r="J156" s="72"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="11">
@@ -9465,7 +9611,7 @@
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="73"/>
+      <c r="J157" s="72"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="11">
@@ -9487,7 +9633,7 @@
       </c>
       <c r="H158" s="10"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="73"/>
+      <c r="J158" s="72"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="11">
@@ -9507,9 +9653,11 @@
       <c r="G159" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="H159" s="10"/>
+      <c r="H159" s="10" t="s">
+        <v>1110</v>
+      </c>
       <c r="I159" s="13"/>
-      <c r="J159" s="73"/>
+      <c r="J159" s="72"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="11">
@@ -9527,7 +9675,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="73"/>
+      <c r="J160" s="72"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="11">
@@ -9545,7 +9693,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="73"/>
+      <c r="J161" s="72"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="11">
@@ -9563,7 +9711,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="73"/>
+      <c r="J162" s="72"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="11">
@@ -9581,7 +9729,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="73"/>
+      <c r="J163" s="72"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="11">
@@ -9599,7 +9747,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="73"/>
+      <c r="J164" s="72"/>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="11">
@@ -9617,7 +9765,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="73"/>
+      <c r="J165" s="72"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="11">
@@ -9635,7 +9783,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="73"/>
+      <c r="J166" s="72"/>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="11">
@@ -9653,15 +9801,15 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="61"/>
-      <c r="J167" s="74"/>
+      <c r="J167" s="73"/>
     </row>
     <row r="169" spans="1:10" ht="22.5">
-      <c r="A169" s="75" t="s">
+      <c r="A169" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B169" s="75"/>
-      <c r="C169" s="75"/>
-      <c r="D169" s="75"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="68"/>
+      <c r="D169" s="68"/>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
@@ -9670,10 +9818,10 @@
       <c r="J169" s="10"/>
     </row>
     <row r="170" spans="1:10" ht="22.5">
-      <c r="A170" s="75"/>
-      <c r="B170" s="75"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="75"/>
+      <c r="A170" s="68"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
       <c r="E170" s="9"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
@@ -9729,7 +9877,7 @@
         <v>228</v>
       </c>
       <c r="I172" s="60"/>
-      <c r="J172" s="72" t="s">
+      <c r="J172" s="71" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9757,7 +9905,7 @@
         <v>229</v>
       </c>
       <c r="I173" s="13"/>
-      <c r="J173" s="73"/>
+      <c r="J173" s="72"/>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="11">
@@ -9783,7 +9931,7 @@
         <v>230</v>
       </c>
       <c r="I174" s="13"/>
-      <c r="J174" s="73"/>
+      <c r="J174" s="72"/>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="11">
@@ -9809,7 +9957,7 @@
         <v>231</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="73"/>
+      <c r="J175" s="72"/>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="11">
@@ -9835,7 +9983,7 @@
         <v>232</v>
       </c>
       <c r="I176" s="13"/>
-      <c r="J176" s="73"/>
+      <c r="J176" s="72"/>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="11">
@@ -9859,7 +10007,7 @@
         <v>233</v>
       </c>
       <c r="I177" s="13"/>
-      <c r="J177" s="73"/>
+      <c r="J177" s="72"/>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="11">
@@ -9883,7 +10031,7 @@
         <v>234</v>
       </c>
       <c r="I178" s="13"/>
-      <c r="J178" s="73"/>
+      <c r="J178" s="72"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="11">
@@ -9907,7 +10055,7 @@
         <v>235</v>
       </c>
       <c r="I179" s="13"/>
-      <c r="J179" s="73"/>
+      <c r="J179" s="72"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="11">
@@ -9931,7 +10079,7 @@
         <v>236</v>
       </c>
       <c r="I180" s="13"/>
-      <c r="J180" s="73"/>
+      <c r="J180" s="72"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="11">
@@ -9955,7 +10103,7 @@
         <v>237</v>
       </c>
       <c r="I181" s="13"/>
-      <c r="J181" s="73"/>
+      <c r="J181" s="72"/>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="11">
@@ -9979,7 +10127,7 @@
         <v>238</v>
       </c>
       <c r="I182" s="13"/>
-      <c r="J182" s="73"/>
+      <c r="J182" s="72"/>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="11">
@@ -10003,7 +10151,7 @@
         <v>239</v>
       </c>
       <c r="I183" s="13"/>
-      <c r="J183" s="73"/>
+      <c r="J183" s="72"/>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="11">
@@ -10027,7 +10175,7 @@
         <v>240</v>
       </c>
       <c r="I184" s="13"/>
-      <c r="J184" s="73"/>
+      <c r="J184" s="72"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="11">
@@ -10051,7 +10199,7 @@
         <v>241</v>
       </c>
       <c r="I185" s="13"/>
-      <c r="J185" s="73"/>
+      <c r="J185" s="72"/>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="11">
@@ -10075,7 +10223,7 @@
         <v>242</v>
       </c>
       <c r="I186" s="13"/>
-      <c r="J186" s="73"/>
+      <c r="J186" s="72"/>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="11">
@@ -10095,9 +10243,11 @@
       <c r="G187" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="H187" s="10"/>
+      <c r="H187" s="10" t="s">
+        <v>1111</v>
+      </c>
       <c r="I187" s="13"/>
-      <c r="J187" s="73"/>
+      <c r="J187" s="72"/>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="11">
@@ -10115,7 +10265,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="73"/>
+      <c r="J188" s="72"/>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="11">
@@ -10133,7 +10283,7 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="73"/>
+      <c r="J189" s="72"/>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="11">
@@ -10151,7 +10301,7 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="73"/>
+      <c r="J190" s="72"/>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="11">
@@ -10169,7 +10319,7 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="73"/>
+      <c r="J191" s="72"/>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="11">
@@ -10187,7 +10337,7 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="73"/>
+      <c r="J192" s="72"/>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="11">
@@ -10205,7 +10355,7 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="73"/>
+      <c r="J193" s="72"/>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="11">
@@ -10223,7 +10373,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="73"/>
+      <c r="J194" s="72"/>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="11">
@@ -10241,10 +10391,37 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
       <c r="I195" s="61"/>
-      <c r="J195" s="74"/>
+      <c r="J195" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="J172:J195"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I4:I15"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="J68:J83"/>
+    <mergeCell ref="J84:J99"/>
+    <mergeCell ref="J100:J115"/>
+    <mergeCell ref="J116:J131"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="I125:I127"/>
+    <mergeCell ref="A141:D142"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="J144:J167"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I122:I124"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="J4:J19"/>
     <mergeCell ref="J20:J35"/>
@@ -10261,33 +10438,6 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="E37:E41"/>
-    <mergeCell ref="A141:D142"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="J144:J167"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="I122:I124"/>
-    <mergeCell ref="J172:J195"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I4:I15"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="J68:J83"/>
-    <mergeCell ref="J84:J99"/>
-    <mergeCell ref="J100:J115"/>
-    <mergeCell ref="J116:J131"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="I125:I127"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="E50:E57"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I102:I105"/>
-    <mergeCell ref="E79:E80"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10297,10 +10447,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10356,6 +10506,95 @@
       </c>
       <c r="E5">
         <v>103.616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>211.11500000000001</v>
+      </c>
+      <c r="B14">
+        <v>210.995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <f>A14-B14</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="B15">
+        <f>A15/4</f>
+        <v>3.0000000000001137E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18">
+        <v>271.54300000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19">
+        <f>E18-26</f>
+        <v>245.54300000000001</v>
+      </c>
+      <c r="F19">
+        <v>245.54300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20">
+        <f t="shared" ref="E20:E27" si="0">E19-26</f>
+        <v>219.54300000000001</v>
+      </c>
+      <c r="F20">
+        <v>219.54300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21">
+        <f>E20-26</f>
+        <v>193.54300000000001</v>
+      </c>
+      <c r="F21">
+        <v>193.54300000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>167.54300000000001</v>
+      </c>
+      <c r="F22">
+        <v>167.54300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>141.54300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>115.54300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>89.543000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>63.543000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>37.543000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -10367,10 +10606,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10380,47 +10619,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B3" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B4" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>492</v>
@@ -10428,7 +10667,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>493</v>
@@ -10436,83 +10675,197 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>1075</v>
+      <c r="A9" s="1" t="s">
+        <v>1077</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>1076</v>
+      <c r="A10" s="1" t="s">
+        <v>1078</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>1077</v>
+      <c r="A11" s="1" t="s">
+        <v>1079</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>1078</v>
+      <c r="A12" s="1" t="s">
+        <v>1080</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>1079</v>
+      <c r="A13" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>1080</v>
+      <c r="A14" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>1081</v>
+      <c r="A15" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A16" s="1" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B16" s="10" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B17" s="10" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>1086</v>
       </c>
+      <c r="B18" s="10" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10568,12 +10921,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -10587,10 +10940,10 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="21" t="s">
         <v>526</v>
       </c>
@@ -10604,20 +10957,20 @@
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="86"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="25">
         <v>20170818</v>
       </c>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="25" t="s">
         <v>525</v>
       </c>
@@ -10629,18 +10982,18 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="22"/>
       <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -10650,10 +11003,10 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="K5" s="86"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="29"/>
       <c r="M5" s="33"/>
     </row>
@@ -10679,14 +11032,14 @@
       <c r="B7" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80" t="s">
+      <c r="D7" s="88"/>
+      <c r="E7" s="88" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="88"/>
       <c r="G7" s="38" t="s">
         <v>268</v>
       </c>
@@ -10702,17 +11055,17 @@
       <c r="K7" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="M7" s="81"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="40">
         <v>1</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="78" t="s">
         <v>274</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -10740,7 +11093,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="41"/>
-      <c r="C9" s="82"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="48" t="s">
         <v>278</v>
       </c>
@@ -10768,7 +11121,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="82"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="48" t="s">
         <v>541</v>
       </c>
@@ -10796,7 +11149,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="82"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="48" t="s">
         <v>280</v>
       </c>
@@ -10824,7 +11177,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="41"/>
-      <c r="C12" s="82"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="48" t="s">
         <v>280</v>
       </c>
@@ -10851,7 +11204,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="82"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="50" t="s">
         <v>544</v>
       </c>
@@ -10878,7 +11231,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="41"/>
-      <c r="C14" s="82"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="41" t="s">
         <v>282</v>
       </c>
@@ -10905,7 +11258,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="82"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="50" t="s">
         <v>285</v>
       </c>
@@ -10932,7 +11285,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="41"/>
-      <c r="C16" s="82"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="50" t="s">
         <v>287</v>
       </c>
@@ -10957,7 +11310,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="82"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="50" t="s">
         <v>287</v>
       </c>
@@ -10982,7 +11335,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="82"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="51" t="s">
         <v>290</v>
       </c>
@@ -11009,7 +11362,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="41"/>
-      <c r="C19" s="82"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="50" t="s">
         <v>293</v>
       </c>
@@ -11036,16 +11389,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="82"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="50" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="41" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H20" s="41">
         <v>1</v>
@@ -11056,7 +11409,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="45"/>
       <c r="L20" s="56" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="M20" s="43"/>
     </row>
@@ -11092,7 +11445,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="41"/>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="77" t="s">
         <v>658</v>
       </c>
       <c r="D22" s="50" t="s">
@@ -11121,7 +11474,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="51" t="s">
         <v>651</v>
       </c>
@@ -11146,7 +11499,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="50" t="s">
         <v>653</v>
       </c>
@@ -11171,7 +11524,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="41"/>
-      <c r="C25" s="80"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="50" t="s">
         <v>653</v>
       </c>
@@ -11196,7 +11549,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="41"/>
-      <c r="C26" s="80"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="50" t="s">
         <v>654</v>
       </c>
@@ -11221,7 +11574,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="41"/>
-      <c r="C27" s="80"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="50" t="s">
         <v>656</v>
       </c>
@@ -11271,7 +11624,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="41"/>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="79" t="s">
         <v>298</v>
       </c>
       <c r="D29" s="53" t="s">
@@ -11300,7 +11653,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="41"/>
-      <c r="C30" s="77"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="53" t="s">
         <v>530</v>
       </c>
@@ -11327,7 +11680,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="41"/>
-      <c r="C31" s="77"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="53" t="s">
         <v>532</v>
       </c>
@@ -11354,7 +11707,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="41"/>
-      <c r="C32" s="77"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="53" t="s">
         <v>534</v>
       </c>
@@ -11381,7 +11734,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="41"/>
-      <c r="C33" s="77"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="53" t="s">
         <v>536</v>
       </c>
@@ -11408,7 +11761,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="41"/>
-      <c r="C34" s="77"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="53" t="s">
         <v>537</v>
       </c>
@@ -11433,7 +11786,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="41"/>
-      <c r="C35" s="77"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="53" t="s">
         <v>539</v>
       </c>
@@ -11458,7 +11811,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="41"/>
-      <c r="C36" s="77"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="53" t="s">
         <v>300</v>
       </c>
@@ -11485,7 +11838,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="41"/>
-      <c r="C37" s="77"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="53" t="s">
         <v>304</v>
       </c>
@@ -11512,7 +11865,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="41"/>
-      <c r="C38" s="77"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="53" t="s">
         <v>557</v>
       </c>
@@ -11537,7 +11890,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="41"/>
-      <c r="C39" s="77"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="53" t="s">
         <v>305</v>
       </c>
@@ -11564,7 +11917,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="41"/>
-      <c r="C40" s="77"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="53" t="s">
         <v>305</v>
       </c>
@@ -11591,7 +11944,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="41"/>
-      <c r="C41" s="77"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="49" t="s">
         <v>306</v>
       </c>
@@ -11618,7 +11971,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="41"/>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="80" t="s">
         <v>307</v>
       </c>
       <c r="D42" s="49" t="s">
@@ -11647,7 +12000,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="41"/>
-      <c r="C43" s="79"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="49" t="s">
         <v>311</v>
       </c>
@@ -11674,7 +12027,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="41"/>
-      <c r="C44" s="79"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="49" t="s">
         <v>313</v>
       </c>
@@ -11701,7 +12054,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="41"/>
-      <c r="C45" s="79"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="49" t="s">
         <v>316</v>
       </c>
@@ -11728,7 +12081,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="41"/>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="79" t="s">
         <v>319</v>
       </c>
       <c r="D46" s="49" t="s">
@@ -11757,7 +12110,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="41"/>
-      <c r="C47" s="77"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="49" t="s">
         <v>322</v>
       </c>
@@ -11782,7 +12135,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="41"/>
-      <c r="C48" s="77"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="49" t="s">
         <v>324</v>
       </c>
@@ -11809,7 +12162,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="41"/>
-      <c r="C49" s="77"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="49" t="s">
         <v>42</v>
       </c>
@@ -11836,7 +12189,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="41"/>
-      <c r="C50" s="77"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="49" t="s">
         <v>327</v>
       </c>
@@ -11859,7 +12212,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="41"/>
-      <c r="C51" s="77"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="49" t="s">
         <v>328</v>
       </c>
@@ -11882,7 +12235,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="41"/>
-      <c r="C52" s="77"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="49" t="s">
         <v>329</v>
       </c>
@@ -11909,7 +12262,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="41"/>
-      <c r="C53" s="77"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="49" t="s">
         <v>331</v>
       </c>
@@ -11932,7 +12285,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="41"/>
-      <c r="C54" s="77"/>
+      <c r="C54" s="79"/>
       <c r="D54" s="49" t="s">
         <v>332</v>
       </c>
@@ -11957,7 +12310,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="41"/>
-      <c r="C55" s="77"/>
+      <c r="C55" s="79"/>
       <c r="D55" s="49" t="s">
         <v>334</v>
       </c>
@@ -11982,7 +12335,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="41"/>
-      <c r="C56" s="77"/>
+      <c r="C56" s="79"/>
       <c r="D56" s="49" t="s">
         <v>336</v>
       </c>
@@ -12009,7 +12362,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="41"/>
-      <c r="C57" s="77"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="49" t="s">
         <v>336</v>
       </c>
@@ -12036,7 +12389,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="41"/>
-      <c r="C58" s="77"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="49" t="s">
         <v>339</v>
       </c>
@@ -12063,7 +12416,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="41"/>
-      <c r="C59" s="77"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="49" t="s">
         <v>342</v>
       </c>
@@ -12090,7 +12443,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="41"/>
-      <c r="C60" s="77"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="49" t="s">
         <v>344</v>
       </c>
@@ -12117,7 +12470,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="41"/>
-      <c r="C61" s="77"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="49" t="s">
         <v>345</v>
       </c>
@@ -12144,7 +12497,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="41"/>
-      <c r="C62" s="77"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="49" t="s">
         <v>347</v>
       </c>
@@ -12171,7 +12524,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="41"/>
-      <c r="C63" s="77"/>
+      <c r="C63" s="79"/>
       <c r="D63" s="49" t="s">
         <v>345</v>
       </c>
@@ -12198,7 +12551,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="41"/>
-      <c r="C64" s="77"/>
+      <c r="C64" s="79"/>
       <c r="D64" s="49" t="s">
         <v>347</v>
       </c>
@@ -12225,12 +12578,12 @@
         <v>58</v>
       </c>
       <c r="B65" s="41"/>
-      <c r="C65" s="77"/>
+      <c r="C65" s="79"/>
       <c r="D65" s="49" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E65" s="54" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F65" s="55"/>
       <c r="G65" s="49" t="s">
@@ -12252,7 +12605,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="41"/>
-      <c r="C66" s="77"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="49" t="s">
         <v>349</v>
       </c>
@@ -12279,7 +12632,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="41"/>
-      <c r="C67" s="77"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="49" t="s">
         <v>352</v>
       </c>
@@ -12308,7 +12661,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="41"/>
-      <c r="C68" s="77"/>
+      <c r="C68" s="79"/>
       <c r="D68" s="49" t="s">
         <v>356</v>
       </c>
@@ -12333,7 +12686,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="41"/>
-      <c r="C69" s="77"/>
+      <c r="C69" s="79"/>
       <c r="D69" s="49" t="s">
         <v>364</v>
       </c>
@@ -12360,7 +12713,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="41"/>
-      <c r="C70" s="77"/>
+      <c r="C70" s="79"/>
       <c r="D70" s="49" t="s">
         <v>367</v>
       </c>
@@ -12387,7 +12740,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="41"/>
-      <c r="C71" s="77"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="49" t="s">
         <v>358</v>
       </c>
@@ -12412,7 +12765,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="41"/>
-      <c r="C72" s="77"/>
+      <c r="C72" s="79"/>
       <c r="D72" s="49" t="s">
         <v>360</v>
       </c>
@@ -12437,7 +12790,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="41"/>
-      <c r="C73" s="77"/>
+      <c r="C73" s="79"/>
       <c r="D73" s="49" t="s">
         <v>361</v>
       </c>
@@ -12462,7 +12815,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="41"/>
-      <c r="C74" s="77"/>
+      <c r="C74" s="79"/>
       <c r="D74" s="49" t="s">
         <v>363</v>
       </c>
@@ -12487,7 +12840,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="41"/>
-      <c r="C75" s="78" t="s">
+      <c r="C75" s="80" t="s">
         <v>369</v>
       </c>
       <c r="D75" s="49" t="s">
@@ -12516,7 +12869,7 @@
         <v>69</v>
       </c>
       <c r="B76" s="41"/>
-      <c r="C76" s="79"/>
+      <c r="C76" s="81"/>
       <c r="D76" s="49" t="s">
         <v>370</v>
       </c>
@@ -12543,7 +12896,7 @@
         <v>70</v>
       </c>
       <c r="B77" s="41"/>
-      <c r="C77" s="79"/>
+      <c r="C77" s="81"/>
       <c r="D77" s="49" t="s">
         <v>370</v>
       </c>
@@ -12570,7 +12923,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="41"/>
-      <c r="C78" s="79"/>
+      <c r="C78" s="81"/>
       <c r="D78" s="49" t="s">
         <v>370</v>
       </c>
@@ -12597,7 +12950,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="41"/>
-      <c r="C79" s="79"/>
+      <c r="C79" s="81"/>
       <c r="D79" s="49" t="s">
         <v>371</v>
       </c>
@@ -12624,7 +12977,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="41"/>
-      <c r="C80" s="79"/>
+      <c r="C80" s="81"/>
       <c r="D80" s="49" t="s">
         <v>225</v>
       </c>
@@ -12651,7 +13004,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="41"/>
-      <c r="C81" s="77"/>
+      <c r="C81" s="79"/>
       <c r="D81" s="49" t="s">
         <v>375</v>
       </c>
@@ -12676,7 +13029,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="41"/>
-      <c r="C82" s="77"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="49" t="s">
         <v>376</v>
       </c>
@@ -12701,7 +13054,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="41"/>
-      <c r="C83" s="77"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="49" t="s">
         <v>378</v>
       </c>
@@ -12724,7 +13077,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="41"/>
-      <c r="C84" s="77"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="49" t="s">
         <v>379</v>
       </c>
@@ -12747,7 +13100,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="41"/>
-      <c r="C85" s="77"/>
+      <c r="C85" s="79"/>
       <c r="D85" s="49" t="s">
         <v>380</v>
       </c>
@@ -12768,7 +13121,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="41"/>
-      <c r="C86" s="77"/>
+      <c r="C86" s="79"/>
       <c r="D86" s="49" t="s">
         <v>382</v>
       </c>
@@ -12789,7 +13142,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="41"/>
-      <c r="C87" s="77"/>
+      <c r="C87" s="79"/>
       <c r="D87" s="49" t="s">
         <v>383</v>
       </c>
@@ -12810,7 +13163,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="41"/>
-      <c r="C88" s="77"/>
+      <c r="C88" s="79"/>
       <c r="D88" s="49" t="s">
         <v>384</v>
       </c>
@@ -12831,7 +13184,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="41"/>
-      <c r="C89" s="77"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="49" t="s">
         <v>385</v>
       </c>
@@ -12852,7 +13205,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="41"/>
-      <c r="C90" s="77"/>
+      <c r="C90" s="79"/>
       <c r="D90" s="49" t="s">
         <v>386</v>
       </c>
@@ -12873,7 +13226,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="41"/>
-      <c r="C91" s="77"/>
+      <c r="C91" s="79"/>
       <c r="D91" s="49" t="s">
         <v>387</v>
       </c>
@@ -12894,7 +13247,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="41"/>
-      <c r="C92" s="77"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="49" t="s">
         <v>388</v>
       </c>
@@ -12915,7 +13268,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="41"/>
-      <c r="C93" s="77"/>
+      <c r="C93" s="79"/>
       <c r="D93" s="49" t="s">
         <v>389</v>
       </c>
@@ -12936,7 +13289,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="41"/>
-      <c r="C94" s="77"/>
+      <c r="C94" s="79"/>
       <c r="D94" s="49" t="s">
         <v>390</v>
       </c>
@@ -12957,7 +13310,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="41"/>
-      <c r="C95" s="77"/>
+      <c r="C95" s="79"/>
       <c r="D95" s="49" t="s">
         <v>391</v>
       </c>
@@ -12978,7 +13331,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="41"/>
-      <c r="C96" s="77"/>
+      <c r="C96" s="79"/>
       <c r="D96" s="49" t="s">
         <v>392</v>
       </c>
@@ -12999,7 +13352,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="41"/>
-      <c r="C97" s="77"/>
+      <c r="C97" s="79"/>
       <c r="D97" s="49" t="s">
         <v>393</v>
       </c>
@@ -13020,7 +13373,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="41"/>
-      <c r="C98" s="77"/>
+      <c r="C98" s="79"/>
       <c r="D98" s="49" t="s">
         <v>394</v>
       </c>
@@ -13041,7 +13394,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="41"/>
-      <c r="C99" s="77"/>
+      <c r="C99" s="79"/>
       <c r="D99" s="49" t="s">
         <v>395</v>
       </c>
@@ -13062,7 +13415,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="41"/>
-      <c r="C100" s="77"/>
+      <c r="C100" s="79"/>
       <c r="D100" s="49" t="s">
         <v>396</v>
       </c>
@@ -13087,6 +13440,11 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="C46:C74"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C81:C100"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C20"/>
     <mergeCell ref="C29:C41"/>
@@ -13099,11 +13457,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C46:C74"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C81:C100"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -14446,14 +14799,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="L10:N10"/>
@@ -14464,6 +14809,14 @@
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="L28:N28"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14518,7 +14871,7 @@
       <c r="E2" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="70" t="s">
         <v>578</v>
       </c>
     </row>
@@ -14536,7 +14889,7 @@
       <c r="E3" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="93"/>
@@ -14552,7 +14905,7 @@
       <c r="E4" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="93"/>
@@ -14568,7 +14921,7 @@
       <c r="E5" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="93"/>
@@ -14584,7 +14937,7 @@
       <c r="E6" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="93"/>
@@ -14600,7 +14953,7 @@
       <c r="E7" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="93"/>
@@ -14616,7 +14969,7 @@
       <c r="E8" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="93"/>
@@ -14632,7 +14985,7 @@
       <c r="E9" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="93"/>
@@ -14648,7 +15001,7 @@
       <c r="E10" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="93"/>
@@ -14662,7 +15015,7 @@
       <c r="E11" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F11" s="68"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -14679,7 +15032,7 @@
       <c r="F12" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="70" t="s">
         <v>585</v>
       </c>
     </row>
@@ -14697,10 +15050,10 @@
       <c r="E13" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="70" t="s">
         <v>578</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="93"/>
@@ -14716,8 +15069,8 @@
       <c r="E14" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="93"/>
@@ -14733,8 +15086,8 @@
       <c r="E15" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="93"/>
@@ -14746,8 +15099,8 @@
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="93"/>
@@ -14759,8 +15112,8 @@
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="93"/>
@@ -14772,8 +15125,8 @@
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="93"/>
@@ -14785,8 +15138,8 @@
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="93"/>
@@ -14798,8 +15151,8 @@
       </c>
       <c r="D20" s="65"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="93"/>
@@ -14811,8 +15164,8 @@
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="93"/>
@@ -14826,8 +15179,8 @@
       <c r="E22" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -14844,7 +15197,7 @@
       <c r="F23" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="70"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="93">
@@ -14861,7 +15214,7 @@
         <v>575</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="68"/>
+      <c r="G24" s="70"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="93"/>
@@ -14877,10 +15230,10 @@
       <c r="E25" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="70" t="s">
         <v>582</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="93"/>
@@ -14896,8 +15249,8 @@
       <c r="E26" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="93"/>
@@ -14913,8 +15266,8 @@
       <c r="E27" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="93"/>
@@ -14930,8 +15283,8 @@
       <c r="E28" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="93"/>
@@ -14947,10 +15300,10 @@
       <c r="E29" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="70" t="s">
         <v>583</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="70"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="93"/>
@@ -14966,8 +15319,8 @@
       <c r="E30" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="93"/>
@@ -14983,8 +15336,8 @@
       <c r="E31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="93"/>
@@ -15003,7 +15356,7 @@
       <c r="F32" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="70"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="93"/>
@@ -15018,7 +15371,7 @@
         <v>576</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="68"/>
+      <c r="G33" s="70"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
@@ -15035,7 +15388,7 @@
       <c r="F34" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G34" s="68"/>
+      <c r="G34" s="70"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="93">
@@ -15052,7 +15405,7 @@
         <v>575</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="68"/>
+      <c r="G35" s="70"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="93"/>
@@ -15068,10 +15421,10 @@
       <c r="E36" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="G36" s="68"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="93"/>
@@ -15087,8 +15440,8 @@
       <c r="E37" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="93"/>
@@ -15104,10 +15457,10 @@
       <c r="E38" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="G38" s="68"/>
+      <c r="G38" s="70"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="93"/>
@@ -15123,8 +15476,8 @@
       <c r="E39" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="93"/>
@@ -15140,8 +15493,8 @@
       <c r="E40" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="93"/>
@@ -15157,10 +15510,10 @@
       <c r="E41" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="70" t="s">
         <v>471</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="70"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="93"/>
@@ -15176,8 +15529,8 @@
       <c r="E42" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="93"/>
@@ -15193,8 +15546,8 @@
       <c r="E43" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="93"/>
@@ -15209,7 +15562,7 @@
         <v>576</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="68"/>
+      <c r="G44" s="70"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
@@ -15226,7 +15579,7 @@
       <c r="F45" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G45" s="68" t="s">
+      <c r="G45" s="70" t="s">
         <v>602</v>
       </c>
     </row>
@@ -15245,7 +15598,7 @@
         <v>575</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="68"/>
+      <c r="G46" s="70"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="93"/>
@@ -15261,10 +15614,10 @@
       <c r="E47" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F47" s="70" t="s">
         <v>586</v>
       </c>
-      <c r="G47" s="68"/>
+      <c r="G47" s="70"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="93"/>
@@ -15280,8 +15633,8 @@
       <c r="E48" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="93"/>
@@ -15300,7 +15653,7 @@
       <c r="F49" s="69" t="s">
         <v>472</v>
       </c>
-      <c r="G49" s="68"/>
+      <c r="G49" s="70"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="93"/>
@@ -15317,7 +15670,7 @@
         <v>469</v>
       </c>
       <c r="F50" s="69"/>
-      <c r="G50" s="68"/>
+      <c r="G50" s="70"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="93"/>
@@ -15334,7 +15687,7 @@
         <v>470</v>
       </c>
       <c r="F51" s="69"/>
-      <c r="G51" s="68"/>
+      <c r="G51" s="70"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="93"/>
@@ -15350,10 +15703,10 @@
       <c r="E52" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="70" t="s">
         <v>587</v>
       </c>
-      <c r="G52" s="68"/>
+      <c r="G52" s="70"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="93"/>
@@ -15369,8 +15722,8 @@
       <c r="E53" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="93"/>
@@ -15386,8 +15739,8 @@
       <c r="E54" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="93"/>
@@ -15402,7 +15755,7 @@
         <v>576</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="68"/>
+      <c r="G55" s="70"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
@@ -15419,7 +15772,7 @@
       <c r="F56" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G56" s="68"/>
+      <c r="G56" s="70"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="93">
@@ -15436,7 +15789,7 @@
         <v>575</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="68"/>
+      <c r="G57" s="70"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="93"/>
@@ -15455,7 +15808,7 @@
       <c r="F58" s="94" t="s">
         <v>600</v>
       </c>
-      <c r="G58" s="68"/>
+      <c r="G58" s="70"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="93"/>
@@ -15472,7 +15825,7 @@
         <v>469</v>
       </c>
       <c r="F59" s="95"/>
-      <c r="G59" s="68"/>
+      <c r="G59" s="70"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="93"/>
@@ -15489,7 +15842,7 @@
         <v>470</v>
       </c>
       <c r="F60" s="95"/>
-      <c r="G60" s="68"/>
+      <c r="G60" s="70"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="93"/>
@@ -15506,7 +15859,7 @@
         <v>226</v>
       </c>
       <c r="F61" s="95"/>
-      <c r="G61" s="68"/>
+      <c r="G61" s="70"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="93"/>
@@ -15523,7 +15876,7 @@
         <v>593</v>
       </c>
       <c r="F62" s="95"/>
-      <c r="G62" s="68"/>
+      <c r="G62" s="70"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="93"/>
@@ -15540,7 +15893,7 @@
         <v>594</v>
       </c>
       <c r="F63" s="96"/>
-      <c r="G63" s="68"/>
+      <c r="G63" s="70"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="93"/>
@@ -15556,10 +15909,10 @@
       <c r="E64" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F64" s="70" t="s">
+      <c r="F64" s="74" t="s">
         <v>601</v>
       </c>
-      <c r="G64" s="68"/>
+      <c r="G64" s="70"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="93"/>
@@ -15575,8 +15928,8 @@
       <c r="E65" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F65" s="71"/>
-      <c r="G65" s="68"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="70"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="93"/>
@@ -15591,7 +15944,7 @@
         <v>576</v>
       </c>
       <c r="F66" s="8"/>
-      <c r="G66" s="68"/>
+      <c r="G66" s="70"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
@@ -15608,7 +15961,7 @@
       <c r="F67" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G67" s="68" t="s">
+      <c r="G67" s="70" t="s">
         <v>603</v>
       </c>
     </row>
@@ -15627,7 +15980,7 @@
         <v>575</v>
       </c>
       <c r="F68" s="8"/>
-      <c r="G68" s="68"/>
+      <c r="G68" s="70"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="93"/>
@@ -15646,7 +15999,7 @@
       <c r="F69" s="97" t="s">
         <v>600</v>
       </c>
-      <c r="G69" s="68"/>
+      <c r="G69" s="70"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="93"/>
@@ -15663,7 +16016,7 @@
         <v>598</v>
       </c>
       <c r="F70" s="97"/>
-      <c r="G70" s="68"/>
+      <c r="G70" s="70"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="93"/>
@@ -15680,7 +16033,7 @@
         <v>473</v>
       </c>
       <c r="F71" s="97"/>
-      <c r="G71" s="68"/>
+      <c r="G71" s="70"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="93"/>
@@ -15697,7 +16050,7 @@
         <v>474</v>
       </c>
       <c r="F72" s="97"/>
-      <c r="G72" s="68"/>
+      <c r="G72" s="70"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="93"/>
@@ -15710,7 +16063,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="10"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="68"/>
+      <c r="G73" s="70"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="93"/>
@@ -15723,7 +16076,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="10"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="68"/>
+      <c r="G74" s="70"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="93"/>
@@ -15736,7 +16089,7 @@
       <c r="D75" s="65"/>
       <c r="E75" s="10"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="68"/>
+      <c r="G75" s="70"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="93"/>
@@ -15749,7 +16102,7 @@
       <c r="D76" s="65"/>
       <c r="E76" s="10"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="68"/>
+      <c r="G76" s="70"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="93"/>
@@ -15764,7 +16117,7 @@
         <v>576</v>
       </c>
       <c r="F77" s="8"/>
-      <c r="G77" s="68"/>
+      <c r="G77" s="70"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
@@ -16628,7 +16981,7 @@
       <c r="F133" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G133" s="68" t="s">
+      <c r="G133" s="70" t="s">
         <v>624</v>
       </c>
     </row>
@@ -16647,7 +17000,7 @@
         <v>575</v>
       </c>
       <c r="F134" s="8"/>
-      <c r="G134" s="68"/>
+      <c r="G134" s="70"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="93"/>
@@ -16666,7 +17019,7 @@
       <c r="F135" s="94" t="s">
         <v>621</v>
       </c>
-      <c r="G135" s="68"/>
+      <c r="G135" s="70"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="93"/>
@@ -16683,7 +17036,7 @@
         <v>223</v>
       </c>
       <c r="F136" s="95"/>
-      <c r="G136" s="68"/>
+      <c r="G136" s="70"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="93"/>
@@ -16700,7 +17053,7 @@
         <v>227</v>
       </c>
       <c r="F137" s="95"/>
-      <c r="G137" s="68"/>
+      <c r="G137" s="70"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="93"/>
@@ -16717,7 +17070,7 @@
         <v>224</v>
       </c>
       <c r="F138" s="96"/>
-      <c r="G138" s="68"/>
+      <c r="G138" s="70"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="93"/>
@@ -16730,7 +17083,7 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="66"/>
-      <c r="G139" s="68"/>
+      <c r="G139" s="70"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="93"/>
@@ -16743,7 +17096,7 @@
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="66"/>
-      <c r="G140" s="68"/>
+      <c r="G140" s="70"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="93"/>
@@ -16756,7 +17109,7 @@
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="66"/>
-      <c r="G141" s="68"/>
+      <c r="G141" s="70"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="93"/>
@@ -16769,7 +17122,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="10"/>
       <c r="F142" s="66"/>
-      <c r="G142" s="68"/>
+      <c r="G142" s="70"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="93"/>
@@ -16784,7 +17137,7 @@
         <v>576</v>
       </c>
       <c r="F143" s="8"/>
-      <c r="G143" s="68"/>
+      <c r="G143" s="70"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
@@ -16801,7 +17154,7 @@
       <c r="F144" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G144" s="68" t="s">
+      <c r="G144" s="70" t="s">
         <v>623</v>
       </c>
     </row>
@@ -16820,7 +17173,7 @@
         <v>575</v>
       </c>
       <c r="F145" s="8"/>
-      <c r="G145" s="68"/>
+      <c r="G145" s="70"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="93"/>
@@ -16839,7 +17192,7 @@
       <c r="F146" s="94" t="s">
         <v>622</v>
       </c>
-      <c r="G146" s="68"/>
+      <c r="G146" s="70"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="93"/>
@@ -16856,7 +17209,7 @@
         <v>244</v>
       </c>
       <c r="F147" s="95"/>
-      <c r="G147" s="68"/>
+      <c r="G147" s="70"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="93"/>
@@ -16873,7 +17226,7 @@
         <v>245</v>
       </c>
       <c r="F148" s="95"/>
-      <c r="G148" s="68"/>
+      <c r="G148" s="70"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="93"/>
@@ -16890,7 +17243,7 @@
         <v>246</v>
       </c>
       <c r="F149" s="95"/>
-      <c r="G149" s="68"/>
+      <c r="G149" s="70"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="93"/>
@@ -16907,7 +17260,7 @@
         <v>247</v>
       </c>
       <c r="F150" s="95"/>
-      <c r="G150" s="68"/>
+      <c r="G150" s="70"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="93"/>
@@ -16924,7 +17277,7 @@
         <v>228</v>
       </c>
       <c r="F151" s="95"/>
-      <c r="G151" s="68"/>
+      <c r="G151" s="70"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="93"/>
@@ -16941,7 +17294,7 @@
         <v>229</v>
       </c>
       <c r="F152" s="95"/>
-      <c r="G152" s="68"/>
+      <c r="G152" s="70"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="93"/>
@@ -16958,7 +17311,7 @@
         <v>230</v>
       </c>
       <c r="F153" s="96"/>
-      <c r="G153" s="68"/>
+      <c r="G153" s="70"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="93"/>
@@ -16973,7 +17326,7 @@
         <v>576</v>
       </c>
       <c r="F154" s="8"/>
-      <c r="G154" s="68"/>
+      <c r="G154" s="70"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
@@ -16990,7 +17343,7 @@
       <c r="F155" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G155" s="68"/>
+      <c r="G155" s="70"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="93">
@@ -17007,7 +17360,7 @@
         <v>575</v>
       </c>
       <c r="F156" s="8"/>
-      <c r="G156" s="68"/>
+      <c r="G156" s="70"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="93"/>
@@ -17026,7 +17379,7 @@
       <c r="F157" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="G157" s="68"/>
+      <c r="G157" s="70"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="93"/>
@@ -17043,7 +17396,7 @@
         <v>232</v>
       </c>
       <c r="F158" s="97"/>
-      <c r="G158" s="68"/>
+      <c r="G158" s="70"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="93"/>
@@ -17060,7 +17413,7 @@
         <v>233</v>
       </c>
       <c r="F159" s="97"/>
-      <c r="G159" s="68"/>
+      <c r="G159" s="70"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="93"/>
@@ -17077,7 +17430,7 @@
         <v>234</v>
       </c>
       <c r="F160" s="97"/>
-      <c r="G160" s="68"/>
+      <c r="G160" s="70"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="93"/>
@@ -17094,7 +17447,7 @@
         <v>235</v>
       </c>
       <c r="F161" s="97"/>
-      <c r="G161" s="68"/>
+      <c r="G161" s="70"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="93"/>
@@ -17111,7 +17464,7 @@
         <v>236</v>
       </c>
       <c r="F162" s="97"/>
-      <c r="G162" s="68"/>
+      <c r="G162" s="70"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="93"/>
@@ -17128,7 +17481,7 @@
         <v>237</v>
       </c>
       <c r="F163" s="97"/>
-      <c r="G163" s="68"/>
+      <c r="G163" s="70"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="93"/>
@@ -17145,7 +17498,7 @@
         <v>238</v>
       </c>
       <c r="F164" s="97"/>
-      <c r="G164" s="68"/>
+      <c r="G164" s="70"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="93"/>
@@ -17160,7 +17513,7 @@
         <v>576</v>
       </c>
       <c r="F165" s="8"/>
-      <c r="G165" s="68"/>
+      <c r="G165" s="70"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
@@ -17177,7 +17530,7 @@
       <c r="F166" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G166" s="68"/>
+      <c r="G166" s="70"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="93">
@@ -17194,7 +17547,7 @@
         <v>575</v>
       </c>
       <c r="F167" s="8"/>
-      <c r="G167" s="68"/>
+      <c r="G167" s="70"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="93"/>
@@ -17213,7 +17566,7 @@
       <c r="F168" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="G168" s="68"/>
+      <c r="G168" s="70"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="93"/>
@@ -17230,7 +17583,7 @@
         <v>240</v>
       </c>
       <c r="F169" s="97"/>
-      <c r="G169" s="68"/>
+      <c r="G169" s="70"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="93"/>
@@ -17247,7 +17600,7 @@
         <v>241</v>
       </c>
       <c r="F170" s="97"/>
-      <c r="G170" s="68"/>
+      <c r="G170" s="70"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="93"/>
@@ -17264,7 +17617,7 @@
         <v>242</v>
       </c>
       <c r="F171" s="97"/>
-      <c r="G171" s="68"/>
+      <c r="G171" s="70"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="93"/>
@@ -17277,7 +17630,7 @@
       <c r="D172" s="12"/>
       <c r="E172" s="10"/>
       <c r="F172" s="66"/>
-      <c r="G172" s="68"/>
+      <c r="G172" s="70"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="93"/>
@@ -17290,7 +17643,7 @@
       <c r="D173" s="12"/>
       <c r="E173" s="10"/>
       <c r="F173" s="66"/>
-      <c r="G173" s="68"/>
+      <c r="G173" s="70"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="93"/>
@@ -17303,7 +17656,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="10"/>
       <c r="F174" s="66"/>
-      <c r="G174" s="68"/>
+      <c r="G174" s="70"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="93"/>
@@ -17316,7 +17669,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="10"/>
       <c r="F175" s="66"/>
-      <c r="G175" s="68"/>
+      <c r="G175" s="70"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="93"/>
@@ -17331,7 +17684,7 @@
         <v>576</v>
       </c>
       <c r="F176" s="8"/>
-      <c r="G176" s="68"/>
+      <c r="G176" s="70"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
@@ -17348,7 +17701,7 @@
       <c r="F177" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G177" s="68" t="s">
+      <c r="G177" s="70" t="s">
         <v>503</v>
       </c>
     </row>
@@ -17367,7 +17720,7 @@
         <v>575</v>
       </c>
       <c r="F178" s="8"/>
-      <c r="G178" s="68"/>
+      <c r="G178" s="70"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="93"/>
@@ -17386,7 +17739,7 @@
       <c r="F179" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="G179" s="68"/>
+      <c r="G179" s="70"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="93"/>
@@ -17403,7 +17756,7 @@
         <v>492</v>
       </c>
       <c r="F180" s="95"/>
-      <c r="G180" s="68"/>
+      <c r="G180" s="70"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="93"/>
@@ -17420,7 +17773,7 @@
         <v>493</v>
       </c>
       <c r="F181" s="95"/>
-      <c r="G181" s="68"/>
+      <c r="G181" s="70"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="93"/>
@@ -17437,7 +17790,7 @@
         <v>494</v>
       </c>
       <c r="F182" s="95"/>
-      <c r="G182" s="68"/>
+      <c r="G182" s="70"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="93"/>
@@ -17454,7 +17807,7 @@
         <v>495</v>
       </c>
       <c r="F183" s="95"/>
-      <c r="G183" s="68"/>
+      <c r="G183" s="70"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="93"/>
@@ -17471,7 +17824,7 @@
         <v>496</v>
       </c>
       <c r="F184" s="95"/>
-      <c r="G184" s="68"/>
+      <c r="G184" s="70"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="93"/>
@@ -17488,7 +17841,7 @@
         <v>497</v>
       </c>
       <c r="F185" s="95"/>
-      <c r="G185" s="68"/>
+      <c r="G185" s="70"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="93"/>
@@ -17505,7 +17858,7 @@
         <v>498</v>
       </c>
       <c r="F186" s="96"/>
-      <c r="G186" s="68"/>
+      <c r="G186" s="70"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="93"/>
@@ -17520,7 +17873,7 @@
         <v>576</v>
       </c>
       <c r="F187" s="8"/>
-      <c r="G187" s="68"/>
+      <c r="G187" s="70"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
@@ -17537,7 +17890,7 @@
       <c r="F188" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G188" s="68"/>
+      <c r="G188" s="70"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="93">
@@ -17554,7 +17907,7 @@
         <v>575</v>
       </c>
       <c r="F189" s="8"/>
-      <c r="G189" s="68"/>
+      <c r="G189" s="70"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="93"/>
@@ -17573,7 +17926,7 @@
       <c r="F190" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="G190" s="68"/>
+      <c r="G190" s="70"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="93"/>
@@ -17590,7 +17943,7 @@
         <v>500</v>
       </c>
       <c r="F191" s="95"/>
-      <c r="G191" s="68"/>
+      <c r="G191" s="70"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="93"/>
@@ -17607,7 +17960,7 @@
         <v>501</v>
       </c>
       <c r="F192" s="95"/>
-      <c r="G192" s="68"/>
+      <c r="G192" s="70"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="93"/>
@@ -17624,7 +17977,7 @@
         <v>502</v>
       </c>
       <c r="F193" s="95"/>
-      <c r="G193" s="68"/>
+      <c r="G193" s="70"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="93"/>
@@ -17641,7 +17994,7 @@
         <v>522</v>
       </c>
       <c r="F194" s="95"/>
-      <c r="G194" s="68"/>
+      <c r="G194" s="70"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="93"/>
@@ -17658,7 +18011,7 @@
         <v>5</v>
       </c>
       <c r="F195" s="95"/>
-      <c r="G195" s="68"/>
+      <c r="G195" s="70"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="93"/>
@@ -17675,7 +18028,7 @@
         <v>6</v>
       </c>
       <c r="F196" s="95"/>
-      <c r="G196" s="68"/>
+      <c r="G196" s="70"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="93"/>
@@ -17692,7 +18045,7 @@
         <v>523</v>
       </c>
       <c r="F197" s="96"/>
-      <c r="G197" s="68"/>
+      <c r="G197" s="70"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="93"/>
@@ -17707,22 +18060,33 @@
         <v>576</v>
       </c>
       <c r="F198" s="8"/>
-      <c r="G198" s="68"/>
+      <c r="G198" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G12:G44"/>
+    <mergeCell ref="G144:G176"/>
+    <mergeCell ref="G133:G143"/>
+    <mergeCell ref="A178:A187"/>
+    <mergeCell ref="F179:F186"/>
+    <mergeCell ref="A189:A198"/>
+    <mergeCell ref="F190:F197"/>
+    <mergeCell ref="G177:G198"/>
+    <mergeCell ref="A145:A154"/>
+    <mergeCell ref="F146:F153"/>
+    <mergeCell ref="A156:A165"/>
+    <mergeCell ref="F157:F164"/>
+    <mergeCell ref="A167:A176"/>
+    <mergeCell ref="F168:F171"/>
+    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="A134:A143"/>
+    <mergeCell ref="F135:F138"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="F91:F98"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="F113:F120"/>
+    <mergeCell ref="F102:F103"/>
     <mergeCell ref="G45:G66"/>
     <mergeCell ref="G67:G77"/>
     <mergeCell ref="A79:A88"/>
@@ -17736,29 +18100,18 @@
     <mergeCell ref="A46:A55"/>
     <mergeCell ref="A57:A66"/>
     <mergeCell ref="F58:F63"/>
-    <mergeCell ref="A123:A132"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="A134:A143"/>
-    <mergeCell ref="F135:F138"/>
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="F91:F98"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="F113:F120"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G144:G176"/>
-    <mergeCell ref="G133:G143"/>
-    <mergeCell ref="A178:A187"/>
-    <mergeCell ref="F179:F186"/>
-    <mergeCell ref="A189:A198"/>
-    <mergeCell ref="F190:F197"/>
-    <mergeCell ref="G177:G198"/>
-    <mergeCell ref="A145:A154"/>
-    <mergeCell ref="F146:F153"/>
-    <mergeCell ref="A156:A165"/>
-    <mergeCell ref="F157:F164"/>
-    <mergeCell ref="A167:A176"/>
-    <mergeCell ref="F168:F171"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G12:G44"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18059,8 +18412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18068,10 +18421,10 @@
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="9" max="9" width="2.5" customWidth="1"/>
     <col min="10" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
@@ -18094,7 +18447,7 @@
         <v>768</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -18105,7 +18458,7 @@
         <v>768</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -18116,7 +18469,7 @@
         <v>768</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -18178,49 +18531,49 @@
         <v>819</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1107</v>
+        <v>1064</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>1056</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -18243,49 +18596,49 @@
         <v>820</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="Q4" s="1">
         <v>2</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -18312,38 +18665,38 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>1057</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -18371,38 +18724,38 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="Q6" s="1">
         <v>4</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="W6" s="1"/>
     </row>
@@ -18430,34 +18783,34 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="O7" s="1"/>
       <c r="Q7" s="1">
         <v>5</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="W7" s="1"/>
     </row>
@@ -18485,34 +18838,34 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="O8" s="1"/>
       <c r="Q8" s="1">
         <v>6</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="W8" s="1"/>
     </row>
@@ -18540,34 +18893,34 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="O9" s="1"/>
       <c r="Q9" s="1">
         <v>7</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -18595,34 +18948,34 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="O10" s="1"/>
       <c r="Q10" s="1">
         <v>8</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -18650,34 +19003,34 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O11" s="1"/>
       <c r="Q11" s="1">
         <v>9</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -18735,7 +19088,9 @@
       <c r="F13" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1">
@@ -18756,7 +19111,9 @@
       <c r="F14" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1">
@@ -18777,7 +19134,9 @@
       <c r="F15" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1">
@@ -18798,7 +19157,9 @@
       <c r="F16" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
@@ -18819,7 +19180,9 @@
       <c r="F17" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
@@ -18840,7 +19203,9 @@
       <c r="F18" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
@@ -18861,7 +19226,9 @@
       <c r="F19" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
@@ -18882,7 +19249,9 @@
       <c r="F20" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
@@ -19330,16 +19699,16 @@
       <c r="C43" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>997</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>960</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>1106</v>
-      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
@@ -19351,7 +19720,9 @@
       <c r="C44" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>1112</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>961</v>
       </c>
@@ -19370,7 +19741,9 @@
       <c r="C45" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>1113</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>962</v>
       </c>
@@ -19389,7 +19762,9 @@
       <c r="C46" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>1116</v>
+      </c>
       <c r="E46" s="1" t="s">
         <v>963</v>
       </c>
@@ -19408,7 +19783,9 @@
       <c r="C47" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>1114</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>964</v>
       </c>
@@ -19427,7 +19804,9 @@
       <c r="C48" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>1115</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>965</v>
       </c>
@@ -19446,7 +19825,9 @@
       <c r="C49" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>1117</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>966</v>
       </c>
@@ -19484,7 +19865,9 @@
       <c r="C51" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>1125</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>968</v>
       </c>
@@ -19503,7 +19886,9 @@
       <c r="C52" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>1126</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>969</v>
       </c>

--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="1164">
   <si>
     <t>序号</t>
   </si>
@@ -4059,6 +4059,69 @@
   </si>
   <si>
     <t>产量到达设定值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢片上料安全</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4032</t>
+  </si>
+  <si>
+    <t>M4033</t>
+  </si>
+  <si>
+    <t>M4034</t>
+  </si>
+  <si>
+    <t>M4035</t>
+  </si>
+  <si>
+    <t>M4036</t>
+  </si>
+  <si>
+    <t>M4037</t>
+  </si>
+  <si>
+    <t>M4038</t>
+  </si>
+  <si>
+    <t>M4039</t>
+  </si>
+  <si>
+    <t>M4040</t>
+  </si>
+  <si>
+    <t>贴胶工位真空吸未达到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴钢片工位真空吸未达到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOI工位真空吸未达到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>压合工位真空吸未达到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕上膜工位真空吸未达到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再压合工位真空吸未达到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>做记号工位无杆气缸未到位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测正反工位真空吸未达到</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6328,8 +6391,8 @@
   </sheetPr>
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79:E80"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10449,8 +10512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10606,15 +10669,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10865,7 +10928,77 @@
       <c r="A32" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18412,8 +18545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18698,7 +18831,9 @@
       <c r="V5" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1">

--- a/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
+++ b/PLC/自动贴钢片机（珠海藤仓）资料.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'物料清单 采购格式'!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4774,13 +4774,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4792,19 +4795,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4814,6 +4808,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4833,9 +4836,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6410,12 +6410,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -6424,10 +6424,10 @@
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="22.5">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -6889,7 +6889,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="68" t="s">
         <v>139</v>
       </c>
       <c r="K20" s="6"/>
@@ -6912,7 +6912,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="70"/>
+      <c r="J21" s="68"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
@@ -6935,7 +6935,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="70"/>
+      <c r="J22" s="68"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
@@ -6956,7 +6956,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="70"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
@@ -6977,7 +6977,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="70"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
@@ -7000,7 +7000,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="70"/>
+      <c r="J25" s="68"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
@@ -7021,7 +7021,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="70"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
@@ -7042,7 +7042,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="70"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11">
@@ -7065,7 +7065,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="70"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11">
@@ -7086,7 +7086,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="70"/>
+      <c r="J29" s="68"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11">
@@ -7107,7 +7107,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="70"/>
+      <c r="J30" s="68"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11">
@@ -7130,7 +7130,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="70"/>
+      <c r="J31" s="68"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11">
@@ -7151,7 +7151,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="70"/>
+      <c r="J32" s="68"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11">
@@ -7172,7 +7172,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="70"/>
+      <c r="J33" s="68"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11">
@@ -7195,7 +7195,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="70"/>
+      <c r="J34" s="68"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
@@ -7216,7 +7216,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="70"/>
+      <c r="J35" s="68"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11">
@@ -7237,7 +7237,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="70" t="s">
+      <c r="J36" s="68" t="s">
         <v>139</v>
       </c>
       <c r="K36" s="6"/>
@@ -7262,7 +7262,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="70"/>
+      <c r="J37" s="68"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
@@ -7283,7 +7283,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="70"/>
+      <c r="J38" s="68"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
@@ -7304,7 +7304,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="70"/>
+      <c r="J39" s="68"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11">
@@ -7325,7 +7325,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="70"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11">
@@ -7346,7 +7346,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="70"/>
+      <c r="J41" s="68"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11">
@@ -7362,14 +7362,14 @@
       <c r="D42" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="68" t="s">
         <v>723</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="70"/>
+      <c r="J42" s="68"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
@@ -7385,12 +7385,12 @@
       <c r="D43" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E43" s="70"/>
+      <c r="E43" s="68"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="70"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
@@ -7406,14 +7406,14 @@
       <c r="D44" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="68" t="s">
         <v>724</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="70"/>
+      <c r="J44" s="68"/>
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11">
@@ -7429,12 +7429,12 @@
       <c r="D45" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="E45" s="70"/>
+      <c r="E45" s="68"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="70"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
@@ -7450,12 +7450,12 @@
       <c r="D46" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="E46" s="70"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="70"/>
+      <c r="J46" s="68"/>
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11">
@@ -7471,12 +7471,12 @@
       <c r="D47" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E47" s="70"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="70"/>
+      <c r="J47" s="68"/>
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11">
@@ -7492,12 +7492,12 @@
       <c r="D48" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="E48" s="70"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="70"/>
+      <c r="J48" s="68"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11">
@@ -7513,12 +7513,12 @@
       <c r="D49" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E49" s="70"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="70"/>
+      <c r="J49" s="68"/>
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11">
@@ -7534,14 +7534,14 @@
       <c r="D50" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E50" s="70" t="s">
+      <c r="E50" s="68" t="s">
         <v>725</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="70"/>
+      <c r="J50" s="68"/>
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11">
@@ -7557,12 +7557,12 @@
       <c r="D51" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E51" s="70"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="70"/>
+      <c r="J51" s="68"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11">
@@ -7578,12 +7578,12 @@
       <c r="D52" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="E52" s="70"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="70" t="s">
+      <c r="J52" s="68" t="s">
         <v>140</v>
       </c>
       <c r="K52" s="6"/>
@@ -7601,12 +7601,12 @@
       <c r="D53" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="E53" s="70"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="70"/>
+      <c r="J53" s="68"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11">
@@ -7622,12 +7622,12 @@
       <c r="D54" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="E54" s="70"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="70"/>
+      <c r="J54" s="68"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11">
@@ -7643,12 +7643,12 @@
       <c r="D55" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="E55" s="70"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="70"/>
+      <c r="J55" s="68"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11">
@@ -7664,12 +7664,12 @@
       <c r="D56" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="E56" s="70"/>
+      <c r="E56" s="68"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="70"/>
+      <c r="J56" s="68"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11">
@@ -7683,12 +7683,12 @@
         <v>80</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="70"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="70"/>
+      <c r="J57" s="68"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11">
@@ -7704,14 +7704,14 @@
       <c r="D58" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E58" s="70" t="s">
+      <c r="E58" s="68" t="s">
         <v>1100</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="70"/>
+      <c r="J58" s="68"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11">
@@ -7727,12 +7727,12 @@
       <c r="D59" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E59" s="70"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="70"/>
+      <c r="J59" s="68"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11">
@@ -7748,12 +7748,12 @@
       <c r="D60" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="E60" s="70"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="70"/>
+      <c r="J60" s="68"/>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11">
@@ -7769,12 +7769,12 @@
       <c r="D61" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="E61" s="70"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="70"/>
+      <c r="J61" s="68"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="11">
@@ -7789,12 +7789,12 @@
       <c r="D62" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="E62" s="70"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="70"/>
+      <c r="J62" s="68"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="11">
@@ -7809,12 +7809,12 @@
       <c r="D63" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="E63" s="70"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="70"/>
+      <c r="J63" s="68"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="11">
@@ -7829,12 +7829,12 @@
       <c r="D64" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="E64" s="70"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="70"/>
+      <c r="J64" s="68"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="11">
@@ -7849,12 +7849,12 @@
       <c r="D65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="70"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="70"/>
+      <c r="J65" s="68"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="11">
@@ -7869,14 +7869,14 @@
       <c r="D66" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E66" s="68" t="s">
         <v>503</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="70"/>
+      <c r="J66" s="68"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="11">
@@ -7891,12 +7891,12 @@
       <c r="D67" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E67" s="70"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="70"/>
+      <c r="J67" s="68"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="11">
@@ -7911,12 +7911,12 @@
       <c r="D68" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="E68" s="70"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="70" t="s">
+      <c r="J68" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7933,12 +7933,12 @@
       <c r="D69" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E69" s="70"/>
+      <c r="E69" s="68"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="70"/>
+      <c r="J69" s="68"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="11">
@@ -7953,12 +7953,12 @@
       <c r="D70" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="E70" s="70"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="70"/>
+      <c r="J70" s="68"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="11">
@@ -7973,12 +7973,12 @@
       <c r="D71" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="E71" s="70"/>
+      <c r="E71" s="68"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="70"/>
+      <c r="J71" s="68"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="11">
@@ -7993,12 +7993,12 @@
       <c r="D72" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E72" s="70"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="70"/>
+      <c r="J72" s="68"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="11">
@@ -8013,12 +8013,12 @@
       <c r="D73" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E73" s="70"/>
+      <c r="E73" s="68"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="70"/>
+      <c r="J73" s="68"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="11">
@@ -8033,12 +8033,12 @@
       <c r="D74" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="E74" s="70"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="70"/>
+      <c r="J74" s="68"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="11">
@@ -8053,12 +8053,12 @@
       <c r="D75" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E75" s="70"/>
+      <c r="E75" s="68"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="70"/>
+      <c r="J75" s="68"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="11">
@@ -8073,12 +8073,12 @@
       <c r="D76" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E76" s="70"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="70"/>
+      <c r="J76" s="68"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="11">
@@ -8093,12 +8093,12 @@
       <c r="D77" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="E77" s="70"/>
+      <c r="E77" s="68"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="70"/>
+      <c r="J77" s="68"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="11">
@@ -8118,7 +8118,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="70"/>
+      <c r="J78" s="68"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="11">
@@ -8133,14 +8133,14 @@
       <c r="D79" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="E79" s="74" t="s">
+      <c r="E79" s="70" t="s">
         <v>1101</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="70"/>
+      <c r="J79" s="68"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="11">
@@ -8155,12 +8155,12 @@
       <c r="D80" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="E80" s="76"/>
+      <c r="E80" s="71"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="70"/>
+      <c r="J80" s="68"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="11">
@@ -8178,7 +8178,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="70"/>
+      <c r="J81" s="68"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="11">
@@ -8196,7 +8196,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="70"/>
+      <c r="J82" s="68"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="11">
@@ -8214,7 +8214,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="70"/>
+      <c r="J83" s="68"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="11">
@@ -8236,7 +8236,7 @@
       <c r="I84" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="J84" s="70" t="s">
+      <c r="J84" s="68" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8258,7 +8258,7 @@
         <v>706</v>
       </c>
       <c r="I85" s="69"/>
-      <c r="J85" s="70"/>
+      <c r="J85" s="68"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="11">
@@ -8278,7 +8278,7 @@
         <v>707</v>
       </c>
       <c r="I86" s="69"/>
-      <c r="J86" s="70"/>
+      <c r="J86" s="68"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="11">
@@ -8300,7 +8300,7 @@
       <c r="I87" s="69" t="s">
         <v>584</v>
       </c>
-      <c r="J87" s="70"/>
+      <c r="J87" s="68"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="11">
@@ -8320,7 +8320,7 @@
         <v>708</v>
       </c>
       <c r="I88" s="69"/>
-      <c r="J88" s="70"/>
+      <c r="J88" s="68"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="11">
@@ -8340,7 +8340,7 @@
         <v>707</v>
       </c>
       <c r="I89" s="69"/>
-      <c r="J89" s="70"/>
+      <c r="J89" s="68"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="11">
@@ -8362,7 +8362,7 @@
       <c r="I90" s="69" t="s">
         <v>727</v>
       </c>
-      <c r="J90" s="70"/>
+      <c r="J90" s="68"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="11">
@@ -8382,7 +8382,7 @@
         <v>426</v>
       </c>
       <c r="I91" s="69"/>
-      <c r="J91" s="70"/>
+      <c r="J91" s="68"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="11">
@@ -8402,7 +8402,7 @@
         <v>223</v>
       </c>
       <c r="I92" s="69"/>
-      <c r="J92" s="70"/>
+      <c r="J92" s="68"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="11">
@@ -8424,7 +8424,7 @@
       <c r="I93" s="69" t="s">
         <v>721</v>
       </c>
-      <c r="J93" s="70"/>
+      <c r="J93" s="68"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="11">
@@ -8444,7 +8444,7 @@
         <v>706</v>
       </c>
       <c r="I94" s="69"/>
-      <c r="J94" s="70"/>
+      <c r="J94" s="68"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="11">
@@ -8464,7 +8464,7 @@
         <v>707</v>
       </c>
       <c r="I95" s="69"/>
-      <c r="J95" s="70"/>
+      <c r="J95" s="68"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="11">
@@ -8486,7 +8486,7 @@
       <c r="I96" s="69" t="s">
         <v>728</v>
       </c>
-      <c r="J96" s="70"/>
+      <c r="J96" s="68"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="11">
@@ -8506,7 +8506,7 @@
         <v>706</v>
       </c>
       <c r="I97" s="69"/>
-      <c r="J97" s="70"/>
+      <c r="J97" s="68"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="11">
@@ -8526,7 +8526,7 @@
         <v>223</v>
       </c>
       <c r="I98" s="69"/>
-      <c r="J98" s="70"/>
+      <c r="J98" s="68"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="11">
@@ -8548,7 +8548,7 @@
       <c r="I99" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="J99" s="70"/>
+      <c r="J99" s="68"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="11">
@@ -8568,7 +8568,7 @@
         <v>711</v>
       </c>
       <c r="I100" s="69"/>
-      <c r="J100" s="70" t="s">
+      <c r="J100" s="68" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8590,7 +8590,7 @@
         <v>223</v>
       </c>
       <c r="I101" s="69"/>
-      <c r="J101" s="70"/>
+      <c r="J101" s="68"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="11">
@@ -8612,7 +8612,7 @@
       <c r="I102" s="69" t="s">
         <v>599</v>
       </c>
-      <c r="J102" s="70"/>
+      <c r="J102" s="68"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="11">
@@ -8632,7 +8632,7 @@
         <v>706</v>
       </c>
       <c r="I103" s="69"/>
-      <c r="J103" s="70"/>
+      <c r="J103" s="68"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="11">
@@ -8652,7 +8652,7 @@
         <v>707</v>
       </c>
       <c r="I104" s="69"/>
-      <c r="J104" s="70"/>
+      <c r="J104" s="68"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="11">
@@ -8672,7 +8672,7 @@
         <v>712</v>
       </c>
       <c r="I105" s="69"/>
-      <c r="J105" s="70"/>
+      <c r="J105" s="68"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="11">
@@ -8694,7 +8694,7 @@
       <c r="I106" s="69" t="s">
         <v>477</v>
       </c>
-      <c r="J106" s="70"/>
+      <c r="J106" s="68"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="11">
@@ -8714,7 +8714,7 @@
         <v>711</v>
       </c>
       <c r="I107" s="69"/>
-      <c r="J107" s="70"/>
+      <c r="J107" s="68"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="11">
@@ -8736,7 +8736,7 @@
       <c r="I108" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="J108" s="70"/>
+      <c r="J108" s="68"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="11">
@@ -8758,7 +8758,7 @@
       <c r="I109" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="J109" s="70"/>
+      <c r="J109" s="68"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="11">
@@ -8780,7 +8780,7 @@
       <c r="I110" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="J110" s="70"/>
+      <c r="J110" s="68"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="11">
@@ -8802,7 +8802,7 @@
       <c r="I111" s="69" t="s">
         <v>734</v>
       </c>
-      <c r="J111" s="70"/>
+      <c r="J111" s="68"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="11">
@@ -8822,7 +8822,7 @@
         <v>715</v>
       </c>
       <c r="I112" s="69"/>
-      <c r="J112" s="70"/>
+      <c r="J112" s="68"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="11">
@@ -8842,7 +8842,7 @@
         <v>707</v>
       </c>
       <c r="I113" s="69"/>
-      <c r="J113" s="70"/>
+      <c r="J113" s="68"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="11">
@@ -8861,10 +8861,10 @@
       <c r="H114" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="I114" s="70" t="s">
+      <c r="I114" s="68" t="s">
         <v>732</v>
       </c>
-      <c r="J114" s="70"/>
+      <c r="J114" s="68"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="11">
@@ -8883,8 +8883,8 @@
       <c r="H115" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I115" s="70"/>
-      <c r="J115" s="70"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="11">
@@ -8903,8 +8903,8 @@
       <c r="H116" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I116" s="70"/>
-      <c r="J116" s="70" t="s">
+      <c r="I116" s="68"/>
+      <c r="J116" s="68" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8925,8 +8925,8 @@
       <c r="H117" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="I117" s="70"/>
-      <c r="J117" s="70"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="11">
@@ -8945,8 +8945,8 @@
       <c r="H118" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I118" s="70"/>
-      <c r="J118" s="70"/>
+      <c r="I118" s="68"/>
+      <c r="J118" s="68"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="11">
@@ -8966,7 +8966,7 @@
         <v>625</v>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="70"/>
+      <c r="J119" s="68"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="11">
@@ -8986,7 +8986,7 @@
         <v>626</v>
       </c>
       <c r="I120" s="1"/>
-      <c r="J120" s="70"/>
+      <c r="J120" s="68"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="11">
@@ -9006,7 +9006,7 @@
         <v>719</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="70"/>
+      <c r="J121" s="68"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="11">
@@ -9025,10 +9025,10 @@
       <c r="H122" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="I122" s="74" t="s">
+      <c r="I122" s="70" t="s">
         <v>737</v>
       </c>
-      <c r="J122" s="70"/>
+      <c r="J122" s="68"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="11">
@@ -9047,8 +9047,8 @@
       <c r="H123" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="I123" s="75"/>
-      <c r="J123" s="70"/>
+      <c r="I123" s="76"/>
+      <c r="J123" s="68"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="11">
@@ -9067,8 +9067,8 @@
       <c r="H124" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="I124" s="76"/>
-      <c r="J124" s="70"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="68"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="11">
@@ -9090,7 +9090,7 @@
       <c r="I125" s="69" t="s">
         <v>740</v>
       </c>
-      <c r="J125" s="70"/>
+      <c r="J125" s="68"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="11">
@@ -9110,7 +9110,7 @@
         <v>741</v>
       </c>
       <c r="I126" s="69"/>
-      <c r="J126" s="70"/>
+      <c r="J126" s="68"/>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="11">
@@ -9130,7 +9130,7 @@
         <v>742</v>
       </c>
       <c r="I127" s="69"/>
-      <c r="J127" s="70"/>
+      <c r="J127" s="68"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="11">
@@ -9152,7 +9152,7 @@
       <c r="I128" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="J128" s="70"/>
+      <c r="J128" s="68"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="11">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="70"/>
+      <c r="J129" s="68"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="11">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="70"/>
+      <c r="J130" s="68"/>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="11">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="70"/>
+      <c r="J131" s="68"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="62"/>
@@ -9305,12 +9305,12 @@
       <c r="J139" s="63"/>
     </row>
     <row r="141" spans="1:10" ht="22.5">
-      <c r="A141" s="68" t="s">
+      <c r="A141" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
+      <c r="B141" s="75"/>
+      <c r="C141" s="75"/>
+      <c r="D141" s="75"/>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -9319,10 +9319,10 @@
       <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:10" ht="22.5">
-      <c r="A142" s="68"/>
-      <c r="B142" s="68"/>
-      <c r="C142" s="68"/>
-      <c r="D142" s="68"/>
+      <c r="A142" s="75"/>
+      <c r="B142" s="75"/>
+      <c r="C142" s="75"/>
+      <c r="D142" s="75"/>
       <c r="E142" s="9"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
@@ -9378,7 +9378,7 @@
         <v>223</v>
       </c>
       <c r="I144" s="60"/>
-      <c r="J144" s="71" t="s">
+      <c r="J144" s="72" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9404,7 +9404,7 @@
         <v>227</v>
       </c>
       <c r="I145" s="13"/>
-      <c r="J145" s="72"/>
+      <c r="J145" s="73"/>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="11">
@@ -9428,7 +9428,7 @@
         <v>224</v>
       </c>
       <c r="I146" s="13"/>
-      <c r="J146" s="72"/>
+      <c r="J146" s="73"/>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="11">
@@ -9452,7 +9452,7 @@
         <v>1108</v>
       </c>
       <c r="I147" s="13"/>
-      <c r="J147" s="72"/>
+      <c r="J147" s="73"/>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="11">
@@ -9476,7 +9476,7 @@
         <v>1109</v>
       </c>
       <c r="I148" s="13"/>
-      <c r="J148" s="72"/>
+      <c r="J148" s="73"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="11">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="13"/>
-      <c r="J149" s="72"/>
+      <c r="J149" s="73"/>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="11">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="13"/>
-      <c r="J150" s="72"/>
+      <c r="J150" s="73"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="11">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="72"/>
+      <c r="J151" s="73"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="11">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="72"/>
+      <c r="J152" s="73"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="11">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="72"/>
+      <c r="J153" s="73"/>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="11">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="72"/>
+      <c r="J154" s="73"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="11">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="H155" s="10"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="72"/>
+      <c r="J155" s="73"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="11">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="H156" s="10"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="72"/>
+      <c r="J156" s="73"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="11">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="72"/>
+      <c r="J157" s="73"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="11">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="H158" s="10"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="72"/>
+      <c r="J158" s="73"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="11">
@@ -9720,7 +9720,7 @@
         <v>1110</v>
       </c>
       <c r="I159" s="13"/>
-      <c r="J159" s="72"/>
+      <c r="J159" s="73"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="11">
@@ -9738,7 +9738,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="72"/>
+      <c r="J160" s="73"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="11">
@@ -9756,7 +9756,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="72"/>
+      <c r="J161" s="73"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="11">
@@ -9774,7 +9774,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="72"/>
+      <c r="J162" s="73"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="11">
@@ -9792,7 +9792,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="72"/>
+      <c r="J163" s="73"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="11">
@@ -9810,7 +9810,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="72"/>
+      <c r="J164" s="73"/>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="11">
@@ -9828,7 +9828,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="72"/>
+      <c r="J165" s="73"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="11">
@@ -9846,7 +9846,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="72"/>
+      <c r="J166" s="73"/>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="11">
@@ -9864,15 +9864,15 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="61"/>
-      <c r="J167" s="73"/>
+      <c r="J167" s="74"/>
     </row>
     <row r="169" spans="1:10" ht="22.5">
-      <c r="A169" s="68" t="s">
+      <c r="A169" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B169" s="68"/>
-      <c r="C169" s="68"/>
-      <c r="D169" s="68"/>
+      <c r="B169" s="75"/>
+      <c r="C169" s="75"/>
+      <c r="D169" s="75"/>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
@@ -9881,10 +9881,10 @@
       <c r="J169" s="10"/>
     </row>
     <row r="170" spans="1:10" ht="22.5">
-      <c r="A170" s="68"/>
-      <c r="B170" s="68"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="68"/>
+      <c r="A170" s="75"/>
+      <c r="B170" s="75"/>
+      <c r="C170" s="75"/>
+      <c r="D170" s="75"/>
       <c r="E170" s="9"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
@@ -9940,7 +9940,7 @@
         <v>228</v>
       </c>
       <c r="I172" s="60"/>
-      <c r="J172" s="71" t="s">
+      <c r="J172" s="72" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
         <v>229</v>
       </c>
       <c r="I173" s="13"/>
-      <c r="J173" s="72"/>
+      <c r="J173" s="73"/>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="11">
@@ -9994,7 +9994,7 @@
         <v>230</v>
       </c>
       <c r="I174" s="13"/>
-      <c r="J174" s="72"/>
+      <c r="J174" s="73"/>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="11">
@@ -10020,7 +10020,7 @@
         <v>231</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="72"/>
+      <c r="J175" s="73"/>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="11">
@@ -10046,7 +10046,7 @@
         <v>232</v>
       </c>
       <c r="I176" s="13"/>
-      <c r="J176" s="72"/>
+      <c r="J176" s="73"/>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="11">
@@ -10070,7 +10070,7 @@
         <v>233</v>
       </c>
       <c r="I177" s="13"/>
-      <c r="J177" s="72"/>
+      <c r="J177" s="73"/>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="11">
@@ -10094,7 +10094,7 @@
         <v>234</v>
       </c>
       <c r="I178" s="13"/>
-      <c r="J178" s="72"/>
+      <c r="J178" s="73"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="11">
@@ -10118,7 +10118,7 @@
         <v>235</v>
       </c>
       <c r="I179" s="13"/>
-      <c r="J179" s="72"/>
+      <c r="J179" s="73"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="11">
@@ -10142,7 +10142,7 @@
         <v>236</v>
       </c>
       <c r="I180" s="13"/>
-      <c r="J180" s="72"/>
+      <c r="J180" s="73"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="11">
@@ -10166,7 +10166,7 @@
         <v>237</v>
       </c>
       <c r="I181" s="13"/>
-      <c r="J181" s="72"/>
+      <c r="J181" s="73"/>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="11">
@@ -10190,7 +10190,7 @@
         <v>238</v>
       </c>
       <c r="I182" s="13"/>
-      <c r="J182" s="72"/>
+      <c r="J182" s="73"/>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="11">
@@ -10214,7 +10214,7 @@
         <v>239</v>
       </c>
       <c r="I183" s="13"/>
-      <c r="J183" s="72"/>
+      <c r="J183" s="73"/>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="11">
@@ -10238,7 +10238,7 @@
         <v>240</v>
       </c>
       <c r="I184" s="13"/>
-      <c r="J184" s="72"/>
+      <c r="J184" s="73"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="11">
@@ -10262,7 +10262,7 @@
         <v>241</v>
       </c>
       <c r="I185" s="13"/>
-      <c r="J185" s="72"/>
+      <c r="J185" s="73"/>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="11">
@@ -10286,7 +10286,7 @@
         <v>242</v>
       </c>
       <c r="I186" s="13"/>
-      <c r="J186" s="72"/>
+      <c r="J186" s="73"/>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="11">
@@ -10310,7 +10310,7 @@
         <v>1111</v>
       </c>
       <c r="I187" s="13"/>
-      <c r="J187" s="72"/>
+      <c r="J187" s="73"/>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="11">
@@ -10328,7 +10328,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="72"/>
+      <c r="J188" s="73"/>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="11">
@@ -10346,7 +10346,7 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="72"/>
+      <c r="J189" s="73"/>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="11">
@@ -10364,7 +10364,7 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="72"/>
+      <c r="J190" s="73"/>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="11">
@@ -10382,7 +10382,7 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="72"/>
+      <c r="J191" s="73"/>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="11">
@@ -10400,7 +10400,7 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="72"/>
+      <c r="J192" s="73"/>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="11">
@@ -10418,7 +10418,7 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="72"/>
+      <c r="J193" s="73"/>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="11">
@@ -10436,7 +10436,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="72"/>
+      <c r="J194" s="73"/>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="11">
@@ -10454,37 +10454,10 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
       <c r="I195" s="61"/>
-      <c r="J195" s="73"/>
+      <c r="J195" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="E50:E57"/>
-    <mergeCell ref="E58:E65"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="I102:I105"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="J172:J195"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I4:I15"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="J68:J83"/>
-    <mergeCell ref="J84:J99"/>
-    <mergeCell ref="J100:J115"/>
-    <mergeCell ref="J116:J131"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="I125:I127"/>
-    <mergeCell ref="A141:D142"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="J144:J167"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="I122:I124"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="J4:J19"/>
     <mergeCell ref="J20:J35"/>
@@ -10501,6 +10474,33 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="E37:E41"/>
+    <mergeCell ref="A141:D142"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="J144:J167"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="J172:J195"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I4:I15"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="J68:J83"/>
+    <mergeCell ref="J84:J99"/>
+    <mergeCell ref="J100:J115"/>
+    <mergeCell ref="J116:J131"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="I125:I127"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="E58:E65"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="E79:E80"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10671,7 +10671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -11054,12 +11054,12 @@
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -11073,10 +11073,10 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="21" t="s">
         <v>526</v>
       </c>
@@ -11090,20 +11090,20 @@
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="85"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="25">
         <v>20170818</v>
       </c>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="25" t="s">
         <v>525</v>
       </c>
@@ -11115,18 +11115,18 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="K4" s="85"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="22"/>
       <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -11136,10 +11136,10 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="86"/>
       <c r="L5" s="29"/>
       <c r="M5" s="33"/>
     </row>
@@ -11165,14 +11165,14 @@
       <c r="B7" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="88"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="38" t="s">
         <v>268</v>
       </c>
@@ -11188,17 +11188,17 @@
       <c r="K7" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="L7" s="77" t="s">
+      <c r="L7" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="M7" s="77"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:17" ht="13.5">
       <c r="A8" s="40">
         <v>1</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="82" t="s">
         <v>274</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -11226,7 +11226,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="41"/>
-      <c r="C9" s="78"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="48" t="s">
         <v>278</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="78"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="48" t="s">
         <v>541</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="78"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="48" t="s">
         <v>280</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="41"/>
-      <c r="C12" s="78"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="48" t="s">
         <v>280</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="78"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="50" t="s">
         <v>544</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="41"/>
-      <c r="C14" s="78"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="41" t="s">
         <v>282</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="78"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="50" t="s">
         <v>285</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="41"/>
-      <c r="C16" s="78"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="50" t="s">
         <v>287</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="78"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="50" t="s">
         <v>287</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="78"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="51" t="s">
         <v>290</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="41"/>
-      <c r="C19" s="78"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="50" t="s">
         <v>293</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="78"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="50" t="s">
         <v>1102</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="41"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="81" t="s">
         <v>658</v>
       </c>
       <c r="D22" s="50" t="s">
@@ -11607,7 +11607,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="88"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="51" t="s">
         <v>651</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="88"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="50" t="s">
         <v>653</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="41"/>
-      <c r="C25" s="88"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="50" t="s">
         <v>653</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="41"/>
-      <c r="C26" s="88"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="50" t="s">
         <v>654</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="41"/>
-      <c r="C27" s="88"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="50" t="s">
         <v>656</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="41"/>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="77" t="s">
         <v>298</v>
       </c>
       <c r="D29" s="53" t="s">
@@ -11786,7 +11786,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="41"/>
-      <c r="C30" s="79"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="53" t="s">
         <v>530</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="41"/>
-      <c r="C31" s="79"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="53" t="s">
         <v>532</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="41"/>
-      <c r="C32" s="79"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="53" t="s">
         <v>534</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="41"/>
-      <c r="C33" s="79"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="53" t="s">
         <v>536</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="41"/>
-      <c r="C34" s="79"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="53" t="s">
         <v>537</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="41"/>
-      <c r="C35" s="79"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="53" t="s">
         <v>539</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="41"/>
-      <c r="C36" s="79"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="53" t="s">
         <v>300</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="41"/>
-      <c r="C37" s="79"/>
+      <c r="C37" s="77"/>
       <c r="D37" s="53" t="s">
         <v>304</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="41"/>
-      <c r="C38" s="79"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="53" t="s">
         <v>557</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="41"/>
-      <c r="C39" s="79"/>
+      <c r="C39" s="77"/>
       <c r="D39" s="53" t="s">
         <v>305</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="41"/>
-      <c r="C40" s="79"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="53" t="s">
         <v>305</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="41"/>
-      <c r="C41" s="79"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="49" t="s">
         <v>306</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="41"/>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="78" t="s">
         <v>307</v>
       </c>
       <c r="D42" s="49" t="s">
@@ -12133,7 +12133,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="41"/>
-      <c r="C43" s="81"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="49" t="s">
         <v>311</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="41"/>
-      <c r="C44" s="81"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="49" t="s">
         <v>313</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="41"/>
-      <c r="C45" s="81"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="49" t="s">
         <v>316</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="41"/>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="77" t="s">
         <v>319</v>
       </c>
       <c r="D46" s="49" t="s">
@@ -12243,7 +12243,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="41"/>
-      <c r="C47" s="79"/>
+      <c r="C47" s="77"/>
       <c r="D47" s="49" t="s">
         <v>322</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="41"/>
-      <c r="C48" s="79"/>
+      <c r="C48" s="77"/>
       <c r="D48" s="49" t="s">
         <v>324</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="41"/>
-      <c r="C49" s="79"/>
+      <c r="C49" s="77"/>
       <c r="D49" s="49" t="s">
         <v>42</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="41"/>
-      <c r="C50" s="79"/>
+      <c r="C50" s="77"/>
       <c r="D50" s="49" t="s">
         <v>327</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="41"/>
-      <c r="C51" s="79"/>
+      <c r="C51" s="77"/>
       <c r="D51" s="49" t="s">
         <v>328</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="41"/>
-      <c r="C52" s="79"/>
+      <c r="C52" s="77"/>
       <c r="D52" s="49" t="s">
         <v>329</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="41"/>
-      <c r="C53" s="79"/>
+      <c r="C53" s="77"/>
       <c r="D53" s="49" t="s">
         <v>331</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="41"/>
-      <c r="C54" s="79"/>
+      <c r="C54" s="77"/>
       <c r="D54" s="49" t="s">
         <v>332</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="41"/>
-      <c r="C55" s="79"/>
+      <c r="C55" s="77"/>
       <c r="D55" s="49" t="s">
         <v>334</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="41"/>
-      <c r="C56" s="79"/>
+      <c r="C56" s="77"/>
       <c r="D56" s="49" t="s">
         <v>336</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="41"/>
-      <c r="C57" s="79"/>
+      <c r="C57" s="77"/>
       <c r="D57" s="49" t="s">
         <v>336</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="41"/>
-      <c r="C58" s="79"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="49" t="s">
         <v>339</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="41"/>
-      <c r="C59" s="79"/>
+      <c r="C59" s="77"/>
       <c r="D59" s="49" t="s">
         <v>342</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="41"/>
-      <c r="C60" s="79"/>
+      <c r="C60" s="77"/>
       <c r="D60" s="49" t="s">
         <v>344</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="41"/>
-      <c r="C61" s="79"/>
+      <c r="C61" s="77"/>
       <c r="D61" s="49" t="s">
         <v>345</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="41"/>
-      <c r="C62" s="79"/>
+      <c r="C62" s="77"/>
       <c r="D62" s="49" t="s">
         <v>347</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="41"/>
-      <c r="C63" s="79"/>
+      <c r="C63" s="77"/>
       <c r="D63" s="49" t="s">
         <v>345</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="41"/>
-      <c r="C64" s="79"/>
+      <c r="C64" s="77"/>
       <c r="D64" s="49" t="s">
         <v>347</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="41"/>
-      <c r="C65" s="79"/>
+      <c r="C65" s="77"/>
       <c r="D65" s="49" t="s">
         <v>1107</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="41"/>
-      <c r="C66" s="79"/>
+      <c r="C66" s="77"/>
       <c r="D66" s="49" t="s">
         <v>349</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="41"/>
-      <c r="C67" s="79"/>
+      <c r="C67" s="77"/>
       <c r="D67" s="49" t="s">
         <v>352</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="41"/>
-      <c r="C68" s="79"/>
+      <c r="C68" s="77"/>
       <c r="D68" s="49" t="s">
         <v>356</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="41"/>
-      <c r="C69" s="79"/>
+      <c r="C69" s="77"/>
       <c r="D69" s="49" t="s">
         <v>364</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="41"/>
-      <c r="C70" s="79"/>
+      <c r="C70" s="77"/>
       <c r="D70" s="49" t="s">
         <v>367</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="41"/>
-      <c r="C71" s="79"/>
+      <c r="C71" s="77"/>
       <c r="D71" s="49" t="s">
         <v>358</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="41"/>
-      <c r="C72" s="79"/>
+      <c r="C72" s="77"/>
       <c r="D72" s="49" t="s">
         <v>360</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="41"/>
-      <c r="C73" s="79"/>
+      <c r="C73" s="77"/>
       <c r="D73" s="49" t="s">
         <v>361</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="41"/>
-      <c r="C74" s="79"/>
+      <c r="C74" s="77"/>
       <c r="D74" s="49" t="s">
         <v>363</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="41"/>
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="78" t="s">
         <v>369</v>
       </c>
       <c r="D75" s="49" t="s">
@@ -13002,7 +13002,7 @@
         <v>69</v>
       </c>
       <c r="B76" s="41"/>
-      <c r="C76" s="81"/>
+      <c r="C76" s="79"/>
       <c r="D76" s="49" t="s">
         <v>370</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>70</v>
       </c>
       <c r="B77" s="41"/>
-      <c r="C77" s="81"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="49" t="s">
         <v>370</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="41"/>
-      <c r="C78" s="81"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="49" t="s">
         <v>370</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="41"/>
-      <c r="C79" s="81"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="49" t="s">
         <v>371</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="41"/>
-      <c r="C80" s="81"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="49" t="s">
         <v>225</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="41"/>
-      <c r="C81" s="79"/>
+      <c r="C81" s="77"/>
       <c r="D81" s="49" t="s">
         <v>375</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="41"/>
-      <c r="C82" s="79"/>
+      <c r="C82" s="77"/>
       <c r="D82" s="49" t="s">
         <v>376</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="41"/>
-      <c r="C83" s="79"/>
+      <c r="C83" s="77"/>
       <c r="D83" s="49" t="s">
         <v>378</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="41"/>
-      <c r="C84" s="79"/>
+      <c r="C84" s="77"/>
       <c r="D84" s="49" t="s">
         <v>379</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="41"/>
-      <c r="C85" s="79"/>
+      <c r="C85" s="77"/>
       <c r="D85" s="49" t="s">
         <v>380</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="41"/>
-      <c r="C86" s="79"/>
+      <c r="C86" s="77"/>
       <c r="D86" s="49" t="s">
         <v>382</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="41"/>
-      <c r="C87" s="79"/>
+      <c r="C87" s="77"/>
       <c r="D87" s="49" t="s">
         <v>383</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>81</v>
       </c>
       <c r="B88" s="41"/>
-      <c r="C88" s="79"/>
+      <c r="C88" s="77"/>
       <c r="D88" s="49" t="s">
         <v>384</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="41"/>
-      <c r="C89" s="79"/>
+      <c r="C89" s="77"/>
       <c r="D89" s="49" t="s">
         <v>385</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="41"/>
-      <c r="C90" s="79"/>
+      <c r="C90" s="77"/>
       <c r="D90" s="49" t="s">
         <v>386</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="41"/>
-      <c r="C91" s="79"/>
+      <c r="C91" s="77"/>
       <c r="D91" s="49" t="s">
         <v>387</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="41"/>
-      <c r="C92" s="79"/>
+      <c r="C92" s="77"/>
       <c r="D92" s="49" t="s">
         <v>388</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="41"/>
-      <c r="C93" s="79"/>
+      <c r="C93" s="77"/>
       <c r="D93" s="49" t="s">
         <v>389</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="41"/>
-      <c r="C94" s="79"/>
+      <c r="C94" s="77"/>
       <c r="D94" s="49" t="s">
         <v>390</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="41"/>
-      <c r="C95" s="79"/>
+      <c r="C95" s="77"/>
       <c r="D95" s="49" t="s">
         <v>391</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="41"/>
-      <c r="C96" s="79"/>
+      <c r="C96" s="77"/>
       <c r="D96" s="49" t="s">
         <v>392</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="41"/>
-      <c r="C97" s="79"/>
+      <c r="C97" s="77"/>
       <c r="D97" s="49" t="s">
         <v>393</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="41"/>
-      <c r="C98" s="79"/>
+      <c r="C98" s="77"/>
       <c r="D98" s="49" t="s">
         <v>394</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="41"/>
-      <c r="C99" s="79"/>
+      <c r="C99" s="77"/>
       <c r="D99" s="49" t="s">
         <v>395</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="41"/>
-      <c r="C100" s="79"/>
+      <c r="C100" s="77"/>
       <c r="D100" s="49" t="s">
         <v>396</v>
       </c>
@@ -13573,11 +13573,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="C46:C74"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C81:C100"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C8:C20"/>
     <mergeCell ref="C29:C41"/>
@@ -13590,6 +13585,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C46:C74"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C81:C100"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -14932,6 +14932,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="L10:N10"/>
@@ -14942,14 +14950,6 @@
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="L28:N28"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AA1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15004,7 +15004,7 @@
       <c r="E2" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>578</v>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       <c r="E3" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="93"/>
@@ -15038,7 +15038,7 @@
       <c r="E4" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="93"/>
@@ -15054,7 +15054,7 @@
       <c r="E5" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="93"/>
@@ -15070,7 +15070,7 @@
       <c r="E6" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="F6" s="70"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="93"/>
@@ -15086,7 +15086,7 @@
       <c r="E7" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="93"/>
@@ -15102,7 +15102,7 @@
       <c r="E8" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="93"/>
@@ -15118,7 +15118,7 @@
       <c r="E9" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="93"/>
@@ -15134,7 +15134,7 @@
       <c r="E10" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="93"/>
@@ -15148,7 +15148,7 @@
       <c r="E11" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -15165,7 +15165,7 @@
       <c r="F12" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="68" t="s">
         <v>585</v>
       </c>
     </row>
@@ -15183,10 +15183,10 @@
       <c r="E13" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="93"/>
@@ -15202,8 +15202,8 @@
       <c r="E14" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="93"/>
@@ -15219,8 +15219,8 @@
       <c r="E15" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="93"/>
@@ -15232,8 +15232,8 @@
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="93"/>
@@ -15245,8 +15245,8 @@
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="93"/>
@@ -15258,8 +15258,8 @@
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="93"/>
@@ -15271,8 +15271,8 @@
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="93"/>
@@ -15284,8 +15284,8 @@
       </c>
       <c r="D20" s="65"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="93"/>
@@ -15297,8 +15297,8 @@
       </c>
       <c r="D21" s="65"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="93"/>
@@ -15312,8 +15312,8 @@
       <c r="E22" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -15330,7 +15330,7 @@
       <c r="F23" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G23" s="70"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="93">
@@ -15347,7 +15347,7 @@
         <v>575</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="70"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="93"/>
@@ -15363,10 +15363,10 @@
       <c r="E25" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="68" t="s">
         <v>582</v>
       </c>
-      <c r="G25" s="70"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="93"/>
@@ -15382,8 +15382,8 @@
       <c r="E26" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="93"/>
@@ -15399,8 +15399,8 @@
       <c r="E27" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="93"/>
@@ -15416,8 +15416,8 @@
       <c r="E28" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="93"/>
@@ -15433,10 +15433,10 @@
       <c r="E29" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="G29" s="70"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="93"/>
@@ -15452,8 +15452,8 @@
       <c r="E30" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="93"/>
@@ -15469,8 +15469,8 @@
       <c r="E31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="93"/>
@@ -15489,7 +15489,7 @@
       <c r="F32" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="G32" s="70"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="93"/>
@@ -15504,7 +15504,7 @@
         <v>576</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="70"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
@@ -15521,7 +15521,7 @@
       <c r="F34" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G34" s="70"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="93">
@@ -15538,7 +15538,7 @@
         <v>575</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="70"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="93"/>
@@ -15554,10 +15554,10 @@
       <c r="E36" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F36" s="70" t="s">
+      <c r="F36" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="G36" s="70"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="93"/>
@@ -15573,8 +15573,8 @@
       <c r="E37" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="93"/>
@@ -15590,10 +15590,10 @@
       <c r="E38" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="G38" s="70"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="93"/>
@@ -15609,8 +15609,8 @@
       <c r="E39" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="93"/>
@@ -15626,8 +15626,8 @@
       <c r="E40" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="93"/>
@@ -15643,10 +15643,10 @@
       <c r="E41" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="68" t="s">
         <v>471</v>
       </c>
-      <c r="G41" s="70"/>
+      <c r="G41" s="68"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="93"/>
@@ -15662,8 +15662,8 @@
       <c r="E42" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="93"/>
@@ -15679,8 +15679,8 @@
       <c r="E43" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="93"/>
@@ -15695,7 +15695,7 @@
         <v>576</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="70"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
@@ -15712,7 +15712,7 @@
       <c r="F45" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G45" s="70" t="s">
+      <c r="G45" s="68" t="s">
         <v>602</v>
       </c>
     </row>
@@ -15731,7 +15731,7 @@
         <v>575</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="70"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="93"/>
@@ -15747,10 +15747,10 @@
       <c r="E47" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="68" t="s">
         <v>586</v>
       </c>
-      <c r="G47" s="70"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="93"/>
@@ -15766,8 +15766,8 @@
       <c r="E48" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="93"/>
@@ -15786,7 +15786,7 @@
       <c r="F49" s="69" t="s">
         <v>472</v>
       </c>
-      <c r="G49" s="70"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="93"/>
@@ -15803,7 +15803,7 @@
         <v>469</v>
       </c>
       <c r="F50" s="69"/>
-      <c r="G50" s="70"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="93"/>
@@ -15820,7 +15820,7 @@
         <v>470</v>
       </c>
       <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="93"/>
@@ -15836,10 +15836,10 @@
       <c r="E52" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="70" t="s">
+      <c r="F52" s="68" t="s">
         <v>587</v>
       </c>
-      <c r="G52" s="70"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="93"/>
@@ -15855,8 +15855,8 @@
       <c r="E53" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="93"/>
@@ -15872,8 +15872,8 @@
       <c r="E54" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="93"/>
@@ -15888,7 +15888,7 @@
         <v>576</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="70"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
@@ -15905,7 +15905,7 @@
       <c r="F56" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G56" s="70"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="93">
@@ -15922,7 +15922,7 @@
         <v>575</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="70"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="93"/>
@@ -15941,7 +15941,7 @@
       <c r="F58" s="94" t="s">
         <v>600</v>
       </c>
-      <c r="G58" s="70"/>
+      <c r="G58" s="68"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="93"/>
@@ -15958,7 +15958,7 @@
         <v>469</v>
       </c>
       <c r="F59" s="95"/>
-      <c r="G59" s="70"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="93"/>
@@ -15975,7 +15975,7 @@
         <v>470</v>
       </c>
       <c r="F60" s="95"/>
-      <c r="G60" s="70"/>
+      <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="93"/>
@@ -15992,7 +15992,7 @@
         <v>226</v>
       </c>
       <c r="F61" s="95"/>
-      <c r="G61" s="70"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="93"/>
@@ -16009,7 +16009,7 @@
         <v>593</v>
       </c>
       <c r="F62" s="95"/>
-      <c r="G62" s="70"/>
+      <c r="G62" s="68"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="93"/>
@@ -16026,7 +16026,7 @@
         <v>594</v>
       </c>
       <c r="F63" s="96"/>
-      <c r="G63" s="70"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="93"/>
@@ -16042,10 +16042,10 @@
       <c r="E64" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F64" s="74" t="s">
+      <c r="F64" s="70" t="s">
         <v>601</v>
       </c>
-      <c r="G64" s="70"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="93"/>
@@ -16061,8 +16061,8 @@
       <c r="E65" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="F65" s="76"/>
-      <c r="G65" s="70"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="68"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="93"/>
@@ -16077,7 +16077,7 @@
         <v>576</v>
       </c>
       <c r="F66" s="8"/>
-      <c r="G66" s="70"/>
+      <c r="G66" s="68"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
@@ -16094,7 +16094,7 @@
       <c r="F67" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G67" s="70" t="s">
+      <c r="G67" s="68" t="s">
         <v>603</v>
       </c>
     </row>
@@ -16113,7 +16113,7 @@
         <v>575</v>
       </c>
       <c r="F68" s="8"/>
-      <c r="G68" s="70"/>
+      <c r="G68" s="68"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="93"/>
@@ -16132,7 +16132,7 @@
       <c r="F69" s="97" t="s">
         <v>600</v>
       </c>
-      <c r="G69" s="70"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="93"/>
@@ -16149,7 +16149,7 @@
         <v>598</v>
       </c>
       <c r="F70" s="97"/>
-      <c r="G70" s="70"/>
+      <c r="G70" s="68"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="93"/>
@@ -16166,7 +16166,7 @@
         <v>473</v>
       </c>
       <c r="F71" s="97"/>
-      <c r="G71" s="70"/>
+      <c r="G71" s="68"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="93"/>
@@ -16183,7 +16183,7 @@
         <v>474</v>
       </c>
       <c r="F72" s="97"/>
-      <c r="G72" s="70"/>
+      <c r="G72" s="68"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="93"/>
@@ -16196,7 +16196,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="10"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="70"/>
+      <c r="G73" s="68"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="93"/>
@@ -16209,7 +16209,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="10"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="70"/>
+      <c r="G74" s="68"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="93"/>
@@ -16222,7 +16222,7 @@
       <c r="D75" s="65"/>
       <c r="E75" s="10"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="70"/>
+      <c r="G75" s="68"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="93"/>
@@ -16235,7 +16235,7 @@
       <c r="D76" s="65"/>
       <c r="E76" s="10"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="70"/>
+      <c r="G76" s="68"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="93"/>
@@ -16250,7 +16250,7 @@
         <v>576</v>
       </c>
       <c r="F77" s="8"/>
-      <c r="G77" s="70"/>
+      <c r="G77" s="68"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
@@ -17114,7 +17114,7 @@
       <c r="F133" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G133" s="70" t="s">
+      <c r="G133" s="68" t="s">
         <v>624</v>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
         <v>575</v>
       </c>
       <c r="F134" s="8"/>
-      <c r="G134" s="70"/>
+      <c r="G134" s="68"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="93"/>
@@ -17152,7 +17152,7 @@
       <c r="F135" s="94" t="s">
         <v>621</v>
       </c>
-      <c r="G135" s="70"/>
+      <c r="G135" s="68"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="93"/>
@@ -17169,7 +17169,7 @@
         <v>223</v>
       </c>
       <c r="F136" s="95"/>
-      <c r="G136" s="70"/>
+      <c r="G136" s="68"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="93"/>
@@ -17186,7 +17186,7 @@
         <v>227</v>
       </c>
       <c r="F137" s="95"/>
-      <c r="G137" s="70"/>
+      <c r="G137" s="68"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="93"/>
@@ -17203,7 +17203,7 @@
         <v>224</v>
       </c>
       <c r="F138" s="96"/>
-      <c r="G138" s="70"/>
+      <c r="G138" s="68"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="93"/>
@@ -17216,7 +17216,7 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="66"/>
-      <c r="G139" s="70"/>
+      <c r="G139" s="68"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="93"/>
@@ -17229,7 +17229,7 @@
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="66"/>
-      <c r="G140" s="70"/>
+      <c r="G140" s="68"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="93"/>
@@ -17242,7 +17242,7 @@
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="66"/>
-      <c r="G141" s="70"/>
+      <c r="G141" s="68"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="93"/>
@@ -17255,7 +17255,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="10"/>
       <c r="F142" s="66"/>
-      <c r="G142" s="70"/>
+      <c r="G142" s="68"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="93"/>
@@ -17270,7 +17270,7 @@
         <v>576</v>
       </c>
       <c r="F143" s="8"/>
-      <c r="G143" s="70"/>
+      <c r="G143" s="68"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
@@ -17287,7 +17287,7 @@
       <c r="F144" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G144" s="70" t="s">
+      <c r="G144" s="68" t="s">
         <v>623</v>
       </c>
     </row>
@@ -17306,7 +17306,7 @@
         <v>575</v>
       </c>
       <c r="F145" s="8"/>
-      <c r="G145" s="70"/>
+      <c r="G145" s="68"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="93"/>
@@ -17325,7 +17325,7 @@
       <c r="F146" s="94" t="s">
         <v>622</v>
       </c>
-      <c r="G146" s="70"/>
+      <c r="G146" s="68"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="93"/>
@@ -17342,7 +17342,7 @@
         <v>244</v>
       </c>
       <c r="F147" s="95"/>
-      <c r="G147" s="70"/>
+      <c r="G147" s="68"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="93"/>
@@ -17359,7 +17359,7 @@
         <v>245</v>
       </c>
       <c r="F148" s="95"/>
-      <c r="G148" s="70"/>
+      <c r="G148" s="68"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="93"/>
@@ -17376,7 +17376,7 @@
         <v>246</v>
       </c>
       <c r="F149" s="95"/>
-      <c r="G149" s="70"/>
+      <c r="G149" s="68"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="93"/>
@@ -17393,7 +17393,7 @@
         <v>247</v>
       </c>
       <c r="F150" s="95"/>
-      <c r="G150" s="70"/>
+      <c r="G150" s="68"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="93"/>
@@ -17410,7 +17410,7 @@
         <v>228</v>
       </c>
       <c r="F151" s="95"/>
-      <c r="G151" s="70"/>
+      <c r="G151" s="68"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="93"/>
@@ -17427,7 +17427,7 @@
         <v>229</v>
       </c>
       <c r="F152" s="95"/>
-      <c r="G152" s="70"/>
+      <c r="G152" s="68"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="93"/>
@@ -17444,7 +17444,7 @@
         <v>230</v>
       </c>
       <c r="F153" s="96"/>
-      <c r="G153" s="70"/>
+      <c r="G153" s="68"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="93"/>
@@ -17459,7 +17459,7 @@
         <v>576</v>
       </c>
       <c r="F154" s="8"/>
-      <c r="G154" s="70"/>
+      <c r="G154" s="68"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
@@ -17476,7 +17476,7 @@
       <c r="F155" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G155" s="70"/>
+      <c r="G155" s="68"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="93">
@@ -17493,7 +17493,7 @@
         <v>575</v>
       </c>
       <c r="F156" s="8"/>
-      <c r="G156" s="70"/>
+      <c r="G156" s="68"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="93"/>
@@ -17512,7 +17512,7 @@
       <c r="F157" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="G157" s="70"/>
+      <c r="G157" s="68"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="93"/>
@@ -17529,7 +17529,7 @@
         <v>232</v>
       </c>
       <c r="F158" s="97"/>
-      <c r="G158" s="70"/>
+      <c r="G158" s="68"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="93"/>
@@ -17546,7 +17546,7 @@
         <v>233</v>
       </c>
       <c r="F159" s="97"/>
-      <c r="G159" s="70"/>
+      <c r="G159" s="68"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="93"/>
@@ -17563,7 +17563,7 @@
         <v>234</v>
       </c>
       <c r="F160" s="97"/>
-      <c r="G160" s="70"/>
+      <c r="G160" s="68"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="93"/>
@@ -17580,7 +17580,7 @@
         <v>235</v>
       </c>
       <c r="F161" s="97"/>
-      <c r="G161" s="70"/>
+      <c r="G161" s="68"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="93"/>
@@ -17597,7 +17597,7 @@
         <v>236</v>
       </c>
       <c r="F162" s="97"/>
-      <c r="G162" s="70"/>
+      <c r="G162" s="68"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="93"/>
@@ -17614,7 +17614,7 @@
         <v>237</v>
       </c>
       <c r="F163" s="97"/>
-      <c r="G163" s="70"/>
+      <c r="G163" s="68"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="93"/>
@@ -17631,7 +17631,7 @@
         <v>238</v>
       </c>
       <c r="F164" s="97"/>
-      <c r="G164" s="70"/>
+      <c r="G164" s="68"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="93"/>
@@ -17646,7 +17646,7 @@
         <v>576</v>
       </c>
       <c r="F165" s="8"/>
-      <c r="G165" s="70"/>
+      <c r="G165" s="68"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
@@ -17663,7 +17663,7 @@
       <c r="F166" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G166" s="70"/>
+      <c r="G166" s="68"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="93">
@@ -17680,7 +17680,7 @@
         <v>575</v>
       </c>
       <c r="F167" s="8"/>
-      <c r="G167" s="70"/>
+      <c r="G167" s="68"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="93"/>
@@ -17699,7 +17699,7 @@
       <c r="F168" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="G168" s="70"/>
+      <c r="G168" s="68"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="93"/>
@@ -17716,7 +17716,7 @@
         <v>240</v>
       </c>
       <c r="F169" s="97"/>
-      <c r="G169" s="70"/>
+      <c r="G169" s="68"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="93"/>
@@ -17733,7 +17733,7 @@
         <v>241</v>
       </c>
       <c r="F170" s="97"/>
-      <c r="G170" s="70"/>
+      <c r="G170" s="68"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="93"/>
@@ -17750,7 +17750,7 @@
         <v>242</v>
       </c>
       <c r="F171" s="97"/>
-      <c r="G171" s="70"/>
+      <c r="G171" s="68"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="93"/>
@@ -17763,7 +17763,7 @@
       <c r="D172" s="12"/>
       <c r="E172" s="10"/>
       <c r="F172" s="66"/>
-      <c r="G172" s="70"/>
+      <c r="G172" s="68"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="93"/>
@@ -17776,7 +17776,7 @@
       <c r="D173" s="12"/>
       <c r="E173" s="10"/>
       <c r="F173" s="66"/>
-      <c r="G173" s="70"/>
+      <c r="G173" s="68"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="93"/>
@@ -17789,7 +17789,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="10"/>
       <c r="F174" s="66"/>
-      <c r="G174" s="70"/>
+      <c r="G174" s="68"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="93"/>
@@ -17802,7 +17802,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="10"/>
       <c r="F175" s="66"/>
-      <c r="G175" s="70"/>
+      <c r="G175" s="68"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="93"/>
@@ -17817,7 +17817,7 @@
         <v>576</v>
       </c>
       <c r="F176" s="8"/>
-      <c r="G176" s="70"/>
+      <c r="G176" s="68"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
@@ -17834,7 +17834,7 @@
       <c r="F177" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G177" s="70" t="s">
+      <c r="G177" s="68" t="s">
         <v>503</v>
       </c>
     </row>
@@ -17853,7 +17853,7 @@
         <v>575</v>
       </c>
       <c r="F178" s="8"/>
-      <c r="G178" s="70"/>
+      <c r="G178" s="68"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="93"/>
@@ -17872,7 +17872,7 @@
       <c r="F179" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="G179" s="70"/>
+      <c r="G179" s="68"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="93"/>
@@ -17889,7 +17889,7 @@
         <v>492</v>
       </c>
       <c r="F180" s="95"/>
-      <c r="G180" s="70"/>
+      <c r="G180" s="68"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="93"/>
@@ -17906,7 +17906,7 @@
         <v>493</v>
       </c>
       <c r="F181" s="95"/>
-      <c r="G181" s="70"/>
+      <c r="G181" s="68"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="93"/>
@@ -17923,7 +17923,7 @@
         <v>494</v>
       </c>
       <c r="F182" s="95"/>
-      <c r="G182" s="70"/>
+      <c r="G182" s="68"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="93"/>
@@ -17940,7 +17940,7 @@
         <v>495</v>
       </c>
       <c r="F183" s="95"/>
-      <c r="G183" s="70"/>
+      <c r="G183" s="68"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="93"/>
@@ -17957,7 +17957,7 @@
         <v>496</v>
       </c>
       <c r="F184" s="95"/>
-      <c r="G184" s="70"/>
+      <c r="G184" s="68"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="93"/>
@@ -17974,7 +17974,7 @@
         <v>497</v>
       </c>
       <c r="F185" s="95"/>
-      <c r="G185" s="70"/>
+      <c r="G185" s="68"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="93"/>
@@ -17991,7 +17991,7 @@
         <v>498</v>
       </c>
       <c r="F186" s="96"/>
-      <c r="G186" s="70"/>
+      <c r="G186" s="68"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="93"/>
@@ -18006,7 +18006,7 @@
         <v>576</v>
       </c>
       <c r="F187" s="8"/>
-      <c r="G187" s="70"/>
+      <c r="G187" s="68"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
@@ -18023,7 +18023,7 @@
       <c r="F188" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G188" s="70"/>
+      <c r="G188" s="68"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="93">
@@ -18040,7 +18040,7 @@
         <v>575</v>
       </c>
       <c r="F189" s="8"/>
-      <c r="G189" s="70"/>
+      <c r="G189" s="68"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="93"/>
@@ -18059,7 +18059,7 @@
       <c r="F190" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="G190" s="70"/>
+      <c r="G190" s="68"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="93"/>
@@ -18076,7 +18076,7 @@
         <v>500</v>
       </c>
       <c r="F191" s="95"/>
-      <c r="G191" s="70"/>
+      <c r="G191" s="68"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="93"/>
@@ -18093,7 +18093,7 @@
         <v>501</v>
       </c>
       <c r="F192" s="95"/>
-      <c r="G192" s="70"/>
+      <c r="G192" s="68"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="93"/>
@@ -18110,7 +18110,7 @@
         <v>502</v>
       </c>
       <c r="F193" s="95"/>
-      <c r="G193" s="70"/>
+      <c r="G193" s="68"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="93"/>
@@ -18127,7 +18127,7 @@
         <v>522</v>
       </c>
       <c r="F194" s="95"/>
-      <c r="G194" s="70"/>
+      <c r="G194" s="68"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="93"/>
@@ -18144,7 +18144,7 @@
         <v>5</v>
       </c>
       <c r="F195" s="95"/>
-      <c r="G195" s="70"/>
+      <c r="G195" s="68"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="93"/>
@@ -18161,7 +18161,7 @@
         <v>6</v>
       </c>
       <c r="F196" s="95"/>
-      <c r="G196" s="70"/>
+      <c r="G196" s="68"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="93"/>
@@ -18178,7 +18178,7 @@
         <v>523</v>
       </c>
       <c r="F197" s="96"/>
-      <c r="G197" s="70"/>
+      <c r="G197" s="68"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="93"/>
@@ -18193,10 +18193,45 @@
         <v>576</v>
       </c>
       <c r="F198" s="8"/>
-      <c r="G198" s="70"/>
+      <c r="G198" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G12:G44"/>
+    <mergeCell ref="G45:G66"/>
+    <mergeCell ref="G67:G77"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="F80:F87"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="A134:A143"/>
+    <mergeCell ref="F135:F138"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="F91:F98"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="F113:F120"/>
+    <mergeCell ref="F102:F103"/>
     <mergeCell ref="G144:G176"/>
     <mergeCell ref="G133:G143"/>
     <mergeCell ref="A178:A187"/>
@@ -18210,41 +18245,6 @@
     <mergeCell ref="F157:F164"/>
     <mergeCell ref="A167:A176"/>
     <mergeCell ref="F168:F171"/>
-    <mergeCell ref="A123:A132"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="A134:A143"/>
-    <mergeCell ref="F135:F138"/>
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="F91:F98"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="F113:F120"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G45:G66"/>
-    <mergeCell ref="G67:G77"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="F80:F87"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G12:G44"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18545,7 +18545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
